--- a/data/OLS_all.xlsx
+++ b/data/OLS_all.xlsx
@@ -446,162 +446,162 @@
       </c>
       <c r="D1" s="1" t="inlineStr">
         <is>
+          <t>678</t>
+        </is>
+      </c>
+      <c r="E1" s="1" t="inlineStr">
+        <is>
+          <t>565</t>
+        </is>
+      </c>
+      <c r="F1" s="1" t="inlineStr">
+        <is>
+          <t>410</t>
+        </is>
+      </c>
+      <c r="G1" s="1" t="inlineStr">
+        <is>
+          <t>342</t>
+        </is>
+      </c>
+      <c r="H1" s="1" t="inlineStr">
+        <is>
+          <t>771</t>
+        </is>
+      </c>
+      <c r="I1" s="1" t="inlineStr">
+        <is>
+          <t>605</t>
+        </is>
+      </c>
+      <c r="J1" s="1" t="inlineStr">
+        <is>
+          <t>23</t>
+        </is>
+      </c>
+      <c r="K1" s="1" t="inlineStr">
+        <is>
+          <t>140</t>
+        </is>
+      </c>
+      <c r="L1" s="1" t="inlineStr">
+        <is>
+          <t>712</t>
+        </is>
+      </c>
+      <c r="M1" s="1" t="inlineStr">
+        <is>
+          <t>214</t>
+        </is>
+      </c>
+      <c r="N1" s="1" t="inlineStr">
+        <is>
+          <t>90</t>
+        </is>
+      </c>
+      <c r="O1" s="1" t="inlineStr">
+        <is>
+          <t>470</t>
+        </is>
+      </c>
+      <c r="P1" s="1" t="inlineStr">
+        <is>
+          <t>92</t>
+        </is>
+      </c>
+      <c r="Q1" s="1" t="inlineStr">
+        <is>
+          <t>549</t>
+        </is>
+      </c>
+      <c r="R1" s="1" t="inlineStr">
+        <is>
+          <t>625</t>
+        </is>
+      </c>
+      <c r="S1" s="1" t="inlineStr">
+        <is>
+          <t>229</t>
+        </is>
+      </c>
+      <c r="T1" s="1" t="inlineStr">
+        <is>
+          <t>79</t>
+        </is>
+      </c>
+      <c r="U1" s="1" t="inlineStr">
+        <is>
+          <t>584</t>
+        </is>
+      </c>
+      <c r="V1" s="1" t="inlineStr">
+        <is>
           <t>725</t>
         </is>
       </c>
-      <c r="E1" s="1" t="inlineStr">
-        <is>
-          <t>470</t>
-        </is>
-      </c>
-      <c r="F1" s="1" t="inlineStr">
+      <c r="W1" s="1" t="inlineStr">
+        <is>
+          <t>799</t>
+        </is>
+      </c>
+      <c r="X1" s="1" t="inlineStr">
+        <is>
+          <t>657</t>
+        </is>
+      </c>
+      <c r="Y1" s="1" t="inlineStr">
+        <is>
+          <t>91</t>
+        </is>
+      </c>
+      <c r="Z1" s="1" t="inlineStr">
+        <is>
+          <t>428</t>
+        </is>
+      </c>
+      <c r="AA1" s="1" t="inlineStr">
+        <is>
+          <t>201</t>
+        </is>
+      </c>
+      <c r="AB1" s="1" t="inlineStr">
         <is>
           <t>426</t>
         </is>
       </c>
-      <c r="G1" s="1" t="inlineStr">
-        <is>
-          <t>584</t>
-        </is>
-      </c>
-      <c r="H1" s="1" t="inlineStr">
-        <is>
-          <t>140</t>
-        </is>
-      </c>
-      <c r="I1" s="1" t="inlineStr">
-        <is>
-          <t>91</t>
-        </is>
-      </c>
-      <c r="J1" s="1" t="inlineStr">
+      <c r="AC1" s="1" t="inlineStr">
+        <is>
+          <t>541</t>
+        </is>
+      </c>
+      <c r="AD1" s="1" t="inlineStr">
+        <is>
+          <t>334</t>
+        </is>
+      </c>
+      <c r="AE1" s="1" t="inlineStr">
+        <is>
+          <t>494</t>
+        </is>
+      </c>
+      <c r="AF1" s="1" t="inlineStr">
         <is>
           <t>88</t>
         </is>
       </c>
-      <c r="K1" s="1" t="inlineStr">
-        <is>
-          <t>79</t>
-        </is>
-      </c>
-      <c r="L1" s="1" t="inlineStr">
-        <is>
-          <t>541</t>
-        </is>
-      </c>
-      <c r="M1" s="1" t="inlineStr">
-        <is>
-          <t>625</t>
-        </is>
-      </c>
-      <c r="N1" s="1" t="inlineStr">
-        <is>
-          <t>214</t>
-        </is>
-      </c>
-      <c r="O1" s="1" t="inlineStr">
-        <is>
-          <t>565</t>
-        </is>
-      </c>
-      <c r="P1" s="1" t="inlineStr">
+      <c r="AG1" s="1" t="inlineStr">
+        <is>
+          <t>337</t>
+        </is>
+      </c>
+      <c r="AH1" s="1" t="inlineStr">
+        <is>
+          <t>871</t>
+        </is>
+      </c>
+      <c r="AI1" s="1" t="inlineStr">
         <is>
           <t>480</t>
-        </is>
-      </c>
-      <c r="Q1" s="1" t="inlineStr">
-        <is>
-          <t>712</t>
-        </is>
-      </c>
-      <c r="R1" s="1" t="inlineStr">
-        <is>
-          <t>337</t>
-        </is>
-      </c>
-      <c r="S1" s="1" t="inlineStr">
-        <is>
-          <t>92</t>
-        </is>
-      </c>
-      <c r="T1" s="1" t="inlineStr">
-        <is>
-          <t>799</t>
-        </is>
-      </c>
-      <c r="U1" s="1" t="inlineStr">
-        <is>
-          <t>229</t>
-        </is>
-      </c>
-      <c r="V1" s="1" t="inlineStr">
-        <is>
-          <t>678</t>
-        </is>
-      </c>
-      <c r="W1" s="1" t="inlineStr">
-        <is>
-          <t>871</t>
-        </is>
-      </c>
-      <c r="X1" s="1" t="inlineStr">
-        <is>
-          <t>605</t>
-        </is>
-      </c>
-      <c r="Y1" s="1" t="inlineStr">
-        <is>
-          <t>342</t>
-        </is>
-      </c>
-      <c r="Z1" s="1" t="inlineStr">
-        <is>
-          <t>410</t>
-        </is>
-      </c>
-      <c r="AA1" s="1" t="inlineStr">
-        <is>
-          <t>549</t>
-        </is>
-      </c>
-      <c r="AB1" s="1" t="inlineStr">
-        <is>
-          <t>494</t>
-        </is>
-      </c>
-      <c r="AC1" s="1" t="inlineStr">
-        <is>
-          <t>771</t>
-        </is>
-      </c>
-      <c r="AD1" s="1" t="inlineStr">
-        <is>
-          <t>428</t>
-        </is>
-      </c>
-      <c r="AE1" s="1" t="inlineStr">
-        <is>
-          <t>334</t>
-        </is>
-      </c>
-      <c r="AF1" s="1" t="inlineStr">
-        <is>
-          <t>657</t>
-        </is>
-      </c>
-      <c r="AG1" s="1" t="inlineStr">
-        <is>
-          <t>90</t>
-        </is>
-      </c>
-      <c r="AH1" s="1" t="inlineStr">
-        <is>
-          <t>23</t>
-        </is>
-      </c>
-      <c r="AI1" s="1" t="inlineStr">
-        <is>
-          <t>201</t>
         </is>
       </c>
     </row>
@@ -618,76 +618,76 @@
         <v>3</v>
       </c>
       <c r="D2" t="n">
+        <v>0</v>
+      </c>
+      <c r="E2" t="n">
+        <v>0.1723395088323998</v>
+      </c>
+      <c r="F2" t="n">
+        <v>0</v>
+      </c>
+      <c r="G2" t="n">
+        <v>0</v>
+      </c>
+      <c r="H2" t="n">
+        <v>0</v>
+      </c>
+      <c r="I2" t="n">
+        <v>0.6247307195174493</v>
+      </c>
+      <c r="J2" t="n">
+        <v>0.2800517018526497</v>
+      </c>
+      <c r="K2" t="n">
+        <v>0</v>
+      </c>
+      <c r="L2" t="n">
+        <v>0</v>
+      </c>
+      <c r="M2" t="n">
+        <v>0</v>
+      </c>
+      <c r="N2" t="n">
+        <v>0</v>
+      </c>
+      <c r="O2" t="n">
+        <v>0</v>
+      </c>
+      <c r="P2" t="n">
+        <v>0</v>
+      </c>
+      <c r="Q2" t="n">
+        <v>0.2154243860404998</v>
+      </c>
+      <c r="R2" t="n">
+        <v>0</v>
+      </c>
+      <c r="S2" t="n">
+        <v>0</v>
+      </c>
+      <c r="T2" t="n">
+        <v>0</v>
+      </c>
+      <c r="U2" t="n">
+        <v>0</v>
+      </c>
+      <c r="V2" t="n">
         <v>0.4523912106850495</v>
       </c>
-      <c r="E2" t="n">
-        <v>0</v>
-      </c>
-      <c r="F2" t="n">
-        <v>0</v>
-      </c>
-      <c r="G2" t="n">
-        <v>0</v>
-      </c>
-      <c r="H2" t="n">
-        <v>0</v>
-      </c>
-      <c r="I2" t="n">
+      <c r="W2" t="n">
+        <v>0</v>
+      </c>
+      <c r="X2" t="n">
+        <v>0</v>
+      </c>
+      <c r="Y2" t="n">
         <v>0.1938819474364498</v>
       </c>
-      <c r="J2" t="n">
-        <v>0</v>
-      </c>
-      <c r="K2" t="n">
-        <v>0</v>
-      </c>
-      <c r="L2" t="n">
-        <v>0</v>
-      </c>
-      <c r="M2" t="n">
-        <v>0</v>
-      </c>
-      <c r="N2" t="n">
-        <v>0</v>
-      </c>
-      <c r="O2" t="n">
-        <v>0.1723395088323998</v>
-      </c>
-      <c r="P2" t="n">
-        <v>0</v>
-      </c>
-      <c r="Q2" t="n">
-        <v>0</v>
-      </c>
-      <c r="R2" t="n">
-        <v>0</v>
-      </c>
-      <c r="S2" t="n">
-        <v>0</v>
-      </c>
-      <c r="T2" t="n">
-        <v>0</v>
-      </c>
-      <c r="U2" t="n">
-        <v>0</v>
-      </c>
-      <c r="V2" t="n">
-        <v>0</v>
-      </c>
-      <c r="W2" t="n">
-        <v>0</v>
-      </c>
-      <c r="X2" t="n">
-        <v>0.6247307195174493</v>
-      </c>
-      <c r="Y2" t="n">
-        <v>0</v>
-      </c>
       <c r="Z2" t="n">
         <v>0</v>
       </c>
       <c r="AA2" t="n">
-        <v>0.2154243860404998</v>
+        <v>0</v>
       </c>
       <c r="AB2" t="n">
         <v>0</v>
@@ -696,10 +696,10 @@
         <v>0</v>
       </c>
       <c r="AD2" t="n">
-        <v>0</v>
+        <v>0.02154243860404998</v>
       </c>
       <c r="AE2" t="n">
-        <v>0.02154243860404998</v>
+        <v>0</v>
       </c>
       <c r="AF2" t="n">
         <v>0</v>
@@ -708,7 +708,7 @@
         <v>0</v>
       </c>
       <c r="AH2" t="n">
-        <v>0.2800517018526497</v>
+        <v>0</v>
       </c>
       <c r="AI2" t="n">
         <v>0</v>
@@ -727,97 +727,97 @@
         <v>1</v>
       </c>
       <c r="D3" t="n">
+        <v>0</v>
+      </c>
+      <c r="E3" t="n">
+        <v>0.2466325175488522</v>
+      </c>
+      <c r="F3" t="n">
+        <v>0</v>
+      </c>
+      <c r="G3" t="n">
+        <v>0</v>
+      </c>
+      <c r="H3" t="n">
+        <v>0</v>
+      </c>
+      <c r="I3" t="n">
+        <v>0.834756213242269</v>
+      </c>
+      <c r="J3" t="n">
+        <v>1.233162587744261</v>
+      </c>
+      <c r="K3" t="n">
+        <v>0</v>
+      </c>
+      <c r="L3" t="n">
+        <v>0</v>
+      </c>
+      <c r="M3" t="n">
+        <v>0</v>
+      </c>
+      <c r="N3" t="n">
+        <v>0</v>
+      </c>
+      <c r="O3" t="n">
+        <v>0</v>
+      </c>
+      <c r="P3" t="n">
+        <v>0</v>
+      </c>
+      <c r="Q3" t="n">
         <v>0.3035477139062797</v>
       </c>
-      <c r="E3" t="n">
-        <v>0</v>
-      </c>
-      <c r="F3" t="n">
-        <v>0</v>
-      </c>
-      <c r="G3" t="n">
-        <v>0</v>
-      </c>
-      <c r="H3" t="n">
-        <v>0</v>
-      </c>
-      <c r="I3" t="n">
+      <c r="R3" t="n">
+        <v>0</v>
+      </c>
+      <c r="S3" t="n">
+        <v>0</v>
+      </c>
+      <c r="T3" t="n">
+        <v>0</v>
+      </c>
+      <c r="U3" t="n">
+        <v>0</v>
+      </c>
+      <c r="V3" t="n">
+        <v>0.3035477139062797</v>
+      </c>
+      <c r="W3" t="n">
+        <v>0</v>
+      </c>
+      <c r="X3" t="n">
+        <v>0</v>
+      </c>
+      <c r="Y3" t="n">
         <v>0.1138303927148549</v>
       </c>
-      <c r="J3" t="n">
+      <c r="Z3" t="n">
+        <v>0</v>
+      </c>
+      <c r="AA3" t="n">
+        <v>0</v>
+      </c>
+      <c r="AB3" t="n">
+        <v>0</v>
+      </c>
+      <c r="AC3" t="n">
+        <v>0</v>
+      </c>
+      <c r="AD3" t="n">
+        <v>0</v>
+      </c>
+      <c r="AE3" t="n">
+        <v>0</v>
+      </c>
+      <c r="AF3" t="n">
         <v>0.01897173211914248</v>
       </c>
-      <c r="K3" t="n">
-        <v>0</v>
-      </c>
-      <c r="L3" t="n">
-        <v>0</v>
-      </c>
-      <c r="M3" t="n">
-        <v>0</v>
-      </c>
-      <c r="N3" t="n">
-        <v>0</v>
-      </c>
-      <c r="O3" t="n">
-        <v>0.2466325175488522</v>
-      </c>
-      <c r="P3" t="n">
-        <v>0</v>
-      </c>
-      <c r="Q3" t="n">
-        <v>0</v>
-      </c>
-      <c r="R3" t="n">
-        <v>0</v>
-      </c>
-      <c r="S3" t="n">
-        <v>0</v>
-      </c>
-      <c r="T3" t="n">
-        <v>0</v>
-      </c>
-      <c r="U3" t="n">
-        <v>0</v>
-      </c>
-      <c r="V3" t="n">
-        <v>0</v>
-      </c>
-      <c r="W3" t="n">
-        <v>0</v>
-      </c>
-      <c r="X3" t="n">
-        <v>0.834756213242269</v>
-      </c>
-      <c r="Y3" t="n">
-        <v>0</v>
-      </c>
-      <c r="Z3" t="n">
-        <v>0</v>
-      </c>
-      <c r="AA3" t="n">
-        <v>0.3035477139062797</v>
-      </c>
-      <c r="AB3" t="n">
-        <v>0</v>
-      </c>
-      <c r="AC3" t="n">
-        <v>0</v>
-      </c>
-      <c r="AD3" t="n">
-        <v>0</v>
-      </c>
-      <c r="AE3" t="n">
-        <v>0</v>
-      </c>
-      <c r="AF3" t="n">
-        <v>0</v>
-      </c>
       <c r="AG3" t="n">
         <v>0</v>
       </c>
       <c r="AH3" t="n">
-        <v>1.233162587744261</v>
+        <v>0</v>
       </c>
       <c r="AI3" t="n">
         <v>0</v>
@@ -836,13 +836,13 @@
         <v>1</v>
       </c>
       <c r="D4" t="n">
-        <v>3.584581389639087</v>
+        <v>0</v>
       </c>
       <c r="E4" t="n">
-        <v>0</v>
+        <v>1.485391603240855</v>
       </c>
       <c r="F4" t="n">
-        <v>0.02455192732629511</v>
+        <v>0</v>
       </c>
       <c r="G4" t="n">
         <v>0</v>
@@ -851,10 +851,10 @@
         <v>0</v>
       </c>
       <c r="I4" t="n">
-        <v>0.2332433095998036</v>
+        <v>0.7979376381045912</v>
       </c>
       <c r="J4" t="n">
-        <v>0.01227596366314756</v>
+        <v>0.3068990915786889</v>
       </c>
       <c r="K4" t="n">
         <v>0</v>
@@ -869,67 +869,67 @@
         <v>0</v>
       </c>
       <c r="O4" t="n">
-        <v>1.485391603240855</v>
+        <v>0</v>
       </c>
       <c r="P4" t="n">
+        <v>0</v>
+      </c>
+      <c r="Q4" t="n">
+        <v>0.3068990915786889</v>
+      </c>
+      <c r="R4" t="n">
+        <v>0</v>
+      </c>
+      <c r="S4" t="n">
+        <v>0</v>
+      </c>
+      <c r="T4" t="n">
+        <v>0</v>
+      </c>
+      <c r="U4" t="n">
+        <v>0</v>
+      </c>
+      <c r="V4" t="n">
+        <v>3.584581389639087</v>
+      </c>
+      <c r="W4" t="n">
+        <v>0</v>
+      </c>
+      <c r="X4" t="n">
+        <v>0</v>
+      </c>
+      <c r="Y4" t="n">
+        <v>0.2332433095998036</v>
+      </c>
+      <c r="Z4" t="n">
+        <v>0.07365578197888534</v>
+      </c>
+      <c r="AA4" t="n">
+        <v>0</v>
+      </c>
+      <c r="AB4" t="n">
+        <v>0.02455192732629511</v>
+      </c>
+      <c r="AC4" t="n">
         <v>0.01227596366314756</v>
       </c>
-      <c r="Q4" t="n">
+      <c r="AD4" t="n">
+        <v>0</v>
+      </c>
+      <c r="AE4" t="n">
+        <v>0</v>
+      </c>
+      <c r="AF4" t="n">
         <v>0.01227596366314756</v>
       </c>
-      <c r="R4" t="n">
+      <c r="AG4" t="n">
         <v>0.01227596366314756</v>
       </c>
-      <c r="S4" t="n">
-        <v>0</v>
-      </c>
-      <c r="T4" t="n">
-        <v>0</v>
-      </c>
-      <c r="U4" t="n">
-        <v>0</v>
-      </c>
-      <c r="V4" t="n">
-        <v>0</v>
-      </c>
-      <c r="W4" t="n">
-        <v>0</v>
-      </c>
-      <c r="X4" t="n">
-        <v>0.7979376381045912</v>
-      </c>
-      <c r="Y4" t="n">
-        <v>0</v>
-      </c>
-      <c r="Z4" t="n">
-        <v>0</v>
-      </c>
-      <c r="AA4" t="n">
-        <v>0.3068990915786889</v>
-      </c>
-      <c r="AB4" t="n">
-        <v>0</v>
-      </c>
-      <c r="AC4" t="n">
-        <v>0</v>
-      </c>
-      <c r="AD4" t="n">
-        <v>0.07365578197888534</v>
-      </c>
-      <c r="AE4" t="n">
-        <v>0</v>
-      </c>
-      <c r="AF4" t="n">
-        <v>0</v>
-      </c>
-      <c r="AG4" t="n">
-        <v>0</v>
-      </c>
       <c r="AH4" t="n">
-        <v>0.3068990915786889</v>
+        <v>0</v>
       </c>
       <c r="AI4" t="n">
-        <v>0</v>
+        <v>0.01227596366314756</v>
       </c>
     </row>
     <row r="5">
@@ -945,82 +945,82 @@
         <v>1</v>
       </c>
       <c r="D5" t="n">
+        <v>0</v>
+      </c>
+      <c r="E5" t="n">
+        <v>4.400907948960928</v>
+      </c>
+      <c r="F5" t="n">
+        <v>0</v>
+      </c>
+      <c r="G5" t="n">
+        <v>0</v>
+      </c>
+      <c r="H5" t="n">
+        <v>0</v>
+      </c>
+      <c r="I5" t="n">
+        <v>1.439055027877559</v>
+      </c>
+      <c r="J5" t="n">
+        <v>2.201555854287414</v>
+      </c>
+      <c r="K5" t="n">
+        <v>0</v>
+      </c>
+      <c r="L5" t="n">
+        <v>0</v>
+      </c>
+      <c r="M5" t="n">
+        <v>0</v>
+      </c>
+      <c r="N5" t="n">
+        <v>0</v>
+      </c>
+      <c r="O5" t="n">
+        <v>0</v>
+      </c>
+      <c r="P5" t="n">
+        <v>0</v>
+      </c>
+      <c r="Q5" t="n">
+        <v>0.2291909998457368</v>
+      </c>
+      <c r="R5" t="n">
+        <v>0.004407519227802631</v>
+      </c>
+      <c r="S5" t="n">
+        <v>0</v>
+      </c>
+      <c r="T5" t="n">
+        <v>0</v>
+      </c>
+      <c r="U5" t="n">
+        <v>0</v>
+      </c>
+      <c r="V5" t="n">
         <v>2.053903960156026</v>
       </c>
-      <c r="E5" t="n">
-        <v>0</v>
-      </c>
-      <c r="F5" t="n">
+      <c r="W5" t="n">
+        <v>0</v>
+      </c>
+      <c r="X5" t="n">
+        <v>0</v>
+      </c>
+      <c r="Y5" t="n">
+        <v>0.1410406152896842</v>
+      </c>
+      <c r="Z5" t="n">
+        <v>0.002203759613901316</v>
+      </c>
+      <c r="AA5" t="n">
+        <v>0</v>
+      </c>
+      <c r="AB5" t="n">
         <v>0.006611278841703947</v>
       </c>
-      <c r="G5" t="n">
-        <v>0</v>
-      </c>
-      <c r="H5" t="n">
-        <v>0</v>
-      </c>
-      <c r="I5" t="n">
-        <v>0.1410406152896842</v>
-      </c>
-      <c r="J5" t="n">
-        <v>0.01542631729730921</v>
-      </c>
-      <c r="K5" t="n">
-        <v>0</v>
-      </c>
-      <c r="L5" t="n">
+      <c r="AC5" t="n">
         <v>0.02203759613901316</v>
-      </c>
-      <c r="M5" t="n">
-        <v>0.004407519227802631</v>
-      </c>
-      <c r="N5" t="n">
-        <v>0</v>
-      </c>
-      <c r="O5" t="n">
-        <v>4.400907948960928</v>
-      </c>
-      <c r="P5" t="n">
-        <v>0</v>
-      </c>
-      <c r="Q5" t="n">
-        <v>0</v>
-      </c>
-      <c r="R5" t="n">
-        <v>0</v>
-      </c>
-      <c r="S5" t="n">
-        <v>0</v>
-      </c>
-      <c r="T5" t="n">
-        <v>0</v>
-      </c>
-      <c r="U5" t="n">
-        <v>0</v>
-      </c>
-      <c r="V5" t="n">
-        <v>0</v>
-      </c>
-      <c r="W5" t="n">
-        <v>0</v>
-      </c>
-      <c r="X5" t="n">
-        <v>1.439055027877559</v>
-      </c>
-      <c r="Y5" t="n">
-        <v>0</v>
-      </c>
-      <c r="Z5" t="n">
-        <v>0</v>
-      </c>
-      <c r="AA5" t="n">
-        <v>0.2291909998457368</v>
-      </c>
-      <c r="AB5" t="n">
-        <v>0.002203759613901316</v>
-      </c>
-      <c r="AC5" t="n">
-        <v>0</v>
       </c>
       <c r="AD5" t="n">
         <v>0.002203759613901316</v>
@@ -1029,13 +1029,13 @@
         <v>0.002203759613901316</v>
       </c>
       <c r="AF5" t="n">
-        <v>0</v>
+        <v>0.01542631729730921</v>
       </c>
       <c r="AG5" t="n">
         <v>0</v>
       </c>
       <c r="AH5" t="n">
-        <v>2.201555854287414</v>
+        <v>0</v>
       </c>
       <c r="AI5" t="n">
         <v>0</v>
@@ -1054,14 +1054,14 @@
         <v>1</v>
       </c>
       <c r="D6" t="n">
-        <v>3.740106755015645</v>
+        <v>0.007362414872078041</v>
       </c>
       <c r="E6" t="n">
+        <v>1.073071967605375</v>
+      </c>
+      <c r="F6" t="n">
         <v>0.00184060371801951</v>
       </c>
-      <c r="F6" t="n">
-        <v>0.007362414872078041</v>
-      </c>
       <c r="G6" t="n">
         <v>0</v>
       </c>
@@ -1069,13 +1069,13 @@
         <v>0</v>
       </c>
       <c r="I6" t="n">
-        <v>0.2043070127001657</v>
+        <v>1.006810233756672</v>
       </c>
       <c r="J6" t="n">
-        <v>0.03313086692435119</v>
+        <v>0.9147800478556966</v>
       </c>
       <c r="K6" t="n">
-        <v>0.003681207436039021</v>
+        <v>0</v>
       </c>
       <c r="L6" t="n">
         <v>0</v>
@@ -1084,49 +1084,49 @@
         <v>0</v>
       </c>
       <c r="N6" t="n">
-        <v>0</v>
+        <v>0.00184060371801951</v>
       </c>
       <c r="O6" t="n">
-        <v>1.073071967605375</v>
+        <v>0.00184060371801951</v>
       </c>
       <c r="P6" t="n">
-        <v>0</v>
+        <v>0.00184060371801951</v>
       </c>
       <c r="Q6" t="n">
-        <v>0</v>
+        <v>0.3349898766795509</v>
       </c>
       <c r="R6" t="n">
-        <v>0.01288422602613657</v>
+        <v>0</v>
       </c>
       <c r="S6" t="n">
         <v>0.00184060371801951</v>
       </c>
       <c r="T6" t="n">
-        <v>0</v>
+        <v>0.003681207436039021</v>
       </c>
       <c r="U6" t="n">
-        <v>0.00184060371801951</v>
+        <v>0</v>
       </c>
       <c r="V6" t="n">
+        <v>3.740106755015645</v>
+      </c>
+      <c r="W6" t="n">
+        <v>0</v>
+      </c>
+      <c r="X6" t="n">
+        <v>0</v>
+      </c>
+      <c r="Y6" t="n">
+        <v>0.2043070127001657</v>
+      </c>
+      <c r="Z6" t="n">
+        <v>0.003681207436039021</v>
+      </c>
+      <c r="AA6" t="n">
+        <v>0</v>
+      </c>
+      <c r="AB6" t="n">
         <v>0.007362414872078041</v>
-      </c>
-      <c r="W6" t="n">
-        <v>0.00184060371801951</v>
-      </c>
-      <c r="X6" t="n">
-        <v>1.006810233756672</v>
-      </c>
-      <c r="Y6" t="n">
-        <v>0</v>
-      </c>
-      <c r="Z6" t="n">
-        <v>0.00184060371801951</v>
-      </c>
-      <c r="AA6" t="n">
-        <v>0.3349898766795509</v>
-      </c>
-      <c r="AB6" t="n">
-        <v>0</v>
       </c>
       <c r="AC6" t="n">
         <v>0</v>
@@ -1135,16 +1135,16 @@
         <v>0.003681207436039021</v>
       </c>
       <c r="AE6" t="n">
-        <v>0.003681207436039021</v>
+        <v>0</v>
       </c>
       <c r="AF6" t="n">
-        <v>0</v>
+        <v>0.03313086692435119</v>
       </c>
       <c r="AG6" t="n">
+        <v>0.01288422602613657</v>
+      </c>
+      <c r="AH6" t="n">
         <v>0.00184060371801951</v>
-      </c>
-      <c r="AH6" t="n">
-        <v>0.9147800478556966</v>
       </c>
       <c r="AI6" t="n">
         <v>0</v>
@@ -1272,97 +1272,97 @@
         <v>2</v>
       </c>
       <c r="D8" t="n">
+        <v>0.00242512428761974</v>
+      </c>
+      <c r="E8" t="n">
+        <v>0.3904450103067782</v>
+      </c>
+      <c r="F8" t="n">
+        <v>0</v>
+      </c>
+      <c r="G8" t="n">
+        <v>0</v>
+      </c>
+      <c r="H8" t="n">
+        <v>0</v>
+      </c>
+      <c r="I8" t="n">
+        <v>0.4995756032496665</v>
+      </c>
+      <c r="J8" t="n">
+        <v>0.2303868073238753</v>
+      </c>
+      <c r="K8" t="n">
+        <v>0</v>
+      </c>
+      <c r="L8" t="n">
+        <v>0</v>
+      </c>
+      <c r="M8" t="n">
+        <v>0</v>
+      </c>
+      <c r="N8" t="n">
+        <v>0</v>
+      </c>
+      <c r="O8" t="n">
+        <v>0</v>
+      </c>
+      <c r="P8" t="n">
+        <v>0</v>
+      </c>
+      <c r="Q8" t="n">
+        <v>0.2012853158724384</v>
+      </c>
+      <c r="R8" t="n">
+        <v>0</v>
+      </c>
+      <c r="S8" t="n">
+        <v>0</v>
+      </c>
+      <c r="T8" t="n">
+        <v>0.00242512428761974</v>
+      </c>
+      <c r="U8" t="n">
+        <v>0</v>
+      </c>
+      <c r="V8" t="n">
         <v>0.4680489875106099</v>
       </c>
-      <c r="E8" t="n">
-        <v>0</v>
-      </c>
-      <c r="F8" t="n">
-        <v>0</v>
-      </c>
-      <c r="G8" t="n">
-        <v>0</v>
-      </c>
-      <c r="H8" t="n">
-        <v>0</v>
-      </c>
-      <c r="I8" t="n">
+      <c r="W8" t="n">
+        <v>0</v>
+      </c>
+      <c r="X8" t="n">
+        <v>0</v>
+      </c>
+      <c r="Y8" t="n">
         <v>0.2182611858857766</v>
       </c>
-      <c r="J8" t="n">
+      <c r="Z8" t="n">
+        <v>0.004850248575239481</v>
+      </c>
+      <c r="AA8" t="n">
+        <v>0</v>
+      </c>
+      <c r="AB8" t="n">
+        <v>0</v>
+      </c>
+      <c r="AC8" t="n">
+        <v>0</v>
+      </c>
+      <c r="AD8" t="n">
+        <v>0.01455074572571844</v>
+      </c>
+      <c r="AE8" t="n">
+        <v>0</v>
+      </c>
+      <c r="AF8" t="n">
         <v>0.007275372862859222</v>
       </c>
-      <c r="K8" t="n">
-        <v>0.00242512428761974</v>
-      </c>
-      <c r="L8" t="n">
-        <v>0</v>
-      </c>
-      <c r="M8" t="n">
-        <v>0</v>
-      </c>
-      <c r="N8" t="n">
-        <v>0</v>
-      </c>
-      <c r="O8" t="n">
-        <v>0.3904450103067782</v>
-      </c>
-      <c r="P8" t="n">
-        <v>0</v>
-      </c>
-      <c r="Q8" t="n">
-        <v>0</v>
-      </c>
-      <c r="R8" t="n">
+      <c r="AG8" t="n">
         <v>0.009700497150478962</v>
       </c>
-      <c r="S8" t="n">
-        <v>0</v>
-      </c>
-      <c r="T8" t="n">
-        <v>0</v>
-      </c>
-      <c r="U8" t="n">
-        <v>0</v>
-      </c>
-      <c r="V8" t="n">
-        <v>0.00242512428761974</v>
-      </c>
-      <c r="W8" t="n">
-        <v>0</v>
-      </c>
-      <c r="X8" t="n">
-        <v>0.4995756032496665</v>
-      </c>
-      <c r="Y8" t="n">
-        <v>0</v>
-      </c>
-      <c r="Z8" t="n">
-        <v>0</v>
-      </c>
-      <c r="AA8" t="n">
-        <v>0.2012853158724384</v>
-      </c>
-      <c r="AB8" t="n">
-        <v>0</v>
-      </c>
-      <c r="AC8" t="n">
-        <v>0</v>
-      </c>
-      <c r="AD8" t="n">
-        <v>0.004850248575239481</v>
-      </c>
-      <c r="AE8" t="n">
-        <v>0.01455074572571844</v>
-      </c>
-      <c r="AF8" t="n">
-        <v>0</v>
-      </c>
-      <c r="AG8" t="n">
-        <v>0</v>
-      </c>
       <c r="AH8" t="n">
-        <v>0.2303868073238753</v>
+        <v>0</v>
       </c>
       <c r="AI8" t="n">
         <v>0</v>
@@ -1490,100 +1490,100 @@
         <v>3</v>
       </c>
       <c r="D10" t="n">
+        <v>0.06549958318447065</v>
+      </c>
+      <c r="E10" t="n">
+        <v>0.3751339764201501</v>
+      </c>
+      <c r="F10" t="n">
+        <v>0</v>
+      </c>
+      <c r="G10" t="n">
+        <v>0</v>
+      </c>
+      <c r="H10" t="n">
+        <v>0</v>
+      </c>
+      <c r="I10" t="n">
+        <v>1.155174467071573</v>
+      </c>
+      <c r="J10" t="n">
+        <v>0.2590210789567703</v>
+      </c>
+      <c r="K10" t="n">
+        <v>0</v>
+      </c>
+      <c r="L10" t="n">
+        <v>0</v>
+      </c>
+      <c r="M10" t="n">
+        <v>0</v>
+      </c>
+      <c r="N10" t="n">
+        <v>0</v>
+      </c>
+      <c r="O10" t="n">
+        <v>0.005954507562224604</v>
+      </c>
+      <c r="P10" t="n">
+        <v>0</v>
+      </c>
+      <c r="Q10" t="n">
+        <v>0.4138382755746099</v>
+      </c>
+      <c r="R10" t="n">
+        <v>0</v>
+      </c>
+      <c r="S10" t="n">
+        <v>0</v>
+      </c>
+      <c r="T10" t="n">
+        <v>0</v>
+      </c>
+      <c r="U10" t="n">
+        <v>0</v>
+      </c>
+      <c r="V10" t="n">
         <v>0.3989520066690485</v>
       </c>
-      <c r="E10" t="n">
+      <c r="W10" t="n">
+        <v>0</v>
+      </c>
+      <c r="X10" t="n">
+        <v>0</v>
+      </c>
+      <c r="Y10" t="n">
+        <v>0.2768846016434441</v>
+      </c>
+      <c r="Z10" t="n">
+        <v>0.01488626890556151</v>
+      </c>
+      <c r="AA10" t="n">
+        <v>0</v>
+      </c>
+      <c r="AB10" t="n">
+        <v>0.008931761343336906</v>
+      </c>
+      <c r="AC10" t="n">
+        <v>0</v>
+      </c>
+      <c r="AD10" t="n">
+        <v>0</v>
+      </c>
+      <c r="AE10" t="n">
+        <v>0</v>
+      </c>
+      <c r="AF10" t="n">
         <v>0.005954507562224604</v>
       </c>
-      <c r="F10" t="n">
-        <v>0.008931761343336906</v>
-      </c>
-      <c r="G10" t="n">
-        <v>0</v>
-      </c>
-      <c r="H10" t="n">
-        <v>0</v>
-      </c>
-      <c r="I10" t="n">
-        <v>0.2768846016434441</v>
-      </c>
-      <c r="J10" t="n">
+      <c r="AG10" t="n">
         <v>0.005954507562224604</v>
       </c>
-      <c r="K10" t="n">
-        <v>0</v>
-      </c>
-      <c r="L10" t="n">
-        <v>0</v>
-      </c>
-      <c r="M10" t="n">
-        <v>0</v>
-      </c>
-      <c r="N10" t="n">
-        <v>0</v>
-      </c>
-      <c r="O10" t="n">
-        <v>0.3751339764201501</v>
-      </c>
-      <c r="P10" t="n">
+      <c r="AH10" t="n">
         <v>0.002977253781112302</v>
       </c>
-      <c r="Q10" t="n">
-        <v>0</v>
-      </c>
-      <c r="R10" t="n">
-        <v>0.005954507562224604</v>
-      </c>
-      <c r="S10" t="n">
-        <v>0</v>
-      </c>
-      <c r="T10" t="n">
-        <v>0</v>
-      </c>
-      <c r="U10" t="n">
-        <v>0</v>
-      </c>
-      <c r="V10" t="n">
-        <v>0.06549958318447065</v>
-      </c>
-      <c r="W10" t="n">
+      <c r="AI10" t="n">
         <v>0.002977253781112302</v>
-      </c>
-      <c r="X10" t="n">
-        <v>1.155174467071573</v>
-      </c>
-      <c r="Y10" t="n">
-        <v>0</v>
-      </c>
-      <c r="Z10" t="n">
-        <v>0</v>
-      </c>
-      <c r="AA10" t="n">
-        <v>0.4138382755746099</v>
-      </c>
-      <c r="AB10" t="n">
-        <v>0</v>
-      </c>
-      <c r="AC10" t="n">
-        <v>0</v>
-      </c>
-      <c r="AD10" t="n">
-        <v>0.01488626890556151</v>
-      </c>
-      <c r="AE10" t="n">
-        <v>0</v>
-      </c>
-      <c r="AF10" t="n">
-        <v>0</v>
-      </c>
-      <c r="AG10" t="n">
-        <v>0</v>
-      </c>
-      <c r="AH10" t="n">
-        <v>0.2590210789567703</v>
-      </c>
-      <c r="AI10" t="n">
-        <v>0</v>
       </c>
     </row>
     <row r="11">
@@ -1599,7 +1599,7 @@
         <v>2</v>
       </c>
       <c r="D11" t="n">
-        <v>0</v>
+        <v>0.57</v>
       </c>
       <c r="E11" t="n">
         <v>0</v>
@@ -1614,55 +1614,55 @@
         <v>0</v>
       </c>
       <c r="I11" t="n">
+        <v>0</v>
+      </c>
+      <c r="J11" t="n">
+        <v>0</v>
+      </c>
+      <c r="K11" t="n">
+        <v>0</v>
+      </c>
+      <c r="L11" t="n">
+        <v>0</v>
+      </c>
+      <c r="M11" t="n">
+        <v>0</v>
+      </c>
+      <c r="N11" t="n">
+        <v>0</v>
+      </c>
+      <c r="O11" t="n">
+        <v>0</v>
+      </c>
+      <c r="P11" t="n">
+        <v>0</v>
+      </c>
+      <c r="Q11" t="n">
+        <v>0</v>
+      </c>
+      <c r="R11" t="n">
+        <v>0</v>
+      </c>
+      <c r="S11" t="n">
+        <v>0</v>
+      </c>
+      <c r="T11" t="n">
+        <v>0</v>
+      </c>
+      <c r="U11" t="n">
+        <v>0</v>
+      </c>
+      <c r="V11" t="n">
+        <v>0</v>
+      </c>
+      <c r="W11" t="n">
+        <v>0</v>
+      </c>
+      <c r="X11" t="n">
+        <v>0</v>
+      </c>
+      <c r="Y11" t="n">
         <v>2.42</v>
-      </c>
-      <c r="J11" t="n">
-        <v>0</v>
-      </c>
-      <c r="K11" t="n">
-        <v>0</v>
-      </c>
-      <c r="L11" t="n">
-        <v>0</v>
-      </c>
-      <c r="M11" t="n">
-        <v>0</v>
-      </c>
-      <c r="N11" t="n">
-        <v>0</v>
-      </c>
-      <c r="O11" t="n">
-        <v>0</v>
-      </c>
-      <c r="P11" t="n">
-        <v>0</v>
-      </c>
-      <c r="Q11" t="n">
-        <v>0</v>
-      </c>
-      <c r="R11" t="n">
-        <v>0</v>
-      </c>
-      <c r="S11" t="n">
-        <v>0</v>
-      </c>
-      <c r="T11" t="n">
-        <v>0</v>
-      </c>
-      <c r="U11" t="n">
-        <v>0</v>
-      </c>
-      <c r="V11" t="n">
-        <v>0.57</v>
-      </c>
-      <c r="W11" t="n">
-        <v>0</v>
-      </c>
-      <c r="X11" t="n">
-        <v>0</v>
-      </c>
-      <c r="Y11" t="n">
-        <v>0</v>
       </c>
       <c r="Z11" t="n">
         <v>0</v>
@@ -1708,7 +1708,7 @@
         <v>3</v>
       </c>
       <c r="D12" t="n">
-        <v>0</v>
+        <v>0.0255819902788437</v>
       </c>
       <c r="E12" t="n">
         <v>0</v>
@@ -1717,52 +1717,52 @@
         <v>0</v>
       </c>
       <c r="G12" t="n">
+        <v>0</v>
+      </c>
+      <c r="H12" t="n">
+        <v>0</v>
+      </c>
+      <c r="I12" t="n">
+        <v>0</v>
+      </c>
+      <c r="J12" t="n">
+        <v>0.05116398055768739</v>
+      </c>
+      <c r="K12" t="n">
+        <v>0</v>
+      </c>
+      <c r="L12" t="n">
+        <v>0.1534919416730622</v>
+      </c>
+      <c r="M12" t="n">
+        <v>0.920951650038373</v>
+      </c>
+      <c r="N12" t="n">
+        <v>0</v>
+      </c>
+      <c r="O12" t="n">
+        <v>0</v>
+      </c>
+      <c r="P12" t="n">
+        <v>0</v>
+      </c>
+      <c r="Q12" t="n">
+        <v>0.0255819902788437</v>
+      </c>
+      <c r="R12" t="n">
+        <v>0</v>
+      </c>
+      <c r="S12" t="n">
+        <v>11.97237145049885</v>
+      </c>
+      <c r="T12" t="n">
+        <v>0</v>
+      </c>
+      <c r="U12" t="n">
         <v>0.07674597083653108</v>
       </c>
-      <c r="H12" t="n">
-        <v>0</v>
-      </c>
-      <c r="I12" t="n">
-        <v>0</v>
-      </c>
-      <c r="J12" t="n">
-        <v>0</v>
-      </c>
-      <c r="K12" t="n">
-        <v>0</v>
-      </c>
-      <c r="L12" t="n">
-        <v>0</v>
-      </c>
-      <c r="M12" t="n">
-        <v>0</v>
-      </c>
-      <c r="N12" t="n">
-        <v>0.920951650038373</v>
-      </c>
-      <c r="O12" t="n">
-        <v>0</v>
-      </c>
-      <c r="P12" t="n">
-        <v>0</v>
-      </c>
-      <c r="Q12" t="n">
-        <v>0.1534919416730622</v>
-      </c>
-      <c r="R12" t="n">
-        <v>0</v>
-      </c>
-      <c r="S12" t="n">
-        <v>0</v>
-      </c>
-      <c r="T12" t="n">
-        <v>0</v>
-      </c>
-      <c r="U12" t="n">
-        <v>11.97237145049885</v>
-      </c>
       <c r="V12" t="n">
-        <v>0.0255819902788437</v>
+        <v>0</v>
       </c>
       <c r="W12" t="n">
         <v>0</v>
@@ -1777,7 +1777,7 @@
         <v>0</v>
       </c>
       <c r="AA12" t="n">
-        <v>0.0255819902788437</v>
+        <v>0</v>
       </c>
       <c r="AB12" t="n">
         <v>0</v>
@@ -1798,7 +1798,7 @@
         <v>0</v>
       </c>
       <c r="AH12" t="n">
-        <v>0.05116398055768739</v>
+        <v>0</v>
       </c>
       <c r="AI12" t="n">
         <v>0</v>
@@ -1817,97 +1817,97 @@
         <v>3</v>
       </c>
       <c r="D13" t="n">
+        <v>0.005163688939378292</v>
+      </c>
+      <c r="E13" t="n">
+        <v>0</v>
+      </c>
+      <c r="F13" t="n">
+        <v>0</v>
+      </c>
+      <c r="G13" t="n">
+        <v>0</v>
+      </c>
+      <c r="H13" t="n">
+        <v>0</v>
+      </c>
+      <c r="I13" t="n">
+        <v>0</v>
+      </c>
+      <c r="J13" t="n">
+        <v>0.002581844469689146</v>
+      </c>
+      <c r="K13" t="n">
+        <v>0.02581844469689146</v>
+      </c>
+      <c r="L13" t="n">
+        <v>0.002581844469689146</v>
+      </c>
+      <c r="M13" t="n">
+        <v>0.3020758029536301</v>
+      </c>
+      <c r="N13" t="n">
+        <v>0</v>
+      </c>
+      <c r="O13" t="n">
+        <v>0.02323660022720231</v>
+      </c>
+      <c r="P13" t="n">
+        <v>0</v>
+      </c>
+      <c r="Q13" t="n">
+        <v>0.1962201796963751</v>
+      </c>
+      <c r="R13" t="n">
+        <v>0.01807291128782402</v>
+      </c>
+      <c r="S13" t="n">
+        <v>0.1394196013632139</v>
+      </c>
+      <c r="T13" t="n">
+        <v>0</v>
+      </c>
+      <c r="U13" t="n">
+        <v>0.1187648456057007</v>
+      </c>
+      <c r="V13" t="n">
         <v>0.007745533409067438</v>
       </c>
-      <c r="E13" t="n">
-        <v>0.02323660022720231</v>
-      </c>
-      <c r="F13" t="n">
-        <v>0</v>
-      </c>
-      <c r="G13" t="n">
-        <v>0.1187648456057007</v>
-      </c>
-      <c r="H13" t="n">
-        <v>0.02581844469689146</v>
-      </c>
-      <c r="I13" t="n">
-        <v>0</v>
-      </c>
-      <c r="J13" t="n">
-        <v>0</v>
-      </c>
-      <c r="K13" t="n">
-        <v>0</v>
-      </c>
-      <c r="L13" t="n">
-        <v>0</v>
-      </c>
-      <c r="M13" t="n">
-        <v>0.01807291128782402</v>
-      </c>
-      <c r="N13" t="n">
-        <v>0.3020758029536301</v>
-      </c>
-      <c r="O13" t="n">
-        <v>0</v>
-      </c>
-      <c r="P13" t="n">
-        <v>0</v>
-      </c>
-      <c r="Q13" t="n">
-        <v>0.002581844469689146</v>
-      </c>
-      <c r="R13" t="n">
+      <c r="W13" t="n">
+        <v>0</v>
+      </c>
+      <c r="X13" t="n">
+        <v>0</v>
+      </c>
+      <c r="Y13" t="n">
+        <v>0</v>
+      </c>
+      <c r="Z13" t="n">
+        <v>0</v>
+      </c>
+      <c r="AA13" t="n">
+        <v>0</v>
+      </c>
+      <c r="AB13" t="n">
+        <v>0</v>
+      </c>
+      <c r="AC13" t="n">
+        <v>0</v>
+      </c>
+      <c r="AD13" t="n">
+        <v>0</v>
+      </c>
+      <c r="AE13" t="n">
+        <v>0</v>
+      </c>
+      <c r="AF13" t="n">
+        <v>0</v>
+      </c>
+      <c r="AG13" t="n">
         <v>0.005163688939378292</v>
       </c>
-      <c r="S13" t="n">
-        <v>0</v>
-      </c>
-      <c r="T13" t="n">
-        <v>0</v>
-      </c>
-      <c r="U13" t="n">
-        <v>0.1394196013632139</v>
-      </c>
-      <c r="V13" t="n">
-        <v>0.005163688939378292</v>
-      </c>
-      <c r="W13" t="n">
+      <c r="AH13" t="n">
         <v>0.06712795621191779</v>
-      </c>
-      <c r="X13" t="n">
-        <v>0</v>
-      </c>
-      <c r="Y13" t="n">
-        <v>0</v>
-      </c>
-      <c r="Z13" t="n">
-        <v>0</v>
-      </c>
-      <c r="AA13" t="n">
-        <v>0.1962201796963751</v>
-      </c>
-      <c r="AB13" t="n">
-        <v>0</v>
-      </c>
-      <c r="AC13" t="n">
-        <v>0</v>
-      </c>
-      <c r="AD13" t="n">
-        <v>0</v>
-      </c>
-      <c r="AE13" t="n">
-        <v>0</v>
-      </c>
-      <c r="AF13" t="n">
-        <v>0</v>
-      </c>
-      <c r="AG13" t="n">
-        <v>0</v>
-      </c>
-      <c r="AH13" t="n">
-        <v>0.002581844469689146</v>
       </c>
       <c r="AI13" t="n">
         <v>0</v>
@@ -1926,61 +1926,61 @@
         <v>3</v>
       </c>
       <c r="D14" t="n">
-        <v>0</v>
+        <v>0.01984914648670107</v>
       </c>
       <c r="E14" t="n">
+        <v>0</v>
+      </c>
+      <c r="F14" t="n">
+        <v>0</v>
+      </c>
+      <c r="G14" t="n">
+        <v>0</v>
+      </c>
+      <c r="H14" t="n">
+        <v>0</v>
+      </c>
+      <c r="I14" t="n">
+        <v>0</v>
+      </c>
+      <c r="J14" t="n">
+        <v>0.03969829297340214</v>
+      </c>
+      <c r="K14" t="n">
+        <v>0.03969829297340214</v>
+      </c>
+      <c r="L14" t="n">
+        <v>0.01984914648670107</v>
+      </c>
+      <c r="M14" t="n">
+        <v>0.6947201270345376</v>
+      </c>
+      <c r="N14" t="n">
+        <v>0</v>
+      </c>
+      <c r="O14" t="n">
         <v>0.6550218340611353</v>
       </c>
-      <c r="F14" t="n">
-        <v>0</v>
-      </c>
-      <c r="G14" t="n">
+      <c r="P14" t="n">
+        <v>0</v>
+      </c>
+      <c r="Q14" t="n">
+        <v>0.1984914648670107</v>
+      </c>
+      <c r="R14" t="n">
+        <v>0</v>
+      </c>
+      <c r="S14" t="n">
+        <v>0.8535132989281461</v>
+      </c>
+      <c r="T14" t="n">
+        <v>0</v>
+      </c>
+      <c r="U14" t="n">
         <v>0.05954743946010321</v>
       </c>
-      <c r="H14" t="n">
-        <v>0.03969829297340214</v>
-      </c>
-      <c r="I14" t="n">
-        <v>0</v>
-      </c>
-      <c r="J14" t="n">
-        <v>0</v>
-      </c>
-      <c r="K14" t="n">
-        <v>0</v>
-      </c>
-      <c r="L14" t="n">
-        <v>0</v>
-      </c>
-      <c r="M14" t="n">
-        <v>0</v>
-      </c>
-      <c r="N14" t="n">
-        <v>0.6947201270345376</v>
-      </c>
-      <c r="O14" t="n">
-        <v>0</v>
-      </c>
-      <c r="P14" t="n">
-        <v>0</v>
-      </c>
-      <c r="Q14" t="n">
-        <v>0.01984914648670107</v>
-      </c>
-      <c r="R14" t="n">
-        <v>0</v>
-      </c>
-      <c r="S14" t="n">
-        <v>0</v>
-      </c>
-      <c r="T14" t="n">
-        <v>0</v>
-      </c>
-      <c r="U14" t="n">
-        <v>0.8535132989281461</v>
-      </c>
       <c r="V14" t="n">
-        <v>0.01984914648670107</v>
+        <v>0</v>
       </c>
       <c r="W14" t="n">
         <v>0</v>
@@ -1995,7 +1995,7 @@
         <v>0</v>
       </c>
       <c r="AA14" t="n">
-        <v>0.1984914648670107</v>
+        <v>0</v>
       </c>
       <c r="AB14" t="n">
         <v>0</v>
@@ -2016,7 +2016,7 @@
         <v>0</v>
       </c>
       <c r="AH14" t="n">
-        <v>0.03969829297340214</v>
+        <v>0</v>
       </c>
       <c r="AI14" t="n">
         <v>0</v>
@@ -2038,56 +2038,56 @@
         <v>0</v>
       </c>
       <c r="E15" t="n">
+        <v>0</v>
+      </c>
+      <c r="F15" t="n">
+        <v>0</v>
+      </c>
+      <c r="G15" t="n">
+        <v>0</v>
+      </c>
+      <c r="H15" t="n">
+        <v>0</v>
+      </c>
+      <c r="I15" t="n">
+        <v>0</v>
+      </c>
+      <c r="J15" t="n">
+        <v>0.1847807827985889</v>
+      </c>
+      <c r="K15" t="n">
+        <v>0.520745842432387</v>
+      </c>
+      <c r="L15" t="n">
+        <v>0</v>
+      </c>
+      <c r="M15" t="n">
+        <v>13.50579539727868</v>
+      </c>
+      <c r="N15" t="n">
+        <v>0</v>
+      </c>
+      <c r="O15" t="n">
         <v>0.03359650596337981</v>
       </c>
-      <c r="F15" t="n">
-        <v>0</v>
-      </c>
-      <c r="G15" t="n">
+      <c r="P15" t="n">
+        <v>0</v>
+      </c>
+      <c r="Q15" t="n">
+        <v>0</v>
+      </c>
+      <c r="R15" t="n">
+        <v>0</v>
+      </c>
+      <c r="S15" t="n">
+        <v>4.905089870653452</v>
+      </c>
+      <c r="T15" t="n">
+        <v>0</v>
+      </c>
+      <c r="U15" t="n">
         <v>0.05039475894506971</v>
       </c>
-      <c r="H15" t="n">
-        <v>0.520745842432387</v>
-      </c>
-      <c r="I15" t="n">
-        <v>0</v>
-      </c>
-      <c r="J15" t="n">
-        <v>0</v>
-      </c>
-      <c r="K15" t="n">
-        <v>0</v>
-      </c>
-      <c r="L15" t="n">
-        <v>0</v>
-      </c>
-      <c r="M15" t="n">
-        <v>0</v>
-      </c>
-      <c r="N15" t="n">
-        <v>13.50579539727868</v>
-      </c>
-      <c r="O15" t="n">
-        <v>0</v>
-      </c>
-      <c r="P15" t="n">
-        <v>0</v>
-      </c>
-      <c r="Q15" t="n">
-        <v>0</v>
-      </c>
-      <c r="R15" t="n">
-        <v>0</v>
-      </c>
-      <c r="S15" t="n">
-        <v>0</v>
-      </c>
-      <c r="T15" t="n">
-        <v>0</v>
-      </c>
-      <c r="U15" t="n">
-        <v>4.905089870653452</v>
-      </c>
       <c r="V15" t="n">
         <v>0</v>
       </c>
@@ -2125,7 +2125,7 @@
         <v>0</v>
       </c>
       <c r="AH15" t="n">
-        <v>0.1847807827985889</v>
+        <v>0</v>
       </c>
       <c r="AI15" t="n">
         <v>0</v>
@@ -2144,61 +2144,61 @@
         <v>3</v>
       </c>
       <c r="D16" t="n">
-        <v>0</v>
+        <v>0.03367651303762147</v>
       </c>
       <c r="E16" t="n">
+        <v>0</v>
+      </c>
+      <c r="F16" t="n">
+        <v>0</v>
+      </c>
+      <c r="G16" t="n">
+        <v>0</v>
+      </c>
+      <c r="H16" t="n">
+        <v>0</v>
+      </c>
+      <c r="I16" t="n">
+        <v>0</v>
+      </c>
+      <c r="J16" t="n">
+        <v>0.00962186086789185</v>
+      </c>
+      <c r="K16" t="n">
+        <v>0.0577311652073511</v>
+      </c>
+      <c r="L16" t="n">
+        <v>0</v>
+      </c>
+      <c r="M16" t="n">
+        <v>3.651496199364957</v>
+      </c>
+      <c r="N16" t="n">
+        <v>0</v>
+      </c>
+      <c r="O16" t="n">
         <v>0.04810930433945925</v>
       </c>
-      <c r="F16" t="n">
-        <v>0</v>
-      </c>
-      <c r="G16" t="n">
+      <c r="P16" t="n">
+        <v>0</v>
+      </c>
+      <c r="Q16" t="n">
+        <v>0.02405465216972963</v>
+      </c>
+      <c r="R16" t="n">
+        <v>0</v>
+      </c>
+      <c r="S16" t="n">
+        <v>2.732608486481285</v>
+      </c>
+      <c r="T16" t="n">
+        <v>0</v>
+      </c>
+      <c r="U16" t="n">
         <v>2.362166843067449</v>
       </c>
-      <c r="H16" t="n">
-        <v>0.0577311652073511</v>
-      </c>
-      <c r="I16" t="n">
-        <v>0</v>
-      </c>
-      <c r="J16" t="n">
-        <v>0</v>
-      </c>
-      <c r="K16" t="n">
-        <v>0</v>
-      </c>
-      <c r="L16" t="n">
-        <v>0</v>
-      </c>
-      <c r="M16" t="n">
-        <v>0</v>
-      </c>
-      <c r="N16" t="n">
-        <v>3.651496199364957</v>
-      </c>
-      <c r="O16" t="n">
-        <v>0</v>
-      </c>
-      <c r="P16" t="n">
-        <v>0</v>
-      </c>
-      <c r="Q16" t="n">
-        <v>0</v>
-      </c>
-      <c r="R16" t="n">
-        <v>0</v>
-      </c>
-      <c r="S16" t="n">
-        <v>0</v>
-      </c>
-      <c r="T16" t="n">
-        <v>0</v>
-      </c>
-      <c r="U16" t="n">
-        <v>2.732608486481285</v>
-      </c>
       <c r="V16" t="n">
-        <v>0.03367651303762147</v>
+        <v>0</v>
       </c>
       <c r="W16" t="n">
         <v>0</v>
@@ -2213,7 +2213,7 @@
         <v>0</v>
       </c>
       <c r="AA16" t="n">
-        <v>0.02405465216972963</v>
+        <v>0.00962186086789185</v>
       </c>
       <c r="AB16" t="n">
         <v>0</v>
@@ -2234,10 +2234,10 @@
         <v>0</v>
       </c>
       <c r="AH16" t="n">
-        <v>0.00962186086789185</v>
+        <v>0</v>
       </c>
       <c r="AI16" t="n">
-        <v>0.00962186086789185</v>
+        <v>0</v>
       </c>
     </row>
     <row r="17">
@@ -2253,77 +2253,77 @@
         <v>3</v>
       </c>
       <c r="D17" t="n">
-        <v>0</v>
+        <v>0.002442956955098451</v>
       </c>
       <c r="E17" t="n">
+        <v>0</v>
+      </c>
+      <c r="F17" t="n">
+        <v>0</v>
+      </c>
+      <c r="G17" t="n">
+        <v>0</v>
+      </c>
+      <c r="H17" t="n">
+        <v>0</v>
+      </c>
+      <c r="I17" t="n">
+        <v>0</v>
+      </c>
+      <c r="J17" t="n">
+        <v>0.01221478477549226</v>
+      </c>
+      <c r="K17" t="n">
+        <v>0.06595983778765818</v>
+      </c>
+      <c r="L17" t="n">
+        <v>0.01465774173059071</v>
+      </c>
+      <c r="M17" t="n">
+        <v>0.9429813846680022</v>
+      </c>
+      <c r="N17" t="n">
+        <v>0</v>
+      </c>
+      <c r="O17" t="n">
         <v>0.01710069868568916</v>
       </c>
-      <c r="F17" t="n">
-        <v>0</v>
-      </c>
-      <c r="G17" t="n">
+      <c r="P17" t="n">
+        <v>0</v>
+      </c>
+      <c r="Q17" t="n">
+        <v>0.06107392387746129</v>
+      </c>
+      <c r="R17" t="n">
+        <v>0</v>
+      </c>
+      <c r="S17" t="n">
+        <v>0.9258806859823131</v>
+      </c>
+      <c r="T17" t="n">
+        <v>0</v>
+      </c>
+      <c r="U17" t="n">
         <v>0.08550349342844579</v>
       </c>
-      <c r="H17" t="n">
-        <v>0.06595983778765818</v>
-      </c>
-      <c r="I17" t="n">
-        <v>0</v>
-      </c>
-      <c r="J17" t="n">
-        <v>0</v>
-      </c>
-      <c r="K17" t="n">
-        <v>0</v>
-      </c>
-      <c r="L17" t="n">
-        <v>0</v>
-      </c>
-      <c r="M17" t="n">
-        <v>0</v>
-      </c>
-      <c r="N17" t="n">
-        <v>0.9429813846680022</v>
-      </c>
-      <c r="O17" t="n">
-        <v>0</v>
-      </c>
-      <c r="P17" t="n">
-        <v>0</v>
-      </c>
-      <c r="Q17" t="n">
+      <c r="V17" t="n">
+        <v>0</v>
+      </c>
+      <c r="W17" t="n">
+        <v>0</v>
+      </c>
+      <c r="X17" t="n">
+        <v>0</v>
+      </c>
+      <c r="Y17" t="n">
+        <v>0</v>
+      </c>
+      <c r="Z17" t="n">
+        <v>0</v>
+      </c>
+      <c r="AA17" t="n">
         <v>0.01465774173059071</v>
       </c>
-      <c r="R17" t="n">
-        <v>0</v>
-      </c>
-      <c r="S17" t="n">
-        <v>0</v>
-      </c>
-      <c r="T17" t="n">
-        <v>0</v>
-      </c>
-      <c r="U17" t="n">
-        <v>0.9258806859823131</v>
-      </c>
-      <c r="V17" t="n">
-        <v>0.002442956955098451</v>
-      </c>
-      <c r="W17" t="n">
-        <v>0</v>
-      </c>
-      <c r="X17" t="n">
-        <v>0</v>
-      </c>
-      <c r="Y17" t="n">
-        <v>0</v>
-      </c>
-      <c r="Z17" t="n">
-        <v>0</v>
-      </c>
-      <c r="AA17" t="n">
-        <v>0.06107392387746129</v>
-      </c>
       <c r="AB17" t="n">
         <v>0</v>
       </c>
@@ -2343,10 +2343,10 @@
         <v>0</v>
       </c>
       <c r="AH17" t="n">
-        <v>0.01221478477549226</v>
+        <v>0</v>
       </c>
       <c r="AI17" t="n">
-        <v>0.01465774173059071</v>
+        <v>0</v>
       </c>
     </row>
     <row r="18">
@@ -2371,49 +2371,49 @@
         <v>0</v>
       </c>
       <c r="G18" t="n">
+        <v>0</v>
+      </c>
+      <c r="H18" t="n">
+        <v>0</v>
+      </c>
+      <c r="I18" t="n">
+        <v>0</v>
+      </c>
+      <c r="J18" t="n">
+        <v>0</v>
+      </c>
+      <c r="K18" t="n">
+        <v>0</v>
+      </c>
+      <c r="L18" t="n">
+        <v>0</v>
+      </c>
+      <c r="M18" t="n">
+        <v>1.058761249338274</v>
+      </c>
+      <c r="N18" t="n">
+        <v>0</v>
+      </c>
+      <c r="O18" t="n">
+        <v>0</v>
+      </c>
+      <c r="P18" t="n">
+        <v>0</v>
+      </c>
+      <c r="Q18" t="n">
+        <v>0</v>
+      </c>
+      <c r="R18" t="n">
+        <v>0</v>
+      </c>
+      <c r="S18" t="n">
+        <v>0.9528851244044468</v>
+      </c>
+      <c r="T18" t="n">
+        <v>0</v>
+      </c>
+      <c r="U18" t="n">
         <v>0.2117522498676549</v>
-      </c>
-      <c r="H18" t="n">
-        <v>0</v>
-      </c>
-      <c r="I18" t="n">
-        <v>0</v>
-      </c>
-      <c r="J18" t="n">
-        <v>0</v>
-      </c>
-      <c r="K18" t="n">
-        <v>0</v>
-      </c>
-      <c r="L18" t="n">
-        <v>0</v>
-      </c>
-      <c r="M18" t="n">
-        <v>0</v>
-      </c>
-      <c r="N18" t="n">
-        <v>1.058761249338274</v>
-      </c>
-      <c r="O18" t="n">
-        <v>0</v>
-      </c>
-      <c r="P18" t="n">
-        <v>0</v>
-      </c>
-      <c r="Q18" t="n">
-        <v>0</v>
-      </c>
-      <c r="R18" t="n">
-        <v>0</v>
-      </c>
-      <c r="S18" t="n">
-        <v>0</v>
-      </c>
-      <c r="T18" t="n">
-        <v>0</v>
-      </c>
-      <c r="U18" t="n">
-        <v>0.9528851244044468</v>
       </c>
       <c r="V18" t="n">
         <v>0</v>
@@ -2471,97 +2471,97 @@
         <v>1</v>
       </c>
       <c r="D19" t="n">
+        <v>0.01258336479174531</v>
+      </c>
+      <c r="E19" t="n">
+        <v>0.2642506606266515</v>
+      </c>
+      <c r="F19" t="n">
+        <v>0</v>
+      </c>
+      <c r="G19" t="n">
+        <v>0</v>
+      </c>
+      <c r="H19" t="n">
+        <v>0</v>
+      </c>
+      <c r="I19" t="n">
+        <v>1.006669183339625</v>
+      </c>
+      <c r="J19" t="n">
+        <v>0.1510003775009437</v>
+      </c>
+      <c r="K19" t="n">
+        <v>0</v>
+      </c>
+      <c r="L19" t="n">
+        <v>0</v>
+      </c>
+      <c r="M19" t="n">
+        <v>0</v>
+      </c>
+      <c r="N19" t="n">
+        <v>0</v>
+      </c>
+      <c r="O19" t="n">
+        <v>0</v>
+      </c>
+      <c r="P19" t="n">
+        <v>0</v>
+      </c>
+      <c r="Q19" t="n">
+        <v>2.705423430225242</v>
+      </c>
+      <c r="R19" t="n">
+        <v>0.01258336479174531</v>
+      </c>
+      <c r="S19" t="n">
+        <v>0</v>
+      </c>
+      <c r="T19" t="n">
+        <v>0</v>
+      </c>
+      <c r="U19" t="n">
+        <v>0</v>
+      </c>
+      <c r="V19" t="n">
         <v>0.1761671070844344</v>
       </c>
-      <c r="E19" t="n">
-        <v>0</v>
-      </c>
-      <c r="F19" t="n">
-        <v>0</v>
-      </c>
-      <c r="G19" t="n">
-        <v>0</v>
-      </c>
-      <c r="H19" t="n">
-        <v>0</v>
-      </c>
-      <c r="I19" t="n">
+      <c r="W19" t="n">
+        <v>0</v>
+      </c>
+      <c r="X19" t="n">
+        <v>0.01258336479174531</v>
+      </c>
+      <c r="Y19" t="n">
         <v>1.849754624386561</v>
       </c>
-      <c r="J19" t="n">
-        <v>0</v>
-      </c>
-      <c r="K19" t="n">
-        <v>0</v>
-      </c>
-      <c r="L19" t="n">
-        <v>0</v>
-      </c>
-      <c r="M19" t="n">
+      <c r="Z19" t="n">
+        <v>0</v>
+      </c>
+      <c r="AA19" t="n">
+        <v>0</v>
+      </c>
+      <c r="AB19" t="n">
+        <v>0</v>
+      </c>
+      <c r="AC19" t="n">
+        <v>0</v>
+      </c>
+      <c r="AD19" t="n">
         <v>0.01258336479174531</v>
       </c>
-      <c r="N19" t="n">
-        <v>0</v>
-      </c>
-      <c r="O19" t="n">
-        <v>0.2642506606266515</v>
-      </c>
-      <c r="P19" t="n">
-        <v>0</v>
-      </c>
-      <c r="Q19" t="n">
-        <v>0</v>
-      </c>
-      <c r="R19" t="n">
+      <c r="AE19" t="n">
+        <v>0</v>
+      </c>
+      <c r="AF19" t="n">
+        <v>0</v>
+      </c>
+      <c r="AG19" t="n">
         <v>0.06291682395872657</v>
       </c>
-      <c r="S19" t="n">
-        <v>0</v>
-      </c>
-      <c r="T19" t="n">
-        <v>0</v>
-      </c>
-      <c r="U19" t="n">
-        <v>0</v>
-      </c>
-      <c r="V19" t="n">
-        <v>0.01258336479174531</v>
-      </c>
-      <c r="W19" t="n">
-        <v>0</v>
-      </c>
-      <c r="X19" t="n">
-        <v>1.006669183339625</v>
-      </c>
-      <c r="Y19" t="n">
-        <v>0</v>
-      </c>
-      <c r="Z19" t="n">
-        <v>0</v>
-      </c>
-      <c r="AA19" t="n">
-        <v>2.705423430225242</v>
-      </c>
-      <c r="AB19" t="n">
-        <v>0</v>
-      </c>
-      <c r="AC19" t="n">
-        <v>0</v>
-      </c>
-      <c r="AD19" t="n">
-        <v>0</v>
-      </c>
-      <c r="AE19" t="n">
-        <v>0.01258336479174531</v>
-      </c>
-      <c r="AF19" t="n">
-        <v>0.01258336479174531</v>
-      </c>
-      <c r="AG19" t="n">
-        <v>0</v>
-      </c>
       <c r="AH19" t="n">
-        <v>0.1510003775009437</v>
+        <v>0</v>
       </c>
       <c r="AI19" t="n">
         <v>0</v>
@@ -2589,49 +2589,49 @@
         <v>0</v>
       </c>
       <c r="G20" t="n">
+        <v>0</v>
+      </c>
+      <c r="H20" t="n">
+        <v>0</v>
+      </c>
+      <c r="I20" t="n">
+        <v>0</v>
+      </c>
+      <c r="J20" t="n">
+        <v>0</v>
+      </c>
+      <c r="K20" t="n">
+        <v>0</v>
+      </c>
+      <c r="L20" t="n">
+        <v>0</v>
+      </c>
+      <c r="M20" t="n">
+        <v>0</v>
+      </c>
+      <c r="N20" t="n">
+        <v>0</v>
+      </c>
+      <c r="O20" t="n">
+        <v>0</v>
+      </c>
+      <c r="P20" t="n">
+        <v>0</v>
+      </c>
+      <c r="Q20" t="n">
+        <v>0</v>
+      </c>
+      <c r="R20" t="n">
+        <v>0</v>
+      </c>
+      <c r="S20" t="n">
+        <v>0.002897899747158247</v>
+      </c>
+      <c r="T20" t="n">
+        <v>0</v>
+      </c>
+      <c r="U20" t="n">
         <v>0.0002414916455965206</v>
-      </c>
-      <c r="H20" t="n">
-        <v>0</v>
-      </c>
-      <c r="I20" t="n">
-        <v>0</v>
-      </c>
-      <c r="J20" t="n">
-        <v>0</v>
-      </c>
-      <c r="K20" t="n">
-        <v>0</v>
-      </c>
-      <c r="L20" t="n">
-        <v>0</v>
-      </c>
-      <c r="M20" t="n">
-        <v>0</v>
-      </c>
-      <c r="N20" t="n">
-        <v>0</v>
-      </c>
-      <c r="O20" t="n">
-        <v>0</v>
-      </c>
-      <c r="P20" t="n">
-        <v>0</v>
-      </c>
-      <c r="Q20" t="n">
-        <v>0</v>
-      </c>
-      <c r="R20" t="n">
-        <v>0</v>
-      </c>
-      <c r="S20" t="n">
-        <v>0</v>
-      </c>
-      <c r="T20" t="n">
-        <v>0</v>
-      </c>
-      <c r="U20" t="n">
-        <v>0.002897899747158247</v>
       </c>
       <c r="V20" t="n">
         <v>0</v>
@@ -2704,55 +2704,55 @@
         <v>0</v>
       </c>
       <c r="I21" t="n">
+        <v>0</v>
+      </c>
+      <c r="J21" t="n">
+        <v>0</v>
+      </c>
+      <c r="K21" t="n">
+        <v>0</v>
+      </c>
+      <c r="L21" t="n">
+        <v>0</v>
+      </c>
+      <c r="M21" t="n">
+        <v>0</v>
+      </c>
+      <c r="N21" t="n">
+        <v>0</v>
+      </c>
+      <c r="O21" t="n">
+        <v>0</v>
+      </c>
+      <c r="P21" t="n">
+        <v>0</v>
+      </c>
+      <c r="Q21" t="n">
+        <v>0</v>
+      </c>
+      <c r="R21" t="n">
+        <v>0</v>
+      </c>
+      <c r="S21" t="n">
+        <v>0</v>
+      </c>
+      <c r="T21" t="n">
+        <v>0</v>
+      </c>
+      <c r="U21" t="n">
+        <v>0</v>
+      </c>
+      <c r="V21" t="n">
+        <v>0</v>
+      </c>
+      <c r="W21" t="n">
+        <v>0</v>
+      </c>
+      <c r="X21" t="n">
+        <v>0</v>
+      </c>
+      <c r="Y21" t="n">
         <v>0.01444669170759896</v>
-      </c>
-      <c r="J21" t="n">
-        <v>0</v>
-      </c>
-      <c r="K21" t="n">
-        <v>0</v>
-      </c>
-      <c r="L21" t="n">
-        <v>0</v>
-      </c>
-      <c r="M21" t="n">
-        <v>0</v>
-      </c>
-      <c r="N21" t="n">
-        <v>0</v>
-      </c>
-      <c r="O21" t="n">
-        <v>0</v>
-      </c>
-      <c r="P21" t="n">
-        <v>0</v>
-      </c>
-      <c r="Q21" t="n">
-        <v>0</v>
-      </c>
-      <c r="R21" t="n">
-        <v>0</v>
-      </c>
-      <c r="S21" t="n">
-        <v>0</v>
-      </c>
-      <c r="T21" t="n">
-        <v>0</v>
-      </c>
-      <c r="U21" t="n">
-        <v>0</v>
-      </c>
-      <c r="V21" t="n">
-        <v>0</v>
-      </c>
-      <c r="W21" t="n">
-        <v>0</v>
-      </c>
-      <c r="X21" t="n">
-        <v>0</v>
-      </c>
-      <c r="Y21" t="n">
-        <v>0</v>
       </c>
       <c r="Z21" t="n">
         <v>0</v>
@@ -2801,16 +2801,16 @@
         <v>0</v>
       </c>
       <c r="E22" t="n">
+        <v>0</v>
+      </c>
+      <c r="F22" t="n">
         <v>0.002372948388372553</v>
       </c>
-      <c r="F22" t="n">
-        <v>0</v>
-      </c>
       <c r="G22" t="n">
         <v>0</v>
       </c>
       <c r="H22" t="n">
-        <v>0</v>
+        <v>0.4018192604310856</v>
       </c>
       <c r="I22" t="n">
         <v>0</v>
@@ -2819,44 +2819,44 @@
         <v>0</v>
       </c>
       <c r="K22" t="n">
+        <v>0</v>
+      </c>
+      <c r="L22" t="n">
+        <v>0</v>
+      </c>
+      <c r="M22" t="n">
+        <v>0</v>
+      </c>
+      <c r="N22" t="n">
+        <v>0</v>
+      </c>
+      <c r="O22" t="n">
+        <v>0.002372948388372553</v>
+      </c>
+      <c r="P22" t="n">
+        <v>0</v>
+      </c>
+      <c r="Q22" t="n">
+        <v>0</v>
+      </c>
+      <c r="R22" t="n">
+        <v>0.2950365829543207</v>
+      </c>
+      <c r="S22" t="n">
+        <v>0</v>
+      </c>
+      <c r="T22" t="n">
         <v>0.1494957484674708</v>
       </c>
-      <c r="L22" t="n">
-        <v>0</v>
-      </c>
-      <c r="M22" t="n">
-        <v>0.2950365829543207</v>
-      </c>
-      <c r="N22" t="n">
-        <v>0</v>
-      </c>
-      <c r="O22" t="n">
-        <v>0</v>
-      </c>
-      <c r="P22" t="n">
-        <v>0</v>
-      </c>
-      <c r="Q22" t="n">
-        <v>0</v>
-      </c>
-      <c r="R22" t="n">
-        <v>0</v>
-      </c>
-      <c r="S22" t="n">
-        <v>0</v>
-      </c>
-      <c r="T22" t="n">
+      <c r="U22" t="n">
+        <v>0</v>
+      </c>
+      <c r="V22" t="n">
+        <v>0</v>
+      </c>
+      <c r="W22" t="n">
         <v>0.002372948388372553</v>
       </c>
-      <c r="U22" t="n">
-        <v>0</v>
-      </c>
-      <c r="V22" t="n">
-        <v>0</v>
-      </c>
-      <c r="W22" t="n">
-        <v>0</v>
-      </c>
       <c r="X22" t="n">
         <v>0</v>
       </c>
@@ -2864,7 +2864,7 @@
         <v>0</v>
       </c>
       <c r="Z22" t="n">
-        <v>0.002372948388372553</v>
+        <v>0.01186474194186276</v>
       </c>
       <c r="AA22" t="n">
         <v>0</v>
@@ -2873,10 +2873,10 @@
         <v>0</v>
       </c>
       <c r="AC22" t="n">
-        <v>0.4018192604310856</v>
+        <v>0</v>
       </c>
       <c r="AD22" t="n">
-        <v>0.01186474194186276</v>
+        <v>0</v>
       </c>
       <c r="AE22" t="n">
         <v>0</v>
@@ -2907,61 +2907,61 @@
         <v>3</v>
       </c>
       <c r="D23" t="n">
-        <v>0</v>
+        <v>0.1223678172640596</v>
       </c>
       <c r="E23" t="n">
+        <v>0</v>
+      </c>
+      <c r="F23" t="n">
+        <v>0</v>
+      </c>
+      <c r="G23" t="n">
+        <v>0</v>
+      </c>
+      <c r="H23" t="n">
+        <v>0</v>
+      </c>
+      <c r="I23" t="n">
+        <v>0</v>
+      </c>
+      <c r="J23" t="n">
+        <v>0.005098659052669148</v>
+      </c>
+      <c r="K23" t="n">
+        <v>0.03314128384234946</v>
+      </c>
+      <c r="L23" t="n">
+        <v>0.0101973181053383</v>
+      </c>
+      <c r="M23" t="n">
+        <v>1.371539285168001</v>
+      </c>
+      <c r="N23" t="n">
+        <v>0</v>
+      </c>
+      <c r="O23" t="n">
         <v>0.02804262478968031</v>
       </c>
-      <c r="F23" t="n">
-        <v>0</v>
-      </c>
-      <c r="G23" t="n">
+      <c r="P23" t="n">
+        <v>0</v>
+      </c>
+      <c r="Q23" t="n">
+        <v>0.06118390863202978</v>
+      </c>
+      <c r="R23" t="n">
+        <v>0</v>
+      </c>
+      <c r="S23" t="n">
+        <v>0.8999133227961047</v>
+      </c>
+      <c r="T23" t="n">
+        <v>0</v>
+      </c>
+      <c r="U23" t="n">
         <v>0.1325651353693978</v>
       </c>
-      <c r="H23" t="n">
-        <v>0.03314128384234946</v>
-      </c>
-      <c r="I23" t="n">
-        <v>0</v>
-      </c>
-      <c r="J23" t="n">
-        <v>0</v>
-      </c>
-      <c r="K23" t="n">
-        <v>0</v>
-      </c>
-      <c r="L23" t="n">
-        <v>0</v>
-      </c>
-      <c r="M23" t="n">
-        <v>0</v>
-      </c>
-      <c r="N23" t="n">
-        <v>1.371539285168001</v>
-      </c>
-      <c r="O23" t="n">
-        <v>0</v>
-      </c>
-      <c r="P23" t="n">
-        <v>0</v>
-      </c>
-      <c r="Q23" t="n">
-        <v>0.0101973181053383</v>
-      </c>
-      <c r="R23" t="n">
-        <v>0</v>
-      </c>
-      <c r="S23" t="n">
-        <v>0</v>
-      </c>
-      <c r="T23" t="n">
-        <v>0</v>
-      </c>
-      <c r="U23" t="n">
-        <v>0.8999133227961047</v>
-      </c>
       <c r="V23" t="n">
-        <v>0.1223678172640596</v>
+        <v>0</v>
       </c>
       <c r="W23" t="n">
         <v>0</v>
@@ -2976,7 +2976,7 @@
         <v>0</v>
       </c>
       <c r="AA23" t="n">
-        <v>0.06118390863202978</v>
+        <v>0.01529597715800744</v>
       </c>
       <c r="AB23" t="n">
         <v>0</v>
@@ -2997,10 +2997,10 @@
         <v>0</v>
       </c>
       <c r="AH23" t="n">
-        <v>0.005098659052669148</v>
+        <v>0</v>
       </c>
       <c r="AI23" t="n">
-        <v>0.01529597715800744</v>
+        <v>0</v>
       </c>
     </row>
     <row r="24">
@@ -3016,61 +3016,61 @@
         <v>2</v>
       </c>
       <c r="D24" t="n">
-        <v>0</v>
+        <v>0.01944059682632257</v>
       </c>
       <c r="E24" t="n">
+        <v>0</v>
+      </c>
+      <c r="F24" t="n">
+        <v>0</v>
+      </c>
+      <c r="G24" t="n">
+        <v>0</v>
+      </c>
+      <c r="H24" t="n">
+        <v>0</v>
+      </c>
+      <c r="I24" t="n">
+        <v>0</v>
+      </c>
+      <c r="J24" t="n">
+        <v>0.009720298413161283</v>
+      </c>
+      <c r="K24" t="n">
+        <v>0.06561201428883867</v>
+      </c>
+      <c r="L24" t="n">
+        <v>0.0121503730164516</v>
+      </c>
+      <c r="M24" t="n">
+        <v>3.251439819202449</v>
+      </c>
+      <c r="N24" t="n">
+        <v>0</v>
+      </c>
+      <c r="O24" t="n">
         <v>0.0461714174625161</v>
       </c>
-      <c r="F24" t="n">
-        <v>0</v>
-      </c>
-      <c r="G24" t="n">
+      <c r="P24" t="n">
+        <v>0</v>
+      </c>
+      <c r="Q24" t="n">
+        <v>0.3669412650968384</v>
+      </c>
+      <c r="R24" t="n">
+        <v>0</v>
+      </c>
+      <c r="S24" t="n">
+        <v>2.605039974727224</v>
+      </c>
+      <c r="T24" t="n">
+        <v>0</v>
+      </c>
+      <c r="U24" t="n">
         <v>0.05346164127238706</v>
       </c>
-      <c r="H24" t="n">
-        <v>0.06561201428883867</v>
-      </c>
-      <c r="I24" t="n">
-        <v>0</v>
-      </c>
-      <c r="J24" t="n">
-        <v>0</v>
-      </c>
-      <c r="K24" t="n">
-        <v>0</v>
-      </c>
-      <c r="L24" t="n">
-        <v>0</v>
-      </c>
-      <c r="M24" t="n">
-        <v>0</v>
-      </c>
-      <c r="N24" t="n">
-        <v>3.251439819202449</v>
-      </c>
-      <c r="O24" t="n">
-        <v>0</v>
-      </c>
-      <c r="P24" t="n">
-        <v>0</v>
-      </c>
-      <c r="Q24" t="n">
-        <v>0.0121503730164516</v>
-      </c>
-      <c r="R24" t="n">
-        <v>0</v>
-      </c>
-      <c r="S24" t="n">
-        <v>0</v>
-      </c>
-      <c r="T24" t="n">
-        <v>0</v>
-      </c>
-      <c r="U24" t="n">
-        <v>2.605039974727224</v>
-      </c>
       <c r="V24" t="n">
-        <v>0.01944059682632257</v>
+        <v>0</v>
       </c>
       <c r="W24" t="n">
         <v>0</v>
@@ -3085,7 +3085,7 @@
         <v>0</v>
       </c>
       <c r="AA24" t="n">
-        <v>0.3669412650968384</v>
+        <v>0</v>
       </c>
       <c r="AB24" t="n">
         <v>0</v>
@@ -3106,7 +3106,7 @@
         <v>0</v>
       </c>
       <c r="AH24" t="n">
-        <v>0.009720298413161283</v>
+        <v>0</v>
       </c>
       <c r="AI24" t="n">
         <v>0</v>
@@ -3128,7 +3128,7 @@
         <v>0</v>
       </c>
       <c r="E25" t="n">
-        <v>0</v>
+        <v>0.004966229638458482</v>
       </c>
       <c r="F25" t="n">
         <v>0</v>
@@ -3137,76 +3137,76 @@
         <v>0</v>
       </c>
       <c r="H25" t="n">
+        <v>0</v>
+      </c>
+      <c r="I25" t="n">
+        <v>0</v>
+      </c>
+      <c r="J25" t="n">
         <v>0.004966229638458482</v>
       </c>
-      <c r="I25" t="n">
+      <c r="K25" t="n">
+        <v>0.004966229638458482</v>
+      </c>
+      <c r="L25" t="n">
+        <v>0</v>
+      </c>
+      <c r="M25" t="n">
+        <v>0.009932459276916964</v>
+      </c>
+      <c r="N25" t="n">
+        <v>0</v>
+      </c>
+      <c r="O25" t="n">
+        <v>0</v>
+      </c>
+      <c r="P25" t="n">
+        <v>0</v>
+      </c>
+      <c r="Q25" t="n">
+        <v>0</v>
+      </c>
+      <c r="R25" t="n">
+        <v>0.004966229638458482</v>
+      </c>
+      <c r="S25" t="n">
+        <v>0.124155740961462</v>
+      </c>
+      <c r="T25" t="n">
+        <v>0</v>
+      </c>
+      <c r="U25" t="n">
+        <v>0</v>
+      </c>
+      <c r="V25" t="n">
+        <v>0</v>
+      </c>
+      <c r="W25" t="n">
+        <v>0</v>
+      </c>
+      <c r="X25" t="n">
+        <v>0</v>
+      </c>
+      <c r="Y25" t="n">
         <v>0.09435836313071116</v>
       </c>
-      <c r="J25" t="n">
-        <v>0</v>
-      </c>
-      <c r="K25" t="n">
-        <v>0</v>
-      </c>
-      <c r="L25" t="n">
-        <v>0</v>
-      </c>
-      <c r="M25" t="n">
-        <v>0.004966229638458482</v>
-      </c>
-      <c r="N25" t="n">
+      <c r="Z25" t="n">
+        <v>0</v>
+      </c>
+      <c r="AA25" t="n">
+        <v>0</v>
+      </c>
+      <c r="AB25" t="n">
+        <v>0</v>
+      </c>
+      <c r="AC25" t="n">
+        <v>0</v>
+      </c>
+      <c r="AD25" t="n">
         <v>0.009932459276916964</v>
       </c>
-      <c r="O25" t="n">
-        <v>0.004966229638458482</v>
-      </c>
-      <c r="P25" t="n">
-        <v>0</v>
-      </c>
-      <c r="Q25" t="n">
-        <v>0</v>
-      </c>
-      <c r="R25" t="n">
-        <v>0</v>
-      </c>
-      <c r="S25" t="n">
-        <v>0</v>
-      </c>
-      <c r="T25" t="n">
-        <v>0</v>
-      </c>
-      <c r="U25" t="n">
-        <v>0.124155740961462</v>
-      </c>
-      <c r="V25" t="n">
-        <v>0</v>
-      </c>
-      <c r="W25" t="n">
-        <v>0</v>
-      </c>
-      <c r="X25" t="n">
-        <v>0</v>
-      </c>
-      <c r="Y25" t="n">
-        <v>0</v>
-      </c>
-      <c r="Z25" t="n">
-        <v>0</v>
-      </c>
-      <c r="AA25" t="n">
-        <v>0</v>
-      </c>
-      <c r="AB25" t="n">
-        <v>0</v>
-      </c>
-      <c r="AC25" t="n">
-        <v>0</v>
-      </c>
-      <c r="AD25" t="n">
-        <v>0</v>
-      </c>
       <c r="AE25" t="n">
-        <v>0.009932459276916964</v>
+        <v>0</v>
       </c>
       <c r="AF25" t="n">
         <v>0</v>
@@ -3215,7 +3215,7 @@
         <v>0</v>
       </c>
       <c r="AH25" t="n">
-        <v>0.004966229638458482</v>
+        <v>0</v>
       </c>
       <c r="AI25" t="n">
         <v>0</v>
@@ -3234,13 +3234,13 @@
         <v>2</v>
       </c>
       <c r="D26" t="n">
-        <v>0.002874885004599816</v>
+        <v>0.06324747010119594</v>
       </c>
       <c r="E26" t="n">
         <v>0.005749770009199632</v>
       </c>
       <c r="F26" t="n">
-        <v>0.04024839006439743</v>
+        <v>0</v>
       </c>
       <c r="G26" t="n">
         <v>0</v>
@@ -3249,85 +3249,85 @@
         <v>0</v>
       </c>
       <c r="I26" t="n">
-        <v>0.8107175712971482</v>
+        <v>0.327736890524379</v>
       </c>
       <c r="J26" t="n">
         <v>0</v>
       </c>
       <c r="K26" t="n">
-        <v>0.02299908003679853</v>
+        <v>0</v>
       </c>
       <c r="L26" t="n">
-        <v>0</v>
+        <v>1.138454461821527</v>
       </c>
       <c r="M26" t="n">
-        <v>0.4312327506899724</v>
+        <v>0</v>
       </c>
       <c r="N26" t="n">
-        <v>0</v>
+        <v>0.03737350505979761</v>
       </c>
       <c r="O26" t="n">
         <v>0.005749770009199632</v>
       </c>
       <c r="P26" t="n">
+        <v>0</v>
+      </c>
+      <c r="Q26" t="n">
+        <v>0.8825896964121436</v>
+      </c>
+      <c r="R26" t="n">
+        <v>0.4312327506899724</v>
+      </c>
+      <c r="S26" t="n">
+        <v>0.002874885004599816</v>
+      </c>
+      <c r="T26" t="n">
+        <v>0.02299908003679853</v>
+      </c>
+      <c r="U26" t="n">
+        <v>0</v>
+      </c>
+      <c r="V26" t="n">
+        <v>0.002874885004599816</v>
+      </c>
+      <c r="W26" t="n">
+        <v>0</v>
+      </c>
+      <c r="X26" t="n">
+        <v>0</v>
+      </c>
+      <c r="Y26" t="n">
+        <v>0.8107175712971482</v>
+      </c>
+      <c r="Z26" t="n">
+        <v>0</v>
+      </c>
+      <c r="AA26" t="n">
+        <v>0</v>
+      </c>
+      <c r="AB26" t="n">
+        <v>0.04024839006439743</v>
+      </c>
+      <c r="AC26" t="n">
+        <v>0</v>
+      </c>
+      <c r="AD26" t="n">
+        <v>0.0718721251149954</v>
+      </c>
+      <c r="AE26" t="n">
+        <v>0</v>
+      </c>
+      <c r="AF26" t="n">
+        <v>0</v>
+      </c>
+      <c r="AG26" t="n">
+        <v>0.02874885004599816</v>
+      </c>
+      <c r="AH26" t="n">
+        <v>0.2932382704691812</v>
+      </c>
+      <c r="AI26" t="n">
         <v>0.008624655013799448</v>
-      </c>
-      <c r="Q26" t="n">
-        <v>1.138454461821527</v>
-      </c>
-      <c r="R26" t="n">
-        <v>0.02874885004599816</v>
-      </c>
-      <c r="S26" t="n">
-        <v>0</v>
-      </c>
-      <c r="T26" t="n">
-        <v>0</v>
-      </c>
-      <c r="U26" t="n">
-        <v>0.002874885004599816</v>
-      </c>
-      <c r="V26" t="n">
-        <v>0.06324747010119594</v>
-      </c>
-      <c r="W26" t="n">
-        <v>0.2932382704691812</v>
-      </c>
-      <c r="X26" t="n">
-        <v>0.327736890524379</v>
-      </c>
-      <c r="Y26" t="n">
-        <v>0</v>
-      </c>
-      <c r="Z26" t="n">
-        <v>0</v>
-      </c>
-      <c r="AA26" t="n">
-        <v>0.8825896964121436</v>
-      </c>
-      <c r="AB26" t="n">
-        <v>0</v>
-      </c>
-      <c r="AC26" t="n">
-        <v>0</v>
-      </c>
-      <c r="AD26" t="n">
-        <v>0</v>
-      </c>
-      <c r="AE26" t="n">
-        <v>0.0718721251149954</v>
-      </c>
-      <c r="AF26" t="n">
-        <v>0</v>
-      </c>
-      <c r="AG26" t="n">
-        <v>0.03737350505979761</v>
-      </c>
-      <c r="AH26" t="n">
-        <v>0</v>
-      </c>
-      <c r="AI26" t="n">
-        <v>0</v>
       </c>
     </row>
     <row r="27">
@@ -3352,10 +3352,10 @@
         <v>0</v>
       </c>
       <c r="G27" t="n">
-        <v>0</v>
+        <v>0.00395872370747671</v>
       </c>
       <c r="H27" t="n">
-        <v>0</v>
+        <v>0.3166978965981368</v>
       </c>
       <c r="I27" t="n">
         <v>0</v>
@@ -3370,55 +3370,55 @@
         <v>0</v>
       </c>
       <c r="M27" t="n">
+        <v>0</v>
+      </c>
+      <c r="N27" t="n">
+        <v>0</v>
+      </c>
+      <c r="O27" t="n">
+        <v>0</v>
+      </c>
+      <c r="P27" t="n">
+        <v>0</v>
+      </c>
+      <c r="Q27" t="n">
+        <v>0.3998310944551476</v>
+      </c>
+      <c r="R27" t="n">
         <v>0.001319574569158903</v>
       </c>
-      <c r="N27" t="n">
-        <v>0</v>
-      </c>
-      <c r="O27" t="n">
-        <v>0</v>
-      </c>
-      <c r="P27" t="n">
-        <v>0</v>
-      </c>
-      <c r="Q27" t="n">
-        <v>0</v>
-      </c>
-      <c r="R27" t="n">
-        <v>0</v>
-      </c>
       <c r="S27" t="n">
         <v>0</v>
       </c>
       <c r="T27" t="n">
+        <v>0</v>
+      </c>
+      <c r="U27" t="n">
+        <v>0</v>
+      </c>
+      <c r="V27" t="n">
+        <v>0</v>
+      </c>
+      <c r="W27" t="n">
         <v>0.001319574569158903</v>
       </c>
-      <c r="U27" t="n">
-        <v>0</v>
-      </c>
-      <c r="V27" t="n">
-        <v>0</v>
-      </c>
-      <c r="W27" t="n">
-        <v>0</v>
-      </c>
       <c r="X27" t="n">
         <v>0</v>
       </c>
       <c r="Y27" t="n">
-        <v>0.00395872370747671</v>
+        <v>0</v>
       </c>
       <c r="Z27" t="n">
         <v>0</v>
       </c>
       <c r="AA27" t="n">
-        <v>0.3998310944551476</v>
+        <v>0</v>
       </c>
       <c r="AB27" t="n">
         <v>0</v>
       </c>
       <c r="AC27" t="n">
-        <v>0.3166978965981368</v>
+        <v>0</v>
       </c>
       <c r="AD27" t="n">
         <v>0</v>
@@ -3561,13 +3561,13 @@
         <v>1</v>
       </c>
       <c r="D29" t="n">
-        <v>0.007825644637477012</v>
+        <v>1.498610948076848</v>
       </c>
       <c r="E29" t="n">
         <v>0.01173846695621552</v>
       </c>
       <c r="F29" t="n">
-        <v>0.1056462026059397</v>
+        <v>0</v>
       </c>
       <c r="G29" t="n">
         <v>0</v>
@@ -3576,85 +3576,85 @@
         <v>0</v>
       </c>
       <c r="I29" t="n">
-        <v>5.157099816097351</v>
+        <v>0.1486872481120632</v>
       </c>
       <c r="J29" t="n">
-        <v>0.003912822318738506</v>
+        <v>0.03912822318738506</v>
       </c>
       <c r="K29" t="n">
-        <v>0.4030206988300661</v>
+        <v>0</v>
       </c>
       <c r="L29" t="n">
-        <v>0</v>
+        <v>1.475134014164417</v>
       </c>
       <c r="M29" t="n">
-        <v>0.4617130336111437</v>
+        <v>0</v>
       </c>
       <c r="N29" t="n">
-        <v>0</v>
+        <v>0.03521540086864655</v>
       </c>
       <c r="O29" t="n">
         <v>0.01173846695621552</v>
       </c>
       <c r="P29" t="n">
+        <v>0</v>
+      </c>
+      <c r="Q29" t="n">
+        <v>7.160464843291465</v>
+      </c>
+      <c r="R29" t="n">
+        <v>0.4617130336111437</v>
+      </c>
+      <c r="S29" t="n">
+        <v>0</v>
+      </c>
+      <c r="T29" t="n">
+        <v>0.4030206988300661</v>
+      </c>
+      <c r="U29" t="n">
+        <v>0</v>
+      </c>
+      <c r="V29" t="n">
+        <v>0.007825644637477012</v>
+      </c>
+      <c r="W29" t="n">
+        <v>0</v>
+      </c>
+      <c r="X29" t="n">
+        <v>0.01173846695621552</v>
+      </c>
+      <c r="Y29" t="n">
+        <v>5.157099816097351</v>
+      </c>
+      <c r="Z29" t="n">
+        <v>0.05477951246233909</v>
+      </c>
+      <c r="AA29" t="n">
+        <v>0</v>
+      </c>
+      <c r="AB29" t="n">
+        <v>0.1056462026059397</v>
+      </c>
+      <c r="AC29" t="n">
+        <v>0</v>
+      </c>
+      <c r="AD29" t="n">
+        <v>1.737293109519897</v>
+      </c>
+      <c r="AE29" t="n">
+        <v>0</v>
+      </c>
+      <c r="AF29" t="n">
+        <v>0.003912822318738506</v>
+      </c>
+      <c r="AG29" t="n">
+        <v>0.1095590249246782</v>
+      </c>
+      <c r="AH29" t="n">
+        <v>0.4069335211488046</v>
+      </c>
+      <c r="AI29" t="n">
         <v>0.03130257854990805</v>
-      </c>
-      <c r="Q29" t="n">
-        <v>1.475134014164417</v>
-      </c>
-      <c r="R29" t="n">
-        <v>0.1095590249246782</v>
-      </c>
-      <c r="S29" t="n">
-        <v>0</v>
-      </c>
-      <c r="T29" t="n">
-        <v>0</v>
-      </c>
-      <c r="U29" t="n">
-        <v>0</v>
-      </c>
-      <c r="V29" t="n">
-        <v>1.498610948076848</v>
-      </c>
-      <c r="W29" t="n">
-        <v>0.4069335211488046</v>
-      </c>
-      <c r="X29" t="n">
-        <v>0.1486872481120632</v>
-      </c>
-      <c r="Y29" t="n">
-        <v>0</v>
-      </c>
-      <c r="Z29" t="n">
-        <v>0</v>
-      </c>
-      <c r="AA29" t="n">
-        <v>7.160464843291465</v>
-      </c>
-      <c r="AB29" t="n">
-        <v>0</v>
-      </c>
-      <c r="AC29" t="n">
-        <v>0</v>
-      </c>
-      <c r="AD29" t="n">
-        <v>0.05477951246233909</v>
-      </c>
-      <c r="AE29" t="n">
-        <v>1.737293109519897</v>
-      </c>
-      <c r="AF29" t="n">
-        <v>0.01173846695621552</v>
-      </c>
-      <c r="AG29" t="n">
-        <v>0.03521540086864655</v>
-      </c>
-      <c r="AH29" t="n">
-        <v>0.03912822318738506</v>
-      </c>
-      <c r="AI29" t="n">
-        <v>0</v>
       </c>
     </row>
     <row r="30">
@@ -3670,97 +3670,97 @@
         <v>3</v>
       </c>
       <c r="D30" t="n">
+        <v>0</v>
+      </c>
+      <c r="E30" t="n">
+        <v>0</v>
+      </c>
+      <c r="F30" t="n">
+        <v>0</v>
+      </c>
+      <c r="G30" t="n">
+        <v>0</v>
+      </c>
+      <c r="H30" t="n">
+        <v>0</v>
+      </c>
+      <c r="I30" t="n">
+        <v>0</v>
+      </c>
+      <c r="J30" t="n">
+        <v>0.1151410477835348</v>
+      </c>
+      <c r="K30" t="n">
+        <v>0.268662444828248</v>
+      </c>
+      <c r="L30" t="n">
+        <v>0</v>
+      </c>
+      <c r="M30" t="n">
+        <v>0.1151410477835348</v>
+      </c>
+      <c r="N30" t="n">
+        <v>0</v>
+      </c>
+      <c r="O30" t="n">
+        <v>0</v>
+      </c>
+      <c r="P30" t="n">
+        <v>0</v>
+      </c>
+      <c r="Q30" t="n">
+        <v>0.134331222414124</v>
+      </c>
+      <c r="R30" t="n">
+        <v>0</v>
+      </c>
+      <c r="S30" t="n">
+        <v>0.5757052389176741</v>
+      </c>
+      <c r="T30" t="n">
+        <v>0</v>
+      </c>
+      <c r="U30" t="n">
+        <v>1.823066589905968</v>
+      </c>
+      <c r="V30" t="n">
         <v>0.01919017463058914</v>
       </c>
-      <c r="E30" t="n">
-        <v>0</v>
-      </c>
-      <c r="F30" t="n">
-        <v>0</v>
-      </c>
-      <c r="G30" t="n">
-        <v>1.823066589905968</v>
-      </c>
-      <c r="H30" t="n">
-        <v>0.268662444828248</v>
-      </c>
-      <c r="I30" t="n">
-        <v>0</v>
-      </c>
-      <c r="J30" t="n">
-        <v>0</v>
-      </c>
-      <c r="K30" t="n">
-        <v>0</v>
-      </c>
-      <c r="L30" t="n">
-        <v>0</v>
-      </c>
-      <c r="M30" t="n">
-        <v>0</v>
-      </c>
-      <c r="N30" t="n">
-        <v>0.1151410477835348</v>
-      </c>
-      <c r="O30" t="n">
-        <v>0</v>
-      </c>
-      <c r="P30" t="n">
-        <v>0</v>
-      </c>
-      <c r="Q30" t="n">
-        <v>0</v>
-      </c>
-      <c r="R30" t="n">
+      <c r="W30" t="n">
+        <v>0</v>
+      </c>
+      <c r="X30" t="n">
+        <v>0</v>
+      </c>
+      <c r="Y30" t="n">
+        <v>0</v>
+      </c>
+      <c r="Z30" t="n">
+        <v>0</v>
+      </c>
+      <c r="AA30" t="n">
+        <v>0</v>
+      </c>
+      <c r="AB30" t="n">
+        <v>0</v>
+      </c>
+      <c r="AC30" t="n">
+        <v>0</v>
+      </c>
+      <c r="AD30" t="n">
+        <v>0</v>
+      </c>
+      <c r="AE30" t="n">
+        <v>0</v>
+      </c>
+      <c r="AF30" t="n">
+        <v>0</v>
+      </c>
+      <c r="AG30" t="n">
         <v>0.01919017463058914</v>
       </c>
-      <c r="S30" t="n">
-        <v>0</v>
-      </c>
-      <c r="T30" t="n">
-        <v>0</v>
-      </c>
-      <c r="U30" t="n">
-        <v>0.5757052389176741</v>
-      </c>
-      <c r="V30" t="n">
-        <v>0</v>
-      </c>
-      <c r="W30" t="n">
+      <c r="AH30" t="n">
         <v>0.05757052389176742</v>
-      </c>
-      <c r="X30" t="n">
-        <v>0</v>
-      </c>
-      <c r="Y30" t="n">
-        <v>0</v>
-      </c>
-      <c r="Z30" t="n">
-        <v>0</v>
-      </c>
-      <c r="AA30" t="n">
-        <v>0.134331222414124</v>
-      </c>
-      <c r="AB30" t="n">
-        <v>0</v>
-      </c>
-      <c r="AC30" t="n">
-        <v>0</v>
-      </c>
-      <c r="AD30" t="n">
-        <v>0</v>
-      </c>
-      <c r="AE30" t="n">
-        <v>0</v>
-      </c>
-      <c r="AF30" t="n">
-        <v>0</v>
-      </c>
-      <c r="AG30" t="n">
-        <v>0</v>
-      </c>
-      <c r="AH30" t="n">
-        <v>0.1151410477835348</v>
       </c>
       <c r="AI30" t="n">
         <v>0</v>
@@ -3779,97 +3779,97 @@
         <v>2</v>
       </c>
       <c r="D31" t="n">
+        <v>0.008966197435667534</v>
+      </c>
+      <c r="E31" t="n">
+        <v>0</v>
+      </c>
+      <c r="F31" t="n">
+        <v>0</v>
+      </c>
+      <c r="G31" t="n">
+        <v>0</v>
+      </c>
+      <c r="H31" t="n">
+        <v>0</v>
+      </c>
+      <c r="I31" t="n">
+        <v>0</v>
+      </c>
+      <c r="J31" t="n">
+        <v>0</v>
+      </c>
+      <c r="K31" t="n">
+        <v>0.008966197435667534</v>
+      </c>
+      <c r="L31" t="n">
+        <v>0</v>
+      </c>
+      <c r="M31" t="n">
+        <v>0.192773244866852</v>
+      </c>
+      <c r="N31" t="n">
+        <v>0</v>
+      </c>
+      <c r="O31" t="n">
+        <v>0.01793239487133507</v>
+      </c>
+      <c r="P31" t="n">
+        <v>0</v>
+      </c>
+      <c r="Q31" t="n">
+        <v>0.6276338204967273</v>
+      </c>
+      <c r="R31" t="n">
+        <v>0.008966197435667534</v>
+      </c>
+      <c r="S31" t="n">
+        <v>0.1748408499955169</v>
+      </c>
+      <c r="T31" t="n">
+        <v>0</v>
+      </c>
+      <c r="U31" t="n">
+        <v>0.1613915538420156</v>
+      </c>
+      <c r="V31" t="n">
         <v>0.004483098717833767</v>
       </c>
-      <c r="E31" t="n">
-        <v>0.01793239487133507</v>
-      </c>
-      <c r="F31" t="n">
-        <v>0</v>
-      </c>
-      <c r="G31" t="n">
-        <v>0.1613915538420156</v>
-      </c>
-      <c r="H31" t="n">
-        <v>0.008966197435667534</v>
-      </c>
-      <c r="I31" t="n">
-        <v>0</v>
-      </c>
-      <c r="J31" t="n">
-        <v>0</v>
-      </c>
-      <c r="K31" t="n">
-        <v>0</v>
-      </c>
-      <c r="L31" t="n">
-        <v>0</v>
-      </c>
-      <c r="M31" t="n">
-        <v>0.008966197435667534</v>
-      </c>
-      <c r="N31" t="n">
-        <v>0.192773244866852</v>
-      </c>
-      <c r="O31" t="n">
-        <v>0</v>
-      </c>
-      <c r="P31" t="n">
-        <v>0</v>
-      </c>
-      <c r="Q31" t="n">
-        <v>0</v>
-      </c>
-      <c r="R31" t="n">
-        <v>0</v>
-      </c>
-      <c r="S31" t="n">
-        <v>0</v>
-      </c>
-      <c r="T31" t="n">
-        <v>0</v>
-      </c>
-      <c r="U31" t="n">
-        <v>0.1748408499955169</v>
-      </c>
-      <c r="V31" t="n">
-        <v>0.008966197435667534</v>
-      </c>
       <c r="W31" t="n">
+        <v>0</v>
+      </c>
+      <c r="X31" t="n">
+        <v>0</v>
+      </c>
+      <c r="Y31" t="n">
+        <v>0</v>
+      </c>
+      <c r="Z31" t="n">
+        <v>0</v>
+      </c>
+      <c r="AA31" t="n">
+        <v>0</v>
+      </c>
+      <c r="AB31" t="n">
+        <v>0</v>
+      </c>
+      <c r="AC31" t="n">
+        <v>0</v>
+      </c>
+      <c r="AD31" t="n">
+        <v>0</v>
+      </c>
+      <c r="AE31" t="n">
+        <v>0</v>
+      </c>
+      <c r="AF31" t="n">
+        <v>0</v>
+      </c>
+      <c r="AG31" t="n">
+        <v>0</v>
+      </c>
+      <c r="AH31" t="n">
         <v>0.0403478884605039</v>
-      </c>
-      <c r="X31" t="n">
-        <v>0</v>
-      </c>
-      <c r="Y31" t="n">
-        <v>0</v>
-      </c>
-      <c r="Z31" t="n">
-        <v>0</v>
-      </c>
-      <c r="AA31" t="n">
-        <v>0.6276338204967273</v>
-      </c>
-      <c r="AB31" t="n">
-        <v>0</v>
-      </c>
-      <c r="AC31" t="n">
-        <v>0</v>
-      </c>
-      <c r="AD31" t="n">
-        <v>0</v>
-      </c>
-      <c r="AE31" t="n">
-        <v>0</v>
-      </c>
-      <c r="AF31" t="n">
-        <v>0</v>
-      </c>
-      <c r="AG31" t="n">
-        <v>0</v>
-      </c>
-      <c r="AH31" t="n">
-        <v>0</v>
       </c>
       <c r="AI31" t="n">
         <v>0</v>
@@ -4000,94 +4000,94 @@
         <v>0</v>
       </c>
       <c r="E33" t="n">
+        <v>0.03951007506914263</v>
+      </c>
+      <c r="F33" t="n">
+        <v>0</v>
+      </c>
+      <c r="G33" t="n">
+        <v>0</v>
+      </c>
+      <c r="H33" t="n">
+        <v>0</v>
+      </c>
+      <c r="I33" t="n">
+        <v>0</v>
+      </c>
+      <c r="J33" t="n">
+        <v>0.02963255630185697</v>
+      </c>
+      <c r="K33" t="n">
+        <v>0</v>
+      </c>
+      <c r="L33" t="n">
+        <v>0</v>
+      </c>
+      <c r="M33" t="n">
+        <v>0</v>
+      </c>
+      <c r="N33" t="n">
+        <v>0</v>
+      </c>
+      <c r="O33" t="n">
         <v>0.09877518767285659</v>
       </c>
-      <c r="F33" t="n">
+      <c r="P33" t="n">
         <v>0.009877518767285657</v>
       </c>
-      <c r="G33" t="n">
-        <v>0</v>
-      </c>
-      <c r="H33" t="n">
-        <v>0</v>
-      </c>
-      <c r="I33" t="n">
+      <c r="Q33" t="n">
+        <v>0.0493875938364283</v>
+      </c>
+      <c r="R33" t="n">
+        <v>0</v>
+      </c>
+      <c r="S33" t="n">
+        <v>0.0691426313709996</v>
+      </c>
+      <c r="T33" t="n">
+        <v>0</v>
+      </c>
+      <c r="U33" t="n">
+        <v>0</v>
+      </c>
+      <c r="V33" t="n">
+        <v>0</v>
+      </c>
+      <c r="W33" t="n">
+        <v>0</v>
+      </c>
+      <c r="X33" t="n">
+        <v>0</v>
+      </c>
+      <c r="Y33" t="n">
         <v>0.1481627815092849</v>
       </c>
-      <c r="J33" t="n">
+      <c r="Z33" t="n">
+        <v>0</v>
+      </c>
+      <c r="AA33" t="n">
+        <v>0</v>
+      </c>
+      <c r="AB33" t="n">
+        <v>0.009877518767285657</v>
+      </c>
+      <c r="AC33" t="n">
+        <v>0</v>
+      </c>
+      <c r="AD33" t="n">
+        <v>0</v>
+      </c>
+      <c r="AE33" t="n">
+        <v>0</v>
+      </c>
+      <c r="AF33" t="n">
         <v>0.01975503753457131</v>
       </c>
-      <c r="K33" t="n">
-        <v>0</v>
-      </c>
-      <c r="L33" t="n">
-        <v>0</v>
-      </c>
-      <c r="M33" t="n">
-        <v>0</v>
-      </c>
-      <c r="N33" t="n">
-        <v>0</v>
-      </c>
-      <c r="O33" t="n">
-        <v>0.03951007506914263</v>
-      </c>
-      <c r="P33" t="n">
-        <v>0</v>
-      </c>
-      <c r="Q33" t="n">
-        <v>0</v>
-      </c>
-      <c r="R33" t="n">
-        <v>0</v>
-      </c>
-      <c r="S33" t="n">
-        <v>0.009877518767285657</v>
-      </c>
-      <c r="T33" t="n">
-        <v>0</v>
-      </c>
-      <c r="U33" t="n">
-        <v>0.0691426313709996</v>
-      </c>
-      <c r="V33" t="n">
-        <v>0</v>
-      </c>
-      <c r="W33" t="n">
-        <v>0</v>
-      </c>
-      <c r="X33" t="n">
-        <v>0</v>
-      </c>
-      <c r="Y33" t="n">
-        <v>0</v>
-      </c>
-      <c r="Z33" t="n">
-        <v>0</v>
-      </c>
-      <c r="AA33" t="n">
-        <v>0.0493875938364283</v>
-      </c>
-      <c r="AB33" t="n">
-        <v>0</v>
-      </c>
-      <c r="AC33" t="n">
-        <v>0</v>
-      </c>
-      <c r="AD33" t="n">
-        <v>0</v>
-      </c>
-      <c r="AE33" t="n">
-        <v>0</v>
-      </c>
-      <c r="AF33" t="n">
-        <v>0</v>
-      </c>
       <c r="AG33" t="n">
         <v>0</v>
       </c>
       <c r="AH33" t="n">
-        <v>0.02963255630185697</v>
+        <v>0</v>
       </c>
       <c r="AI33" t="n">
         <v>0</v>
@@ -4109,73 +4109,73 @@
         <v>0</v>
       </c>
       <c r="E34" t="n">
+        <v>0.9750812567713976</v>
+      </c>
+      <c r="F34" t="n">
+        <v>0</v>
+      </c>
+      <c r="G34" t="n">
+        <v>0</v>
+      </c>
+      <c r="H34" t="n">
+        <v>0</v>
+      </c>
+      <c r="I34" t="n">
+        <v>0</v>
+      </c>
+      <c r="J34" t="n">
+        <v>0</v>
+      </c>
+      <c r="K34" t="n">
+        <v>0</v>
+      </c>
+      <c r="L34" t="n">
+        <v>0</v>
+      </c>
+      <c r="M34" t="n">
+        <v>0</v>
+      </c>
+      <c r="N34" t="n">
+        <v>0</v>
+      </c>
+      <c r="O34" t="n">
         <v>0.1625135427952329</v>
       </c>
-      <c r="F34" t="n">
-        <v>0</v>
-      </c>
-      <c r="G34" t="n">
-        <v>0</v>
-      </c>
-      <c r="H34" t="n">
-        <v>0</v>
-      </c>
-      <c r="I34" t="n">
+      <c r="P34" t="n">
+        <v>0</v>
+      </c>
+      <c r="Q34" t="n">
+        <v>0.6771397616468039</v>
+      </c>
+      <c r="R34" t="n">
+        <v>0</v>
+      </c>
+      <c r="S34" t="n">
+        <v>0</v>
+      </c>
+      <c r="T34" t="n">
+        <v>0</v>
+      </c>
+      <c r="U34" t="n">
+        <v>0</v>
+      </c>
+      <c r="V34" t="n">
+        <v>0</v>
+      </c>
+      <c r="W34" t="n">
+        <v>0</v>
+      </c>
+      <c r="X34" t="n">
+        <v>0</v>
+      </c>
+      <c r="Y34" t="n">
         <v>0.5958829902491874</v>
       </c>
-      <c r="J34" t="n">
-        <v>0</v>
-      </c>
-      <c r="K34" t="n">
-        <v>0</v>
-      </c>
-      <c r="L34" t="n">
-        <v>0</v>
-      </c>
-      <c r="M34" t="n">
-        <v>0</v>
-      </c>
-      <c r="N34" t="n">
-        <v>0</v>
-      </c>
-      <c r="O34" t="n">
-        <v>0.9750812567713976</v>
-      </c>
-      <c r="P34" t="n">
-        <v>0</v>
-      </c>
-      <c r="Q34" t="n">
-        <v>0</v>
-      </c>
-      <c r="R34" t="n">
-        <v>0</v>
-      </c>
-      <c r="S34" t="n">
-        <v>0</v>
-      </c>
-      <c r="T34" t="n">
-        <v>0</v>
-      </c>
-      <c r="U34" t="n">
-        <v>0</v>
-      </c>
-      <c r="V34" t="n">
-        <v>0</v>
-      </c>
-      <c r="W34" t="n">
-        <v>0</v>
-      </c>
-      <c r="X34" t="n">
-        <v>0</v>
-      </c>
-      <c r="Y34" t="n">
-        <v>0</v>
-      </c>
       <c r="Z34" t="n">
         <v>0</v>
       </c>
       <c r="AA34" t="n">
-        <v>0.6771397616468039</v>
+        <v>0</v>
       </c>
       <c r="AB34" t="n">
         <v>0</v>
@@ -4260,13 +4260,13 @@
         <v>0</v>
       </c>
       <c r="S35" t="n">
-        <v>0</v>
+        <v>0.55</v>
       </c>
       <c r="T35" t="n">
         <v>0</v>
       </c>
       <c r="U35" t="n">
-        <v>0.55</v>
+        <v>0</v>
       </c>
       <c r="V35" t="n">
         <v>0</v>
@@ -4324,76 +4324,76 @@
         <v>1</v>
       </c>
       <c r="D36" t="n">
-        <v>0</v>
+        <v>3.097185035096606</v>
       </c>
       <c r="E36" t="n">
+        <v>0.2098559953686953</v>
+      </c>
+      <c r="F36" t="n">
+        <v>0</v>
+      </c>
+      <c r="G36" t="n">
+        <v>0.003618206816701643</v>
+      </c>
+      <c r="H36" t="n">
+        <v>0</v>
+      </c>
+      <c r="I36" t="n">
+        <v>0</v>
+      </c>
+      <c r="J36" t="n">
+        <v>0</v>
+      </c>
+      <c r="K36" t="n">
+        <v>0</v>
+      </c>
+      <c r="L36" t="n">
+        <v>0</v>
+      </c>
+      <c r="M36" t="n">
+        <v>0</v>
+      </c>
+      <c r="N36" t="n">
+        <v>0</v>
+      </c>
+      <c r="O36" t="n">
         <v>0.01447282726680657</v>
       </c>
-      <c r="F36" t="n">
-        <v>0</v>
-      </c>
-      <c r="G36" t="n">
-        <v>0</v>
-      </c>
-      <c r="H36" t="n">
-        <v>0</v>
-      </c>
-      <c r="I36" t="n">
+      <c r="P36" t="n">
+        <v>0</v>
+      </c>
+      <c r="Q36" t="n">
+        <v>1.432809899413851</v>
+      </c>
+      <c r="R36" t="n">
+        <v>0.003618206816701643</v>
+      </c>
+      <c r="S36" t="n">
+        <v>0</v>
+      </c>
+      <c r="T36" t="n">
+        <v>0</v>
+      </c>
+      <c r="U36" t="n">
+        <v>0</v>
+      </c>
+      <c r="V36" t="n">
+        <v>0</v>
+      </c>
+      <c r="W36" t="n">
+        <v>0</v>
+      </c>
+      <c r="X36" t="n">
+        <v>0</v>
+      </c>
+      <c r="Y36" t="n">
         <v>0.01447282726680657</v>
       </c>
-      <c r="J36" t="n">
-        <v>0</v>
-      </c>
-      <c r="K36" t="n">
-        <v>0</v>
-      </c>
-      <c r="L36" t="n">
-        <v>0</v>
-      </c>
-      <c r="M36" t="n">
-        <v>0.003618206816701643</v>
-      </c>
-      <c r="N36" t="n">
-        <v>0</v>
-      </c>
-      <c r="O36" t="n">
-        <v>0.2098559953686953</v>
-      </c>
-      <c r="P36" t="n">
-        <v>0</v>
-      </c>
-      <c r="Q36" t="n">
-        <v>0</v>
-      </c>
-      <c r="R36" t="n">
-        <v>0</v>
-      </c>
-      <c r="S36" t="n">
-        <v>0</v>
-      </c>
-      <c r="T36" t="n">
-        <v>0</v>
-      </c>
-      <c r="U36" t="n">
-        <v>0</v>
-      </c>
-      <c r="V36" t="n">
-        <v>3.097185035096606</v>
-      </c>
-      <c r="W36" t="n">
-        <v>0</v>
-      </c>
-      <c r="X36" t="n">
-        <v>0</v>
-      </c>
-      <c r="Y36" t="n">
-        <v>0.003618206816701643</v>
-      </c>
       <c r="Z36" t="n">
         <v>0</v>
       </c>
       <c r="AA36" t="n">
-        <v>1.432809899413851</v>
+        <v>0</v>
       </c>
       <c r="AB36" t="n">
         <v>0</v>
@@ -4433,100 +4433,100 @@
         <v>2</v>
       </c>
       <c r="D37" t="n">
-        <v>0</v>
+        <v>0.0210532647598424</v>
       </c>
       <c r="E37" t="n">
+        <v>0.06917501278233933</v>
+      </c>
+      <c r="F37" t="n">
+        <v>0</v>
+      </c>
+      <c r="G37" t="n">
+        <v>0</v>
+      </c>
+      <c r="H37" t="n">
+        <v>0</v>
+      </c>
+      <c r="I37" t="n">
+        <v>0</v>
+      </c>
+      <c r="J37" t="n">
+        <v>0</v>
+      </c>
+      <c r="K37" t="n">
+        <v>0</v>
+      </c>
+      <c r="L37" t="n">
+        <v>0</v>
+      </c>
+      <c r="M37" t="n">
+        <v>0</v>
+      </c>
+      <c r="N37" t="n">
+        <v>0</v>
+      </c>
+      <c r="O37" t="n">
         <v>0.1323348070618665</v>
       </c>
-      <c r="F37" t="n">
+      <c r="P37" t="n">
+        <v>0</v>
+      </c>
+      <c r="Q37" t="n">
+        <v>0.8631838551535385</v>
+      </c>
+      <c r="R37" t="n">
+        <v>0</v>
+      </c>
+      <c r="S37" t="n">
+        <v>0</v>
+      </c>
+      <c r="T37" t="n">
+        <v>0</v>
+      </c>
+      <c r="U37" t="n">
+        <v>0</v>
+      </c>
+      <c r="V37" t="n">
+        <v>0</v>
+      </c>
+      <c r="W37" t="n">
+        <v>0</v>
+      </c>
+      <c r="X37" t="n">
+        <v>0</v>
+      </c>
+      <c r="Y37" t="n">
+        <v>0.2917380973863876</v>
+      </c>
+      <c r="Z37" t="n">
+        <v>0</v>
+      </c>
+      <c r="AA37" t="n">
+        <v>0</v>
+      </c>
+      <c r="AB37" t="n">
         <v>0.006015218502812114</v>
       </c>
-      <c r="G37" t="n">
-        <v>0</v>
-      </c>
-      <c r="H37" t="n">
-        <v>0</v>
-      </c>
-      <c r="I37" t="n">
-        <v>0.2917380973863876</v>
-      </c>
-      <c r="J37" t="n">
+      <c r="AC37" t="n">
+        <v>0</v>
+      </c>
+      <c r="AD37" t="n">
+        <v>0.03007609251406057</v>
+      </c>
+      <c r="AE37" t="n">
+        <v>0</v>
+      </c>
+      <c r="AF37" t="n">
         <v>0.006015218502812114</v>
       </c>
-      <c r="K37" t="n">
-        <v>0</v>
-      </c>
-      <c r="L37" t="n">
-        <v>0</v>
-      </c>
-      <c r="M37" t="n">
-        <v>0</v>
-      </c>
-      <c r="N37" t="n">
-        <v>0</v>
-      </c>
-      <c r="O37" t="n">
-        <v>0.06917501278233933</v>
-      </c>
-      <c r="P37" t="n">
+      <c r="AG37" t="n">
+        <v>0.006015218502812114</v>
+      </c>
+      <c r="AH37" t="n">
+        <v>0</v>
+      </c>
+      <c r="AI37" t="n">
         <v>0.003007609251406057</v>
-      </c>
-      <c r="Q37" t="n">
-        <v>0</v>
-      </c>
-      <c r="R37" t="n">
-        <v>0.006015218502812114</v>
-      </c>
-      <c r="S37" t="n">
-        <v>0</v>
-      </c>
-      <c r="T37" t="n">
-        <v>0</v>
-      </c>
-      <c r="U37" t="n">
-        <v>0</v>
-      </c>
-      <c r="V37" t="n">
-        <v>0.0210532647598424</v>
-      </c>
-      <c r="W37" t="n">
-        <v>0</v>
-      </c>
-      <c r="X37" t="n">
-        <v>0</v>
-      </c>
-      <c r="Y37" t="n">
-        <v>0</v>
-      </c>
-      <c r="Z37" t="n">
-        <v>0</v>
-      </c>
-      <c r="AA37" t="n">
-        <v>0.8631838551535385</v>
-      </c>
-      <c r="AB37" t="n">
-        <v>0</v>
-      </c>
-      <c r="AC37" t="n">
-        <v>0</v>
-      </c>
-      <c r="AD37" t="n">
-        <v>0</v>
-      </c>
-      <c r="AE37" t="n">
-        <v>0.03007609251406057</v>
-      </c>
-      <c r="AF37" t="n">
-        <v>0</v>
-      </c>
-      <c r="AG37" t="n">
-        <v>0</v>
-      </c>
-      <c r="AH37" t="n">
-        <v>0</v>
-      </c>
-      <c r="AI37" t="n">
-        <v>0</v>
       </c>
     </row>
     <row r="38">
@@ -4542,97 +4542,97 @@
         <v>2</v>
       </c>
       <c r="D38" t="n">
-        <v>0</v>
+        <v>0.004892687063735403</v>
       </c>
       <c r="E38" t="n">
+        <v>0.04240328788570683</v>
+      </c>
+      <c r="F38" t="n">
+        <v>0</v>
+      </c>
+      <c r="G38" t="n">
+        <v>0</v>
+      </c>
+      <c r="H38" t="n">
+        <v>0</v>
+      </c>
+      <c r="I38" t="n">
+        <v>0</v>
+      </c>
+      <c r="J38" t="n">
+        <v>0.009785374127470806</v>
+      </c>
+      <c r="K38" t="n">
+        <v>0</v>
+      </c>
+      <c r="L38" t="n">
+        <v>0</v>
+      </c>
+      <c r="M38" t="n">
+        <v>0</v>
+      </c>
+      <c r="N38" t="n">
+        <v>0</v>
+      </c>
+      <c r="O38" t="n">
         <v>0.08154478439559006</v>
       </c>
-      <c r="F38" t="n">
+      <c r="P38" t="n">
+        <v>0</v>
+      </c>
+      <c r="Q38" t="n">
+        <v>0.06686672320438386</v>
+      </c>
+      <c r="R38" t="n">
+        <v>0.008154478439559005</v>
+      </c>
+      <c r="S38" t="n">
+        <v>0</v>
+      </c>
+      <c r="T38" t="n">
+        <v>0</v>
+      </c>
+      <c r="U38" t="n">
+        <v>0</v>
+      </c>
+      <c r="V38" t="n">
+        <v>0</v>
+      </c>
+      <c r="W38" t="n">
+        <v>0</v>
+      </c>
+      <c r="X38" t="n">
+        <v>0</v>
+      </c>
+      <c r="Y38" t="n">
+        <v>0.1908147954856807</v>
+      </c>
+      <c r="Z38" t="n">
+        <v>0</v>
+      </c>
+      <c r="AA38" t="n">
+        <v>0</v>
+      </c>
+      <c r="AB38" t="n">
         <v>0.009785374127470806</v>
       </c>
-      <c r="G38" t="n">
-        <v>0</v>
-      </c>
-      <c r="H38" t="n">
-        <v>0</v>
-      </c>
-      <c r="I38" t="n">
-        <v>0.1908147954856807</v>
-      </c>
-      <c r="J38" t="n">
+      <c r="AC38" t="n">
+        <v>0</v>
+      </c>
+      <c r="AD38" t="n">
+        <v>0.001630895687911801</v>
+      </c>
+      <c r="AE38" t="n">
+        <v>0</v>
+      </c>
+      <c r="AF38" t="n">
         <v>0.006523582751647205</v>
       </c>
-      <c r="K38" t="n">
-        <v>0</v>
-      </c>
-      <c r="L38" t="n">
-        <v>0</v>
-      </c>
-      <c r="M38" t="n">
-        <v>0.008154478439559005</v>
-      </c>
-      <c r="N38" t="n">
-        <v>0</v>
-      </c>
-      <c r="O38" t="n">
-        <v>0.04240328788570683</v>
-      </c>
-      <c r="P38" t="n">
-        <v>0</v>
-      </c>
-      <c r="Q38" t="n">
-        <v>0</v>
-      </c>
-      <c r="R38" t="n">
-        <v>0</v>
-      </c>
-      <c r="S38" t="n">
-        <v>0</v>
-      </c>
-      <c r="T38" t="n">
-        <v>0</v>
-      </c>
-      <c r="U38" t="n">
-        <v>0</v>
-      </c>
-      <c r="V38" t="n">
-        <v>0.004892687063735403</v>
-      </c>
-      <c r="W38" t="n">
-        <v>0</v>
-      </c>
-      <c r="X38" t="n">
-        <v>0</v>
-      </c>
-      <c r="Y38" t="n">
-        <v>0</v>
-      </c>
-      <c r="Z38" t="n">
-        <v>0</v>
-      </c>
-      <c r="AA38" t="n">
-        <v>0.06686672320438386</v>
-      </c>
-      <c r="AB38" t="n">
-        <v>0</v>
-      </c>
-      <c r="AC38" t="n">
-        <v>0</v>
-      </c>
-      <c r="AD38" t="n">
-        <v>0</v>
-      </c>
-      <c r="AE38" t="n">
-        <v>0.001630895687911801</v>
-      </c>
-      <c r="AF38" t="n">
-        <v>0</v>
-      </c>
       <c r="AG38" t="n">
         <v>0</v>
       </c>
       <c r="AH38" t="n">
-        <v>0.009785374127470806</v>
+        <v>0</v>
       </c>
       <c r="AI38" t="n">
         <v>0</v>
@@ -4660,88 +4660,88 @@
         <v>0</v>
       </c>
       <c r="G39" t="n">
+        <v>0</v>
+      </c>
+      <c r="H39" t="n">
+        <v>0</v>
+      </c>
+      <c r="I39" t="n">
+        <v>0</v>
+      </c>
+      <c r="J39" t="n">
+        <v>0</v>
+      </c>
+      <c r="K39" t="n">
+        <v>0</v>
+      </c>
+      <c r="L39" t="n">
+        <v>0</v>
+      </c>
+      <c r="M39" t="n">
+        <v>0.5632897836795887</v>
+      </c>
+      <c r="N39" t="n">
+        <v>0</v>
+      </c>
+      <c r="O39" t="n">
+        <v>0</v>
+      </c>
+      <c r="P39" t="n">
+        <v>0</v>
+      </c>
+      <c r="Q39" t="n">
+        <v>0</v>
+      </c>
+      <c r="R39" t="n">
+        <v>0</v>
+      </c>
+      <c r="S39" t="n">
+        <v>0.04926108374384236</v>
+      </c>
+      <c r="T39" t="n">
+        <v>0</v>
+      </c>
+      <c r="U39" t="n">
         <v>0.05782822874277147</v>
       </c>
-      <c r="H39" t="n">
-        <v>0</v>
-      </c>
-      <c r="I39" t="n">
-        <v>0</v>
-      </c>
-      <c r="J39" t="n">
-        <v>0</v>
-      </c>
-      <c r="K39" t="n">
-        <v>0</v>
-      </c>
-      <c r="L39" t="n">
-        <v>0</v>
-      </c>
-      <c r="M39" t="n">
-        <v>0</v>
-      </c>
-      <c r="N39" t="n">
-        <v>0.5632897836795887</v>
-      </c>
-      <c r="O39" t="n">
-        <v>0</v>
-      </c>
-      <c r="P39" t="n">
-        <v>0</v>
-      </c>
-      <c r="Q39" t="n">
-        <v>0</v>
-      </c>
-      <c r="R39" t="n">
-        <v>0</v>
-      </c>
-      <c r="S39" t="n">
-        <v>0</v>
-      </c>
-      <c r="T39" t="n">
-        <v>0</v>
-      </c>
-      <c r="U39" t="n">
-        <v>0.04926108374384236</v>
-      </c>
       <c r="V39" t="n">
         <v>0</v>
       </c>
       <c r="W39" t="n">
+        <v>0</v>
+      </c>
+      <c r="X39" t="n">
+        <v>0</v>
+      </c>
+      <c r="Y39" t="n">
+        <v>0</v>
+      </c>
+      <c r="Z39" t="n">
+        <v>0</v>
+      </c>
+      <c r="AA39" t="n">
+        <v>0</v>
+      </c>
+      <c r="AB39" t="n">
+        <v>0</v>
+      </c>
+      <c r="AC39" t="n">
+        <v>0</v>
+      </c>
+      <c r="AD39" t="n">
+        <v>0</v>
+      </c>
+      <c r="AE39" t="n">
+        <v>0</v>
+      </c>
+      <c r="AF39" t="n">
+        <v>0</v>
+      </c>
+      <c r="AG39" t="n">
+        <v>0</v>
+      </c>
+      <c r="AH39" t="n">
         <v>0.01713428999785821</v>
-      </c>
-      <c r="X39" t="n">
-        <v>0</v>
-      </c>
-      <c r="Y39" t="n">
-        <v>0</v>
-      </c>
-      <c r="Z39" t="n">
-        <v>0</v>
-      </c>
-      <c r="AA39" t="n">
-        <v>0</v>
-      </c>
-      <c r="AB39" t="n">
-        <v>0</v>
-      </c>
-      <c r="AC39" t="n">
-        <v>0</v>
-      </c>
-      <c r="AD39" t="n">
-        <v>0</v>
-      </c>
-      <c r="AE39" t="n">
-        <v>0</v>
-      </c>
-      <c r="AF39" t="n">
-        <v>0</v>
-      </c>
-      <c r="AG39" t="n">
-        <v>0</v>
-      </c>
-      <c r="AH39" t="n">
-        <v>0</v>
       </c>
       <c r="AI39" t="n">
         <v>0</v>
@@ -4769,88 +4769,88 @@
         <v>0</v>
       </c>
       <c r="G40" t="n">
+        <v>0</v>
+      </c>
+      <c r="H40" t="n">
+        <v>0</v>
+      </c>
+      <c r="I40" t="n">
+        <v>0</v>
+      </c>
+      <c r="J40" t="n">
+        <v>0</v>
+      </c>
+      <c r="K40" t="n">
+        <v>0</v>
+      </c>
+      <c r="L40" t="n">
+        <v>0</v>
+      </c>
+      <c r="M40" t="n">
+        <v>0.07744339976524969</v>
+      </c>
+      <c r="N40" t="n">
+        <v>0</v>
+      </c>
+      <c r="O40" t="n">
+        <v>0</v>
+      </c>
+      <c r="P40" t="n">
+        <v>0</v>
+      </c>
+      <c r="Q40" t="n">
+        <v>0</v>
+      </c>
+      <c r="R40" t="n">
+        <v>0</v>
+      </c>
+      <c r="S40" t="n">
+        <v>0.1899783400491282</v>
+      </c>
+      <c r="T40" t="n">
+        <v>0</v>
+      </c>
+      <c r="U40" t="n">
         <v>0.07260318727992159</v>
       </c>
-      <c r="H40" t="n">
-        <v>0</v>
-      </c>
-      <c r="I40" t="n">
-        <v>0</v>
-      </c>
-      <c r="J40" t="n">
-        <v>0</v>
-      </c>
-      <c r="K40" t="n">
-        <v>0</v>
-      </c>
-      <c r="L40" t="n">
-        <v>0</v>
-      </c>
-      <c r="M40" t="n">
-        <v>0</v>
-      </c>
-      <c r="N40" t="n">
-        <v>0.07744339976524969</v>
-      </c>
-      <c r="O40" t="n">
-        <v>0</v>
-      </c>
-      <c r="P40" t="n">
-        <v>0</v>
-      </c>
-      <c r="Q40" t="n">
-        <v>0</v>
-      </c>
-      <c r="R40" t="n">
-        <v>0</v>
-      </c>
-      <c r="S40" t="n">
-        <v>0</v>
-      </c>
-      <c r="T40" t="n">
-        <v>0</v>
-      </c>
-      <c r="U40" t="n">
-        <v>0.1899783400491282</v>
-      </c>
       <c r="V40" t="n">
         <v>0</v>
       </c>
       <c r="W40" t="n">
+        <v>0</v>
+      </c>
+      <c r="X40" t="n">
+        <v>0</v>
+      </c>
+      <c r="Y40" t="n">
+        <v>0</v>
+      </c>
+      <c r="Z40" t="n">
+        <v>0</v>
+      </c>
+      <c r="AA40" t="n">
+        <v>0</v>
+      </c>
+      <c r="AB40" t="n">
+        <v>0</v>
+      </c>
+      <c r="AC40" t="n">
+        <v>0</v>
+      </c>
+      <c r="AD40" t="n">
+        <v>0</v>
+      </c>
+      <c r="AE40" t="n">
+        <v>0</v>
+      </c>
+      <c r="AF40" t="n">
+        <v>0</v>
+      </c>
+      <c r="AG40" t="n">
+        <v>0</v>
+      </c>
+      <c r="AH40" t="n">
         <v>0.001210053121332026</v>
-      </c>
-      <c r="X40" t="n">
-        <v>0</v>
-      </c>
-      <c r="Y40" t="n">
-        <v>0</v>
-      </c>
-      <c r="Z40" t="n">
-        <v>0</v>
-      </c>
-      <c r="AA40" t="n">
-        <v>0</v>
-      </c>
-      <c r="AB40" t="n">
-        <v>0</v>
-      </c>
-      <c r="AC40" t="n">
-        <v>0</v>
-      </c>
-      <c r="AD40" t="n">
-        <v>0</v>
-      </c>
-      <c r="AE40" t="n">
-        <v>0</v>
-      </c>
-      <c r="AF40" t="n">
-        <v>0</v>
-      </c>
-      <c r="AG40" t="n">
-        <v>0</v>
-      </c>
-      <c r="AH40" t="n">
-        <v>0</v>
       </c>
       <c r="AI40" t="n">
         <v>0</v>
@@ -4978,7 +4978,7 @@
         <v>2</v>
       </c>
       <c r="D42" t="n">
-        <v>0</v>
+        <v>0.003751359867952133</v>
       </c>
       <c r="E42" t="n">
         <v>0</v>
@@ -4993,55 +4993,55 @@
         <v>0</v>
       </c>
       <c r="I42" t="n">
+        <v>0</v>
+      </c>
+      <c r="J42" t="n">
+        <v>0</v>
+      </c>
+      <c r="K42" t="n">
+        <v>0</v>
+      </c>
+      <c r="L42" t="n">
+        <v>0</v>
+      </c>
+      <c r="M42" t="n">
+        <v>0</v>
+      </c>
+      <c r="N42" t="n">
+        <v>0</v>
+      </c>
+      <c r="O42" t="n">
+        <v>0</v>
+      </c>
+      <c r="P42" t="n">
+        <v>0</v>
+      </c>
+      <c r="Q42" t="n">
+        <v>0</v>
+      </c>
+      <c r="R42" t="n">
+        <v>0</v>
+      </c>
+      <c r="S42" t="n">
+        <v>0</v>
+      </c>
+      <c r="T42" t="n">
+        <v>0</v>
+      </c>
+      <c r="U42" t="n">
+        <v>0</v>
+      </c>
+      <c r="V42" t="n">
+        <v>0</v>
+      </c>
+      <c r="W42" t="n">
+        <v>0</v>
+      </c>
+      <c r="X42" t="n">
+        <v>0</v>
+      </c>
+      <c r="Y42" t="n">
         <v>0.007502719735904265</v>
-      </c>
-      <c r="J42" t="n">
-        <v>0</v>
-      </c>
-      <c r="K42" t="n">
-        <v>0</v>
-      </c>
-      <c r="L42" t="n">
-        <v>0</v>
-      </c>
-      <c r="M42" t="n">
-        <v>0</v>
-      </c>
-      <c r="N42" t="n">
-        <v>0</v>
-      </c>
-      <c r="O42" t="n">
-        <v>0</v>
-      </c>
-      <c r="P42" t="n">
-        <v>0</v>
-      </c>
-      <c r="Q42" t="n">
-        <v>0</v>
-      </c>
-      <c r="R42" t="n">
-        <v>0</v>
-      </c>
-      <c r="S42" t="n">
-        <v>0</v>
-      </c>
-      <c r="T42" t="n">
-        <v>0</v>
-      </c>
-      <c r="U42" t="n">
-        <v>0</v>
-      </c>
-      <c r="V42" t="n">
-        <v>0.003751359867952133</v>
-      </c>
-      <c r="W42" t="n">
-        <v>0</v>
-      </c>
-      <c r="X42" t="n">
-        <v>0</v>
-      </c>
-      <c r="Y42" t="n">
-        <v>0</v>
       </c>
       <c r="Z42" t="n">
         <v>0</v>
@@ -5087,97 +5087,97 @@
         <v>2</v>
       </c>
       <c r="D43" t="n">
+        <v>0.02099958000839983</v>
+      </c>
+      <c r="E43" t="n">
+        <v>0</v>
+      </c>
+      <c r="F43" t="n">
+        <v>0</v>
+      </c>
+      <c r="G43" t="n">
+        <v>0</v>
+      </c>
+      <c r="H43" t="n">
+        <v>0</v>
+      </c>
+      <c r="I43" t="n">
+        <v>0</v>
+      </c>
+      <c r="J43" t="n">
+        <v>0</v>
+      </c>
+      <c r="K43" t="n">
+        <v>0</v>
+      </c>
+      <c r="L43" t="n">
+        <v>0</v>
+      </c>
+      <c r="M43" t="n">
+        <v>4.262914741705166</v>
+      </c>
+      <c r="N43" t="n">
+        <v>0</v>
+      </c>
+      <c r="O43" t="n">
+        <v>0</v>
+      </c>
+      <c r="P43" t="n">
+        <v>0</v>
+      </c>
+      <c r="Q43" t="n">
+        <v>0.1679966400671987</v>
+      </c>
+      <c r="R43" t="n">
+        <v>0</v>
+      </c>
+      <c r="S43" t="n">
+        <v>1.007979840403192</v>
+      </c>
+      <c r="T43" t="n">
+        <v>0</v>
+      </c>
+      <c r="U43" t="n">
+        <v>0.2099958000839983</v>
+      </c>
+      <c r="V43" t="n">
         <v>0.04199916001679967</v>
       </c>
-      <c r="E43" t="n">
-        <v>0</v>
-      </c>
-      <c r="F43" t="n">
-        <v>0</v>
-      </c>
-      <c r="G43" t="n">
-        <v>0.2099958000839983</v>
-      </c>
-      <c r="H43" t="n">
-        <v>0</v>
-      </c>
-      <c r="I43" t="n">
-        <v>0</v>
-      </c>
-      <c r="J43" t="n">
-        <v>0</v>
-      </c>
-      <c r="K43" t="n">
-        <v>0</v>
-      </c>
-      <c r="L43" t="n">
-        <v>0</v>
-      </c>
-      <c r="M43" t="n">
-        <v>0</v>
-      </c>
-      <c r="N43" t="n">
-        <v>4.262914741705166</v>
-      </c>
-      <c r="O43" t="n">
-        <v>0</v>
-      </c>
-      <c r="P43" t="n">
-        <v>0</v>
-      </c>
-      <c r="Q43" t="n">
-        <v>0</v>
-      </c>
-      <c r="R43" t="n">
-        <v>0</v>
-      </c>
-      <c r="S43" t="n">
-        <v>0</v>
-      </c>
-      <c r="T43" t="n">
-        <v>0</v>
-      </c>
-      <c r="U43" t="n">
-        <v>1.007979840403192</v>
-      </c>
-      <c r="V43" t="n">
-        <v>0.02099958000839983</v>
-      </c>
       <c r="W43" t="n">
+        <v>0</v>
+      </c>
+      <c r="X43" t="n">
+        <v>0</v>
+      </c>
+      <c r="Y43" t="n">
+        <v>0</v>
+      </c>
+      <c r="Z43" t="n">
+        <v>0</v>
+      </c>
+      <c r="AA43" t="n">
+        <v>0</v>
+      </c>
+      <c r="AB43" t="n">
+        <v>0</v>
+      </c>
+      <c r="AC43" t="n">
+        <v>0</v>
+      </c>
+      <c r="AD43" t="n">
+        <v>0</v>
+      </c>
+      <c r="AE43" t="n">
+        <v>0</v>
+      </c>
+      <c r="AF43" t="n">
+        <v>0</v>
+      </c>
+      <c r="AG43" t="n">
+        <v>0</v>
+      </c>
+      <c r="AH43" t="n">
         <v>0.1679966400671987</v>
-      </c>
-      <c r="X43" t="n">
-        <v>0</v>
-      </c>
-      <c r="Y43" t="n">
-        <v>0</v>
-      </c>
-      <c r="Z43" t="n">
-        <v>0</v>
-      </c>
-      <c r="AA43" t="n">
-        <v>0.1679966400671987</v>
-      </c>
-      <c r="AB43" t="n">
-        <v>0</v>
-      </c>
-      <c r="AC43" t="n">
-        <v>0</v>
-      </c>
-      <c r="AD43" t="n">
-        <v>0</v>
-      </c>
-      <c r="AE43" t="n">
-        <v>0</v>
-      </c>
-      <c r="AF43" t="n">
-        <v>0</v>
-      </c>
-      <c r="AG43" t="n">
-        <v>0</v>
-      </c>
-      <c r="AH43" t="n">
-        <v>0</v>
       </c>
       <c r="AI43" t="n">
         <v>0</v>
@@ -5223,10 +5223,10 @@
         <v>0</v>
       </c>
       <c r="M44" t="n">
-        <v>0</v>
+        <v>0.04927079227433977</v>
       </c>
       <c r="N44" t="n">
-        <v>0.04927079227433977</v>
+        <v>0</v>
       </c>
       <c r="O44" t="n">
         <v>0</v>
@@ -5241,13 +5241,13 @@
         <v>0</v>
       </c>
       <c r="S44" t="n">
-        <v>0</v>
+        <v>0.1675206937327552</v>
       </c>
       <c r="T44" t="n">
         <v>0</v>
       </c>
       <c r="U44" t="n">
-        <v>0.1675206937327552</v>
+        <v>0</v>
       </c>
       <c r="V44" t="n">
         <v>0</v>
@@ -5332,10 +5332,10 @@
         <v>0</v>
       </c>
       <c r="M45" t="n">
-        <v>0</v>
+        <v>4.41</v>
       </c>
       <c r="N45" t="n">
-        <v>4.41</v>
+        <v>0</v>
       </c>
       <c r="O45" t="n">
         <v>0</v>
@@ -5429,32 +5429,32 @@
         <v>0</v>
       </c>
       <c r="I46" t="n">
+        <v>0</v>
+      </c>
+      <c r="J46" t="n">
+        <v>0.03638470764213619</v>
+      </c>
+      <c r="K46" t="n">
+        <v>0</v>
+      </c>
+      <c r="L46" t="n">
+        <v>0</v>
+      </c>
+      <c r="M46" t="n">
+        <v>0</v>
+      </c>
+      <c r="N46" t="n">
+        <v>0</v>
+      </c>
+      <c r="O46" t="n">
+        <v>0</v>
+      </c>
+      <c r="P46" t="n">
+        <v>0</v>
+      </c>
+      <c r="Q46" t="n">
         <v>0.001347581764523563</v>
       </c>
-      <c r="J46" t="n">
-        <v>0</v>
-      </c>
-      <c r="K46" t="n">
-        <v>0</v>
-      </c>
-      <c r="L46" t="n">
-        <v>0</v>
-      </c>
-      <c r="M46" t="n">
-        <v>0</v>
-      </c>
-      <c r="N46" t="n">
-        <v>0</v>
-      </c>
-      <c r="O46" t="n">
-        <v>0</v>
-      </c>
-      <c r="P46" t="n">
-        <v>0</v>
-      </c>
-      <c r="Q46" t="n">
-        <v>0</v>
-      </c>
       <c r="R46" t="n">
         <v>0</v>
       </c>
@@ -5477,13 +5477,13 @@
         <v>0</v>
       </c>
       <c r="Y46" t="n">
-        <v>0</v>
+        <v>0.001347581764523563</v>
       </c>
       <c r="Z46" t="n">
         <v>0</v>
       </c>
       <c r="AA46" t="n">
-        <v>0.001347581764523563</v>
+        <v>0</v>
       </c>
       <c r="AB46" t="n">
         <v>0</v>
@@ -5504,7 +5504,7 @@
         <v>0</v>
       </c>
       <c r="AH46" t="n">
-        <v>0.03638470764213619</v>
+        <v>0</v>
       </c>
       <c r="AI46" t="n">
         <v>0</v>
@@ -5523,7 +5523,7 @@
         <v>2</v>
       </c>
       <c r="D47" t="n">
-        <v>0</v>
+        <v>0.004311273981461522</v>
       </c>
       <c r="E47" t="n">
         <v>0</v>
@@ -5577,7 +5577,7 @@
         <v>0</v>
       </c>
       <c r="V47" t="n">
-        <v>0.004311273981461522</v>
+        <v>0</v>
       </c>
       <c r="W47" t="n">
         <v>0</v>
@@ -5635,94 +5635,94 @@
         <v>0</v>
       </c>
       <c r="E48" t="n">
+        <v>0</v>
+      </c>
+      <c r="F48" t="n">
+        <v>0</v>
+      </c>
+      <c r="G48" t="n">
+        <v>0</v>
+      </c>
+      <c r="H48" t="n">
+        <v>0</v>
+      </c>
+      <c r="I48" t="n">
+        <v>0</v>
+      </c>
+      <c r="J48" t="n">
         <v>0.005966349787200191</v>
       </c>
-      <c r="F48" t="n">
-        <v>0</v>
-      </c>
-      <c r="G48" t="n">
+      <c r="K48" t="n">
+        <v>0.01193269957440038</v>
+      </c>
+      <c r="L48" t="n">
+        <v>0.003977566524800128</v>
+      </c>
+      <c r="M48" t="n">
+        <v>0.09745037985760312</v>
+      </c>
+      <c r="N48" t="n">
+        <v>0</v>
+      </c>
+      <c r="O48" t="n">
+        <v>0.005966349787200191</v>
+      </c>
+      <c r="P48" t="n">
+        <v>0</v>
+      </c>
+      <c r="Q48" t="n">
+        <v>0.04773079829760152</v>
+      </c>
+      <c r="R48" t="n">
+        <v>0.001988783262400064</v>
+      </c>
+      <c r="S48" t="n">
+        <v>1.25293345531204</v>
+      </c>
+      <c r="T48" t="n">
+        <v>0</v>
+      </c>
+      <c r="U48" t="n">
         <v>0.5568593134720178</v>
       </c>
-      <c r="H48" t="n">
-        <v>0.01193269957440038</v>
-      </c>
-      <c r="I48" t="n">
-        <v>0</v>
-      </c>
-      <c r="J48" t="n">
-        <v>0</v>
-      </c>
-      <c r="K48" t="n">
-        <v>0</v>
-      </c>
-      <c r="L48" t="n">
-        <v>0</v>
-      </c>
-      <c r="M48" t="n">
-        <v>0.001988783262400064</v>
-      </c>
-      <c r="N48" t="n">
-        <v>0.09745037985760312</v>
-      </c>
-      <c r="O48" t="n">
-        <v>0</v>
-      </c>
-      <c r="P48" t="n">
-        <v>0</v>
-      </c>
-      <c r="Q48" t="n">
-        <v>0.003977566524800128</v>
-      </c>
-      <c r="R48" t="n">
-        <v>0</v>
-      </c>
-      <c r="S48" t="n">
-        <v>0</v>
-      </c>
-      <c r="T48" t="n">
-        <v>0</v>
-      </c>
-      <c r="U48" t="n">
-        <v>1.25293345531204</v>
-      </c>
       <c r="V48" t="n">
         <v>0</v>
       </c>
       <c r="W48" t="n">
+        <v>0</v>
+      </c>
+      <c r="X48" t="n">
+        <v>0</v>
+      </c>
+      <c r="Y48" t="n">
+        <v>0</v>
+      </c>
+      <c r="Z48" t="n">
+        <v>0</v>
+      </c>
+      <c r="AA48" t="n">
+        <v>0</v>
+      </c>
+      <c r="AB48" t="n">
+        <v>0</v>
+      </c>
+      <c r="AC48" t="n">
+        <v>0</v>
+      </c>
+      <c r="AD48" t="n">
+        <v>0</v>
+      </c>
+      <c r="AE48" t="n">
+        <v>0</v>
+      </c>
+      <c r="AF48" t="n">
+        <v>0</v>
+      </c>
+      <c r="AG48" t="n">
+        <v>0</v>
+      </c>
+      <c r="AH48" t="n">
         <v>0.02585418241120083</v>
-      </c>
-      <c r="X48" t="n">
-        <v>0</v>
-      </c>
-      <c r="Y48" t="n">
-        <v>0</v>
-      </c>
-      <c r="Z48" t="n">
-        <v>0</v>
-      </c>
-      <c r="AA48" t="n">
-        <v>0.04773079829760152</v>
-      </c>
-      <c r="AB48" t="n">
-        <v>0</v>
-      </c>
-      <c r="AC48" t="n">
-        <v>0</v>
-      </c>
-      <c r="AD48" t="n">
-        <v>0</v>
-      </c>
-      <c r="AE48" t="n">
-        <v>0</v>
-      </c>
-      <c r="AF48" t="n">
-        <v>0</v>
-      </c>
-      <c r="AG48" t="n">
-        <v>0</v>
-      </c>
-      <c r="AH48" t="n">
-        <v>0.005966349787200191</v>
       </c>
       <c r="AI48" t="n">
         <v>0</v>
@@ -5768,10 +5768,10 @@
         <v>0</v>
       </c>
       <c r="M49" t="n">
-        <v>0</v>
+        <v>0.1264400112391121</v>
       </c>
       <c r="N49" t="n">
-        <v>0.1264400112391121</v>
+        <v>0</v>
       </c>
       <c r="O49" t="n">
         <v>0</v>
@@ -5786,13 +5786,13 @@
         <v>0</v>
       </c>
       <c r="S49" t="n">
-        <v>0</v>
+        <v>0.01404889013767912</v>
       </c>
       <c r="T49" t="n">
         <v>0</v>
       </c>
       <c r="U49" t="n">
-        <v>0.01404889013767912</v>
+        <v>0</v>
       </c>
       <c r="V49" t="n">
         <v>0</v>
@@ -5877,10 +5877,10 @@
         <v>0</v>
       </c>
       <c r="M50" t="n">
-        <v>0</v>
+        <v>5.7</v>
       </c>
       <c r="N50" t="n">
-        <v>5.7</v>
+        <v>0</v>
       </c>
       <c r="O50" t="n">
         <v>0</v>
@@ -6001,52 +6001,52 @@
         <v>0</v>
       </c>
       <c r="R51" t="n">
+        <v>0</v>
+      </c>
+      <c r="S51" t="n">
+        <v>0</v>
+      </c>
+      <c r="T51" t="n">
+        <v>0</v>
+      </c>
+      <c r="U51" t="n">
+        <v>0</v>
+      </c>
+      <c r="V51" t="n">
+        <v>0</v>
+      </c>
+      <c r="W51" t="n">
+        <v>0</v>
+      </c>
+      <c r="X51" t="n">
+        <v>0</v>
+      </c>
+      <c r="Y51" t="n">
+        <v>0</v>
+      </c>
+      <c r="Z51" t="n">
+        <v>0</v>
+      </c>
+      <c r="AA51" t="n">
+        <v>0</v>
+      </c>
+      <c r="AB51" t="n">
+        <v>0</v>
+      </c>
+      <c r="AC51" t="n">
+        <v>0</v>
+      </c>
+      <c r="AD51" t="n">
+        <v>0</v>
+      </c>
+      <c r="AE51" t="n">
+        <v>0</v>
+      </c>
+      <c r="AF51" t="n">
+        <v>0</v>
+      </c>
+      <c r="AG51" t="n">
         <v>0.04099598670866957</v>
-      </c>
-      <c r="S51" t="n">
-        <v>0</v>
-      </c>
-      <c r="T51" t="n">
-        <v>0</v>
-      </c>
-      <c r="U51" t="n">
-        <v>0</v>
-      </c>
-      <c r="V51" t="n">
-        <v>0</v>
-      </c>
-      <c r="W51" t="n">
-        <v>0</v>
-      </c>
-      <c r="X51" t="n">
-        <v>0</v>
-      </c>
-      <c r="Y51" t="n">
-        <v>0</v>
-      </c>
-      <c r="Z51" t="n">
-        <v>0</v>
-      </c>
-      <c r="AA51" t="n">
-        <v>0</v>
-      </c>
-      <c r="AB51" t="n">
-        <v>0</v>
-      </c>
-      <c r="AC51" t="n">
-        <v>0</v>
-      </c>
-      <c r="AD51" t="n">
-        <v>0</v>
-      </c>
-      <c r="AE51" t="n">
-        <v>0</v>
-      </c>
-      <c r="AF51" t="n">
-        <v>0</v>
-      </c>
-      <c r="AG51" t="n">
-        <v>0</v>
       </c>
       <c r="AH51" t="n">
         <v>0</v>
@@ -6071,7 +6071,7 @@
         <v>0</v>
       </c>
       <c r="E52" t="n">
-        <v>0</v>
+        <v>0.005456331162926049</v>
       </c>
       <c r="F52" t="n">
         <v>0</v>
@@ -6080,17 +6080,17 @@
         <v>0</v>
       </c>
       <c r="H52" t="n">
+        <v>0</v>
+      </c>
+      <c r="I52" t="n">
+        <v>0</v>
+      </c>
+      <c r="J52" t="n">
+        <v>0</v>
+      </c>
+      <c r="K52" t="n">
         <v>0.003637554108617366</v>
       </c>
-      <c r="I52" t="n">
-        <v>0</v>
-      </c>
-      <c r="J52" t="n">
-        <v>0</v>
-      </c>
-      <c r="K52" t="n">
-        <v>0</v>
-      </c>
       <c r="L52" t="n">
         <v>0</v>
       </c>
@@ -6101,7 +6101,7 @@
         <v>0</v>
       </c>
       <c r="O52" t="n">
-        <v>0.005456331162926049</v>
+        <v>0</v>
       </c>
       <c r="P52" t="n">
         <v>0</v>
@@ -6128,7 +6128,7 @@
         <v>0</v>
       </c>
       <c r="X52" t="n">
-        <v>0</v>
+        <v>0.01273143938016078</v>
       </c>
       <c r="Y52" t="n">
         <v>0</v>
@@ -6152,7 +6152,7 @@
         <v>0</v>
       </c>
       <c r="AF52" t="n">
-        <v>0.01273143938016078</v>
+        <v>0</v>
       </c>
       <c r="AG52" t="n">
         <v>0</v>
@@ -6189,7 +6189,7 @@
         <v>0</v>
       </c>
       <c r="H53" t="n">
-        <v>0</v>
+        <v>0.0007963178263708611</v>
       </c>
       <c r="I53" t="n">
         <v>0.0007963178263708611</v>
@@ -6204,23 +6204,23 @@
         <v>0</v>
       </c>
       <c r="M53" t="n">
+        <v>0</v>
+      </c>
+      <c r="N53" t="n">
+        <v>0</v>
+      </c>
+      <c r="O53" t="n">
+        <v>0</v>
+      </c>
+      <c r="P53" t="n">
+        <v>0</v>
+      </c>
+      <c r="Q53" t="n">
+        <v>0.001194476739556292</v>
+      </c>
+      <c r="R53" t="n">
         <v>0.0003981589131854306</v>
       </c>
-      <c r="N53" t="n">
-        <v>0</v>
-      </c>
-      <c r="O53" t="n">
-        <v>0</v>
-      </c>
-      <c r="P53" t="n">
-        <v>0</v>
-      </c>
-      <c r="Q53" t="n">
-        <v>0</v>
-      </c>
-      <c r="R53" t="n">
-        <v>0</v>
-      </c>
       <c r="S53" t="n">
         <v>0</v>
       </c>
@@ -6237,22 +6237,22 @@
         <v>0</v>
       </c>
       <c r="X53" t="n">
+        <v>0</v>
+      </c>
+      <c r="Y53" t="n">
         <v>0.0007963178263708611</v>
       </c>
-      <c r="Y53" t="n">
-        <v>0</v>
-      </c>
       <c r="Z53" t="n">
         <v>0</v>
       </c>
       <c r="AA53" t="n">
-        <v>0.001194476739556292</v>
+        <v>0</v>
       </c>
       <c r="AB53" t="n">
         <v>0</v>
       </c>
       <c r="AC53" t="n">
-        <v>0.0007963178263708611</v>
+        <v>0</v>
       </c>
       <c r="AD53" t="n">
         <v>0</v>
@@ -6304,7 +6304,7 @@
         <v>0</v>
       </c>
       <c r="J54" t="n">
-        <v>0</v>
+        <v>0.264812975835816</v>
       </c>
       <c r="K54" t="n">
         <v>0</v>
@@ -6376,7 +6376,7 @@
         <v>0</v>
       </c>
       <c r="AH54" t="n">
-        <v>0.264812975835816</v>
+        <v>0</v>
       </c>
       <c r="AI54" t="n">
         <v>0</v>
@@ -6410,55 +6410,55 @@
         <v>0</v>
       </c>
       <c r="I55" t="n">
+        <v>0</v>
+      </c>
+      <c r="J55" t="n">
+        <v>0</v>
+      </c>
+      <c r="K55" t="n">
+        <v>0</v>
+      </c>
+      <c r="L55" t="n">
+        <v>0</v>
+      </c>
+      <c r="M55" t="n">
+        <v>0</v>
+      </c>
+      <c r="N55" t="n">
+        <v>0</v>
+      </c>
+      <c r="O55" t="n">
+        <v>0</v>
+      </c>
+      <c r="P55" t="n">
+        <v>0</v>
+      </c>
+      <c r="Q55" t="n">
+        <v>0</v>
+      </c>
+      <c r="R55" t="n">
+        <v>0</v>
+      </c>
+      <c r="S55" t="n">
+        <v>0.005725190839694656</v>
+      </c>
+      <c r="T55" t="n">
+        <v>0</v>
+      </c>
+      <c r="U55" t="n">
+        <v>0</v>
+      </c>
+      <c r="V55" t="n">
+        <v>0</v>
+      </c>
+      <c r="W55" t="n">
+        <v>0</v>
+      </c>
+      <c r="X55" t="n">
+        <v>0</v>
+      </c>
+      <c r="Y55" t="n">
         <v>0.001908396946564886</v>
-      </c>
-      <c r="J55" t="n">
-        <v>0</v>
-      </c>
-      <c r="K55" t="n">
-        <v>0</v>
-      </c>
-      <c r="L55" t="n">
-        <v>0</v>
-      </c>
-      <c r="M55" t="n">
-        <v>0</v>
-      </c>
-      <c r="N55" t="n">
-        <v>0</v>
-      </c>
-      <c r="O55" t="n">
-        <v>0</v>
-      </c>
-      <c r="P55" t="n">
-        <v>0</v>
-      </c>
-      <c r="Q55" t="n">
-        <v>0</v>
-      </c>
-      <c r="R55" t="n">
-        <v>0</v>
-      </c>
-      <c r="S55" t="n">
-        <v>0</v>
-      </c>
-      <c r="T55" t="n">
-        <v>0</v>
-      </c>
-      <c r="U55" t="n">
-        <v>0.005725190839694656</v>
-      </c>
-      <c r="V55" t="n">
-        <v>0</v>
-      </c>
-      <c r="W55" t="n">
-        <v>0</v>
-      </c>
-      <c r="X55" t="n">
-        <v>0</v>
-      </c>
-      <c r="Y55" t="n">
-        <v>0</v>
       </c>
       <c r="Z55" t="n">
         <v>0</v>
@@ -6519,55 +6519,55 @@
         <v>0</v>
       </c>
       <c r="I56" t="n">
+        <v>0</v>
+      </c>
+      <c r="J56" t="n">
+        <v>0</v>
+      </c>
+      <c r="K56" t="n">
+        <v>0</v>
+      </c>
+      <c r="L56" t="n">
+        <v>0</v>
+      </c>
+      <c r="M56" t="n">
+        <v>0</v>
+      </c>
+      <c r="N56" t="n">
+        <v>0</v>
+      </c>
+      <c r="O56" t="n">
+        <v>0</v>
+      </c>
+      <c r="P56" t="n">
+        <v>0</v>
+      </c>
+      <c r="Q56" t="n">
+        <v>0</v>
+      </c>
+      <c r="R56" t="n">
+        <v>0</v>
+      </c>
+      <c r="S56" t="n">
+        <v>0.003489305279318887</v>
+      </c>
+      <c r="T56" t="n">
+        <v>0</v>
+      </c>
+      <c r="U56" t="n">
+        <v>0</v>
+      </c>
+      <c r="V56" t="n">
+        <v>0</v>
+      </c>
+      <c r="W56" t="n">
+        <v>0</v>
+      </c>
+      <c r="X56" t="n">
+        <v>0</v>
+      </c>
+      <c r="Y56" t="n">
         <v>0.01744652639659444</v>
-      </c>
-      <c r="J56" t="n">
-        <v>0</v>
-      </c>
-      <c r="K56" t="n">
-        <v>0</v>
-      </c>
-      <c r="L56" t="n">
-        <v>0</v>
-      </c>
-      <c r="M56" t="n">
-        <v>0</v>
-      </c>
-      <c r="N56" t="n">
-        <v>0</v>
-      </c>
-      <c r="O56" t="n">
-        <v>0</v>
-      </c>
-      <c r="P56" t="n">
-        <v>0</v>
-      </c>
-      <c r="Q56" t="n">
-        <v>0</v>
-      </c>
-      <c r="R56" t="n">
-        <v>0</v>
-      </c>
-      <c r="S56" t="n">
-        <v>0</v>
-      </c>
-      <c r="T56" t="n">
-        <v>0</v>
-      </c>
-      <c r="U56" t="n">
-        <v>0.003489305279318887</v>
-      </c>
-      <c r="V56" t="n">
-        <v>0</v>
-      </c>
-      <c r="W56" t="n">
-        <v>0</v>
-      </c>
-      <c r="X56" t="n">
-        <v>0</v>
-      </c>
-      <c r="Y56" t="n">
-        <v>0</v>
       </c>
       <c r="Z56" t="n">
         <v>0</v>
@@ -6616,7 +6616,7 @@
         <v>0</v>
       </c>
       <c r="E57" t="n">
-        <v>0</v>
+        <v>0.03110602952550695</v>
       </c>
       <c r="F57" t="n">
         <v>0</v>
@@ -6631,7 +6631,7 @@
         <v>0</v>
       </c>
       <c r="J57" t="n">
-        <v>0</v>
+        <v>0.09247738507583145</v>
       </c>
       <c r="K57" t="n">
         <v>0</v>
@@ -6640,31 +6640,31 @@
         <v>0</v>
       </c>
       <c r="M57" t="n">
+        <v>0</v>
+      </c>
+      <c r="N57" t="n">
+        <v>0</v>
+      </c>
+      <c r="O57" t="n">
+        <v>0</v>
+      </c>
+      <c r="P57" t="n">
+        <v>0</v>
+      </c>
+      <c r="Q57" t="n">
+        <v>0.1723442176413222</v>
+      </c>
+      <c r="R57" t="n">
         <v>0.9390658102700339</v>
       </c>
-      <c r="N57" t="n">
-        <v>0</v>
-      </c>
-      <c r="O57" t="n">
-        <v>0.03110602952550695</v>
-      </c>
-      <c r="P57" t="n">
-        <v>0</v>
-      </c>
-      <c r="Q57" t="n">
-        <v>0</v>
-      </c>
-      <c r="R57" t="n">
-        <v>0</v>
-      </c>
       <c r="S57" t="n">
-        <v>0</v>
+        <v>0.01849547701516629</v>
       </c>
       <c r="T57" t="n">
         <v>0</v>
       </c>
       <c r="U57" t="n">
-        <v>0.01849547701516629</v>
+        <v>0</v>
       </c>
       <c r="V57" t="n">
         <v>0</v>
@@ -6682,7 +6682,7 @@
         <v>0</v>
       </c>
       <c r="AA57" t="n">
-        <v>0.1723442176413222</v>
+        <v>0</v>
       </c>
       <c r="AB57" t="n">
         <v>0</v>
@@ -6703,7 +6703,7 @@
         <v>0</v>
       </c>
       <c r="AH57" t="n">
-        <v>0.09247738507583145</v>
+        <v>0</v>
       </c>
       <c r="AI57" t="n">
         <v>0</v>
@@ -6722,97 +6722,97 @@
         <v>1</v>
       </c>
       <c r="D58" t="n">
+        <v>0</v>
+      </c>
+      <c r="E58" t="n">
+        <v>0</v>
+      </c>
+      <c r="F58" t="n">
+        <v>0</v>
+      </c>
+      <c r="G58" t="n">
+        <v>0</v>
+      </c>
+      <c r="H58" t="n">
+        <v>0</v>
+      </c>
+      <c r="I58" t="n">
+        <v>0</v>
+      </c>
+      <c r="J58" t="n">
+        <v>0</v>
+      </c>
+      <c r="K58" t="n">
         <v>0.01542020046260601</v>
       </c>
-      <c r="E58" t="n">
+      <c r="L58" t="n">
+        <v>0.01542020046260601</v>
+      </c>
+      <c r="M58" t="n">
+        <v>0.06168080185042405</v>
+      </c>
+      <c r="N58" t="n">
+        <v>0</v>
+      </c>
+      <c r="O58" t="n">
         <v>0.07710100231303006</v>
       </c>
-      <c r="F58" t="n">
-        <v>0</v>
-      </c>
-      <c r="G58" t="n">
+      <c r="P58" t="n">
+        <v>0</v>
+      </c>
+      <c r="Q58" t="n">
+        <v>1.264456437933693</v>
+      </c>
+      <c r="R58" t="n">
+        <v>0</v>
+      </c>
+      <c r="S58" t="n">
+        <v>0.2158828064764842</v>
+      </c>
+      <c r="T58" t="n">
+        <v>0</v>
+      </c>
+      <c r="U58" t="n">
         <v>0.1233616037008481</v>
       </c>
-      <c r="H58" t="n">
+      <c r="V58" t="n">
         <v>0.01542020046260601</v>
       </c>
-      <c r="I58" t="n">
-        <v>0</v>
-      </c>
-      <c r="J58" t="n">
-        <v>0</v>
-      </c>
-      <c r="K58" t="n">
-        <v>0</v>
-      </c>
-      <c r="L58" t="n">
-        <v>0</v>
-      </c>
-      <c r="M58" t="n">
-        <v>0</v>
-      </c>
-      <c r="N58" t="n">
-        <v>0.06168080185042405</v>
-      </c>
-      <c r="O58" t="n">
-        <v>0</v>
-      </c>
-      <c r="P58" t="n">
-        <v>0</v>
-      </c>
-      <c r="Q58" t="n">
+      <c r="W58" t="n">
+        <v>0</v>
+      </c>
+      <c r="X58" t="n">
+        <v>0</v>
+      </c>
+      <c r="Y58" t="n">
+        <v>0</v>
+      </c>
+      <c r="Z58" t="n">
+        <v>0</v>
+      </c>
+      <c r="AA58" t="n">
+        <v>0</v>
+      </c>
+      <c r="AB58" t="n">
+        <v>0</v>
+      </c>
+      <c r="AC58" t="n">
+        <v>0</v>
+      </c>
+      <c r="AD58" t="n">
+        <v>0</v>
+      </c>
+      <c r="AE58" t="n">
+        <v>0</v>
+      </c>
+      <c r="AF58" t="n">
+        <v>0</v>
+      </c>
+      <c r="AG58" t="n">
+        <v>0.04626060138781804</v>
+      </c>
+      <c r="AH58" t="n">
         <v>0.01542020046260601</v>
-      </c>
-      <c r="R58" t="n">
-        <v>0.04626060138781804</v>
-      </c>
-      <c r="S58" t="n">
-        <v>0</v>
-      </c>
-      <c r="T58" t="n">
-        <v>0</v>
-      </c>
-      <c r="U58" t="n">
-        <v>0.2158828064764842</v>
-      </c>
-      <c r="V58" t="n">
-        <v>0</v>
-      </c>
-      <c r="W58" t="n">
-        <v>0.01542020046260601</v>
-      </c>
-      <c r="X58" t="n">
-        <v>0</v>
-      </c>
-      <c r="Y58" t="n">
-        <v>0</v>
-      </c>
-      <c r="Z58" t="n">
-        <v>0</v>
-      </c>
-      <c r="AA58" t="n">
-        <v>1.264456437933693</v>
-      </c>
-      <c r="AB58" t="n">
-        <v>0</v>
-      </c>
-      <c r="AC58" t="n">
-        <v>0</v>
-      </c>
-      <c r="AD58" t="n">
-        <v>0</v>
-      </c>
-      <c r="AE58" t="n">
-        <v>0</v>
-      </c>
-      <c r="AF58" t="n">
-        <v>0</v>
-      </c>
-      <c r="AG58" t="n">
-        <v>0</v>
-      </c>
-      <c r="AH58" t="n">
-        <v>0</v>
       </c>
       <c r="AI58" t="n">
         <v>0</v>
@@ -6831,100 +6831,100 @@
         <v>1</v>
       </c>
       <c r="D59" t="n">
-        <v>0</v>
+        <v>0.1536983669548511</v>
       </c>
       <c r="E59" t="n">
         <v>0</v>
       </c>
       <c r="F59" t="n">
+        <v>0</v>
+      </c>
+      <c r="G59" t="n">
+        <v>0</v>
+      </c>
+      <c r="H59" t="n">
+        <v>0</v>
+      </c>
+      <c r="I59" t="n">
+        <v>0</v>
+      </c>
+      <c r="J59" t="n">
+        <v>0</v>
+      </c>
+      <c r="K59" t="n">
+        <v>0</v>
+      </c>
+      <c r="L59" t="n">
+        <v>8.93371757925072</v>
+      </c>
+      <c r="M59" t="n">
+        <v>0</v>
+      </c>
+      <c r="N59" t="n">
         <v>0.1152737752161383</v>
       </c>
-      <c r="G59" t="n">
-        <v>0</v>
-      </c>
-      <c r="H59" t="n">
-        <v>0</v>
-      </c>
-      <c r="I59" t="n">
+      <c r="O59" t="n">
+        <v>0</v>
+      </c>
+      <c r="P59" t="n">
+        <v>0</v>
+      </c>
+      <c r="Q59" t="n">
+        <v>1.364073006724304</v>
+      </c>
+      <c r="R59" t="n">
+        <v>3.150816522574448</v>
+      </c>
+      <c r="S59" t="n">
+        <v>0</v>
+      </c>
+      <c r="T59" t="n">
+        <v>0.01921229586935639</v>
+      </c>
+      <c r="U59" t="n">
+        <v>0</v>
+      </c>
+      <c r="V59" t="n">
+        <v>0</v>
+      </c>
+      <c r="W59" t="n">
+        <v>0</v>
+      </c>
+      <c r="X59" t="n">
+        <v>0.01921229586935639</v>
+      </c>
+      <c r="Y59" t="n">
         <v>1.325648414985591</v>
       </c>
-      <c r="J59" t="n">
-        <v>0</v>
-      </c>
-      <c r="K59" t="n">
-        <v>0.01921229586935639</v>
-      </c>
-      <c r="L59" t="n">
-        <v>0</v>
-      </c>
-      <c r="M59" t="n">
-        <v>3.150816522574448</v>
-      </c>
-      <c r="N59" t="n">
-        <v>0</v>
-      </c>
-      <c r="O59" t="n">
-        <v>0</v>
-      </c>
-      <c r="P59" t="n">
+      <c r="Z59" t="n">
+        <v>0</v>
+      </c>
+      <c r="AA59" t="n">
+        <v>0</v>
+      </c>
+      <c r="AB59" t="n">
+        <v>0.1152737752161383</v>
+      </c>
+      <c r="AC59" t="n">
+        <v>0</v>
+      </c>
+      <c r="AD59" t="n">
+        <v>0.03842459173871278</v>
+      </c>
+      <c r="AE59" t="n">
+        <v>0</v>
+      </c>
+      <c r="AF59" t="n">
+        <v>0</v>
+      </c>
+      <c r="AG59" t="n">
+        <v>0</v>
+      </c>
+      <c r="AH59" t="n">
+        <v>2.708933717579251</v>
+      </c>
+      <c r="AI59" t="n">
         <v>0.07684918347742556</v>
-      </c>
-      <c r="Q59" t="n">
-        <v>8.93371757925072</v>
-      </c>
-      <c r="R59" t="n">
-        <v>0</v>
-      </c>
-      <c r="S59" t="n">
-        <v>0</v>
-      </c>
-      <c r="T59" t="n">
-        <v>0</v>
-      </c>
-      <c r="U59" t="n">
-        <v>0</v>
-      </c>
-      <c r="V59" t="n">
-        <v>0.1536983669548511</v>
-      </c>
-      <c r="W59" t="n">
-        <v>2.708933717579251</v>
-      </c>
-      <c r="X59" t="n">
-        <v>0</v>
-      </c>
-      <c r="Y59" t="n">
-        <v>0</v>
-      </c>
-      <c r="Z59" t="n">
-        <v>0</v>
-      </c>
-      <c r="AA59" t="n">
-        <v>1.364073006724304</v>
-      </c>
-      <c r="AB59" t="n">
-        <v>0</v>
-      </c>
-      <c r="AC59" t="n">
-        <v>0</v>
-      </c>
-      <c r="AD59" t="n">
-        <v>0</v>
-      </c>
-      <c r="AE59" t="n">
-        <v>0.03842459173871278</v>
-      </c>
-      <c r="AF59" t="n">
-        <v>0.01921229586935639</v>
-      </c>
-      <c r="AG59" t="n">
-        <v>0.1152737752161383</v>
-      </c>
-      <c r="AH59" t="n">
-        <v>0</v>
-      </c>
-      <c r="AI59" t="n">
-        <v>0</v>
       </c>
     </row>
     <row r="60">
@@ -6940,100 +6940,100 @@
         <v>1</v>
       </c>
       <c r="D60" t="n">
+        <v>0.1331324668044704</v>
+      </c>
+      <c r="E60" t="n">
+        <v>0.05255228952808044</v>
+      </c>
+      <c r="F60" t="n">
+        <v>0</v>
+      </c>
+      <c r="G60" t="n">
+        <v>0</v>
+      </c>
+      <c r="H60" t="n">
+        <v>0</v>
+      </c>
+      <c r="I60" t="n">
+        <v>0.1681673264898574</v>
+      </c>
+      <c r="J60" t="n">
+        <v>0.03503485968538696</v>
+      </c>
+      <c r="K60" t="n">
+        <v>0</v>
+      </c>
+      <c r="L60" t="n">
+        <v>10.57352065304979</v>
+      </c>
+      <c r="M60" t="n">
+        <v>0</v>
+      </c>
+      <c r="N60" t="n">
+        <v>0.2032021861752444</v>
+      </c>
+      <c r="O60" t="n">
         <v>0.007006971937077392</v>
       </c>
-      <c r="E60" t="n">
+      <c r="P60" t="n">
+        <v>0</v>
+      </c>
+      <c r="Q60" t="n">
+        <v>1.261254948673931</v>
+      </c>
+      <c r="R60" t="n">
+        <v>3.619101005500473</v>
+      </c>
+      <c r="S60" t="n">
+        <v>0.04204183162246435</v>
+      </c>
+      <c r="T60" t="n">
+        <v>0.02102091581123218</v>
+      </c>
+      <c r="U60" t="n">
+        <v>0</v>
+      </c>
+      <c r="V60" t="n">
         <v>0.007006971937077392</v>
       </c>
-      <c r="F60" t="n">
+      <c r="W60" t="n">
+        <v>0</v>
+      </c>
+      <c r="X60" t="n">
+        <v>0.01051045790561609</v>
+      </c>
+      <c r="Y60" t="n">
+        <v>0.9459412115054479</v>
+      </c>
+      <c r="Z60" t="n">
+        <v>0.003503485968538696</v>
+      </c>
+      <c r="AA60" t="n">
+        <v>0</v>
+      </c>
+      <c r="AB60" t="n">
         <v>0.07006971937077391</v>
       </c>
-      <c r="G60" t="n">
-        <v>0</v>
-      </c>
-      <c r="H60" t="n">
-        <v>0</v>
-      </c>
-      <c r="I60" t="n">
-        <v>0.9459412115054479</v>
-      </c>
-      <c r="J60" t="n">
+      <c r="AC60" t="n">
         <v>0.003503485968538696</v>
       </c>
-      <c r="K60" t="n">
+      <c r="AD60" t="n">
+        <v>0.1086080650246996</v>
+      </c>
+      <c r="AE60" t="n">
+        <v>0.003503485968538696</v>
+      </c>
+      <c r="AF60" t="n">
+        <v>0.003503485968538696</v>
+      </c>
+      <c r="AG60" t="n">
         <v>0.02102091581123218</v>
       </c>
-      <c r="L60" t="n">
-        <v>0.003503485968538696</v>
-      </c>
-      <c r="M60" t="n">
-        <v>3.619101005500473</v>
-      </c>
-      <c r="N60" t="n">
-        <v>0</v>
-      </c>
-      <c r="O60" t="n">
-        <v>0.05255228952808044</v>
-      </c>
-      <c r="P60" t="n">
+      <c r="AH60" t="n">
+        <v>3.051536278597204</v>
+      </c>
+      <c r="AI60" t="n">
         <v>0.04204183162246435</v>
-      </c>
-      <c r="Q60" t="n">
-        <v>10.57352065304979</v>
-      </c>
-      <c r="R60" t="n">
-        <v>0.02102091581123218</v>
-      </c>
-      <c r="S60" t="n">
-        <v>0</v>
-      </c>
-      <c r="T60" t="n">
-        <v>0</v>
-      </c>
-      <c r="U60" t="n">
-        <v>0.04204183162246435</v>
-      </c>
-      <c r="V60" t="n">
-        <v>0.1331324668044704</v>
-      </c>
-      <c r="W60" t="n">
-        <v>3.051536278597204</v>
-      </c>
-      <c r="X60" t="n">
-        <v>0.1681673264898574</v>
-      </c>
-      <c r="Y60" t="n">
-        <v>0</v>
-      </c>
-      <c r="Z60" t="n">
-        <v>0</v>
-      </c>
-      <c r="AA60" t="n">
-        <v>1.261254948673931</v>
-      </c>
-      <c r="AB60" t="n">
-        <v>0.003503485968538696</v>
-      </c>
-      <c r="AC60" t="n">
-        <v>0</v>
-      </c>
-      <c r="AD60" t="n">
-        <v>0.003503485968538696</v>
-      </c>
-      <c r="AE60" t="n">
-        <v>0.1086080650246996</v>
-      </c>
-      <c r="AF60" t="n">
-        <v>0.01051045790561609</v>
-      </c>
-      <c r="AG60" t="n">
-        <v>0.2032021861752444</v>
-      </c>
-      <c r="AH60" t="n">
-        <v>0.03503485968538696</v>
-      </c>
-      <c r="AI60" t="n">
-        <v>0</v>
       </c>
     </row>
     <row r="61">
@@ -7049,97 +7049,97 @@
         <v>1</v>
       </c>
       <c r="D61" t="n">
+        <v>0.003558845510516389</v>
+      </c>
+      <c r="E61" t="n">
+        <v>0</v>
+      </c>
+      <c r="F61" t="n">
+        <v>0</v>
+      </c>
+      <c r="G61" t="n">
+        <v>0</v>
+      </c>
+      <c r="H61" t="n">
+        <v>0</v>
+      </c>
+      <c r="I61" t="n">
+        <v>0</v>
+      </c>
+      <c r="J61" t="n">
+        <v>0.003558845510516389</v>
+      </c>
+      <c r="K61" t="n">
         <v>0.005338268265774583</v>
       </c>
-      <c r="E61" t="n">
+      <c r="L61" t="n">
+        <v>0</v>
+      </c>
+      <c r="M61" t="n">
+        <v>0.1334567066443646</v>
+      </c>
+      <c r="N61" t="n">
+        <v>0</v>
+      </c>
+      <c r="O61" t="n">
         <v>0.003558845510516389</v>
       </c>
-      <c r="F61" t="n">
-        <v>0</v>
-      </c>
-      <c r="G61" t="n">
+      <c r="P61" t="n">
+        <v>0</v>
+      </c>
+      <c r="Q61" t="n">
+        <v>0.05872095092352041</v>
+      </c>
+      <c r="R61" t="n">
+        <v>0.005338268265774583</v>
+      </c>
+      <c r="S61" t="n">
+        <v>0.5195914445353927</v>
+      </c>
+      <c r="T61" t="n">
+        <v>0</v>
+      </c>
+      <c r="U61" t="n">
         <v>0.09786825153920069</v>
       </c>
-      <c r="H61" t="n">
+      <c r="V61" t="n">
         <v>0.005338268265774583</v>
       </c>
-      <c r="I61" t="n">
-        <v>0</v>
-      </c>
-      <c r="J61" t="n">
-        <v>0</v>
-      </c>
-      <c r="K61" t="n">
-        <v>0</v>
-      </c>
-      <c r="L61" t="n">
-        <v>0</v>
-      </c>
-      <c r="M61" t="n">
-        <v>0.005338268265774583</v>
-      </c>
-      <c r="N61" t="n">
-        <v>0.1334567066443646</v>
-      </c>
-      <c r="O61" t="n">
-        <v>0</v>
-      </c>
-      <c r="P61" t="n">
-        <v>0</v>
-      </c>
-      <c r="Q61" t="n">
-        <v>0</v>
-      </c>
-      <c r="R61" t="n">
-        <v>0</v>
-      </c>
-      <c r="S61" t="n">
-        <v>0</v>
-      </c>
-      <c r="T61" t="n">
-        <v>0</v>
-      </c>
-      <c r="U61" t="n">
-        <v>0.5195914445353927</v>
-      </c>
-      <c r="V61" t="n">
-        <v>0.003558845510516389</v>
-      </c>
       <c r="W61" t="n">
+        <v>0</v>
+      </c>
+      <c r="X61" t="n">
+        <v>0</v>
+      </c>
+      <c r="Y61" t="n">
+        <v>0</v>
+      </c>
+      <c r="Z61" t="n">
+        <v>0</v>
+      </c>
+      <c r="AA61" t="n">
+        <v>0</v>
+      </c>
+      <c r="AB61" t="n">
+        <v>0</v>
+      </c>
+      <c r="AC61" t="n">
+        <v>0</v>
+      </c>
+      <c r="AD61" t="n">
+        <v>0</v>
+      </c>
+      <c r="AE61" t="n">
+        <v>0</v>
+      </c>
+      <c r="AF61" t="n">
+        <v>0</v>
+      </c>
+      <c r="AG61" t="n">
+        <v>0</v>
+      </c>
+      <c r="AH61" t="n">
         <v>0.03380903234990569</v>
-      </c>
-      <c r="X61" t="n">
-        <v>0</v>
-      </c>
-      <c r="Y61" t="n">
-        <v>0</v>
-      </c>
-      <c r="Z61" t="n">
-        <v>0</v>
-      </c>
-      <c r="AA61" t="n">
-        <v>0.05872095092352041</v>
-      </c>
-      <c r="AB61" t="n">
-        <v>0</v>
-      </c>
-      <c r="AC61" t="n">
-        <v>0</v>
-      </c>
-      <c r="AD61" t="n">
-        <v>0</v>
-      </c>
-      <c r="AE61" t="n">
-        <v>0</v>
-      </c>
-      <c r="AF61" t="n">
-        <v>0</v>
-      </c>
-      <c r="AG61" t="n">
-        <v>0</v>
-      </c>
-      <c r="AH61" t="n">
-        <v>0.003558845510516389</v>
       </c>
       <c r="AI61" t="n">
         <v>0</v>
@@ -7158,100 +7158,100 @@
         <v>2</v>
       </c>
       <c r="D62" t="n">
-        <v>0</v>
+        <v>0.03718854592785422</v>
       </c>
       <c r="E62" t="n">
+        <v>0</v>
+      </c>
+      <c r="F62" t="n">
+        <v>0</v>
+      </c>
+      <c r="G62" t="n">
+        <v>0</v>
+      </c>
+      <c r="H62" t="n">
+        <v>0</v>
+      </c>
+      <c r="I62" t="n">
+        <v>0.05578281889178133</v>
+      </c>
+      <c r="J62" t="n">
+        <v>0</v>
+      </c>
+      <c r="K62" t="n">
+        <v>0</v>
+      </c>
+      <c r="L62" t="n">
+        <v>0.7809594644849386</v>
+      </c>
+      <c r="M62" t="n">
+        <v>0</v>
+      </c>
+      <c r="N62" t="n">
+        <v>0</v>
+      </c>
+      <c r="O62" t="n">
         <v>0.07437709185570844</v>
       </c>
-      <c r="F62" t="n">
+      <c r="P62" t="n">
+        <v>0</v>
+      </c>
+      <c r="Q62" t="n">
+        <v>0.3904797322424693</v>
+      </c>
+      <c r="R62" t="n">
+        <v>0.3161026403867608</v>
+      </c>
+      <c r="S62" t="n">
+        <v>0</v>
+      </c>
+      <c r="T62" t="n">
+        <v>0.05578281889178133</v>
+      </c>
+      <c r="U62" t="n">
+        <v>0</v>
+      </c>
+      <c r="V62" t="n">
+        <v>0</v>
+      </c>
+      <c r="W62" t="n">
+        <v>0</v>
+      </c>
+      <c r="X62" t="n">
+        <v>0.01859427296392711</v>
+      </c>
+      <c r="Y62" t="n">
+        <v>0.2975083674228338</v>
+      </c>
+      <c r="Z62" t="n">
+        <v>0.03718854592785422</v>
+      </c>
+      <c r="AA62" t="n">
+        <v>0</v>
+      </c>
+      <c r="AB62" t="n">
         <v>0.1115656377835627</v>
       </c>
-      <c r="G62" t="n">
-        <v>0</v>
-      </c>
-      <c r="H62" t="n">
-        <v>0</v>
-      </c>
-      <c r="I62" t="n">
-        <v>0.2975083674228338</v>
-      </c>
-      <c r="J62" t="n">
-        <v>0</v>
-      </c>
-      <c r="K62" t="n">
+      <c r="AC62" t="n">
+        <v>0</v>
+      </c>
+      <c r="AD62" t="n">
+        <v>0</v>
+      </c>
+      <c r="AE62" t="n">
+        <v>0</v>
+      </c>
+      <c r="AF62" t="n">
+        <v>0</v>
+      </c>
+      <c r="AG62" t="n">
+        <v>0</v>
+      </c>
+      <c r="AH62" t="n">
+        <v>0.2789140944589066</v>
+      </c>
+      <c r="AI62" t="n">
         <v>0.05578281889178133</v>
-      </c>
-      <c r="L62" t="n">
-        <v>0</v>
-      </c>
-      <c r="M62" t="n">
-        <v>0.3161026403867608</v>
-      </c>
-      <c r="N62" t="n">
-        <v>0</v>
-      </c>
-      <c r="O62" t="n">
-        <v>0</v>
-      </c>
-      <c r="P62" t="n">
-        <v>0.05578281889178133</v>
-      </c>
-      <c r="Q62" t="n">
-        <v>0.7809594644849386</v>
-      </c>
-      <c r="R62" t="n">
-        <v>0</v>
-      </c>
-      <c r="S62" t="n">
-        <v>0</v>
-      </c>
-      <c r="T62" t="n">
-        <v>0</v>
-      </c>
-      <c r="U62" t="n">
-        <v>0</v>
-      </c>
-      <c r="V62" t="n">
-        <v>0.03718854592785422</v>
-      </c>
-      <c r="W62" t="n">
-        <v>0.2789140944589066</v>
-      </c>
-      <c r="X62" t="n">
-        <v>0.05578281889178133</v>
-      </c>
-      <c r="Y62" t="n">
-        <v>0</v>
-      </c>
-      <c r="Z62" t="n">
-        <v>0</v>
-      </c>
-      <c r="AA62" t="n">
-        <v>0.3904797322424693</v>
-      </c>
-      <c r="AB62" t="n">
-        <v>0</v>
-      </c>
-      <c r="AC62" t="n">
-        <v>0</v>
-      </c>
-      <c r="AD62" t="n">
-        <v>0.03718854592785422</v>
-      </c>
-      <c r="AE62" t="n">
-        <v>0</v>
-      </c>
-      <c r="AF62" t="n">
-        <v>0.01859427296392711</v>
-      </c>
-      <c r="AG62" t="n">
-        <v>0</v>
-      </c>
-      <c r="AH62" t="n">
-        <v>0</v>
-      </c>
-      <c r="AI62" t="n">
-        <v>0</v>
       </c>
     </row>
     <row r="63">
@@ -7267,100 +7267,100 @@
         <v>2</v>
       </c>
       <c r="D63" t="n">
-        <v>0</v>
+        <v>0.07849978194505015</v>
       </c>
       <c r="E63" t="n">
+        <v>0.00436109899694723</v>
+      </c>
+      <c r="F63" t="n">
+        <v>0</v>
+      </c>
+      <c r="G63" t="n">
+        <v>0</v>
+      </c>
+      <c r="H63" t="n">
+        <v>0</v>
+      </c>
+      <c r="I63" t="n">
+        <v>0.06541648495420846</v>
+      </c>
+      <c r="J63" t="n">
+        <v>0.00436109899694723</v>
+      </c>
+      <c r="K63" t="n">
+        <v>0</v>
+      </c>
+      <c r="L63" t="n">
+        <v>1.626689925861317</v>
+      </c>
+      <c r="M63" t="n">
+        <v>0</v>
+      </c>
+      <c r="N63" t="n">
+        <v>0.02616659398168339</v>
+      </c>
+      <c r="O63" t="n">
         <v>0.008722197993894461</v>
       </c>
-      <c r="F63" t="n">
+      <c r="P63" t="n">
+        <v>0</v>
+      </c>
+      <c r="Q63" t="n">
+        <v>0.5276929786306149</v>
+      </c>
+      <c r="R63" t="n">
+        <v>0.4491931966855648</v>
+      </c>
+      <c r="S63" t="n">
+        <v>0.00436109899694723</v>
+      </c>
+      <c r="T63" t="n">
+        <v>0.02616659398168339</v>
+      </c>
+      <c r="U63" t="n">
+        <v>0</v>
+      </c>
+      <c r="V63" t="n">
+        <v>0</v>
+      </c>
+      <c r="W63" t="n">
+        <v>0</v>
+      </c>
+      <c r="X63" t="n">
+        <v>0</v>
+      </c>
+      <c r="Y63" t="n">
+        <v>1.142607937200175</v>
+      </c>
+      <c r="Z63" t="n">
+        <v>0.00436109899694723</v>
+      </c>
+      <c r="AA63" t="n">
+        <v>0</v>
+      </c>
+      <c r="AB63" t="n">
         <v>0.01308329699084169</v>
       </c>
-      <c r="G63" t="n">
-        <v>0</v>
-      </c>
-      <c r="H63" t="n">
-        <v>0</v>
-      </c>
-      <c r="I63" t="n">
-        <v>1.142607937200175</v>
-      </c>
-      <c r="J63" t="n">
-        <v>0</v>
-      </c>
-      <c r="K63" t="n">
-        <v>0.02616659398168339</v>
-      </c>
-      <c r="L63" t="n">
-        <v>0</v>
-      </c>
-      <c r="M63" t="n">
-        <v>0.4491931966855648</v>
-      </c>
-      <c r="N63" t="n">
-        <v>0</v>
-      </c>
-      <c r="O63" t="n">
-        <v>0.00436109899694723</v>
-      </c>
-      <c r="P63" t="n">
+      <c r="AC63" t="n">
+        <v>0</v>
+      </c>
+      <c r="AD63" t="n">
+        <v>0.04797208896641954</v>
+      </c>
+      <c r="AE63" t="n">
+        <v>0</v>
+      </c>
+      <c r="AF63" t="n">
+        <v>0</v>
+      </c>
+      <c r="AG63" t="n">
+        <v>0</v>
+      </c>
+      <c r="AH63" t="n">
+        <v>0.3576101177496729</v>
+      </c>
+      <c r="AI63" t="n">
         <v>0.01308329699084169</v>
-      </c>
-      <c r="Q63" t="n">
-        <v>1.626689925861317</v>
-      </c>
-      <c r="R63" t="n">
-        <v>0</v>
-      </c>
-      <c r="S63" t="n">
-        <v>0</v>
-      </c>
-      <c r="T63" t="n">
-        <v>0</v>
-      </c>
-      <c r="U63" t="n">
-        <v>0.00436109899694723</v>
-      </c>
-      <c r="V63" t="n">
-        <v>0.07849978194505015</v>
-      </c>
-      <c r="W63" t="n">
-        <v>0.3576101177496729</v>
-      </c>
-      <c r="X63" t="n">
-        <v>0.06541648495420846</v>
-      </c>
-      <c r="Y63" t="n">
-        <v>0</v>
-      </c>
-      <c r="Z63" t="n">
-        <v>0</v>
-      </c>
-      <c r="AA63" t="n">
-        <v>0.5276929786306149</v>
-      </c>
-      <c r="AB63" t="n">
-        <v>0</v>
-      </c>
-      <c r="AC63" t="n">
-        <v>0</v>
-      </c>
-      <c r="AD63" t="n">
-        <v>0.00436109899694723</v>
-      </c>
-      <c r="AE63" t="n">
-        <v>0.04797208896641954</v>
-      </c>
-      <c r="AF63" t="n">
-        <v>0</v>
-      </c>
-      <c r="AG63" t="n">
-        <v>0.02616659398168339</v>
-      </c>
-      <c r="AH63" t="n">
-        <v>0.00436109899694723</v>
-      </c>
-      <c r="AI63" t="n">
-        <v>0</v>
       </c>
     </row>
     <row r="64">
@@ -7376,100 +7376,100 @@
         <v>2</v>
       </c>
       <c r="D64" t="n">
+        <v>0.1386962552011096</v>
+      </c>
+      <c r="E64" t="n">
+        <v>0.02311604253351826</v>
+      </c>
+      <c r="F64" t="n">
+        <v>0</v>
+      </c>
+      <c r="G64" t="n">
+        <v>0</v>
+      </c>
+      <c r="H64" t="n">
+        <v>0</v>
+      </c>
+      <c r="I64" t="n">
+        <v>0.1618122977346279</v>
+      </c>
+      <c r="J64" t="n">
+        <v>0.02311604253351826</v>
+      </c>
+      <c r="K64" t="n">
+        <v>0</v>
+      </c>
+      <c r="L64" t="n">
+        <v>1.363846509477578</v>
+      </c>
+      <c r="M64" t="n">
+        <v>0</v>
+      </c>
+      <c r="N64" t="n">
+        <v>0</v>
+      </c>
+      <c r="O64" t="n">
+        <v>0</v>
+      </c>
+      <c r="P64" t="n">
+        <v>0</v>
+      </c>
+      <c r="Q64" t="n">
+        <v>0.6472491909385114</v>
+      </c>
+      <c r="R64" t="n">
+        <v>0.3929727230698105</v>
+      </c>
+      <c r="S64" t="n">
+        <v>0</v>
+      </c>
+      <c r="T64" t="n">
         <v>0.04623208506703652</v>
       </c>
-      <c r="E64" t="n">
-        <v>0</v>
-      </c>
-      <c r="F64" t="n">
+      <c r="U64" t="n">
+        <v>0</v>
+      </c>
+      <c r="V64" t="n">
+        <v>0.04623208506703652</v>
+      </c>
+      <c r="W64" t="n">
+        <v>0</v>
+      </c>
+      <c r="X64" t="n">
+        <v>0</v>
+      </c>
+      <c r="Y64" t="n">
+        <v>1.109570041608877</v>
+      </c>
+      <c r="Z64" t="n">
+        <v>0</v>
+      </c>
+      <c r="AA64" t="n">
+        <v>0</v>
+      </c>
+      <c r="AB64" t="n">
         <v>0.02311604253351826</v>
       </c>
-      <c r="G64" t="n">
-        <v>0</v>
-      </c>
-      <c r="H64" t="n">
-        <v>0</v>
-      </c>
-      <c r="I64" t="n">
-        <v>1.109570041608877</v>
-      </c>
-      <c r="J64" t="n">
-        <v>0</v>
-      </c>
-      <c r="K64" t="n">
-        <v>0.04623208506703652</v>
-      </c>
-      <c r="L64" t="n">
-        <v>0</v>
-      </c>
-      <c r="M64" t="n">
-        <v>0.3929727230698105</v>
-      </c>
-      <c r="N64" t="n">
-        <v>0</v>
-      </c>
-      <c r="O64" t="n">
+      <c r="AC64" t="n">
+        <v>0</v>
+      </c>
+      <c r="AD64" t="n">
         <v>0.02311604253351826</v>
       </c>
-      <c r="P64" t="n">
+      <c r="AE64" t="n">
+        <v>0</v>
+      </c>
+      <c r="AF64" t="n">
+        <v>0</v>
+      </c>
+      <c r="AG64" t="n">
+        <v>0</v>
+      </c>
+      <c r="AH64" t="n">
+        <v>0.4160887656033287</v>
+      </c>
+      <c r="AI64" t="n">
         <v>0.02311604253351826</v>
-      </c>
-      <c r="Q64" t="n">
-        <v>1.363846509477578</v>
-      </c>
-      <c r="R64" t="n">
-        <v>0</v>
-      </c>
-      <c r="S64" t="n">
-        <v>0</v>
-      </c>
-      <c r="T64" t="n">
-        <v>0</v>
-      </c>
-      <c r="U64" t="n">
-        <v>0</v>
-      </c>
-      <c r="V64" t="n">
-        <v>0.1386962552011096</v>
-      </c>
-      <c r="W64" t="n">
-        <v>0.4160887656033287</v>
-      </c>
-      <c r="X64" t="n">
-        <v>0.1618122977346279</v>
-      </c>
-      <c r="Y64" t="n">
-        <v>0</v>
-      </c>
-      <c r="Z64" t="n">
-        <v>0</v>
-      </c>
-      <c r="AA64" t="n">
-        <v>0.6472491909385114</v>
-      </c>
-      <c r="AB64" t="n">
-        <v>0</v>
-      </c>
-      <c r="AC64" t="n">
-        <v>0</v>
-      </c>
-      <c r="AD64" t="n">
-        <v>0</v>
-      </c>
-      <c r="AE64" t="n">
-        <v>0.02311604253351826</v>
-      </c>
-      <c r="AF64" t="n">
-        <v>0</v>
-      </c>
-      <c r="AG64" t="n">
-        <v>0</v>
-      </c>
-      <c r="AH64" t="n">
-        <v>0.02311604253351826</v>
-      </c>
-      <c r="AI64" t="n">
-        <v>0</v>
       </c>
     </row>
     <row r="65">
@@ -7500,55 +7500,55 @@
         <v>0</v>
       </c>
       <c r="I65" t="n">
+        <v>0</v>
+      </c>
+      <c r="J65" t="n">
+        <v>0</v>
+      </c>
+      <c r="K65" t="n">
+        <v>0</v>
+      </c>
+      <c r="L65" t="n">
+        <v>0</v>
+      </c>
+      <c r="M65" t="n">
+        <v>0</v>
+      </c>
+      <c r="N65" t="n">
+        <v>0</v>
+      </c>
+      <c r="O65" t="n">
+        <v>0</v>
+      </c>
+      <c r="P65" t="n">
+        <v>0</v>
+      </c>
+      <c r="Q65" t="n">
+        <v>0</v>
+      </c>
+      <c r="R65" t="n">
+        <v>0</v>
+      </c>
+      <c r="S65" t="n">
+        <v>0</v>
+      </c>
+      <c r="T65" t="n">
+        <v>0</v>
+      </c>
+      <c r="U65" t="n">
+        <v>0</v>
+      </c>
+      <c r="V65" t="n">
+        <v>0</v>
+      </c>
+      <c r="W65" t="n">
+        <v>0</v>
+      </c>
+      <c r="X65" t="n">
+        <v>0</v>
+      </c>
+      <c r="Y65" t="n">
         <v>7.76</v>
-      </c>
-      <c r="J65" t="n">
-        <v>0</v>
-      </c>
-      <c r="K65" t="n">
-        <v>0</v>
-      </c>
-      <c r="L65" t="n">
-        <v>0</v>
-      </c>
-      <c r="M65" t="n">
-        <v>0</v>
-      </c>
-      <c r="N65" t="n">
-        <v>0</v>
-      </c>
-      <c r="O65" t="n">
-        <v>0</v>
-      </c>
-      <c r="P65" t="n">
-        <v>0</v>
-      </c>
-      <c r="Q65" t="n">
-        <v>0</v>
-      </c>
-      <c r="R65" t="n">
-        <v>0</v>
-      </c>
-      <c r="S65" t="n">
-        <v>0</v>
-      </c>
-      <c r="T65" t="n">
-        <v>0</v>
-      </c>
-      <c r="U65" t="n">
-        <v>0</v>
-      </c>
-      <c r="V65" t="n">
-        <v>0</v>
-      </c>
-      <c r="W65" t="n">
-        <v>0</v>
-      </c>
-      <c r="X65" t="n">
-        <v>0</v>
-      </c>
-      <c r="Y65" t="n">
-        <v>0</v>
       </c>
       <c r="Z65" t="n">
         <v>0</v>
@@ -7594,62 +7594,62 @@
         <v>2</v>
       </c>
       <c r="D66" t="n">
+        <v>0</v>
+      </c>
+      <c r="E66" t="n">
+        <v>0</v>
+      </c>
+      <c r="F66" t="n">
+        <v>0</v>
+      </c>
+      <c r="G66" t="n">
+        <v>0</v>
+      </c>
+      <c r="H66" t="n">
+        <v>0</v>
+      </c>
+      <c r="I66" t="n">
+        <v>0</v>
+      </c>
+      <c r="J66" t="n">
+        <v>0</v>
+      </c>
+      <c r="K66" t="n">
+        <v>0.05443658138268917</v>
+      </c>
+      <c r="L66" t="n">
+        <v>0.05443658138268917</v>
+      </c>
+      <c r="M66" t="n">
+        <v>0.5443658138268916</v>
+      </c>
+      <c r="N66" t="n">
+        <v>0</v>
+      </c>
+      <c r="O66" t="n">
+        <v>0.05443658138268917</v>
+      </c>
+      <c r="P66" t="n">
+        <v>0</v>
+      </c>
+      <c r="Q66" t="n">
+        <v>0.1088731627653783</v>
+      </c>
+      <c r="R66" t="n">
+        <v>0.1633097441480675</v>
+      </c>
+      <c r="S66" t="n">
+        <v>0.2721829069134458</v>
+      </c>
+      <c r="T66" t="n">
+        <v>0</v>
+      </c>
+      <c r="U66" t="n">
+        <v>0.1633097441480675</v>
+      </c>
+      <c r="V66" t="n">
         <v>0.326619488296135</v>
       </c>
-      <c r="E66" t="n">
-        <v>0.05443658138268917</v>
-      </c>
-      <c r="F66" t="n">
-        <v>0</v>
-      </c>
-      <c r="G66" t="n">
-        <v>0.1633097441480675</v>
-      </c>
-      <c r="H66" t="n">
-        <v>0.05443658138268917</v>
-      </c>
-      <c r="I66" t="n">
-        <v>0</v>
-      </c>
-      <c r="J66" t="n">
-        <v>0</v>
-      </c>
-      <c r="K66" t="n">
-        <v>0</v>
-      </c>
-      <c r="L66" t="n">
-        <v>0</v>
-      </c>
-      <c r="M66" t="n">
-        <v>0.1633097441480675</v>
-      </c>
-      <c r="N66" t="n">
-        <v>0.5443658138268916</v>
-      </c>
-      <c r="O66" t="n">
-        <v>0</v>
-      </c>
-      <c r="P66" t="n">
-        <v>0</v>
-      </c>
-      <c r="Q66" t="n">
-        <v>0.05443658138268917</v>
-      </c>
-      <c r="R66" t="n">
-        <v>0</v>
-      </c>
-      <c r="S66" t="n">
-        <v>0</v>
-      </c>
-      <c r="T66" t="n">
-        <v>0</v>
-      </c>
-      <c r="U66" t="n">
-        <v>0.2721829069134458</v>
-      </c>
-      <c r="V66" t="n">
-        <v>0</v>
-      </c>
       <c r="W66" t="n">
         <v>0</v>
       </c>
@@ -7663,7 +7663,7 @@
         <v>0</v>
       </c>
       <c r="AA66" t="n">
-        <v>0.1088731627653783</v>
+        <v>0</v>
       </c>
       <c r="AB66" t="n">
         <v>0</v>
@@ -7718,55 +7718,55 @@
         <v>0</v>
       </c>
       <c r="I67" t="n">
+        <v>0</v>
+      </c>
+      <c r="J67" t="n">
+        <v>0</v>
+      </c>
+      <c r="K67" t="n">
+        <v>0</v>
+      </c>
+      <c r="L67" t="n">
+        <v>0</v>
+      </c>
+      <c r="M67" t="n">
+        <v>0</v>
+      </c>
+      <c r="N67" t="n">
+        <v>0</v>
+      </c>
+      <c r="O67" t="n">
+        <v>0</v>
+      </c>
+      <c r="P67" t="n">
+        <v>0</v>
+      </c>
+      <c r="Q67" t="n">
+        <v>0</v>
+      </c>
+      <c r="R67" t="n">
+        <v>0</v>
+      </c>
+      <c r="S67" t="n">
+        <v>0</v>
+      </c>
+      <c r="T67" t="n">
+        <v>0</v>
+      </c>
+      <c r="U67" t="n">
+        <v>0</v>
+      </c>
+      <c r="V67" t="n">
+        <v>0</v>
+      </c>
+      <c r="W67" t="n">
+        <v>0</v>
+      </c>
+      <c r="X67" t="n">
+        <v>0</v>
+      </c>
+      <c r="Y67" t="n">
         <v>2.18</v>
-      </c>
-      <c r="J67" t="n">
-        <v>0</v>
-      </c>
-      <c r="K67" t="n">
-        <v>0</v>
-      </c>
-      <c r="L67" t="n">
-        <v>0</v>
-      </c>
-      <c r="M67" t="n">
-        <v>0</v>
-      </c>
-      <c r="N67" t="n">
-        <v>0</v>
-      </c>
-      <c r="O67" t="n">
-        <v>0</v>
-      </c>
-      <c r="P67" t="n">
-        <v>0</v>
-      </c>
-      <c r="Q67" t="n">
-        <v>0</v>
-      </c>
-      <c r="R67" t="n">
-        <v>0</v>
-      </c>
-      <c r="S67" t="n">
-        <v>0</v>
-      </c>
-      <c r="T67" t="n">
-        <v>0</v>
-      </c>
-      <c r="U67" t="n">
-        <v>0</v>
-      </c>
-      <c r="V67" t="n">
-        <v>0</v>
-      </c>
-      <c r="W67" t="n">
-        <v>0</v>
-      </c>
-      <c r="X67" t="n">
-        <v>0</v>
-      </c>
-      <c r="Y67" t="n">
-        <v>0</v>
       </c>
       <c r="Z67" t="n">
         <v>0</v>
@@ -7815,67 +7815,67 @@
         <v>0</v>
       </c>
       <c r="E68" t="n">
+        <v>0</v>
+      </c>
+      <c r="F68" t="n">
+        <v>0</v>
+      </c>
+      <c r="G68" t="n">
+        <v>0</v>
+      </c>
+      <c r="H68" t="n">
+        <v>0</v>
+      </c>
+      <c r="I68" t="n">
+        <v>0</v>
+      </c>
+      <c r="J68" t="n">
+        <v>0</v>
+      </c>
+      <c r="K68" t="n">
+        <v>0</v>
+      </c>
+      <c r="L68" t="n">
+        <v>0</v>
+      </c>
+      <c r="M68" t="n">
+        <v>0</v>
+      </c>
+      <c r="N68" t="n">
+        <v>0</v>
+      </c>
+      <c r="O68" t="n">
         <v>0.05374242720343951</v>
       </c>
-      <c r="F68" t="n">
-        <v>0</v>
-      </c>
-      <c r="G68" t="n">
-        <v>0</v>
-      </c>
-      <c r="H68" t="n">
-        <v>0</v>
-      </c>
-      <c r="I68" t="n">
+      <c r="P68" t="n">
+        <v>0.01465702560093805</v>
+      </c>
+      <c r="Q68" t="n">
+        <v>0</v>
+      </c>
+      <c r="R68" t="n">
+        <v>0</v>
+      </c>
+      <c r="S68" t="n">
+        <v>0</v>
+      </c>
+      <c r="T68" t="n">
+        <v>0</v>
+      </c>
+      <c r="U68" t="n">
+        <v>0</v>
+      </c>
+      <c r="V68" t="n">
+        <v>0</v>
+      </c>
+      <c r="W68" t="n">
+        <v>0</v>
+      </c>
+      <c r="X68" t="n">
+        <v>0</v>
+      </c>
+      <c r="Y68" t="n">
         <v>0.0293140512018761</v>
-      </c>
-      <c r="J68" t="n">
-        <v>0</v>
-      </c>
-      <c r="K68" t="n">
-        <v>0</v>
-      </c>
-      <c r="L68" t="n">
-        <v>0</v>
-      </c>
-      <c r="M68" t="n">
-        <v>0</v>
-      </c>
-      <c r="N68" t="n">
-        <v>0</v>
-      </c>
-      <c r="O68" t="n">
-        <v>0</v>
-      </c>
-      <c r="P68" t="n">
-        <v>0</v>
-      </c>
-      <c r="Q68" t="n">
-        <v>0</v>
-      </c>
-      <c r="R68" t="n">
-        <v>0</v>
-      </c>
-      <c r="S68" t="n">
-        <v>0.01465702560093805</v>
-      </c>
-      <c r="T68" t="n">
-        <v>0</v>
-      </c>
-      <c r="U68" t="n">
-        <v>0</v>
-      </c>
-      <c r="V68" t="n">
-        <v>0</v>
-      </c>
-      <c r="W68" t="n">
-        <v>0</v>
-      </c>
-      <c r="X68" t="n">
-        <v>0</v>
-      </c>
-      <c r="Y68" t="n">
-        <v>0</v>
       </c>
       <c r="Z68" t="n">
         <v>0</v>
@@ -7924,91 +7924,91 @@
         <v>0</v>
       </c>
       <c r="E69" t="n">
+        <v>0</v>
+      </c>
+      <c r="F69" t="n">
+        <v>0</v>
+      </c>
+      <c r="G69" t="n">
+        <v>0</v>
+      </c>
+      <c r="H69" t="n">
+        <v>0</v>
+      </c>
+      <c r="I69" t="n">
+        <v>0</v>
+      </c>
+      <c r="J69" t="n">
+        <v>0</v>
+      </c>
+      <c r="K69" t="n">
+        <v>0.02117186259461176</v>
+      </c>
+      <c r="L69" t="n">
+        <v>0</v>
+      </c>
+      <c r="M69" t="n">
+        <v>0</v>
+      </c>
+      <c r="N69" t="n">
+        <v>0</v>
+      </c>
+      <c r="O69" t="n">
         <v>0.6298629121896998</v>
       </c>
-      <c r="F69" t="n">
-        <v>0</v>
-      </c>
-      <c r="G69" t="n">
-        <v>0</v>
-      </c>
-      <c r="H69" t="n">
-        <v>0.02117186259461176</v>
-      </c>
-      <c r="I69" t="n">
-        <v>0</v>
-      </c>
-      <c r="J69" t="n">
-        <v>0</v>
-      </c>
-      <c r="K69" t="n">
-        <v>0</v>
-      </c>
-      <c r="L69" t="n">
-        <v>0</v>
-      </c>
-      <c r="M69" t="n">
-        <v>0</v>
-      </c>
-      <c r="N69" t="n">
-        <v>0</v>
-      </c>
-      <c r="O69" t="n">
-        <v>0</v>
-      </c>
       <c r="P69" t="n">
-        <v>0</v>
+        <v>0.01058593129730588</v>
       </c>
       <c r="Q69" t="n">
         <v>0</v>
       </c>
       <c r="R69" t="n">
+        <v>0</v>
+      </c>
+      <c r="S69" t="n">
+        <v>0</v>
+      </c>
+      <c r="T69" t="n">
+        <v>0</v>
+      </c>
+      <c r="U69" t="n">
+        <v>0</v>
+      </c>
+      <c r="V69" t="n">
+        <v>0</v>
+      </c>
+      <c r="W69" t="n">
+        <v>0</v>
+      </c>
+      <c r="X69" t="n">
+        <v>0</v>
+      </c>
+      <c r="Y69" t="n">
+        <v>0</v>
+      </c>
+      <c r="Z69" t="n">
+        <v>0</v>
+      </c>
+      <c r="AA69" t="n">
+        <v>0</v>
+      </c>
+      <c r="AB69" t="n">
+        <v>0</v>
+      </c>
+      <c r="AC69" t="n">
+        <v>0</v>
+      </c>
+      <c r="AD69" t="n">
+        <v>0</v>
+      </c>
+      <c r="AE69" t="n">
+        <v>0</v>
+      </c>
+      <c r="AF69" t="n">
+        <v>0</v>
+      </c>
+      <c r="AG69" t="n">
         <v>0.005292965648652941</v>
-      </c>
-      <c r="S69" t="n">
-        <v>0.01058593129730588</v>
-      </c>
-      <c r="T69" t="n">
-        <v>0</v>
-      </c>
-      <c r="U69" t="n">
-        <v>0</v>
-      </c>
-      <c r="V69" t="n">
-        <v>0</v>
-      </c>
-      <c r="W69" t="n">
-        <v>0</v>
-      </c>
-      <c r="X69" t="n">
-        <v>0</v>
-      </c>
-      <c r="Y69" t="n">
-        <v>0</v>
-      </c>
-      <c r="Z69" t="n">
-        <v>0</v>
-      </c>
-      <c r="AA69" t="n">
-        <v>0</v>
-      </c>
-      <c r="AB69" t="n">
-        <v>0</v>
-      </c>
-      <c r="AC69" t="n">
-        <v>0</v>
-      </c>
-      <c r="AD69" t="n">
-        <v>0</v>
-      </c>
-      <c r="AE69" t="n">
-        <v>0</v>
-      </c>
-      <c r="AF69" t="n">
-        <v>0</v>
-      </c>
-      <c r="AG69" t="n">
-        <v>0</v>
       </c>
       <c r="AH69" t="n">
         <v>0</v>
@@ -8045,61 +8045,61 @@
         <v>0</v>
       </c>
       <c r="I70" t="n">
+        <v>0</v>
+      </c>
+      <c r="J70" t="n">
+        <v>0</v>
+      </c>
+      <c r="K70" t="n">
+        <v>0</v>
+      </c>
+      <c r="L70" t="n">
+        <v>0</v>
+      </c>
+      <c r="M70" t="n">
+        <v>0</v>
+      </c>
+      <c r="N70" t="n">
+        <v>0</v>
+      </c>
+      <c r="O70" t="n">
+        <v>0</v>
+      </c>
+      <c r="P70" t="n">
+        <v>0</v>
+      </c>
+      <c r="Q70" t="n">
+        <v>5.11</v>
+      </c>
+      <c r="R70" t="n">
+        <v>0</v>
+      </c>
+      <c r="S70" t="n">
+        <v>0</v>
+      </c>
+      <c r="T70" t="n">
+        <v>0</v>
+      </c>
+      <c r="U70" t="n">
+        <v>0</v>
+      </c>
+      <c r="V70" t="n">
+        <v>0</v>
+      </c>
+      <c r="W70" t="n">
+        <v>0</v>
+      </c>
+      <c r="X70" t="n">
+        <v>0</v>
+      </c>
+      <c r="Y70" t="n">
         <v>5.23</v>
       </c>
-      <c r="J70" t="n">
-        <v>0</v>
-      </c>
-      <c r="K70" t="n">
-        <v>0</v>
-      </c>
-      <c r="L70" t="n">
-        <v>0</v>
-      </c>
-      <c r="M70" t="n">
-        <v>0</v>
-      </c>
-      <c r="N70" t="n">
-        <v>0</v>
-      </c>
-      <c r="O70" t="n">
-        <v>0</v>
-      </c>
-      <c r="P70" t="n">
-        <v>0</v>
-      </c>
-      <c r="Q70" t="n">
-        <v>0</v>
-      </c>
-      <c r="R70" t="n">
-        <v>0</v>
-      </c>
-      <c r="S70" t="n">
-        <v>0</v>
-      </c>
-      <c r="T70" t="n">
-        <v>0</v>
-      </c>
-      <c r="U70" t="n">
-        <v>0</v>
-      </c>
-      <c r="V70" t="n">
-        <v>0</v>
-      </c>
-      <c r="W70" t="n">
-        <v>0</v>
-      </c>
-      <c r="X70" t="n">
-        <v>0</v>
-      </c>
-      <c r="Y70" t="n">
-        <v>0</v>
-      </c>
       <c r="Z70" t="n">
         <v>0</v>
       </c>
       <c r="AA70" t="n">
-        <v>5.11</v>
+        <v>0</v>
       </c>
       <c r="AB70" t="n">
         <v>0</v>
@@ -8178,7 +8178,7 @@
         <v>0</v>
       </c>
       <c r="Q71" t="n">
-        <v>0</v>
+        <v>1.25</v>
       </c>
       <c r="R71" t="n">
         <v>0</v>
@@ -8208,7 +8208,7 @@
         <v>0</v>
       </c>
       <c r="AA71" t="n">
-        <v>1.25</v>
+        <v>0</v>
       </c>
       <c r="AB71" t="n">
         <v>0</v>
@@ -8217,10 +8217,10 @@
         <v>0</v>
       </c>
       <c r="AD71" t="n">
-        <v>0</v>
+        <v>2.3</v>
       </c>
       <c r="AE71" t="n">
-        <v>2.3</v>
+        <v>0</v>
       </c>
       <c r="AF71" t="n">
         <v>0</v>

--- a/data/OLS_all.xlsx
+++ b/data/OLS_all.xlsx
@@ -446,162 +446,162 @@
       </c>
       <c r="D1" s="1" t="inlineStr">
         <is>
+          <t>565</t>
+        </is>
+      </c>
+      <c r="E1" s="1" t="inlineStr">
+        <is>
+          <t>771</t>
+        </is>
+      </c>
+      <c r="F1" s="1" t="inlineStr">
+        <is>
+          <t>657</t>
+        </is>
+      </c>
+      <c r="G1" s="1" t="inlineStr">
+        <is>
+          <t>201</t>
+        </is>
+      </c>
+      <c r="H1" s="1" t="inlineStr">
+        <is>
+          <t>584</t>
+        </is>
+      </c>
+      <c r="I1" s="1" t="inlineStr">
+        <is>
+          <t>725</t>
+        </is>
+      </c>
+      <c r="J1" s="1" t="inlineStr">
+        <is>
+          <t>480</t>
+        </is>
+      </c>
+      <c r="K1" s="1" t="inlineStr">
+        <is>
+          <t>214</t>
+        </is>
+      </c>
+      <c r="L1" s="1" t="inlineStr">
+        <is>
+          <t>871</t>
+        </is>
+      </c>
+      <c r="M1" s="1" t="inlineStr">
+        <is>
+          <t>428</t>
+        </is>
+      </c>
+      <c r="N1" s="1" t="inlineStr">
+        <is>
+          <t>337</t>
+        </is>
+      </c>
+      <c r="O1" s="1" t="inlineStr">
+        <is>
+          <t>541</t>
+        </is>
+      </c>
+      <c r="P1" s="1" t="inlineStr">
+        <is>
+          <t>140</t>
+        </is>
+      </c>
+      <c r="Q1" s="1" t="inlineStr">
+        <is>
+          <t>426</t>
+        </is>
+      </c>
+      <c r="R1" s="1" t="inlineStr">
+        <is>
           <t>678</t>
         </is>
       </c>
-      <c r="E1" s="1" t="inlineStr">
-        <is>
-          <t>565</t>
-        </is>
-      </c>
-      <c r="F1" s="1" t="inlineStr">
+      <c r="S1" s="1" t="inlineStr">
+        <is>
+          <t>712</t>
+        </is>
+      </c>
+      <c r="T1" s="1" t="inlineStr">
+        <is>
+          <t>605</t>
+        </is>
+      </c>
+      <c r="U1" s="1" t="inlineStr">
+        <is>
+          <t>342</t>
+        </is>
+      </c>
+      <c r="V1" s="1" t="inlineStr">
+        <is>
+          <t>799</t>
+        </is>
+      </c>
+      <c r="W1" s="1" t="inlineStr">
+        <is>
+          <t>90</t>
+        </is>
+      </c>
+      <c r="X1" s="1" t="inlineStr">
         <is>
           <t>410</t>
         </is>
       </c>
-      <c r="G1" s="1" t="inlineStr">
-        <is>
-          <t>342</t>
-        </is>
-      </c>
-      <c r="H1" s="1" t="inlineStr">
-        <is>
-          <t>771</t>
-        </is>
-      </c>
-      <c r="I1" s="1" t="inlineStr">
-        <is>
-          <t>605</t>
-        </is>
-      </c>
-      <c r="J1" s="1" t="inlineStr">
+      <c r="Y1" s="1" t="inlineStr">
+        <is>
+          <t>229</t>
+        </is>
+      </c>
+      <c r="Z1" s="1" t="inlineStr">
+        <is>
+          <t>625</t>
+        </is>
+      </c>
+      <c r="AA1" s="1" t="inlineStr">
         <is>
           <t>23</t>
         </is>
       </c>
-      <c r="K1" s="1" t="inlineStr">
-        <is>
-          <t>140</t>
-        </is>
-      </c>
-      <c r="L1" s="1" t="inlineStr">
-        <is>
-          <t>712</t>
-        </is>
-      </c>
-      <c r="M1" s="1" t="inlineStr">
-        <is>
-          <t>214</t>
-        </is>
-      </c>
-      <c r="N1" s="1" t="inlineStr">
-        <is>
-          <t>90</t>
-        </is>
-      </c>
-      <c r="O1" s="1" t="inlineStr">
+      <c r="AB1" s="1" t="inlineStr">
+        <is>
+          <t>91</t>
+        </is>
+      </c>
+      <c r="AC1" s="1" t="inlineStr">
+        <is>
+          <t>334</t>
+        </is>
+      </c>
+      <c r="AD1" s="1" t="inlineStr">
         <is>
           <t>470</t>
         </is>
       </c>
-      <c r="P1" s="1" t="inlineStr">
+      <c r="AE1" s="1" t="inlineStr">
+        <is>
+          <t>549</t>
+        </is>
+      </c>
+      <c r="AF1" s="1" t="inlineStr">
         <is>
           <t>92</t>
         </is>
       </c>
-      <c r="Q1" s="1" t="inlineStr">
-        <is>
-          <t>549</t>
-        </is>
-      </c>
-      <c r="R1" s="1" t="inlineStr">
-        <is>
-          <t>625</t>
-        </is>
-      </c>
-      <c r="S1" s="1" t="inlineStr">
-        <is>
-          <t>229</t>
-        </is>
-      </c>
-      <c r="T1" s="1" t="inlineStr">
+      <c r="AG1" s="1" t="inlineStr">
+        <is>
+          <t>494</t>
+        </is>
+      </c>
+      <c r="AH1" s="1" t="inlineStr">
         <is>
           <t>79</t>
         </is>
       </c>
-      <c r="U1" s="1" t="inlineStr">
-        <is>
-          <t>584</t>
-        </is>
-      </c>
-      <c r="V1" s="1" t="inlineStr">
-        <is>
-          <t>725</t>
-        </is>
-      </c>
-      <c r="W1" s="1" t="inlineStr">
-        <is>
-          <t>799</t>
-        </is>
-      </c>
-      <c r="X1" s="1" t="inlineStr">
-        <is>
-          <t>657</t>
-        </is>
-      </c>
-      <c r="Y1" s="1" t="inlineStr">
-        <is>
-          <t>91</t>
-        </is>
-      </c>
-      <c r="Z1" s="1" t="inlineStr">
-        <is>
-          <t>428</t>
-        </is>
-      </c>
-      <c r="AA1" s="1" t="inlineStr">
-        <is>
-          <t>201</t>
-        </is>
-      </c>
-      <c r="AB1" s="1" t="inlineStr">
-        <is>
-          <t>426</t>
-        </is>
-      </c>
-      <c r="AC1" s="1" t="inlineStr">
-        <is>
-          <t>541</t>
-        </is>
-      </c>
-      <c r="AD1" s="1" t="inlineStr">
-        <is>
-          <t>334</t>
-        </is>
-      </c>
-      <c r="AE1" s="1" t="inlineStr">
-        <is>
-          <t>494</t>
-        </is>
-      </c>
-      <c r="AF1" s="1" t="inlineStr">
+      <c r="AI1" s="1" t="inlineStr">
         <is>
           <t>88</t>
-        </is>
-      </c>
-      <c r="AG1" s="1" t="inlineStr">
-        <is>
-          <t>337</t>
-        </is>
-      </c>
-      <c r="AH1" s="1" t="inlineStr">
-        <is>
-          <t>871</t>
-        </is>
-      </c>
-      <c r="AI1" s="1" t="inlineStr">
-        <is>
-          <t>480</t>
         </is>
       </c>
     </row>
@@ -618,10 +618,10 @@
         <v>3</v>
       </c>
       <c r="D2" t="n">
-        <v>0</v>
+        <v>0.1723395088323998</v>
       </c>
       <c r="E2" t="n">
-        <v>0.1723395088323998</v>
+        <v>0</v>
       </c>
       <c r="F2" t="n">
         <v>0</v>
@@ -633,73 +633,73 @@
         <v>0</v>
       </c>
       <c r="I2" t="n">
+        <v>0.4523912106850495</v>
+      </c>
+      <c r="J2" t="n">
+        <v>0</v>
+      </c>
+      <c r="K2" t="n">
+        <v>0</v>
+      </c>
+      <c r="L2" t="n">
+        <v>0</v>
+      </c>
+      <c r="M2" t="n">
+        <v>0</v>
+      </c>
+      <c r="N2" t="n">
+        <v>0</v>
+      </c>
+      <c r="O2" t="n">
+        <v>0</v>
+      </c>
+      <c r="P2" t="n">
+        <v>0</v>
+      </c>
+      <c r="Q2" t="n">
+        <v>0</v>
+      </c>
+      <c r="R2" t="n">
+        <v>0</v>
+      </c>
+      <c r="S2" t="n">
+        <v>0</v>
+      </c>
+      <c r="T2" t="n">
         <v>0.6247307195174493</v>
       </c>
-      <c r="J2" t="n">
+      <c r="U2" t="n">
+        <v>0</v>
+      </c>
+      <c r="V2" t="n">
+        <v>0</v>
+      </c>
+      <c r="W2" t="n">
+        <v>0</v>
+      </c>
+      <c r="X2" t="n">
+        <v>0</v>
+      </c>
+      <c r="Y2" t="n">
+        <v>0</v>
+      </c>
+      <c r="Z2" t="n">
+        <v>0</v>
+      </c>
+      <c r="AA2" t="n">
         <v>0.2800517018526497</v>
       </c>
-      <c r="K2" t="n">
-        <v>0</v>
-      </c>
-      <c r="L2" t="n">
-        <v>0</v>
-      </c>
-      <c r="M2" t="n">
-        <v>0</v>
-      </c>
-      <c r="N2" t="n">
-        <v>0</v>
-      </c>
-      <c r="O2" t="n">
-        <v>0</v>
-      </c>
-      <c r="P2" t="n">
-        <v>0</v>
-      </c>
-      <c r="Q2" t="n">
+      <c r="AB2" t="n">
+        <v>0.1938819474364498</v>
+      </c>
+      <c r="AC2" t="n">
+        <v>0.02154243860404998</v>
+      </c>
+      <c r="AD2" t="n">
+        <v>0</v>
+      </c>
+      <c r="AE2" t="n">
         <v>0.2154243860404998</v>
-      </c>
-      <c r="R2" t="n">
-        <v>0</v>
-      </c>
-      <c r="S2" t="n">
-        <v>0</v>
-      </c>
-      <c r="T2" t="n">
-        <v>0</v>
-      </c>
-      <c r="U2" t="n">
-        <v>0</v>
-      </c>
-      <c r="V2" t="n">
-        <v>0.4523912106850495</v>
-      </c>
-      <c r="W2" t="n">
-        <v>0</v>
-      </c>
-      <c r="X2" t="n">
-        <v>0</v>
-      </c>
-      <c r="Y2" t="n">
-        <v>0.1938819474364498</v>
-      </c>
-      <c r="Z2" t="n">
-        <v>0</v>
-      </c>
-      <c r="AA2" t="n">
-        <v>0</v>
-      </c>
-      <c r="AB2" t="n">
-        <v>0</v>
-      </c>
-      <c r="AC2" t="n">
-        <v>0</v>
-      </c>
-      <c r="AD2" t="n">
-        <v>0.02154243860404998</v>
-      </c>
-      <c r="AE2" t="n">
-        <v>0</v>
       </c>
       <c r="AF2" t="n">
         <v>0</v>
@@ -727,10 +727,10 @@
         <v>1</v>
       </c>
       <c r="D3" t="n">
-        <v>0</v>
+        <v>0.2466325175488522</v>
       </c>
       <c r="E3" t="n">
-        <v>0.2466325175488522</v>
+        <v>0</v>
       </c>
       <c r="F3" t="n">
         <v>0</v>
@@ -742,85 +742,85 @@
         <v>0</v>
       </c>
       <c r="I3" t="n">
+        <v>0.3035477139062797</v>
+      </c>
+      <c r="J3" t="n">
+        <v>0</v>
+      </c>
+      <c r="K3" t="n">
+        <v>0</v>
+      </c>
+      <c r="L3" t="n">
+        <v>0</v>
+      </c>
+      <c r="M3" t="n">
+        <v>0</v>
+      </c>
+      <c r="N3" t="n">
+        <v>0</v>
+      </c>
+      <c r="O3" t="n">
+        <v>0</v>
+      </c>
+      <c r="P3" t="n">
+        <v>0</v>
+      </c>
+      <c r="Q3" t="n">
+        <v>0</v>
+      </c>
+      <c r="R3" t="n">
+        <v>0</v>
+      </c>
+      <c r="S3" t="n">
+        <v>0</v>
+      </c>
+      <c r="T3" t="n">
         <v>0.834756213242269</v>
       </c>
-      <c r="J3" t="n">
+      <c r="U3" t="n">
+        <v>0</v>
+      </c>
+      <c r="V3" t="n">
+        <v>0</v>
+      </c>
+      <c r="W3" t="n">
+        <v>0</v>
+      </c>
+      <c r="X3" t="n">
+        <v>0</v>
+      </c>
+      <c r="Y3" t="n">
+        <v>0</v>
+      </c>
+      <c r="Z3" t="n">
+        <v>0</v>
+      </c>
+      <c r="AA3" t="n">
         <v>1.233162587744261</v>
       </c>
-      <c r="K3" t="n">
-        <v>0</v>
-      </c>
-      <c r="L3" t="n">
-        <v>0</v>
-      </c>
-      <c r="M3" t="n">
-        <v>0</v>
-      </c>
-      <c r="N3" t="n">
-        <v>0</v>
-      </c>
-      <c r="O3" t="n">
-        <v>0</v>
-      </c>
-      <c r="P3" t="n">
-        <v>0</v>
-      </c>
-      <c r="Q3" t="n">
+      <c r="AB3" t="n">
+        <v>0.1138303927148549</v>
+      </c>
+      <c r="AC3" t="n">
+        <v>0</v>
+      </c>
+      <c r="AD3" t="n">
+        <v>0</v>
+      </c>
+      <c r="AE3" t="n">
         <v>0.3035477139062797</v>
       </c>
-      <c r="R3" t="n">
-        <v>0</v>
-      </c>
-      <c r="S3" t="n">
-        <v>0</v>
-      </c>
-      <c r="T3" t="n">
-        <v>0</v>
-      </c>
-      <c r="U3" t="n">
-        <v>0</v>
-      </c>
-      <c r="V3" t="n">
-        <v>0.3035477139062797</v>
-      </c>
-      <c r="W3" t="n">
-        <v>0</v>
-      </c>
-      <c r="X3" t="n">
-        <v>0</v>
-      </c>
-      <c r="Y3" t="n">
-        <v>0.1138303927148549</v>
-      </c>
-      <c r="Z3" t="n">
-        <v>0</v>
-      </c>
-      <c r="AA3" t="n">
-        <v>0</v>
-      </c>
-      <c r="AB3" t="n">
-        <v>0</v>
-      </c>
-      <c r="AC3" t="n">
-        <v>0</v>
-      </c>
-      <c r="AD3" t="n">
-        <v>0</v>
-      </c>
-      <c r="AE3" t="n">
-        <v>0</v>
-      </c>
       <c r="AF3" t="n">
+        <v>0</v>
+      </c>
+      <c r="AG3" t="n">
+        <v>0</v>
+      </c>
+      <c r="AH3" t="n">
+        <v>0</v>
+      </c>
+      <c r="AI3" t="n">
         <v>0.01897173211914248</v>
-      </c>
-      <c r="AG3" t="n">
-        <v>0</v>
-      </c>
-      <c r="AH3" t="n">
-        <v>0</v>
-      </c>
-      <c r="AI3" t="n">
-        <v>0</v>
       </c>
     </row>
     <row r="4">
@@ -836,10 +836,10 @@
         <v>1</v>
       </c>
       <c r="D4" t="n">
-        <v>0</v>
+        <v>1.485391603240855</v>
       </c>
       <c r="E4" t="n">
-        <v>1.485391603240855</v>
+        <v>0</v>
       </c>
       <c r="F4" t="n">
         <v>0</v>
@@ -851,79 +851,79 @@
         <v>0</v>
       </c>
       <c r="I4" t="n">
+        <v>3.584581389639087</v>
+      </c>
+      <c r="J4" t="n">
+        <v>0.01227596366314756</v>
+      </c>
+      <c r="K4" t="n">
+        <v>0</v>
+      </c>
+      <c r="L4" t="n">
+        <v>0</v>
+      </c>
+      <c r="M4" t="n">
+        <v>0.07365578197888534</v>
+      </c>
+      <c r="N4" t="n">
+        <v>0.01227596366314756</v>
+      </c>
+      <c r="O4" t="n">
+        <v>0.01227596366314756</v>
+      </c>
+      <c r="P4" t="n">
+        <v>0</v>
+      </c>
+      <c r="Q4" t="n">
+        <v>0.02455192732629511</v>
+      </c>
+      <c r="R4" t="n">
+        <v>0</v>
+      </c>
+      <c r="S4" t="n">
+        <v>0.01227596366314756</v>
+      </c>
+      <c r="T4" t="n">
         <v>0.7979376381045912</v>
       </c>
-      <c r="J4" t="n">
+      <c r="U4" t="n">
+        <v>0</v>
+      </c>
+      <c r="V4" t="n">
+        <v>0</v>
+      </c>
+      <c r="W4" t="n">
+        <v>0</v>
+      </c>
+      <c r="X4" t="n">
+        <v>0</v>
+      </c>
+      <c r="Y4" t="n">
+        <v>0</v>
+      </c>
+      <c r="Z4" t="n">
+        <v>0</v>
+      </c>
+      <c r="AA4" t="n">
         <v>0.3068990915786889</v>
       </c>
-      <c r="K4" t="n">
-        <v>0</v>
-      </c>
-      <c r="L4" t="n">
-        <v>0.01227596366314756</v>
-      </c>
-      <c r="M4" t="n">
-        <v>0</v>
-      </c>
-      <c r="N4" t="n">
-        <v>0</v>
-      </c>
-      <c r="O4" t="n">
-        <v>0</v>
-      </c>
-      <c r="P4" t="n">
-        <v>0</v>
-      </c>
-      <c r="Q4" t="n">
+      <c r="AB4" t="n">
+        <v>0.2332433095998036</v>
+      </c>
+      <c r="AC4" t="n">
+        <v>0</v>
+      </c>
+      <c r="AD4" t="n">
+        <v>0</v>
+      </c>
+      <c r="AE4" t="n">
         <v>0.3068990915786889</v>
       </c>
-      <c r="R4" t="n">
-        <v>0</v>
-      </c>
-      <c r="S4" t="n">
-        <v>0</v>
-      </c>
-      <c r="T4" t="n">
-        <v>0</v>
-      </c>
-      <c r="U4" t="n">
-        <v>0</v>
-      </c>
-      <c r="V4" t="n">
-        <v>3.584581389639087</v>
-      </c>
-      <c r="W4" t="n">
-        <v>0</v>
-      </c>
-      <c r="X4" t="n">
-        <v>0</v>
-      </c>
-      <c r="Y4" t="n">
-        <v>0.2332433095998036</v>
-      </c>
-      <c r="Z4" t="n">
-        <v>0.07365578197888534</v>
-      </c>
-      <c r="AA4" t="n">
-        <v>0</v>
-      </c>
-      <c r="AB4" t="n">
-        <v>0.02455192732629511</v>
-      </c>
-      <c r="AC4" t="n">
-        <v>0.01227596366314756</v>
-      </c>
-      <c r="AD4" t="n">
-        <v>0</v>
-      </c>
-      <c r="AE4" t="n">
-        <v>0</v>
-      </c>
       <c r="AF4" t="n">
-        <v>0.01227596366314756</v>
+        <v>0</v>
       </c>
       <c r="AG4" t="n">
-        <v>0.01227596366314756</v>
+        <v>0</v>
       </c>
       <c r="AH4" t="n">
         <v>0</v>
@@ -945,10 +945,10 @@
         <v>1</v>
       </c>
       <c r="D5" t="n">
-        <v>0</v>
+        <v>4.400907948960928</v>
       </c>
       <c r="E5" t="n">
-        <v>4.400907948960928</v>
+        <v>0</v>
       </c>
       <c r="F5" t="n">
         <v>0</v>
@@ -960,85 +960,85 @@
         <v>0</v>
       </c>
       <c r="I5" t="n">
+        <v>2.053903960156026</v>
+      </c>
+      <c r="J5" t="n">
+        <v>0</v>
+      </c>
+      <c r="K5" t="n">
+        <v>0</v>
+      </c>
+      <c r="L5" t="n">
+        <v>0</v>
+      </c>
+      <c r="M5" t="n">
+        <v>0.002203759613901316</v>
+      </c>
+      <c r="N5" t="n">
+        <v>0</v>
+      </c>
+      <c r="O5" t="n">
+        <v>0.02203759613901316</v>
+      </c>
+      <c r="P5" t="n">
+        <v>0</v>
+      </c>
+      <c r="Q5" t="n">
+        <v>0.006611278841703947</v>
+      </c>
+      <c r="R5" t="n">
+        <v>0</v>
+      </c>
+      <c r="S5" t="n">
+        <v>0</v>
+      </c>
+      <c r="T5" t="n">
         <v>1.439055027877559</v>
       </c>
-      <c r="J5" t="n">
+      <c r="U5" t="n">
+        <v>0</v>
+      </c>
+      <c r="V5" t="n">
+        <v>0</v>
+      </c>
+      <c r="W5" t="n">
+        <v>0</v>
+      </c>
+      <c r="X5" t="n">
+        <v>0</v>
+      </c>
+      <c r="Y5" t="n">
+        <v>0</v>
+      </c>
+      <c r="Z5" t="n">
+        <v>0.004407519227802631</v>
+      </c>
+      <c r="AA5" t="n">
         <v>2.201555854287414</v>
       </c>
-      <c r="K5" t="n">
-        <v>0</v>
-      </c>
-      <c r="L5" t="n">
-        <v>0</v>
-      </c>
-      <c r="M5" t="n">
-        <v>0</v>
-      </c>
-      <c r="N5" t="n">
-        <v>0</v>
-      </c>
-      <c r="O5" t="n">
-        <v>0</v>
-      </c>
-      <c r="P5" t="n">
-        <v>0</v>
-      </c>
-      <c r="Q5" t="n">
+      <c r="AB5" t="n">
+        <v>0.1410406152896842</v>
+      </c>
+      <c r="AC5" t="n">
+        <v>0.002203759613901316</v>
+      </c>
+      <c r="AD5" t="n">
+        <v>0</v>
+      </c>
+      <c r="AE5" t="n">
         <v>0.2291909998457368</v>
       </c>
-      <c r="R5" t="n">
-        <v>0.004407519227802631</v>
-      </c>
-      <c r="S5" t="n">
-        <v>0</v>
-      </c>
-      <c r="T5" t="n">
-        <v>0</v>
-      </c>
-      <c r="U5" t="n">
-        <v>0</v>
-      </c>
-      <c r="V5" t="n">
-        <v>2.053903960156026</v>
-      </c>
-      <c r="W5" t="n">
-        <v>0</v>
-      </c>
-      <c r="X5" t="n">
-        <v>0</v>
-      </c>
-      <c r="Y5" t="n">
-        <v>0.1410406152896842</v>
-      </c>
-      <c r="Z5" t="n">
+      <c r="AF5" t="n">
+        <v>0</v>
+      </c>
+      <c r="AG5" t="n">
         <v>0.002203759613901316</v>
       </c>
-      <c r="AA5" t="n">
-        <v>0</v>
-      </c>
-      <c r="AB5" t="n">
-        <v>0.006611278841703947</v>
-      </c>
-      <c r="AC5" t="n">
-        <v>0.02203759613901316</v>
-      </c>
-      <c r="AD5" t="n">
-        <v>0.002203759613901316</v>
-      </c>
-      <c r="AE5" t="n">
-        <v>0.002203759613901316</v>
-      </c>
-      <c r="AF5" t="n">
+      <c r="AH5" t="n">
+        <v>0</v>
+      </c>
+      <c r="AI5" t="n">
         <v>0.01542631729730921</v>
-      </c>
-      <c r="AG5" t="n">
-        <v>0</v>
-      </c>
-      <c r="AH5" t="n">
-        <v>0</v>
-      </c>
-      <c r="AI5" t="n">
-        <v>0</v>
       </c>
     </row>
     <row r="6">
@@ -1054,100 +1054,100 @@
         <v>1</v>
       </c>
       <c r="D6" t="n">
+        <v>1.073071967605375</v>
+      </c>
+      <c r="E6" t="n">
+        <v>0</v>
+      </c>
+      <c r="F6" t="n">
+        <v>0</v>
+      </c>
+      <c r="G6" t="n">
+        <v>0</v>
+      </c>
+      <c r="H6" t="n">
+        <v>0</v>
+      </c>
+      <c r="I6" t="n">
+        <v>3.740106755015645</v>
+      </c>
+      <c r="J6" t="n">
+        <v>0</v>
+      </c>
+      <c r="K6" t="n">
+        <v>0</v>
+      </c>
+      <c r="L6" t="n">
+        <v>0.00184060371801951</v>
+      </c>
+      <c r="M6" t="n">
+        <v>0.003681207436039021</v>
+      </c>
+      <c r="N6" t="n">
+        <v>0.01288422602613657</v>
+      </c>
+      <c r="O6" t="n">
+        <v>0</v>
+      </c>
+      <c r="P6" t="n">
+        <v>0</v>
+      </c>
+      <c r="Q6" t="n">
         <v>0.007362414872078041</v>
       </c>
-      <c r="E6" t="n">
-        <v>1.073071967605375</v>
-      </c>
-      <c r="F6" t="n">
+      <c r="R6" t="n">
+        <v>0.007362414872078041</v>
+      </c>
+      <c r="S6" t="n">
+        <v>0</v>
+      </c>
+      <c r="T6" t="n">
+        <v>1.006810233756672</v>
+      </c>
+      <c r="U6" t="n">
+        <v>0</v>
+      </c>
+      <c r="V6" t="n">
+        <v>0</v>
+      </c>
+      <c r="W6" t="n">
         <v>0.00184060371801951</v>
       </c>
-      <c r="G6" t="n">
-        <v>0</v>
-      </c>
-      <c r="H6" t="n">
-        <v>0</v>
-      </c>
-      <c r="I6" t="n">
-        <v>1.006810233756672</v>
-      </c>
-      <c r="J6" t="n">
+      <c r="X6" t="n">
+        <v>0.00184060371801951</v>
+      </c>
+      <c r="Y6" t="n">
+        <v>0.00184060371801951</v>
+      </c>
+      <c r="Z6" t="n">
+        <v>0</v>
+      </c>
+      <c r="AA6" t="n">
         <v>0.9147800478556966</v>
       </c>
-      <c r="K6" t="n">
-        <v>0</v>
-      </c>
-      <c r="L6" t="n">
-        <v>0</v>
-      </c>
-      <c r="M6" t="n">
-        <v>0</v>
-      </c>
-      <c r="N6" t="n">
+      <c r="AB6" t="n">
+        <v>0.2043070127001657</v>
+      </c>
+      <c r="AC6" t="n">
+        <v>0.003681207436039021</v>
+      </c>
+      <c r="AD6" t="n">
         <v>0.00184060371801951</v>
       </c>
-      <c r="O6" t="n">
+      <c r="AE6" t="n">
+        <v>0.3349898766795509</v>
+      </c>
+      <c r="AF6" t="n">
         <v>0.00184060371801951</v>
       </c>
-      <c r="P6" t="n">
-        <v>0.00184060371801951</v>
-      </c>
-      <c r="Q6" t="n">
-        <v>0.3349898766795509</v>
-      </c>
-      <c r="R6" t="n">
-        <v>0</v>
-      </c>
-      <c r="S6" t="n">
-        <v>0.00184060371801951</v>
-      </c>
-      <c r="T6" t="n">
+      <c r="AG6" t="n">
+        <v>0</v>
+      </c>
+      <c r="AH6" t="n">
         <v>0.003681207436039021</v>
       </c>
-      <c r="U6" t="n">
-        <v>0</v>
-      </c>
-      <c r="V6" t="n">
-        <v>3.740106755015645</v>
-      </c>
-      <c r="W6" t="n">
-        <v>0</v>
-      </c>
-      <c r="X6" t="n">
-        <v>0</v>
-      </c>
-      <c r="Y6" t="n">
-        <v>0.2043070127001657</v>
-      </c>
-      <c r="Z6" t="n">
-        <v>0.003681207436039021</v>
-      </c>
-      <c r="AA6" t="n">
-        <v>0</v>
-      </c>
-      <c r="AB6" t="n">
-        <v>0.007362414872078041</v>
-      </c>
-      <c r="AC6" t="n">
-        <v>0</v>
-      </c>
-      <c r="AD6" t="n">
-        <v>0.003681207436039021</v>
-      </c>
-      <c r="AE6" t="n">
-        <v>0</v>
-      </c>
-      <c r="AF6" t="n">
+      <c r="AI6" t="n">
         <v>0.03313086692435119</v>
-      </c>
-      <c r="AG6" t="n">
-        <v>0.01288422602613657</v>
-      </c>
-      <c r="AH6" t="n">
-        <v>0.00184060371801951</v>
-      </c>
-      <c r="AI6" t="n">
-        <v>0</v>
       </c>
     </row>
     <row r="7">
@@ -1272,100 +1272,100 @@
         <v>2</v>
       </c>
       <c r="D8" t="n">
+        <v>0.3904450103067782</v>
+      </c>
+      <c r="E8" t="n">
+        <v>0</v>
+      </c>
+      <c r="F8" t="n">
+        <v>0</v>
+      </c>
+      <c r="G8" t="n">
+        <v>0</v>
+      </c>
+      <c r="H8" t="n">
+        <v>0</v>
+      </c>
+      <c r="I8" t="n">
+        <v>0.4680489875106099</v>
+      </c>
+      <c r="J8" t="n">
+        <v>0</v>
+      </c>
+      <c r="K8" t="n">
+        <v>0</v>
+      </c>
+      <c r="L8" t="n">
+        <v>0</v>
+      </c>
+      <c r="M8" t="n">
+        <v>0.004850248575239481</v>
+      </c>
+      <c r="N8" t="n">
+        <v>0.009700497150478962</v>
+      </c>
+      <c r="O8" t="n">
+        <v>0</v>
+      </c>
+      <c r="P8" t="n">
+        <v>0</v>
+      </c>
+      <c r="Q8" t="n">
+        <v>0</v>
+      </c>
+      <c r="R8" t="n">
         <v>0.00242512428761974</v>
       </c>
-      <c r="E8" t="n">
-        <v>0.3904450103067782</v>
-      </c>
-      <c r="F8" t="n">
-        <v>0</v>
-      </c>
-      <c r="G8" t="n">
-        <v>0</v>
-      </c>
-      <c r="H8" t="n">
-        <v>0</v>
-      </c>
-      <c r="I8" t="n">
+      <c r="S8" t="n">
+        <v>0</v>
+      </c>
+      <c r="T8" t="n">
         <v>0.4995756032496665</v>
       </c>
-      <c r="J8" t="n">
+      <c r="U8" t="n">
+        <v>0</v>
+      </c>
+      <c r="V8" t="n">
+        <v>0</v>
+      </c>
+      <c r="W8" t="n">
+        <v>0</v>
+      </c>
+      <c r="X8" t="n">
+        <v>0</v>
+      </c>
+      <c r="Y8" t="n">
+        <v>0</v>
+      </c>
+      <c r="Z8" t="n">
+        <v>0</v>
+      </c>
+      <c r="AA8" t="n">
         <v>0.2303868073238753</v>
       </c>
-      <c r="K8" t="n">
-        <v>0</v>
-      </c>
-      <c r="L8" t="n">
-        <v>0</v>
-      </c>
-      <c r="M8" t="n">
-        <v>0</v>
-      </c>
-      <c r="N8" t="n">
-        <v>0</v>
-      </c>
-      <c r="O8" t="n">
-        <v>0</v>
-      </c>
-      <c r="P8" t="n">
-        <v>0</v>
-      </c>
-      <c r="Q8" t="n">
+      <c r="AB8" t="n">
+        <v>0.2182611858857766</v>
+      </c>
+      <c r="AC8" t="n">
+        <v>0.01455074572571844</v>
+      </c>
+      <c r="AD8" t="n">
+        <v>0</v>
+      </c>
+      <c r="AE8" t="n">
         <v>0.2012853158724384</v>
       </c>
-      <c r="R8" t="n">
-        <v>0</v>
-      </c>
-      <c r="S8" t="n">
-        <v>0</v>
-      </c>
-      <c r="T8" t="n">
+      <c r="AF8" t="n">
+        <v>0</v>
+      </c>
+      <c r="AG8" t="n">
+        <v>0</v>
+      </c>
+      <c r="AH8" t="n">
         <v>0.00242512428761974</v>
       </c>
-      <c r="U8" t="n">
-        <v>0</v>
-      </c>
-      <c r="V8" t="n">
-        <v>0.4680489875106099</v>
-      </c>
-      <c r="W8" t="n">
-        <v>0</v>
-      </c>
-      <c r="X8" t="n">
-        <v>0</v>
-      </c>
-      <c r="Y8" t="n">
-        <v>0.2182611858857766</v>
-      </c>
-      <c r="Z8" t="n">
-        <v>0.004850248575239481</v>
-      </c>
-      <c r="AA8" t="n">
-        <v>0</v>
-      </c>
-      <c r="AB8" t="n">
-        <v>0</v>
-      </c>
-      <c r="AC8" t="n">
-        <v>0</v>
-      </c>
-      <c r="AD8" t="n">
-        <v>0.01455074572571844</v>
-      </c>
-      <c r="AE8" t="n">
-        <v>0</v>
-      </c>
-      <c r="AF8" t="n">
+      <c r="AI8" t="n">
         <v>0.007275372862859222</v>
-      </c>
-      <c r="AG8" t="n">
-        <v>0.009700497150478962</v>
-      </c>
-      <c r="AH8" t="n">
-        <v>0</v>
-      </c>
-      <c r="AI8" t="n">
-        <v>0</v>
       </c>
     </row>
     <row r="9">
@@ -1490,100 +1490,100 @@
         <v>3</v>
       </c>
       <c r="D10" t="n">
+        <v>0.3751339764201501</v>
+      </c>
+      <c r="E10" t="n">
+        <v>0</v>
+      </c>
+      <c r="F10" t="n">
+        <v>0</v>
+      </c>
+      <c r="G10" t="n">
+        <v>0</v>
+      </c>
+      <c r="H10" t="n">
+        <v>0</v>
+      </c>
+      <c r="I10" t="n">
+        <v>0.3989520066690485</v>
+      </c>
+      <c r="J10" t="n">
+        <v>0.002977253781112302</v>
+      </c>
+      <c r="K10" t="n">
+        <v>0</v>
+      </c>
+      <c r="L10" t="n">
+        <v>0.002977253781112302</v>
+      </c>
+      <c r="M10" t="n">
+        <v>0.01488626890556151</v>
+      </c>
+      <c r="N10" t="n">
+        <v>0.005954507562224604</v>
+      </c>
+      <c r="O10" t="n">
+        <v>0</v>
+      </c>
+      <c r="P10" t="n">
+        <v>0</v>
+      </c>
+      <c r="Q10" t="n">
+        <v>0.008931761343336906</v>
+      </c>
+      <c r="R10" t="n">
         <v>0.06549958318447065</v>
       </c>
-      <c r="E10" t="n">
-        <v>0.3751339764201501</v>
-      </c>
-      <c r="F10" t="n">
-        <v>0</v>
-      </c>
-      <c r="G10" t="n">
-        <v>0</v>
-      </c>
-      <c r="H10" t="n">
-        <v>0</v>
-      </c>
-      <c r="I10" t="n">
+      <c r="S10" t="n">
+        <v>0</v>
+      </c>
+      <c r="T10" t="n">
         <v>1.155174467071573</v>
       </c>
-      <c r="J10" t="n">
+      <c r="U10" t="n">
+        <v>0</v>
+      </c>
+      <c r="V10" t="n">
+        <v>0</v>
+      </c>
+      <c r="W10" t="n">
+        <v>0</v>
+      </c>
+      <c r="X10" t="n">
+        <v>0</v>
+      </c>
+      <c r="Y10" t="n">
+        <v>0</v>
+      </c>
+      <c r="Z10" t="n">
+        <v>0</v>
+      </c>
+      <c r="AA10" t="n">
         <v>0.2590210789567703</v>
       </c>
-      <c r="K10" t="n">
-        <v>0</v>
-      </c>
-      <c r="L10" t="n">
-        <v>0</v>
-      </c>
-      <c r="M10" t="n">
-        <v>0</v>
-      </c>
-      <c r="N10" t="n">
-        <v>0</v>
-      </c>
-      <c r="O10" t="n">
+      <c r="AB10" t="n">
+        <v>0.2768846016434441</v>
+      </c>
+      <c r="AC10" t="n">
+        <v>0</v>
+      </c>
+      <c r="AD10" t="n">
         <v>0.005954507562224604</v>
       </c>
-      <c r="P10" t="n">
-        <v>0</v>
-      </c>
-      <c r="Q10" t="n">
+      <c r="AE10" t="n">
         <v>0.4138382755746099</v>
       </c>
-      <c r="R10" t="n">
-        <v>0</v>
-      </c>
-      <c r="S10" t="n">
-        <v>0</v>
-      </c>
-      <c r="T10" t="n">
-        <v>0</v>
-      </c>
-      <c r="U10" t="n">
-        <v>0</v>
-      </c>
-      <c r="V10" t="n">
-        <v>0.3989520066690485</v>
-      </c>
-      <c r="W10" t="n">
-        <v>0</v>
-      </c>
-      <c r="X10" t="n">
-        <v>0</v>
-      </c>
-      <c r="Y10" t="n">
-        <v>0.2768846016434441</v>
-      </c>
-      <c r="Z10" t="n">
-        <v>0.01488626890556151</v>
-      </c>
-      <c r="AA10" t="n">
-        <v>0</v>
-      </c>
-      <c r="AB10" t="n">
-        <v>0.008931761343336906</v>
-      </c>
-      <c r="AC10" t="n">
-        <v>0</v>
-      </c>
-      <c r="AD10" t="n">
-        <v>0</v>
-      </c>
-      <c r="AE10" t="n">
-        <v>0</v>
-      </c>
       <c r="AF10" t="n">
+        <v>0</v>
+      </c>
+      <c r="AG10" t="n">
+        <v>0</v>
+      </c>
+      <c r="AH10" t="n">
+        <v>0</v>
+      </c>
+      <c r="AI10" t="n">
         <v>0.005954507562224604</v>
-      </c>
-      <c r="AG10" t="n">
-        <v>0.005954507562224604</v>
-      </c>
-      <c r="AH10" t="n">
-        <v>0.002977253781112302</v>
-      </c>
-      <c r="AI10" t="n">
-        <v>0.002977253781112302</v>
       </c>
     </row>
     <row r="11">
@@ -1599,50 +1599,50 @@
         <v>2</v>
       </c>
       <c r="D11" t="n">
+        <v>0</v>
+      </c>
+      <c r="E11" t="n">
+        <v>0</v>
+      </c>
+      <c r="F11" t="n">
+        <v>0</v>
+      </c>
+      <c r="G11" t="n">
+        <v>0</v>
+      </c>
+      <c r="H11" t="n">
+        <v>0</v>
+      </c>
+      <c r="I11" t="n">
+        <v>0</v>
+      </c>
+      <c r="J11" t="n">
+        <v>0</v>
+      </c>
+      <c r="K11" t="n">
+        <v>0</v>
+      </c>
+      <c r="L11" t="n">
+        <v>0</v>
+      </c>
+      <c r="M11" t="n">
+        <v>0</v>
+      </c>
+      <c r="N11" t="n">
+        <v>0</v>
+      </c>
+      <c r="O11" t="n">
+        <v>0</v>
+      </c>
+      <c r="P11" t="n">
+        <v>0</v>
+      </c>
+      <c r="Q11" t="n">
+        <v>0</v>
+      </c>
+      <c r="R11" t="n">
         <v>0.57</v>
       </c>
-      <c r="E11" t="n">
-        <v>0</v>
-      </c>
-      <c r="F11" t="n">
-        <v>0</v>
-      </c>
-      <c r="G11" t="n">
-        <v>0</v>
-      </c>
-      <c r="H11" t="n">
-        <v>0</v>
-      </c>
-      <c r="I11" t="n">
-        <v>0</v>
-      </c>
-      <c r="J11" t="n">
-        <v>0</v>
-      </c>
-      <c r="K11" t="n">
-        <v>0</v>
-      </c>
-      <c r="L11" t="n">
-        <v>0</v>
-      </c>
-      <c r="M11" t="n">
-        <v>0</v>
-      </c>
-      <c r="N11" t="n">
-        <v>0</v>
-      </c>
-      <c r="O11" t="n">
-        <v>0</v>
-      </c>
-      <c r="P11" t="n">
-        <v>0</v>
-      </c>
-      <c r="Q11" t="n">
-        <v>0</v>
-      </c>
-      <c r="R11" t="n">
-        <v>0</v>
-      </c>
       <c r="S11" t="n">
         <v>0</v>
       </c>
@@ -1662,16 +1662,16 @@
         <v>0</v>
       </c>
       <c r="Y11" t="n">
+        <v>0</v>
+      </c>
+      <c r="Z11" t="n">
+        <v>0</v>
+      </c>
+      <c r="AA11" t="n">
+        <v>0</v>
+      </c>
+      <c r="AB11" t="n">
         <v>2.42</v>
-      </c>
-      <c r="Z11" t="n">
-        <v>0</v>
-      </c>
-      <c r="AA11" t="n">
-        <v>0</v>
-      </c>
-      <c r="AB11" t="n">
-        <v>0</v>
       </c>
       <c r="AC11" t="n">
         <v>0</v>
@@ -1708,88 +1708,88 @@
         <v>3</v>
       </c>
       <c r="D12" t="n">
+        <v>0</v>
+      </c>
+      <c r="E12" t="n">
+        <v>0</v>
+      </c>
+      <c r="F12" t="n">
+        <v>0</v>
+      </c>
+      <c r="G12" t="n">
+        <v>0</v>
+      </c>
+      <c r="H12" t="n">
+        <v>0.07674597083653108</v>
+      </c>
+      <c r="I12" t="n">
+        <v>0</v>
+      </c>
+      <c r="J12" t="n">
+        <v>0</v>
+      </c>
+      <c r="K12" t="n">
+        <v>0.920951650038373</v>
+      </c>
+      <c r="L12" t="n">
+        <v>0</v>
+      </c>
+      <c r="M12" t="n">
+        <v>0</v>
+      </c>
+      <c r="N12" t="n">
+        <v>0</v>
+      </c>
+      <c r="O12" t="n">
+        <v>0</v>
+      </c>
+      <c r="P12" t="n">
+        <v>0</v>
+      </c>
+      <c r="Q12" t="n">
+        <v>0</v>
+      </c>
+      <c r="R12" t="n">
         <v>0.0255819902788437</v>
       </c>
-      <c r="E12" t="n">
-        <v>0</v>
-      </c>
-      <c r="F12" t="n">
-        <v>0</v>
-      </c>
-      <c r="G12" t="n">
-        <v>0</v>
-      </c>
-      <c r="H12" t="n">
-        <v>0</v>
-      </c>
-      <c r="I12" t="n">
-        <v>0</v>
-      </c>
-      <c r="J12" t="n">
+      <c r="S12" t="n">
+        <v>0.1534919416730622</v>
+      </c>
+      <c r="T12" t="n">
+        <v>0</v>
+      </c>
+      <c r="U12" t="n">
+        <v>0</v>
+      </c>
+      <c r="V12" t="n">
+        <v>0</v>
+      </c>
+      <c r="W12" t="n">
+        <v>0</v>
+      </c>
+      <c r="X12" t="n">
+        <v>0</v>
+      </c>
+      <c r="Y12" t="n">
+        <v>11.97237145049885</v>
+      </c>
+      <c r="Z12" t="n">
+        <v>0</v>
+      </c>
+      <c r="AA12" t="n">
         <v>0.05116398055768739</v>
       </c>
-      <c r="K12" t="n">
-        <v>0</v>
-      </c>
-      <c r="L12" t="n">
-        <v>0.1534919416730622</v>
-      </c>
-      <c r="M12" t="n">
-        <v>0.920951650038373</v>
-      </c>
-      <c r="N12" t="n">
-        <v>0</v>
-      </c>
-      <c r="O12" t="n">
-        <v>0</v>
-      </c>
-      <c r="P12" t="n">
-        <v>0</v>
-      </c>
-      <c r="Q12" t="n">
+      <c r="AB12" t="n">
+        <v>0</v>
+      </c>
+      <c r="AC12" t="n">
+        <v>0</v>
+      </c>
+      <c r="AD12" t="n">
+        <v>0</v>
+      </c>
+      <c r="AE12" t="n">
         <v>0.0255819902788437</v>
-      </c>
-      <c r="R12" t="n">
-        <v>0</v>
-      </c>
-      <c r="S12" t="n">
-        <v>11.97237145049885</v>
-      </c>
-      <c r="T12" t="n">
-        <v>0</v>
-      </c>
-      <c r="U12" t="n">
-        <v>0.07674597083653108</v>
-      </c>
-      <c r="V12" t="n">
-        <v>0</v>
-      </c>
-      <c r="W12" t="n">
-        <v>0</v>
-      </c>
-      <c r="X12" t="n">
-        <v>0</v>
-      </c>
-      <c r="Y12" t="n">
-        <v>0</v>
-      </c>
-      <c r="Z12" t="n">
-        <v>0</v>
-      </c>
-      <c r="AA12" t="n">
-        <v>0</v>
-      </c>
-      <c r="AB12" t="n">
-        <v>0</v>
-      </c>
-      <c r="AC12" t="n">
-        <v>0</v>
-      </c>
-      <c r="AD12" t="n">
-        <v>0</v>
-      </c>
-      <c r="AE12" t="n">
-        <v>0</v>
       </c>
       <c r="AF12" t="n">
         <v>0</v>
@@ -1817,97 +1817,97 @@
         <v>3</v>
       </c>
       <c r="D13" t="n">
+        <v>0</v>
+      </c>
+      <c r="E13" t="n">
+        <v>0</v>
+      </c>
+      <c r="F13" t="n">
+        <v>0</v>
+      </c>
+      <c r="G13" t="n">
+        <v>0</v>
+      </c>
+      <c r="H13" t="n">
+        <v>0.1187648456057007</v>
+      </c>
+      <c r="I13" t="n">
+        <v>0.007745533409067438</v>
+      </c>
+      <c r="J13" t="n">
+        <v>0</v>
+      </c>
+      <c r="K13" t="n">
+        <v>0.3020758029536301</v>
+      </c>
+      <c r="L13" t="n">
+        <v>0.06712795621191779</v>
+      </c>
+      <c r="M13" t="n">
+        <v>0</v>
+      </c>
+      <c r="N13" t="n">
         <v>0.005163688939378292</v>
       </c>
-      <c r="E13" t="n">
-        <v>0</v>
-      </c>
-      <c r="F13" t="n">
-        <v>0</v>
-      </c>
-      <c r="G13" t="n">
-        <v>0</v>
-      </c>
-      <c r="H13" t="n">
-        <v>0</v>
-      </c>
-      <c r="I13" t="n">
-        <v>0</v>
-      </c>
-      <c r="J13" t="n">
+      <c r="O13" t="n">
+        <v>0</v>
+      </c>
+      <c r="P13" t="n">
+        <v>0.02581844469689146</v>
+      </c>
+      <c r="Q13" t="n">
+        <v>0</v>
+      </c>
+      <c r="R13" t="n">
+        <v>0.005163688939378292</v>
+      </c>
+      <c r="S13" t="n">
         <v>0.002581844469689146</v>
       </c>
-      <c r="K13" t="n">
-        <v>0.02581844469689146</v>
-      </c>
-      <c r="L13" t="n">
+      <c r="T13" t="n">
+        <v>0</v>
+      </c>
+      <c r="U13" t="n">
+        <v>0</v>
+      </c>
+      <c r="V13" t="n">
+        <v>0</v>
+      </c>
+      <c r="W13" t="n">
+        <v>0</v>
+      </c>
+      <c r="X13" t="n">
+        <v>0</v>
+      </c>
+      <c r="Y13" t="n">
+        <v>0.1394196013632139</v>
+      </c>
+      <c r="Z13" t="n">
+        <v>0.01807291128782402</v>
+      </c>
+      <c r="AA13" t="n">
         <v>0.002581844469689146</v>
       </c>
-      <c r="M13" t="n">
-        <v>0.3020758029536301</v>
-      </c>
-      <c r="N13" t="n">
-        <v>0</v>
-      </c>
-      <c r="O13" t="n">
+      <c r="AB13" t="n">
+        <v>0</v>
+      </c>
+      <c r="AC13" t="n">
+        <v>0</v>
+      </c>
+      <c r="AD13" t="n">
         <v>0.02323660022720231</v>
       </c>
-      <c r="P13" t="n">
-        <v>0</v>
-      </c>
-      <c r="Q13" t="n">
+      <c r="AE13" t="n">
         <v>0.1962201796963751</v>
       </c>
-      <c r="R13" t="n">
-        <v>0.01807291128782402</v>
-      </c>
-      <c r="S13" t="n">
-        <v>0.1394196013632139</v>
-      </c>
-      <c r="T13" t="n">
-        <v>0</v>
-      </c>
-      <c r="U13" t="n">
-        <v>0.1187648456057007</v>
-      </c>
-      <c r="V13" t="n">
-        <v>0.007745533409067438</v>
-      </c>
-      <c r="W13" t="n">
-        <v>0</v>
-      </c>
-      <c r="X13" t="n">
-        <v>0</v>
-      </c>
-      <c r="Y13" t="n">
-        <v>0</v>
-      </c>
-      <c r="Z13" t="n">
-        <v>0</v>
-      </c>
-      <c r="AA13" t="n">
-        <v>0</v>
-      </c>
-      <c r="AB13" t="n">
-        <v>0</v>
-      </c>
-      <c r="AC13" t="n">
-        <v>0</v>
-      </c>
-      <c r="AD13" t="n">
-        <v>0</v>
-      </c>
-      <c r="AE13" t="n">
-        <v>0</v>
-      </c>
       <c r="AF13" t="n">
         <v>0</v>
       </c>
       <c r="AG13" t="n">
-        <v>0.005163688939378292</v>
+        <v>0</v>
       </c>
       <c r="AH13" t="n">
-        <v>0.06712795621191779</v>
+        <v>0</v>
       </c>
       <c r="AI13" t="n">
         <v>0</v>
@@ -1926,88 +1926,88 @@
         <v>3</v>
       </c>
       <c r="D14" t="n">
+        <v>0</v>
+      </c>
+      <c r="E14" t="n">
+        <v>0</v>
+      </c>
+      <c r="F14" t="n">
+        <v>0</v>
+      </c>
+      <c r="G14" t="n">
+        <v>0</v>
+      </c>
+      <c r="H14" t="n">
+        <v>0.05954743946010321</v>
+      </c>
+      <c r="I14" t="n">
+        <v>0</v>
+      </c>
+      <c r="J14" t="n">
+        <v>0</v>
+      </c>
+      <c r="K14" t="n">
+        <v>0.6947201270345376</v>
+      </c>
+      <c r="L14" t="n">
+        <v>0</v>
+      </c>
+      <c r="M14" t="n">
+        <v>0</v>
+      </c>
+      <c r="N14" t="n">
+        <v>0</v>
+      </c>
+      <c r="O14" t="n">
+        <v>0</v>
+      </c>
+      <c r="P14" t="n">
+        <v>0.03969829297340214</v>
+      </c>
+      <c r="Q14" t="n">
+        <v>0</v>
+      </c>
+      <c r="R14" t="n">
         <v>0.01984914648670107</v>
       </c>
-      <c r="E14" t="n">
-        <v>0</v>
-      </c>
-      <c r="F14" t="n">
-        <v>0</v>
-      </c>
-      <c r="G14" t="n">
-        <v>0</v>
-      </c>
-      <c r="H14" t="n">
-        <v>0</v>
-      </c>
-      <c r="I14" t="n">
-        <v>0</v>
-      </c>
-      <c r="J14" t="n">
+      <c r="S14" t="n">
+        <v>0.01984914648670107</v>
+      </c>
+      <c r="T14" t="n">
+        <v>0</v>
+      </c>
+      <c r="U14" t="n">
+        <v>0</v>
+      </c>
+      <c r="V14" t="n">
+        <v>0</v>
+      </c>
+      <c r="W14" t="n">
+        <v>0</v>
+      </c>
+      <c r="X14" t="n">
+        <v>0</v>
+      </c>
+      <c r="Y14" t="n">
+        <v>0.8535132989281461</v>
+      </c>
+      <c r="Z14" t="n">
+        <v>0</v>
+      </c>
+      <c r="AA14" t="n">
         <v>0.03969829297340214</v>
       </c>
-      <c r="K14" t="n">
-        <v>0.03969829297340214</v>
-      </c>
-      <c r="L14" t="n">
-        <v>0.01984914648670107</v>
-      </c>
-      <c r="M14" t="n">
-        <v>0.6947201270345376</v>
-      </c>
-      <c r="N14" t="n">
-        <v>0</v>
-      </c>
-      <c r="O14" t="n">
+      <c r="AB14" t="n">
+        <v>0</v>
+      </c>
+      <c r="AC14" t="n">
+        <v>0</v>
+      </c>
+      <c r="AD14" t="n">
         <v>0.6550218340611353</v>
       </c>
-      <c r="P14" t="n">
-        <v>0</v>
-      </c>
-      <c r="Q14" t="n">
+      <c r="AE14" t="n">
         <v>0.1984914648670107</v>
-      </c>
-      <c r="R14" t="n">
-        <v>0</v>
-      </c>
-      <c r="S14" t="n">
-        <v>0.8535132989281461</v>
-      </c>
-      <c r="T14" t="n">
-        <v>0</v>
-      </c>
-      <c r="U14" t="n">
-        <v>0.05954743946010321</v>
-      </c>
-      <c r="V14" t="n">
-        <v>0</v>
-      </c>
-      <c r="W14" t="n">
-        <v>0</v>
-      </c>
-      <c r="X14" t="n">
-        <v>0</v>
-      </c>
-      <c r="Y14" t="n">
-        <v>0</v>
-      </c>
-      <c r="Z14" t="n">
-        <v>0</v>
-      </c>
-      <c r="AA14" t="n">
-        <v>0</v>
-      </c>
-      <c r="AB14" t="n">
-        <v>0</v>
-      </c>
-      <c r="AC14" t="n">
-        <v>0</v>
-      </c>
-      <c r="AD14" t="n">
-        <v>0</v>
-      </c>
-      <c r="AE14" t="n">
-        <v>0</v>
       </c>
       <c r="AF14" t="n">
         <v>0</v>
@@ -2047,73 +2047,73 @@
         <v>0</v>
       </c>
       <c r="H15" t="n">
-        <v>0</v>
+        <v>0.05039475894506971</v>
       </c>
       <c r="I15" t="n">
         <v>0</v>
       </c>
       <c r="J15" t="n">
+        <v>0</v>
+      </c>
+      <c r="K15" t="n">
+        <v>13.50579539727868</v>
+      </c>
+      <c r="L15" t="n">
+        <v>0</v>
+      </c>
+      <c r="M15" t="n">
+        <v>0</v>
+      </c>
+      <c r="N15" t="n">
+        <v>0</v>
+      </c>
+      <c r="O15" t="n">
+        <v>0</v>
+      </c>
+      <c r="P15" t="n">
+        <v>0.520745842432387</v>
+      </c>
+      <c r="Q15" t="n">
+        <v>0</v>
+      </c>
+      <c r="R15" t="n">
+        <v>0</v>
+      </c>
+      <c r="S15" t="n">
+        <v>0</v>
+      </c>
+      <c r="T15" t="n">
+        <v>0</v>
+      </c>
+      <c r="U15" t="n">
+        <v>0</v>
+      </c>
+      <c r="V15" t="n">
+        <v>0</v>
+      </c>
+      <c r="W15" t="n">
+        <v>0</v>
+      </c>
+      <c r="X15" t="n">
+        <v>0</v>
+      </c>
+      <c r="Y15" t="n">
+        <v>4.905089870653452</v>
+      </c>
+      <c r="Z15" t="n">
+        <v>0</v>
+      </c>
+      <c r="AA15" t="n">
         <v>0.1847807827985889</v>
       </c>
-      <c r="K15" t="n">
-        <v>0.520745842432387</v>
-      </c>
-      <c r="L15" t="n">
-        <v>0</v>
-      </c>
-      <c r="M15" t="n">
-        <v>13.50579539727868</v>
-      </c>
-      <c r="N15" t="n">
-        <v>0</v>
-      </c>
-      <c r="O15" t="n">
+      <c r="AB15" t="n">
+        <v>0</v>
+      </c>
+      <c r="AC15" t="n">
+        <v>0</v>
+      </c>
+      <c r="AD15" t="n">
         <v>0.03359650596337981</v>
-      </c>
-      <c r="P15" t="n">
-        <v>0</v>
-      </c>
-      <c r="Q15" t="n">
-        <v>0</v>
-      </c>
-      <c r="R15" t="n">
-        <v>0</v>
-      </c>
-      <c r="S15" t="n">
-        <v>4.905089870653452</v>
-      </c>
-      <c r="T15" t="n">
-        <v>0</v>
-      </c>
-      <c r="U15" t="n">
-        <v>0.05039475894506971</v>
-      </c>
-      <c r="V15" t="n">
-        <v>0</v>
-      </c>
-      <c r="W15" t="n">
-        <v>0</v>
-      </c>
-      <c r="X15" t="n">
-        <v>0</v>
-      </c>
-      <c r="Y15" t="n">
-        <v>0</v>
-      </c>
-      <c r="Z15" t="n">
-        <v>0</v>
-      </c>
-      <c r="AA15" t="n">
-        <v>0</v>
-      </c>
-      <c r="AB15" t="n">
-        <v>0</v>
-      </c>
-      <c r="AC15" t="n">
-        <v>0</v>
-      </c>
-      <c r="AD15" t="n">
-        <v>0</v>
       </c>
       <c r="AE15" t="n">
         <v>0</v>
@@ -2144,70 +2144,70 @@
         <v>3</v>
       </c>
       <c r="D16" t="n">
+        <v>0</v>
+      </c>
+      <c r="E16" t="n">
+        <v>0</v>
+      </c>
+      <c r="F16" t="n">
+        <v>0</v>
+      </c>
+      <c r="G16" t="n">
+        <v>0.00962186086789185</v>
+      </c>
+      <c r="H16" t="n">
+        <v>2.362166843067449</v>
+      </c>
+      <c r="I16" t="n">
+        <v>0</v>
+      </c>
+      <c r="J16" t="n">
+        <v>0</v>
+      </c>
+      <c r="K16" t="n">
+        <v>3.651496199364957</v>
+      </c>
+      <c r="L16" t="n">
+        <v>0</v>
+      </c>
+      <c r="M16" t="n">
+        <v>0</v>
+      </c>
+      <c r="N16" t="n">
+        <v>0</v>
+      </c>
+      <c r="O16" t="n">
+        <v>0</v>
+      </c>
+      <c r="P16" t="n">
+        <v>0.0577311652073511</v>
+      </c>
+      <c r="Q16" t="n">
+        <v>0</v>
+      </c>
+      <c r="R16" t="n">
         <v>0.03367651303762147</v>
       </c>
-      <c r="E16" t="n">
-        <v>0</v>
-      </c>
-      <c r="F16" t="n">
-        <v>0</v>
-      </c>
-      <c r="G16" t="n">
-        <v>0</v>
-      </c>
-      <c r="H16" t="n">
-        <v>0</v>
-      </c>
-      <c r="I16" t="n">
-        <v>0</v>
-      </c>
-      <c r="J16" t="n">
-        <v>0.00962186086789185</v>
-      </c>
-      <c r="K16" t="n">
-        <v>0.0577311652073511</v>
-      </c>
-      <c r="L16" t="n">
-        <v>0</v>
-      </c>
-      <c r="M16" t="n">
-        <v>3.651496199364957</v>
-      </c>
-      <c r="N16" t="n">
-        <v>0</v>
-      </c>
-      <c r="O16" t="n">
-        <v>0.04810930433945925</v>
-      </c>
-      <c r="P16" t="n">
-        <v>0</v>
-      </c>
-      <c r="Q16" t="n">
-        <v>0.02405465216972963</v>
-      </c>
-      <c r="R16" t="n">
-        <v>0</v>
-      </c>
       <c r="S16" t="n">
+        <v>0</v>
+      </c>
+      <c r="T16" t="n">
+        <v>0</v>
+      </c>
+      <c r="U16" t="n">
+        <v>0</v>
+      </c>
+      <c r="V16" t="n">
+        <v>0</v>
+      </c>
+      <c r="W16" t="n">
+        <v>0</v>
+      </c>
+      <c r="X16" t="n">
+        <v>0</v>
+      </c>
+      <c r="Y16" t="n">
         <v>2.732608486481285</v>
-      </c>
-      <c r="T16" t="n">
-        <v>0</v>
-      </c>
-      <c r="U16" t="n">
-        <v>2.362166843067449</v>
-      </c>
-      <c r="V16" t="n">
-        <v>0</v>
-      </c>
-      <c r="W16" t="n">
-        <v>0</v>
-      </c>
-      <c r="X16" t="n">
-        <v>0</v>
-      </c>
-      <c r="Y16" t="n">
-        <v>0</v>
       </c>
       <c r="Z16" t="n">
         <v>0</v>
@@ -2222,10 +2222,10 @@
         <v>0</v>
       </c>
       <c r="AD16" t="n">
-        <v>0</v>
+        <v>0.04810930433945925</v>
       </c>
       <c r="AE16" t="n">
-        <v>0</v>
+        <v>0.02405465216972963</v>
       </c>
       <c r="AF16" t="n">
         <v>0</v>
@@ -2253,88 +2253,88 @@
         <v>3</v>
       </c>
       <c r="D17" t="n">
+        <v>0</v>
+      </c>
+      <c r="E17" t="n">
+        <v>0</v>
+      </c>
+      <c r="F17" t="n">
+        <v>0</v>
+      </c>
+      <c r="G17" t="n">
+        <v>0.01465774173059071</v>
+      </c>
+      <c r="H17" t="n">
+        <v>0.08550349342844579</v>
+      </c>
+      <c r="I17" t="n">
+        <v>0</v>
+      </c>
+      <c r="J17" t="n">
+        <v>0</v>
+      </c>
+      <c r="K17" t="n">
+        <v>0.9429813846680022</v>
+      </c>
+      <c r="L17" t="n">
+        <v>0</v>
+      </c>
+      <c r="M17" t="n">
+        <v>0</v>
+      </c>
+      <c r="N17" t="n">
+        <v>0</v>
+      </c>
+      <c r="O17" t="n">
+        <v>0</v>
+      </c>
+      <c r="P17" t="n">
+        <v>0.06595983778765818</v>
+      </c>
+      <c r="Q17" t="n">
+        <v>0</v>
+      </c>
+      <c r="R17" t="n">
         <v>0.002442956955098451</v>
       </c>
-      <c r="E17" t="n">
-        <v>0</v>
-      </c>
-      <c r="F17" t="n">
-        <v>0</v>
-      </c>
-      <c r="G17" t="n">
-        <v>0</v>
-      </c>
-      <c r="H17" t="n">
-        <v>0</v>
-      </c>
-      <c r="I17" t="n">
-        <v>0</v>
-      </c>
-      <c r="J17" t="n">
+      <c r="S17" t="n">
+        <v>0.01465774173059071</v>
+      </c>
+      <c r="T17" t="n">
+        <v>0</v>
+      </c>
+      <c r="U17" t="n">
+        <v>0</v>
+      </c>
+      <c r="V17" t="n">
+        <v>0</v>
+      </c>
+      <c r="W17" t="n">
+        <v>0</v>
+      </c>
+      <c r="X17" t="n">
+        <v>0</v>
+      </c>
+      <c r="Y17" t="n">
+        <v>0.9258806859823131</v>
+      </c>
+      <c r="Z17" t="n">
+        <v>0</v>
+      </c>
+      <c r="AA17" t="n">
         <v>0.01221478477549226</v>
       </c>
-      <c r="K17" t="n">
-        <v>0.06595983778765818</v>
-      </c>
-      <c r="L17" t="n">
-        <v>0.01465774173059071</v>
-      </c>
-      <c r="M17" t="n">
-        <v>0.9429813846680022</v>
-      </c>
-      <c r="N17" t="n">
-        <v>0</v>
-      </c>
-      <c r="O17" t="n">
+      <c r="AB17" t="n">
+        <v>0</v>
+      </c>
+      <c r="AC17" t="n">
+        <v>0</v>
+      </c>
+      <c r="AD17" t="n">
         <v>0.01710069868568916</v>
       </c>
-      <c r="P17" t="n">
-        <v>0</v>
-      </c>
-      <c r="Q17" t="n">
+      <c r="AE17" t="n">
         <v>0.06107392387746129</v>
-      </c>
-      <c r="R17" t="n">
-        <v>0</v>
-      </c>
-      <c r="S17" t="n">
-        <v>0.9258806859823131</v>
-      </c>
-      <c r="T17" t="n">
-        <v>0</v>
-      </c>
-      <c r="U17" t="n">
-        <v>0.08550349342844579</v>
-      </c>
-      <c r="V17" t="n">
-        <v>0</v>
-      </c>
-      <c r="W17" t="n">
-        <v>0</v>
-      </c>
-      <c r="X17" t="n">
-        <v>0</v>
-      </c>
-      <c r="Y17" t="n">
-        <v>0</v>
-      </c>
-      <c r="Z17" t="n">
-        <v>0</v>
-      </c>
-      <c r="AA17" t="n">
-        <v>0.01465774173059071</v>
-      </c>
-      <c r="AB17" t="n">
-        <v>0</v>
-      </c>
-      <c r="AC17" t="n">
-        <v>0</v>
-      </c>
-      <c r="AD17" t="n">
-        <v>0</v>
-      </c>
-      <c r="AE17" t="n">
-        <v>0</v>
       </c>
       <c r="AF17" t="n">
         <v>0</v>
@@ -2374,7 +2374,7 @@
         <v>0</v>
       </c>
       <c r="H18" t="n">
-        <v>0</v>
+        <v>0.2117522498676549</v>
       </c>
       <c r="I18" t="n">
         <v>0</v>
@@ -2383,13 +2383,13 @@
         <v>0</v>
       </c>
       <c r="K18" t="n">
-        <v>0</v>
+        <v>1.058761249338274</v>
       </c>
       <c r="L18" t="n">
         <v>0</v>
       </c>
       <c r="M18" t="n">
-        <v>1.058761249338274</v>
+        <v>0</v>
       </c>
       <c r="N18" t="n">
         <v>0</v>
@@ -2407,25 +2407,25 @@
         <v>0</v>
       </c>
       <c r="S18" t="n">
+        <v>0</v>
+      </c>
+      <c r="T18" t="n">
+        <v>0</v>
+      </c>
+      <c r="U18" t="n">
+        <v>0</v>
+      </c>
+      <c r="V18" t="n">
+        <v>0</v>
+      </c>
+      <c r="W18" t="n">
+        <v>0</v>
+      </c>
+      <c r="X18" t="n">
+        <v>0</v>
+      </c>
+      <c r="Y18" t="n">
         <v>0.9528851244044468</v>
-      </c>
-      <c r="T18" t="n">
-        <v>0</v>
-      </c>
-      <c r="U18" t="n">
-        <v>0.2117522498676549</v>
-      </c>
-      <c r="V18" t="n">
-        <v>0</v>
-      </c>
-      <c r="W18" t="n">
-        <v>0</v>
-      </c>
-      <c r="X18" t="n">
-        <v>0</v>
-      </c>
-      <c r="Y18" t="n">
-        <v>0</v>
       </c>
       <c r="Z18" t="n">
         <v>0</v>
@@ -2471,14 +2471,14 @@
         <v>1</v>
       </c>
       <c r="D19" t="n">
+        <v>0.2642506606266515</v>
+      </c>
+      <c r="E19" t="n">
+        <v>0</v>
+      </c>
+      <c r="F19" t="n">
         <v>0.01258336479174531</v>
       </c>
-      <c r="E19" t="n">
-        <v>0.2642506606266515</v>
-      </c>
-      <c r="F19" t="n">
-        <v>0</v>
-      </c>
       <c r="G19" t="n">
         <v>0</v>
       </c>
@@ -2486,10 +2486,10 @@
         <v>0</v>
       </c>
       <c r="I19" t="n">
-        <v>1.006669183339625</v>
+        <v>0.1761671070844344</v>
       </c>
       <c r="J19" t="n">
-        <v>0.1510003775009437</v>
+        <v>0</v>
       </c>
       <c r="K19" t="n">
         <v>0</v>
@@ -2501,7 +2501,7 @@
         <v>0</v>
       </c>
       <c r="N19" t="n">
-        <v>0</v>
+        <v>0.06291682395872657</v>
       </c>
       <c r="O19" t="n">
         <v>0</v>
@@ -2510,7 +2510,7 @@
         <v>0</v>
       </c>
       <c r="Q19" t="n">
-        <v>2.705423430225242</v>
+        <v>0</v>
       </c>
       <c r="R19" t="n">
         <v>0.01258336479174531</v>
@@ -2519,46 +2519,46 @@
         <v>0</v>
       </c>
       <c r="T19" t="n">
-        <v>0</v>
+        <v>1.006669183339625</v>
       </c>
       <c r="U19" t="n">
         <v>0</v>
       </c>
       <c r="V19" t="n">
-        <v>0.1761671070844344</v>
+        <v>0</v>
       </c>
       <c r="W19" t="n">
         <v>0</v>
       </c>
       <c r="X19" t="n">
+        <v>0</v>
+      </c>
+      <c r="Y19" t="n">
+        <v>0</v>
+      </c>
+      <c r="Z19" t="n">
         <v>0.01258336479174531</v>
       </c>
-      <c r="Y19" t="n">
+      <c r="AA19" t="n">
+        <v>0.1510003775009437</v>
+      </c>
+      <c r="AB19" t="n">
         <v>1.849754624386561</v>
       </c>
-      <c r="Z19" t="n">
-        <v>0</v>
-      </c>
-      <c r="AA19" t="n">
-        <v>0</v>
-      </c>
-      <c r="AB19" t="n">
-        <v>0</v>
-      </c>
       <c r="AC19" t="n">
-        <v>0</v>
+        <v>0.01258336479174531</v>
       </c>
       <c r="AD19" t="n">
-        <v>0.01258336479174531</v>
+        <v>0</v>
       </c>
       <c r="AE19" t="n">
-        <v>0</v>
+        <v>2.705423430225242</v>
       </c>
       <c r="AF19" t="n">
         <v>0</v>
       </c>
       <c r="AG19" t="n">
-        <v>0.06291682395872657</v>
+        <v>0</v>
       </c>
       <c r="AH19" t="n">
         <v>0</v>
@@ -2592,7 +2592,7 @@
         <v>0</v>
       </c>
       <c r="H20" t="n">
-        <v>0</v>
+        <v>0.0002414916455965206</v>
       </c>
       <c r="I20" t="n">
         <v>0</v>
@@ -2625,25 +2625,25 @@
         <v>0</v>
       </c>
       <c r="S20" t="n">
+        <v>0</v>
+      </c>
+      <c r="T20" t="n">
+        <v>0</v>
+      </c>
+      <c r="U20" t="n">
+        <v>0</v>
+      </c>
+      <c r="V20" t="n">
+        <v>0</v>
+      </c>
+      <c r="W20" t="n">
+        <v>0</v>
+      </c>
+      <c r="X20" t="n">
+        <v>0</v>
+      </c>
+      <c r="Y20" t="n">
         <v>0.002897899747158247</v>
-      </c>
-      <c r="T20" t="n">
-        <v>0</v>
-      </c>
-      <c r="U20" t="n">
-        <v>0.0002414916455965206</v>
-      </c>
-      <c r="V20" t="n">
-        <v>0</v>
-      </c>
-      <c r="W20" t="n">
-        <v>0</v>
-      </c>
-      <c r="X20" t="n">
-        <v>0</v>
-      </c>
-      <c r="Y20" t="n">
-        <v>0</v>
       </c>
       <c r="Z20" t="n">
         <v>0</v>
@@ -2752,16 +2752,16 @@
         <v>0</v>
       </c>
       <c r="Y21" t="n">
+        <v>0</v>
+      </c>
+      <c r="Z21" t="n">
+        <v>0</v>
+      </c>
+      <c r="AA21" t="n">
+        <v>0</v>
+      </c>
+      <c r="AB21" t="n">
         <v>0.01444669170759896</v>
-      </c>
-      <c r="Z21" t="n">
-        <v>0</v>
-      </c>
-      <c r="AA21" t="n">
-        <v>0</v>
-      </c>
-      <c r="AB21" t="n">
-        <v>0</v>
       </c>
       <c r="AC21" t="n">
         <v>0</v>
@@ -2801,94 +2801,94 @@
         <v>0</v>
       </c>
       <c r="E22" t="n">
-        <v>0</v>
+        <v>0.4018192604310856</v>
       </c>
       <c r="F22" t="n">
+        <v>0</v>
+      </c>
+      <c r="G22" t="n">
+        <v>0</v>
+      </c>
+      <c r="H22" t="n">
+        <v>0</v>
+      </c>
+      <c r="I22" t="n">
+        <v>0</v>
+      </c>
+      <c r="J22" t="n">
+        <v>0</v>
+      </c>
+      <c r="K22" t="n">
+        <v>0</v>
+      </c>
+      <c r="L22" t="n">
+        <v>0</v>
+      </c>
+      <c r="M22" t="n">
+        <v>0.01186474194186276</v>
+      </c>
+      <c r="N22" t="n">
+        <v>0</v>
+      </c>
+      <c r="O22" t="n">
+        <v>0</v>
+      </c>
+      <c r="P22" t="n">
+        <v>0</v>
+      </c>
+      <c r="Q22" t="n">
+        <v>0</v>
+      </c>
+      <c r="R22" t="n">
+        <v>0</v>
+      </c>
+      <c r="S22" t="n">
+        <v>0</v>
+      </c>
+      <c r="T22" t="n">
+        <v>0</v>
+      </c>
+      <c r="U22" t="n">
+        <v>0</v>
+      </c>
+      <c r="V22" t="n">
         <v>0.002372948388372553</v>
       </c>
-      <c r="G22" t="n">
-        <v>0</v>
-      </c>
-      <c r="H22" t="n">
-        <v>0.4018192604310856</v>
-      </c>
-      <c r="I22" t="n">
-        <v>0</v>
-      </c>
-      <c r="J22" t="n">
-        <v>0</v>
-      </c>
-      <c r="K22" t="n">
-        <v>0</v>
-      </c>
-      <c r="L22" t="n">
-        <v>0</v>
-      </c>
-      <c r="M22" t="n">
-        <v>0</v>
-      </c>
-      <c r="N22" t="n">
-        <v>0</v>
-      </c>
-      <c r="O22" t="n">
+      <c r="W22" t="n">
+        <v>0</v>
+      </c>
+      <c r="X22" t="n">
         <v>0.002372948388372553</v>
       </c>
-      <c r="P22" t="n">
-        <v>0</v>
-      </c>
-      <c r="Q22" t="n">
-        <v>0</v>
-      </c>
-      <c r="R22" t="n">
+      <c r="Y22" t="n">
+        <v>0</v>
+      </c>
+      <c r="Z22" t="n">
         <v>0.2950365829543207</v>
       </c>
-      <c r="S22" t="n">
-        <v>0</v>
-      </c>
-      <c r="T22" t="n">
+      <c r="AA22" t="n">
+        <v>0</v>
+      </c>
+      <c r="AB22" t="n">
+        <v>0</v>
+      </c>
+      <c r="AC22" t="n">
+        <v>0</v>
+      </c>
+      <c r="AD22" t="n">
+        <v>0.002372948388372553</v>
+      </c>
+      <c r="AE22" t="n">
+        <v>0</v>
+      </c>
+      <c r="AF22" t="n">
+        <v>0</v>
+      </c>
+      <c r="AG22" t="n">
+        <v>0</v>
+      </c>
+      <c r="AH22" t="n">
         <v>0.1494957484674708</v>
-      </c>
-      <c r="U22" t="n">
-        <v>0</v>
-      </c>
-      <c r="V22" t="n">
-        <v>0</v>
-      </c>
-      <c r="W22" t="n">
-        <v>0.002372948388372553</v>
-      </c>
-      <c r="X22" t="n">
-        <v>0</v>
-      </c>
-      <c r="Y22" t="n">
-        <v>0</v>
-      </c>
-      <c r="Z22" t="n">
-        <v>0.01186474194186276</v>
-      </c>
-      <c r="AA22" t="n">
-        <v>0</v>
-      </c>
-      <c r="AB22" t="n">
-        <v>0</v>
-      </c>
-      <c r="AC22" t="n">
-        <v>0</v>
-      </c>
-      <c r="AD22" t="n">
-        <v>0</v>
-      </c>
-      <c r="AE22" t="n">
-        <v>0</v>
-      </c>
-      <c r="AF22" t="n">
-        <v>0</v>
-      </c>
-      <c r="AG22" t="n">
-        <v>0</v>
-      </c>
-      <c r="AH22" t="n">
-        <v>0</v>
       </c>
       <c r="AI22" t="n">
         <v>0</v>
@@ -2907,88 +2907,88 @@
         <v>3</v>
       </c>
       <c r="D23" t="n">
+        <v>0</v>
+      </c>
+      <c r="E23" t="n">
+        <v>0</v>
+      </c>
+      <c r="F23" t="n">
+        <v>0</v>
+      </c>
+      <c r="G23" t="n">
+        <v>0.01529597715800744</v>
+      </c>
+      <c r="H23" t="n">
+        <v>0.1325651353693978</v>
+      </c>
+      <c r="I23" t="n">
+        <v>0</v>
+      </c>
+      <c r="J23" t="n">
+        <v>0</v>
+      </c>
+      <c r="K23" t="n">
+        <v>1.371539285168001</v>
+      </c>
+      <c r="L23" t="n">
+        <v>0</v>
+      </c>
+      <c r="M23" t="n">
+        <v>0</v>
+      </c>
+      <c r="N23" t="n">
+        <v>0</v>
+      </c>
+      <c r="O23" t="n">
+        <v>0</v>
+      </c>
+      <c r="P23" t="n">
+        <v>0.03314128384234946</v>
+      </c>
+      <c r="Q23" t="n">
+        <v>0</v>
+      </c>
+      <c r="R23" t="n">
         <v>0.1223678172640596</v>
       </c>
-      <c r="E23" t="n">
-        <v>0</v>
-      </c>
-      <c r="F23" t="n">
-        <v>0</v>
-      </c>
-      <c r="G23" t="n">
-        <v>0</v>
-      </c>
-      <c r="H23" t="n">
-        <v>0</v>
-      </c>
-      <c r="I23" t="n">
-        <v>0</v>
-      </c>
-      <c r="J23" t="n">
+      <c r="S23" t="n">
+        <v>0.0101973181053383</v>
+      </c>
+      <c r="T23" t="n">
+        <v>0</v>
+      </c>
+      <c r="U23" t="n">
+        <v>0</v>
+      </c>
+      <c r="V23" t="n">
+        <v>0</v>
+      </c>
+      <c r="W23" t="n">
+        <v>0</v>
+      </c>
+      <c r="X23" t="n">
+        <v>0</v>
+      </c>
+      <c r="Y23" t="n">
+        <v>0.8999133227961047</v>
+      </c>
+      <c r="Z23" t="n">
+        <v>0</v>
+      </c>
+      <c r="AA23" t="n">
         <v>0.005098659052669148</v>
       </c>
-      <c r="K23" t="n">
-        <v>0.03314128384234946</v>
-      </c>
-      <c r="L23" t="n">
-        <v>0.0101973181053383</v>
-      </c>
-      <c r="M23" t="n">
-        <v>1.371539285168001</v>
-      </c>
-      <c r="N23" t="n">
-        <v>0</v>
-      </c>
-      <c r="O23" t="n">
+      <c r="AB23" t="n">
+        <v>0</v>
+      </c>
+      <c r="AC23" t="n">
+        <v>0</v>
+      </c>
+      <c r="AD23" t="n">
         <v>0.02804262478968031</v>
       </c>
-      <c r="P23" t="n">
-        <v>0</v>
-      </c>
-      <c r="Q23" t="n">
+      <c r="AE23" t="n">
         <v>0.06118390863202978</v>
-      </c>
-      <c r="R23" t="n">
-        <v>0</v>
-      </c>
-      <c r="S23" t="n">
-        <v>0.8999133227961047</v>
-      </c>
-      <c r="T23" t="n">
-        <v>0</v>
-      </c>
-      <c r="U23" t="n">
-        <v>0.1325651353693978</v>
-      </c>
-      <c r="V23" t="n">
-        <v>0</v>
-      </c>
-      <c r="W23" t="n">
-        <v>0</v>
-      </c>
-      <c r="X23" t="n">
-        <v>0</v>
-      </c>
-      <c r="Y23" t="n">
-        <v>0</v>
-      </c>
-      <c r="Z23" t="n">
-        <v>0</v>
-      </c>
-      <c r="AA23" t="n">
-        <v>0.01529597715800744</v>
-      </c>
-      <c r="AB23" t="n">
-        <v>0</v>
-      </c>
-      <c r="AC23" t="n">
-        <v>0</v>
-      </c>
-      <c r="AD23" t="n">
-        <v>0</v>
-      </c>
-      <c r="AE23" t="n">
-        <v>0</v>
       </c>
       <c r="AF23" t="n">
         <v>0</v>
@@ -3016,88 +3016,88 @@
         <v>2</v>
       </c>
       <c r="D24" t="n">
+        <v>0</v>
+      </c>
+      <c r="E24" t="n">
+        <v>0</v>
+      </c>
+      <c r="F24" t="n">
+        <v>0</v>
+      </c>
+      <c r="G24" t="n">
+        <v>0</v>
+      </c>
+      <c r="H24" t="n">
+        <v>0.05346164127238706</v>
+      </c>
+      <c r="I24" t="n">
+        <v>0</v>
+      </c>
+      <c r="J24" t="n">
+        <v>0</v>
+      </c>
+      <c r="K24" t="n">
+        <v>3.251439819202449</v>
+      </c>
+      <c r="L24" t="n">
+        <v>0</v>
+      </c>
+      <c r="M24" t="n">
+        <v>0</v>
+      </c>
+      <c r="N24" t="n">
+        <v>0</v>
+      </c>
+      <c r="O24" t="n">
+        <v>0</v>
+      </c>
+      <c r="P24" t="n">
+        <v>0.06561201428883867</v>
+      </c>
+      <c r="Q24" t="n">
+        <v>0</v>
+      </c>
+      <c r="R24" t="n">
         <v>0.01944059682632257</v>
       </c>
-      <c r="E24" t="n">
-        <v>0</v>
-      </c>
-      <c r="F24" t="n">
-        <v>0</v>
-      </c>
-      <c r="G24" t="n">
-        <v>0</v>
-      </c>
-      <c r="H24" t="n">
-        <v>0</v>
-      </c>
-      <c r="I24" t="n">
-        <v>0</v>
-      </c>
-      <c r="J24" t="n">
+      <c r="S24" t="n">
+        <v>0.0121503730164516</v>
+      </c>
+      <c r="T24" t="n">
+        <v>0</v>
+      </c>
+      <c r="U24" t="n">
+        <v>0</v>
+      </c>
+      <c r="V24" t="n">
+        <v>0</v>
+      </c>
+      <c r="W24" t="n">
+        <v>0</v>
+      </c>
+      <c r="X24" t="n">
+        <v>0</v>
+      </c>
+      <c r="Y24" t="n">
+        <v>2.605039974727224</v>
+      </c>
+      <c r="Z24" t="n">
+        <v>0</v>
+      </c>
+      <c r="AA24" t="n">
         <v>0.009720298413161283</v>
       </c>
-      <c r="K24" t="n">
-        <v>0.06561201428883867</v>
-      </c>
-      <c r="L24" t="n">
-        <v>0.0121503730164516</v>
-      </c>
-      <c r="M24" t="n">
-        <v>3.251439819202449</v>
-      </c>
-      <c r="N24" t="n">
-        <v>0</v>
-      </c>
-      <c r="O24" t="n">
+      <c r="AB24" t="n">
+        <v>0</v>
+      </c>
+      <c r="AC24" t="n">
+        <v>0</v>
+      </c>
+      <c r="AD24" t="n">
         <v>0.0461714174625161</v>
       </c>
-      <c r="P24" t="n">
-        <v>0</v>
-      </c>
-      <c r="Q24" t="n">
+      <c r="AE24" t="n">
         <v>0.3669412650968384</v>
-      </c>
-      <c r="R24" t="n">
-        <v>0</v>
-      </c>
-      <c r="S24" t="n">
-        <v>2.605039974727224</v>
-      </c>
-      <c r="T24" t="n">
-        <v>0</v>
-      </c>
-      <c r="U24" t="n">
-        <v>0.05346164127238706</v>
-      </c>
-      <c r="V24" t="n">
-        <v>0</v>
-      </c>
-      <c r="W24" t="n">
-        <v>0</v>
-      </c>
-      <c r="X24" t="n">
-        <v>0</v>
-      </c>
-      <c r="Y24" t="n">
-        <v>0</v>
-      </c>
-      <c r="Z24" t="n">
-        <v>0</v>
-      </c>
-      <c r="AA24" t="n">
-        <v>0</v>
-      </c>
-      <c r="AB24" t="n">
-        <v>0</v>
-      </c>
-      <c r="AC24" t="n">
-        <v>0</v>
-      </c>
-      <c r="AD24" t="n">
-        <v>0</v>
-      </c>
-      <c r="AE24" t="n">
-        <v>0</v>
       </c>
       <c r="AF24" t="n">
         <v>0</v>
@@ -3125,85 +3125,85 @@
         <v>1</v>
       </c>
       <c r="D25" t="n">
-        <v>0</v>
+        <v>0.004966229638458482</v>
       </c>
       <c r="E25" t="n">
+        <v>0</v>
+      </c>
+      <c r="F25" t="n">
+        <v>0</v>
+      </c>
+      <c r="G25" t="n">
+        <v>0</v>
+      </c>
+      <c r="H25" t="n">
+        <v>0</v>
+      </c>
+      <c r="I25" t="n">
+        <v>0</v>
+      </c>
+      <c r="J25" t="n">
+        <v>0</v>
+      </c>
+      <c r="K25" t="n">
+        <v>0.009932459276916964</v>
+      </c>
+      <c r="L25" t="n">
+        <v>0</v>
+      </c>
+      <c r="M25" t="n">
+        <v>0</v>
+      </c>
+      <c r="N25" t="n">
+        <v>0</v>
+      </c>
+      <c r="O25" t="n">
+        <v>0</v>
+      </c>
+      <c r="P25" t="n">
         <v>0.004966229638458482</v>
       </c>
-      <c r="F25" t="n">
-        <v>0</v>
-      </c>
-      <c r="G25" t="n">
-        <v>0</v>
-      </c>
-      <c r="H25" t="n">
-        <v>0</v>
-      </c>
-      <c r="I25" t="n">
-        <v>0</v>
-      </c>
-      <c r="J25" t="n">
+      <c r="Q25" t="n">
+        <v>0</v>
+      </c>
+      <c r="R25" t="n">
+        <v>0</v>
+      </c>
+      <c r="S25" t="n">
+        <v>0</v>
+      </c>
+      <c r="T25" t="n">
+        <v>0</v>
+      </c>
+      <c r="U25" t="n">
+        <v>0</v>
+      </c>
+      <c r="V25" t="n">
+        <v>0</v>
+      </c>
+      <c r="W25" t="n">
+        <v>0</v>
+      </c>
+      <c r="X25" t="n">
+        <v>0</v>
+      </c>
+      <c r="Y25" t="n">
+        <v>0.124155740961462</v>
+      </c>
+      <c r="Z25" t="n">
         <v>0.004966229638458482</v>
       </c>
-      <c r="K25" t="n">
+      <c r="AA25" t="n">
         <v>0.004966229638458482</v>
       </c>
-      <c r="L25" t="n">
-        <v>0</v>
-      </c>
-      <c r="M25" t="n">
+      <c r="AB25" t="n">
+        <v>0.09435836313071116</v>
+      </c>
+      <c r="AC25" t="n">
         <v>0.009932459276916964</v>
       </c>
-      <c r="N25" t="n">
-        <v>0</v>
-      </c>
-      <c r="O25" t="n">
-        <v>0</v>
-      </c>
-      <c r="P25" t="n">
-        <v>0</v>
-      </c>
-      <c r="Q25" t="n">
-        <v>0</v>
-      </c>
-      <c r="R25" t="n">
-        <v>0.004966229638458482</v>
-      </c>
-      <c r="S25" t="n">
-        <v>0.124155740961462</v>
-      </c>
-      <c r="T25" t="n">
-        <v>0</v>
-      </c>
-      <c r="U25" t="n">
-        <v>0</v>
-      </c>
-      <c r="V25" t="n">
-        <v>0</v>
-      </c>
-      <c r="W25" t="n">
-        <v>0</v>
-      </c>
-      <c r="X25" t="n">
-        <v>0</v>
-      </c>
-      <c r="Y25" t="n">
-        <v>0.09435836313071116</v>
-      </c>
-      <c r="Z25" t="n">
-        <v>0</v>
-      </c>
-      <c r="AA25" t="n">
-        <v>0</v>
-      </c>
-      <c r="AB25" t="n">
-        <v>0</v>
-      </c>
-      <c r="AC25" t="n">
-        <v>0</v>
-      </c>
       <c r="AD25" t="n">
-        <v>0.009932459276916964</v>
+        <v>0</v>
       </c>
       <c r="AE25" t="n">
         <v>0</v>
@@ -3234,100 +3234,100 @@
         <v>2</v>
       </c>
       <c r="D26" t="n">
+        <v>0.005749770009199632</v>
+      </c>
+      <c r="E26" t="n">
+        <v>0</v>
+      </c>
+      <c r="F26" t="n">
+        <v>0</v>
+      </c>
+      <c r="G26" t="n">
+        <v>0</v>
+      </c>
+      <c r="H26" t="n">
+        <v>0</v>
+      </c>
+      <c r="I26" t="n">
+        <v>0.002874885004599816</v>
+      </c>
+      <c r="J26" t="n">
+        <v>0.008624655013799448</v>
+      </c>
+      <c r="K26" t="n">
+        <v>0</v>
+      </c>
+      <c r="L26" t="n">
+        <v>0.2932382704691812</v>
+      </c>
+      <c r="M26" t="n">
+        <v>0</v>
+      </c>
+      <c r="N26" t="n">
+        <v>0.02874885004599816</v>
+      </c>
+      <c r="O26" t="n">
+        <v>0</v>
+      </c>
+      <c r="P26" t="n">
+        <v>0</v>
+      </c>
+      <c r="Q26" t="n">
+        <v>0.04024839006439743</v>
+      </c>
+      <c r="R26" t="n">
         <v>0.06324747010119594</v>
       </c>
-      <c r="E26" t="n">
+      <c r="S26" t="n">
+        <v>1.138454461821527</v>
+      </c>
+      <c r="T26" t="n">
+        <v>0.327736890524379</v>
+      </c>
+      <c r="U26" t="n">
+        <v>0</v>
+      </c>
+      <c r="V26" t="n">
+        <v>0</v>
+      </c>
+      <c r="W26" t="n">
+        <v>0.03737350505979761</v>
+      </c>
+      <c r="X26" t="n">
+        <v>0</v>
+      </c>
+      <c r="Y26" t="n">
+        <v>0.002874885004599816</v>
+      </c>
+      <c r="Z26" t="n">
+        <v>0.4312327506899724</v>
+      </c>
+      <c r="AA26" t="n">
+        <v>0</v>
+      </c>
+      <c r="AB26" t="n">
+        <v>0.8107175712971482</v>
+      </c>
+      <c r="AC26" t="n">
+        <v>0.0718721251149954</v>
+      </c>
+      <c r="AD26" t="n">
         <v>0.005749770009199632</v>
       </c>
-      <c r="F26" t="n">
-        <v>0</v>
-      </c>
-      <c r="G26" t="n">
-        <v>0</v>
-      </c>
-      <c r="H26" t="n">
-        <v>0</v>
-      </c>
-      <c r="I26" t="n">
-        <v>0.327736890524379</v>
-      </c>
-      <c r="J26" t="n">
-        <v>0</v>
-      </c>
-      <c r="K26" t="n">
-        <v>0</v>
-      </c>
-      <c r="L26" t="n">
-        <v>1.138454461821527</v>
-      </c>
-      <c r="M26" t="n">
-        <v>0</v>
-      </c>
-      <c r="N26" t="n">
-        <v>0.03737350505979761</v>
-      </c>
-      <c r="O26" t="n">
-        <v>0.005749770009199632</v>
-      </c>
-      <c r="P26" t="n">
-        <v>0</v>
-      </c>
-      <c r="Q26" t="n">
+      <c r="AE26" t="n">
         <v>0.8825896964121436</v>
       </c>
-      <c r="R26" t="n">
-        <v>0.4312327506899724</v>
-      </c>
-      <c r="S26" t="n">
-        <v>0.002874885004599816</v>
-      </c>
-      <c r="T26" t="n">
+      <c r="AF26" t="n">
+        <v>0</v>
+      </c>
+      <c r="AG26" t="n">
+        <v>0</v>
+      </c>
+      <c r="AH26" t="n">
         <v>0.02299908003679853</v>
       </c>
-      <c r="U26" t="n">
-        <v>0</v>
-      </c>
-      <c r="V26" t="n">
-        <v>0.002874885004599816</v>
-      </c>
-      <c r="W26" t="n">
-        <v>0</v>
-      </c>
-      <c r="X26" t="n">
-        <v>0</v>
-      </c>
-      <c r="Y26" t="n">
-        <v>0.8107175712971482</v>
-      </c>
-      <c r="Z26" t="n">
-        <v>0</v>
-      </c>
-      <c r="AA26" t="n">
-        <v>0</v>
-      </c>
-      <c r="AB26" t="n">
-        <v>0.04024839006439743</v>
-      </c>
-      <c r="AC26" t="n">
-        <v>0</v>
-      </c>
-      <c r="AD26" t="n">
-        <v>0.0718721251149954</v>
-      </c>
-      <c r="AE26" t="n">
-        <v>0</v>
-      </c>
-      <c r="AF26" t="n">
-        <v>0</v>
-      </c>
-      <c r="AG26" t="n">
-        <v>0.02874885004599816</v>
-      </c>
-      <c r="AH26" t="n">
-        <v>0.2932382704691812</v>
-      </c>
       <c r="AI26" t="n">
-        <v>0.008624655013799448</v>
+        <v>0</v>
       </c>
     </row>
     <row r="27">
@@ -3346,85 +3346,85 @@
         <v>0</v>
       </c>
       <c r="E27" t="n">
-        <v>0</v>
+        <v>0.3166978965981368</v>
       </c>
       <c r="F27" t="n">
         <v>0</v>
       </c>
       <c r="G27" t="n">
+        <v>0</v>
+      </c>
+      <c r="H27" t="n">
+        <v>0</v>
+      </c>
+      <c r="I27" t="n">
+        <v>0</v>
+      </c>
+      <c r="J27" t="n">
+        <v>0</v>
+      </c>
+      <c r="K27" t="n">
+        <v>0</v>
+      </c>
+      <c r="L27" t="n">
+        <v>0</v>
+      </c>
+      <c r="M27" t="n">
+        <v>0</v>
+      </c>
+      <c r="N27" t="n">
+        <v>0</v>
+      </c>
+      <c r="O27" t="n">
+        <v>0</v>
+      </c>
+      <c r="P27" t="n">
+        <v>0</v>
+      </c>
+      <c r="Q27" t="n">
+        <v>0</v>
+      </c>
+      <c r="R27" t="n">
+        <v>0</v>
+      </c>
+      <c r="S27" t="n">
+        <v>0</v>
+      </c>
+      <c r="T27" t="n">
+        <v>0</v>
+      </c>
+      <c r="U27" t="n">
         <v>0.00395872370747671</v>
       </c>
-      <c r="H27" t="n">
-        <v>0.3166978965981368</v>
-      </c>
-      <c r="I27" t="n">
-        <v>0</v>
-      </c>
-      <c r="J27" t="n">
-        <v>0</v>
-      </c>
-      <c r="K27" t="n">
-        <v>0</v>
-      </c>
-      <c r="L27" t="n">
-        <v>0</v>
-      </c>
-      <c r="M27" t="n">
-        <v>0</v>
-      </c>
-      <c r="N27" t="n">
-        <v>0</v>
-      </c>
-      <c r="O27" t="n">
-        <v>0</v>
-      </c>
-      <c r="P27" t="n">
-        <v>0</v>
-      </c>
-      <c r="Q27" t="n">
+      <c r="V27" t="n">
+        <v>0.001319574569158903</v>
+      </c>
+      <c r="W27" t="n">
+        <v>0</v>
+      </c>
+      <c r="X27" t="n">
+        <v>0</v>
+      </c>
+      <c r="Y27" t="n">
+        <v>0</v>
+      </c>
+      <c r="Z27" t="n">
+        <v>0.001319574569158903</v>
+      </c>
+      <c r="AA27" t="n">
+        <v>0</v>
+      </c>
+      <c r="AB27" t="n">
+        <v>0</v>
+      </c>
+      <c r="AC27" t="n">
+        <v>0</v>
+      </c>
+      <c r="AD27" t="n">
+        <v>0</v>
+      </c>
+      <c r="AE27" t="n">
         <v>0.3998310944551476</v>
-      </c>
-      <c r="R27" t="n">
-        <v>0.001319574569158903</v>
-      </c>
-      <c r="S27" t="n">
-        <v>0</v>
-      </c>
-      <c r="T27" t="n">
-        <v>0</v>
-      </c>
-      <c r="U27" t="n">
-        <v>0</v>
-      </c>
-      <c r="V27" t="n">
-        <v>0</v>
-      </c>
-      <c r="W27" t="n">
-        <v>0.001319574569158903</v>
-      </c>
-      <c r="X27" t="n">
-        <v>0</v>
-      </c>
-      <c r="Y27" t="n">
-        <v>0</v>
-      </c>
-      <c r="Z27" t="n">
-        <v>0</v>
-      </c>
-      <c r="AA27" t="n">
-        <v>0</v>
-      </c>
-      <c r="AB27" t="n">
-        <v>0</v>
-      </c>
-      <c r="AC27" t="n">
-        <v>0</v>
-      </c>
-      <c r="AD27" t="n">
-        <v>0</v>
-      </c>
-      <c r="AE27" t="n">
-        <v>0</v>
       </c>
       <c r="AF27" t="n">
         <v>0</v>
@@ -3561,100 +3561,100 @@
         <v>1</v>
       </c>
       <c r="D29" t="n">
+        <v>0.01173846695621552</v>
+      </c>
+      <c r="E29" t="n">
+        <v>0</v>
+      </c>
+      <c r="F29" t="n">
+        <v>0.01173846695621552</v>
+      </c>
+      <c r="G29" t="n">
+        <v>0</v>
+      </c>
+      <c r="H29" t="n">
+        <v>0</v>
+      </c>
+      <c r="I29" t="n">
+        <v>0.007825644637477012</v>
+      </c>
+      <c r="J29" t="n">
+        <v>0.03130257854990805</v>
+      </c>
+      <c r="K29" t="n">
+        <v>0</v>
+      </c>
+      <c r="L29" t="n">
+        <v>0.4069335211488046</v>
+      </c>
+      <c r="M29" t="n">
+        <v>0.05477951246233909</v>
+      </c>
+      <c r="N29" t="n">
+        <v>0.1095590249246782</v>
+      </c>
+      <c r="O29" t="n">
+        <v>0</v>
+      </c>
+      <c r="P29" t="n">
+        <v>0</v>
+      </c>
+      <c r="Q29" t="n">
+        <v>0.1056462026059397</v>
+      </c>
+      <c r="R29" t="n">
         <v>1.498610948076848</v>
       </c>
-      <c r="E29" t="n">
+      <c r="S29" t="n">
+        <v>1.475134014164417</v>
+      </c>
+      <c r="T29" t="n">
+        <v>0.1486872481120632</v>
+      </c>
+      <c r="U29" t="n">
+        <v>0</v>
+      </c>
+      <c r="V29" t="n">
+        <v>0</v>
+      </c>
+      <c r="W29" t="n">
+        <v>0.03521540086864655</v>
+      </c>
+      <c r="X29" t="n">
+        <v>0</v>
+      </c>
+      <c r="Y29" t="n">
+        <v>0</v>
+      </c>
+      <c r="Z29" t="n">
+        <v>0.4617130336111437</v>
+      </c>
+      <c r="AA29" t="n">
+        <v>0.03912822318738506</v>
+      </c>
+      <c r="AB29" t="n">
+        <v>5.157099816097351</v>
+      </c>
+      <c r="AC29" t="n">
+        <v>1.737293109519897</v>
+      </c>
+      <c r="AD29" t="n">
         <v>0.01173846695621552</v>
       </c>
-      <c r="F29" t="n">
-        <v>0</v>
-      </c>
-      <c r="G29" t="n">
-        <v>0</v>
-      </c>
-      <c r="H29" t="n">
-        <v>0</v>
-      </c>
-      <c r="I29" t="n">
-        <v>0.1486872481120632</v>
-      </c>
-      <c r="J29" t="n">
-        <v>0.03912822318738506</v>
-      </c>
-      <c r="K29" t="n">
-        <v>0</v>
-      </c>
-      <c r="L29" t="n">
-        <v>1.475134014164417</v>
-      </c>
-      <c r="M29" t="n">
-        <v>0</v>
-      </c>
-      <c r="N29" t="n">
-        <v>0.03521540086864655</v>
-      </c>
-      <c r="O29" t="n">
-        <v>0.01173846695621552</v>
-      </c>
-      <c r="P29" t="n">
-        <v>0</v>
-      </c>
-      <c r="Q29" t="n">
+      <c r="AE29" t="n">
         <v>7.160464843291465</v>
       </c>
-      <c r="R29" t="n">
-        <v>0.4617130336111437</v>
-      </c>
-      <c r="S29" t="n">
-        <v>0</v>
-      </c>
-      <c r="T29" t="n">
+      <c r="AF29" t="n">
+        <v>0</v>
+      </c>
+      <c r="AG29" t="n">
+        <v>0</v>
+      </c>
+      <c r="AH29" t="n">
         <v>0.4030206988300661</v>
       </c>
-      <c r="U29" t="n">
-        <v>0</v>
-      </c>
-      <c r="V29" t="n">
-        <v>0.007825644637477012</v>
-      </c>
-      <c r="W29" t="n">
-        <v>0</v>
-      </c>
-      <c r="X29" t="n">
-        <v>0.01173846695621552</v>
-      </c>
-      <c r="Y29" t="n">
-        <v>5.157099816097351</v>
-      </c>
-      <c r="Z29" t="n">
-        <v>0.05477951246233909</v>
-      </c>
-      <c r="AA29" t="n">
-        <v>0</v>
-      </c>
-      <c r="AB29" t="n">
-        <v>0.1056462026059397</v>
-      </c>
-      <c r="AC29" t="n">
-        <v>0</v>
-      </c>
-      <c r="AD29" t="n">
-        <v>1.737293109519897</v>
-      </c>
-      <c r="AE29" t="n">
-        <v>0</v>
-      </c>
-      <c r="AF29" t="n">
+      <c r="AI29" t="n">
         <v>0.003912822318738506</v>
-      </c>
-      <c r="AG29" t="n">
-        <v>0.1095590249246782</v>
-      </c>
-      <c r="AH29" t="n">
-        <v>0.4069335211488046</v>
-      </c>
-      <c r="AI29" t="n">
-        <v>0.03130257854990805</v>
       </c>
     </row>
     <row r="30">
@@ -3682,85 +3682,85 @@
         <v>0</v>
       </c>
       <c r="H30" t="n">
-        <v>0</v>
+        <v>1.823066589905968</v>
       </c>
       <c r="I30" t="n">
-        <v>0</v>
+        <v>0.01919017463058914</v>
       </c>
       <c r="J30" t="n">
+        <v>0</v>
+      </c>
+      <c r="K30" t="n">
         <v>0.1151410477835348</v>
       </c>
-      <c r="K30" t="n">
+      <c r="L30" t="n">
+        <v>0.05757052389176742</v>
+      </c>
+      <c r="M30" t="n">
+        <v>0</v>
+      </c>
+      <c r="N30" t="n">
+        <v>0.01919017463058914</v>
+      </c>
+      <c r="O30" t="n">
+        <v>0</v>
+      </c>
+      <c r="P30" t="n">
         <v>0.268662444828248</v>
       </c>
-      <c r="L30" t="n">
-        <v>0</v>
-      </c>
-      <c r="M30" t="n">
+      <c r="Q30" t="n">
+        <v>0</v>
+      </c>
+      <c r="R30" t="n">
+        <v>0</v>
+      </c>
+      <c r="S30" t="n">
+        <v>0</v>
+      </c>
+      <c r="T30" t="n">
+        <v>0</v>
+      </c>
+      <c r="U30" t="n">
+        <v>0</v>
+      </c>
+      <c r="V30" t="n">
+        <v>0</v>
+      </c>
+      <c r="W30" t="n">
+        <v>0</v>
+      </c>
+      <c r="X30" t="n">
+        <v>0</v>
+      </c>
+      <c r="Y30" t="n">
+        <v>0.5757052389176741</v>
+      </c>
+      <c r="Z30" t="n">
+        <v>0</v>
+      </c>
+      <c r="AA30" t="n">
         <v>0.1151410477835348</v>
       </c>
-      <c r="N30" t="n">
-        <v>0</v>
-      </c>
-      <c r="O30" t="n">
-        <v>0</v>
-      </c>
-      <c r="P30" t="n">
-        <v>0</v>
-      </c>
-      <c r="Q30" t="n">
+      <c r="AB30" t="n">
+        <v>0</v>
+      </c>
+      <c r="AC30" t="n">
+        <v>0</v>
+      </c>
+      <c r="AD30" t="n">
+        <v>0</v>
+      </c>
+      <c r="AE30" t="n">
         <v>0.134331222414124</v>
       </c>
-      <c r="R30" t="n">
-        <v>0</v>
-      </c>
-      <c r="S30" t="n">
-        <v>0.5757052389176741</v>
-      </c>
-      <c r="T30" t="n">
-        <v>0</v>
-      </c>
-      <c r="U30" t="n">
-        <v>1.823066589905968</v>
-      </c>
-      <c r="V30" t="n">
-        <v>0.01919017463058914</v>
-      </c>
-      <c r="W30" t="n">
-        <v>0</v>
-      </c>
-      <c r="X30" t="n">
-        <v>0</v>
-      </c>
-      <c r="Y30" t="n">
-        <v>0</v>
-      </c>
-      <c r="Z30" t="n">
-        <v>0</v>
-      </c>
-      <c r="AA30" t="n">
-        <v>0</v>
-      </c>
-      <c r="AB30" t="n">
-        <v>0</v>
-      </c>
-      <c r="AC30" t="n">
-        <v>0</v>
-      </c>
-      <c r="AD30" t="n">
-        <v>0</v>
-      </c>
-      <c r="AE30" t="n">
-        <v>0</v>
-      </c>
       <c r="AF30" t="n">
         <v>0</v>
       </c>
       <c r="AG30" t="n">
-        <v>0.01919017463058914</v>
+        <v>0</v>
       </c>
       <c r="AH30" t="n">
-        <v>0.05757052389176742</v>
+        <v>0</v>
       </c>
       <c r="AI30" t="n">
         <v>0</v>
@@ -3779,73 +3779,73 @@
         <v>2</v>
       </c>
       <c r="D31" t="n">
+        <v>0</v>
+      </c>
+      <c r="E31" t="n">
+        <v>0</v>
+      </c>
+      <c r="F31" t="n">
+        <v>0</v>
+      </c>
+      <c r="G31" t="n">
+        <v>0</v>
+      </c>
+      <c r="H31" t="n">
+        <v>0.1613915538420156</v>
+      </c>
+      <c r="I31" t="n">
+        <v>0.004483098717833767</v>
+      </c>
+      <c r="J31" t="n">
+        <v>0</v>
+      </c>
+      <c r="K31" t="n">
+        <v>0.192773244866852</v>
+      </c>
+      <c r="L31" t="n">
+        <v>0.0403478884605039</v>
+      </c>
+      <c r="M31" t="n">
+        <v>0</v>
+      </c>
+      <c r="N31" t="n">
+        <v>0</v>
+      </c>
+      <c r="O31" t="n">
+        <v>0</v>
+      </c>
+      <c r="P31" t="n">
         <v>0.008966197435667534</v>
       </c>
-      <c r="E31" t="n">
-        <v>0</v>
-      </c>
-      <c r="F31" t="n">
-        <v>0</v>
-      </c>
-      <c r="G31" t="n">
-        <v>0</v>
-      </c>
-      <c r="H31" t="n">
-        <v>0</v>
-      </c>
-      <c r="I31" t="n">
-        <v>0</v>
-      </c>
-      <c r="J31" t="n">
-        <v>0</v>
-      </c>
-      <c r="K31" t="n">
-        <v>0.008966197435667534</v>
-      </c>
-      <c r="L31" t="n">
-        <v>0</v>
-      </c>
-      <c r="M31" t="n">
-        <v>0.192773244866852</v>
-      </c>
-      <c r="N31" t="n">
-        <v>0</v>
-      </c>
-      <c r="O31" t="n">
-        <v>0.01793239487133507</v>
-      </c>
-      <c r="P31" t="n">
-        <v>0</v>
-      </c>
       <c r="Q31" t="n">
-        <v>0.6276338204967273</v>
+        <v>0</v>
       </c>
       <c r="R31" t="n">
         <v>0.008966197435667534</v>
       </c>
       <c r="S31" t="n">
+        <v>0</v>
+      </c>
+      <c r="T31" t="n">
+        <v>0</v>
+      </c>
+      <c r="U31" t="n">
+        <v>0</v>
+      </c>
+      <c r="V31" t="n">
+        <v>0</v>
+      </c>
+      <c r="W31" t="n">
+        <v>0</v>
+      </c>
+      <c r="X31" t="n">
+        <v>0</v>
+      </c>
+      <c r="Y31" t="n">
         <v>0.1748408499955169</v>
       </c>
-      <c r="T31" t="n">
-        <v>0</v>
-      </c>
-      <c r="U31" t="n">
-        <v>0.1613915538420156</v>
-      </c>
-      <c r="V31" t="n">
-        <v>0.004483098717833767</v>
-      </c>
-      <c r="W31" t="n">
-        <v>0</v>
-      </c>
-      <c r="X31" t="n">
-        <v>0</v>
-      </c>
-      <c r="Y31" t="n">
-        <v>0</v>
-      </c>
       <c r="Z31" t="n">
-        <v>0</v>
+        <v>0.008966197435667534</v>
       </c>
       <c r="AA31" t="n">
         <v>0</v>
@@ -3857,10 +3857,10 @@
         <v>0</v>
       </c>
       <c r="AD31" t="n">
-        <v>0</v>
+        <v>0.01793239487133507</v>
       </c>
       <c r="AE31" t="n">
-        <v>0</v>
+        <v>0.6276338204967273</v>
       </c>
       <c r="AF31" t="n">
         <v>0</v>
@@ -3869,7 +3869,7 @@
         <v>0</v>
       </c>
       <c r="AH31" t="n">
-        <v>0.0403478884605039</v>
+        <v>0</v>
       </c>
       <c r="AI31" t="n">
         <v>0</v>
@@ -3997,10 +3997,10 @@
         <v>3</v>
       </c>
       <c r="D33" t="n">
-        <v>0</v>
+        <v>0.03951007506914263</v>
       </c>
       <c r="E33" t="n">
-        <v>0.03951007506914263</v>
+        <v>0</v>
       </c>
       <c r="F33" t="n">
         <v>0</v>
@@ -4015,82 +4015,82 @@
         <v>0</v>
       </c>
       <c r="J33" t="n">
+        <v>0</v>
+      </c>
+      <c r="K33" t="n">
+        <v>0</v>
+      </c>
+      <c r="L33" t="n">
+        <v>0</v>
+      </c>
+      <c r="M33" t="n">
+        <v>0</v>
+      </c>
+      <c r="N33" t="n">
+        <v>0</v>
+      </c>
+      <c r="O33" t="n">
+        <v>0</v>
+      </c>
+      <c r="P33" t="n">
+        <v>0</v>
+      </c>
+      <c r="Q33" t="n">
+        <v>0.009877518767285657</v>
+      </c>
+      <c r="R33" t="n">
+        <v>0</v>
+      </c>
+      <c r="S33" t="n">
+        <v>0</v>
+      </c>
+      <c r="T33" t="n">
+        <v>0</v>
+      </c>
+      <c r="U33" t="n">
+        <v>0</v>
+      </c>
+      <c r="V33" t="n">
+        <v>0</v>
+      </c>
+      <c r="W33" t="n">
+        <v>0</v>
+      </c>
+      <c r="X33" t="n">
+        <v>0</v>
+      </c>
+      <c r="Y33" t="n">
+        <v>0.0691426313709996</v>
+      </c>
+      <c r="Z33" t="n">
+        <v>0</v>
+      </c>
+      <c r="AA33" t="n">
         <v>0.02963255630185697</v>
       </c>
-      <c r="K33" t="n">
-        <v>0</v>
-      </c>
-      <c r="L33" t="n">
-        <v>0</v>
-      </c>
-      <c r="M33" t="n">
-        <v>0</v>
-      </c>
-      <c r="N33" t="n">
-        <v>0</v>
-      </c>
-      <c r="O33" t="n">
+      <c r="AB33" t="n">
+        <v>0.1481627815092849</v>
+      </c>
+      <c r="AC33" t="n">
+        <v>0</v>
+      </c>
+      <c r="AD33" t="n">
         <v>0.09877518767285659</v>
       </c>
-      <c r="P33" t="n">
+      <c r="AE33" t="n">
+        <v>0.0493875938364283</v>
+      </c>
+      <c r="AF33" t="n">
         <v>0.009877518767285657</v>
       </c>
-      <c r="Q33" t="n">
-        <v>0.0493875938364283</v>
-      </c>
-      <c r="R33" t="n">
-        <v>0</v>
-      </c>
-      <c r="S33" t="n">
-        <v>0.0691426313709996</v>
-      </c>
-      <c r="T33" t="n">
-        <v>0</v>
-      </c>
-      <c r="U33" t="n">
-        <v>0</v>
-      </c>
-      <c r="V33" t="n">
-        <v>0</v>
-      </c>
-      <c r="W33" t="n">
-        <v>0</v>
-      </c>
-      <c r="X33" t="n">
-        <v>0</v>
-      </c>
-      <c r="Y33" t="n">
-        <v>0.1481627815092849</v>
-      </c>
-      <c r="Z33" t="n">
-        <v>0</v>
-      </c>
-      <c r="AA33" t="n">
-        <v>0</v>
-      </c>
-      <c r="AB33" t="n">
-        <v>0.009877518767285657</v>
-      </c>
-      <c r="AC33" t="n">
-        <v>0</v>
-      </c>
-      <c r="AD33" t="n">
-        <v>0</v>
-      </c>
-      <c r="AE33" t="n">
-        <v>0</v>
-      </c>
-      <c r="AF33" t="n">
+      <c r="AG33" t="n">
+        <v>0</v>
+      </c>
+      <c r="AH33" t="n">
+        <v>0</v>
+      </c>
+      <c r="AI33" t="n">
         <v>0.01975503753457131</v>
-      </c>
-      <c r="AG33" t="n">
-        <v>0</v>
-      </c>
-      <c r="AH33" t="n">
-        <v>0</v>
-      </c>
-      <c r="AI33" t="n">
-        <v>0</v>
       </c>
     </row>
     <row r="34">
@@ -4106,10 +4106,10 @@
         <v>2</v>
       </c>
       <c r="D34" t="n">
-        <v>0</v>
+        <v>0.9750812567713976</v>
       </c>
       <c r="E34" t="n">
-        <v>0.9750812567713976</v>
+        <v>0</v>
       </c>
       <c r="F34" t="n">
         <v>0</v>
@@ -4139,55 +4139,55 @@
         <v>0</v>
       </c>
       <c r="O34" t="n">
+        <v>0</v>
+      </c>
+      <c r="P34" t="n">
+        <v>0</v>
+      </c>
+      <c r="Q34" t="n">
+        <v>0</v>
+      </c>
+      <c r="R34" t="n">
+        <v>0</v>
+      </c>
+      <c r="S34" t="n">
+        <v>0</v>
+      </c>
+      <c r="T34" t="n">
+        <v>0</v>
+      </c>
+      <c r="U34" t="n">
+        <v>0</v>
+      </c>
+      <c r="V34" t="n">
+        <v>0</v>
+      </c>
+      <c r="W34" t="n">
+        <v>0</v>
+      </c>
+      <c r="X34" t="n">
+        <v>0</v>
+      </c>
+      <c r="Y34" t="n">
+        <v>0</v>
+      </c>
+      <c r="Z34" t="n">
+        <v>0</v>
+      </c>
+      <c r="AA34" t="n">
+        <v>0</v>
+      </c>
+      <c r="AB34" t="n">
+        <v>0.5958829902491874</v>
+      </c>
+      <c r="AC34" t="n">
+        <v>0</v>
+      </c>
+      <c r="AD34" t="n">
         <v>0.1625135427952329</v>
       </c>
-      <c r="P34" t="n">
-        <v>0</v>
-      </c>
-      <c r="Q34" t="n">
+      <c r="AE34" t="n">
         <v>0.6771397616468039</v>
-      </c>
-      <c r="R34" t="n">
-        <v>0</v>
-      </c>
-      <c r="S34" t="n">
-        <v>0</v>
-      </c>
-      <c r="T34" t="n">
-        <v>0</v>
-      </c>
-      <c r="U34" t="n">
-        <v>0</v>
-      </c>
-      <c r="V34" t="n">
-        <v>0</v>
-      </c>
-      <c r="W34" t="n">
-        <v>0</v>
-      </c>
-      <c r="X34" t="n">
-        <v>0</v>
-      </c>
-      <c r="Y34" t="n">
-        <v>0.5958829902491874</v>
-      </c>
-      <c r="Z34" t="n">
-        <v>0</v>
-      </c>
-      <c r="AA34" t="n">
-        <v>0</v>
-      </c>
-      <c r="AB34" t="n">
-        <v>0</v>
-      </c>
-      <c r="AC34" t="n">
-        <v>0</v>
-      </c>
-      <c r="AD34" t="n">
-        <v>0</v>
-      </c>
-      <c r="AE34" t="n">
-        <v>0</v>
       </c>
       <c r="AF34" t="n">
         <v>0</v>
@@ -4260,25 +4260,25 @@
         <v>0</v>
       </c>
       <c r="S35" t="n">
+        <v>0</v>
+      </c>
+      <c r="T35" t="n">
+        <v>0</v>
+      </c>
+      <c r="U35" t="n">
+        <v>0</v>
+      </c>
+      <c r="V35" t="n">
+        <v>0</v>
+      </c>
+      <c r="W35" t="n">
+        <v>0</v>
+      </c>
+      <c r="X35" t="n">
+        <v>0</v>
+      </c>
+      <c r="Y35" t="n">
         <v>0.55</v>
-      </c>
-      <c r="T35" t="n">
-        <v>0</v>
-      </c>
-      <c r="U35" t="n">
-        <v>0</v>
-      </c>
-      <c r="V35" t="n">
-        <v>0</v>
-      </c>
-      <c r="W35" t="n">
-        <v>0</v>
-      </c>
-      <c r="X35" t="n">
-        <v>0</v>
-      </c>
-      <c r="Y35" t="n">
-        <v>0</v>
       </c>
       <c r="Z35" t="n">
         <v>0</v>
@@ -4324,88 +4324,88 @@
         <v>1</v>
       </c>
       <c r="D36" t="n">
+        <v>0.2098559953686953</v>
+      </c>
+      <c r="E36" t="n">
+        <v>0</v>
+      </c>
+      <c r="F36" t="n">
+        <v>0</v>
+      </c>
+      <c r="G36" t="n">
+        <v>0</v>
+      </c>
+      <c r="H36" t="n">
+        <v>0</v>
+      </c>
+      <c r="I36" t="n">
+        <v>0</v>
+      </c>
+      <c r="J36" t="n">
+        <v>0</v>
+      </c>
+      <c r="K36" t="n">
+        <v>0</v>
+      </c>
+      <c r="L36" t="n">
+        <v>0</v>
+      </c>
+      <c r="M36" t="n">
+        <v>0</v>
+      </c>
+      <c r="N36" t="n">
+        <v>0</v>
+      </c>
+      <c r="O36" t="n">
+        <v>0</v>
+      </c>
+      <c r="P36" t="n">
+        <v>0</v>
+      </c>
+      <c r="Q36" t="n">
+        <v>0</v>
+      </c>
+      <c r="R36" t="n">
         <v>3.097185035096606</v>
       </c>
-      <c r="E36" t="n">
-        <v>0.2098559953686953</v>
-      </c>
-      <c r="F36" t="n">
-        <v>0</v>
-      </c>
-      <c r="G36" t="n">
+      <c r="S36" t="n">
+        <v>0</v>
+      </c>
+      <c r="T36" t="n">
+        <v>0</v>
+      </c>
+      <c r="U36" t="n">
         <v>0.003618206816701643</v>
       </c>
-      <c r="H36" t="n">
-        <v>0</v>
-      </c>
-      <c r="I36" t="n">
-        <v>0</v>
-      </c>
-      <c r="J36" t="n">
-        <v>0</v>
-      </c>
-      <c r="K36" t="n">
-        <v>0</v>
-      </c>
-      <c r="L36" t="n">
-        <v>0</v>
-      </c>
-      <c r="M36" t="n">
-        <v>0</v>
-      </c>
-      <c r="N36" t="n">
-        <v>0</v>
-      </c>
-      <c r="O36" t="n">
+      <c r="V36" t="n">
+        <v>0</v>
+      </c>
+      <c r="W36" t="n">
+        <v>0</v>
+      </c>
+      <c r="X36" t="n">
+        <v>0</v>
+      </c>
+      <c r="Y36" t="n">
+        <v>0</v>
+      </c>
+      <c r="Z36" t="n">
+        <v>0.003618206816701643</v>
+      </c>
+      <c r="AA36" t="n">
+        <v>0</v>
+      </c>
+      <c r="AB36" t="n">
         <v>0.01447282726680657</v>
       </c>
-      <c r="P36" t="n">
-        <v>0</v>
-      </c>
-      <c r="Q36" t="n">
+      <c r="AC36" t="n">
+        <v>0</v>
+      </c>
+      <c r="AD36" t="n">
+        <v>0.01447282726680657</v>
+      </c>
+      <c r="AE36" t="n">
         <v>1.432809899413851</v>
-      </c>
-      <c r="R36" t="n">
-        <v>0.003618206816701643</v>
-      </c>
-      <c r="S36" t="n">
-        <v>0</v>
-      </c>
-      <c r="T36" t="n">
-        <v>0</v>
-      </c>
-      <c r="U36" t="n">
-        <v>0</v>
-      </c>
-      <c r="V36" t="n">
-        <v>0</v>
-      </c>
-      <c r="W36" t="n">
-        <v>0</v>
-      </c>
-      <c r="X36" t="n">
-        <v>0</v>
-      </c>
-      <c r="Y36" t="n">
-        <v>0.01447282726680657</v>
-      </c>
-      <c r="Z36" t="n">
-        <v>0</v>
-      </c>
-      <c r="AA36" t="n">
-        <v>0</v>
-      </c>
-      <c r="AB36" t="n">
-        <v>0</v>
-      </c>
-      <c r="AC36" t="n">
-        <v>0</v>
-      </c>
-      <c r="AD36" t="n">
-        <v>0</v>
-      </c>
-      <c r="AE36" t="n">
-        <v>0</v>
       </c>
       <c r="AF36" t="n">
         <v>0</v>
@@ -4433,100 +4433,100 @@
         <v>2</v>
       </c>
       <c r="D37" t="n">
+        <v>0.06917501278233933</v>
+      </c>
+      <c r="E37" t="n">
+        <v>0</v>
+      </c>
+      <c r="F37" t="n">
+        <v>0</v>
+      </c>
+      <c r="G37" t="n">
+        <v>0</v>
+      </c>
+      <c r="H37" t="n">
+        <v>0</v>
+      </c>
+      <c r="I37" t="n">
+        <v>0</v>
+      </c>
+      <c r="J37" t="n">
+        <v>0.003007609251406057</v>
+      </c>
+      <c r="K37" t="n">
+        <v>0</v>
+      </c>
+      <c r="L37" t="n">
+        <v>0</v>
+      </c>
+      <c r="M37" t="n">
+        <v>0</v>
+      </c>
+      <c r="N37" t="n">
+        <v>0.006015218502812114</v>
+      </c>
+      <c r="O37" t="n">
+        <v>0</v>
+      </c>
+      <c r="P37" t="n">
+        <v>0</v>
+      </c>
+      <c r="Q37" t="n">
+        <v>0.006015218502812114</v>
+      </c>
+      <c r="R37" t="n">
         <v>0.0210532647598424</v>
       </c>
-      <c r="E37" t="n">
-        <v>0.06917501278233933</v>
-      </c>
-      <c r="F37" t="n">
-        <v>0</v>
-      </c>
-      <c r="G37" t="n">
-        <v>0</v>
-      </c>
-      <c r="H37" t="n">
-        <v>0</v>
-      </c>
-      <c r="I37" t="n">
-        <v>0</v>
-      </c>
-      <c r="J37" t="n">
-        <v>0</v>
-      </c>
-      <c r="K37" t="n">
-        <v>0</v>
-      </c>
-      <c r="L37" t="n">
-        <v>0</v>
-      </c>
-      <c r="M37" t="n">
-        <v>0</v>
-      </c>
-      <c r="N37" t="n">
-        <v>0</v>
-      </c>
-      <c r="O37" t="n">
+      <c r="S37" t="n">
+        <v>0</v>
+      </c>
+      <c r="T37" t="n">
+        <v>0</v>
+      </c>
+      <c r="U37" t="n">
+        <v>0</v>
+      </c>
+      <c r="V37" t="n">
+        <v>0</v>
+      </c>
+      <c r="W37" t="n">
+        <v>0</v>
+      </c>
+      <c r="X37" t="n">
+        <v>0</v>
+      </c>
+      <c r="Y37" t="n">
+        <v>0</v>
+      </c>
+      <c r="Z37" t="n">
+        <v>0</v>
+      </c>
+      <c r="AA37" t="n">
+        <v>0</v>
+      </c>
+      <c r="AB37" t="n">
+        <v>0.2917380973863876</v>
+      </c>
+      <c r="AC37" t="n">
+        <v>0.03007609251406057</v>
+      </c>
+      <c r="AD37" t="n">
         <v>0.1323348070618665</v>
       </c>
-      <c r="P37" t="n">
-        <v>0</v>
-      </c>
-      <c r="Q37" t="n">
+      <c r="AE37" t="n">
         <v>0.8631838551535385</v>
       </c>
-      <c r="R37" t="n">
-        <v>0</v>
-      </c>
-      <c r="S37" t="n">
-        <v>0</v>
-      </c>
-      <c r="T37" t="n">
-        <v>0</v>
-      </c>
-      <c r="U37" t="n">
-        <v>0</v>
-      </c>
-      <c r="V37" t="n">
-        <v>0</v>
-      </c>
-      <c r="W37" t="n">
-        <v>0</v>
-      </c>
-      <c r="X37" t="n">
-        <v>0</v>
-      </c>
-      <c r="Y37" t="n">
-        <v>0.2917380973863876</v>
-      </c>
-      <c r="Z37" t="n">
-        <v>0</v>
-      </c>
-      <c r="AA37" t="n">
-        <v>0</v>
-      </c>
-      <c r="AB37" t="n">
+      <c r="AF37" t="n">
+        <v>0</v>
+      </c>
+      <c r="AG37" t="n">
+        <v>0</v>
+      </c>
+      <c r="AH37" t="n">
+        <v>0</v>
+      </c>
+      <c r="AI37" t="n">
         <v>0.006015218502812114</v>
-      </c>
-      <c r="AC37" t="n">
-        <v>0</v>
-      </c>
-      <c r="AD37" t="n">
-        <v>0.03007609251406057</v>
-      </c>
-      <c r="AE37" t="n">
-        <v>0</v>
-      </c>
-      <c r="AF37" t="n">
-        <v>0.006015218502812114</v>
-      </c>
-      <c r="AG37" t="n">
-        <v>0.006015218502812114</v>
-      </c>
-      <c r="AH37" t="n">
-        <v>0</v>
-      </c>
-      <c r="AI37" t="n">
-        <v>0.003007609251406057</v>
       </c>
     </row>
     <row r="38">
@@ -4542,100 +4542,100 @@
         <v>2</v>
       </c>
       <c r="D38" t="n">
+        <v>0.04240328788570683</v>
+      </c>
+      <c r="E38" t="n">
+        <v>0</v>
+      </c>
+      <c r="F38" t="n">
+        <v>0</v>
+      </c>
+      <c r="G38" t="n">
+        <v>0</v>
+      </c>
+      <c r="H38" t="n">
+        <v>0</v>
+      </c>
+      <c r="I38" t="n">
+        <v>0</v>
+      </c>
+      <c r="J38" t="n">
+        <v>0</v>
+      </c>
+      <c r="K38" t="n">
+        <v>0</v>
+      </c>
+      <c r="L38" t="n">
+        <v>0</v>
+      </c>
+      <c r="M38" t="n">
+        <v>0</v>
+      </c>
+      <c r="N38" t="n">
+        <v>0</v>
+      </c>
+      <c r="O38" t="n">
+        <v>0</v>
+      </c>
+      <c r="P38" t="n">
+        <v>0</v>
+      </c>
+      <c r="Q38" t="n">
+        <v>0.009785374127470806</v>
+      </c>
+      <c r="R38" t="n">
         <v>0.004892687063735403</v>
       </c>
-      <c r="E38" t="n">
-        <v>0.04240328788570683</v>
-      </c>
-      <c r="F38" t="n">
-        <v>0</v>
-      </c>
-      <c r="G38" t="n">
-        <v>0</v>
-      </c>
-      <c r="H38" t="n">
-        <v>0</v>
-      </c>
-      <c r="I38" t="n">
-        <v>0</v>
-      </c>
-      <c r="J38" t="n">
+      <c r="S38" t="n">
+        <v>0</v>
+      </c>
+      <c r="T38" t="n">
+        <v>0</v>
+      </c>
+      <c r="U38" t="n">
+        <v>0</v>
+      </c>
+      <c r="V38" t="n">
+        <v>0</v>
+      </c>
+      <c r="W38" t="n">
+        <v>0</v>
+      </c>
+      <c r="X38" t="n">
+        <v>0</v>
+      </c>
+      <c r="Y38" t="n">
+        <v>0</v>
+      </c>
+      <c r="Z38" t="n">
+        <v>0.008154478439559005</v>
+      </c>
+      <c r="AA38" t="n">
         <v>0.009785374127470806</v>
       </c>
-      <c r="K38" t="n">
-        <v>0</v>
-      </c>
-      <c r="L38" t="n">
-        <v>0</v>
-      </c>
-      <c r="M38" t="n">
-        <v>0</v>
-      </c>
-      <c r="N38" t="n">
-        <v>0</v>
-      </c>
-      <c r="O38" t="n">
+      <c r="AB38" t="n">
+        <v>0.1908147954856807</v>
+      </c>
+      <c r="AC38" t="n">
+        <v>0.001630895687911801</v>
+      </c>
+      <c r="AD38" t="n">
         <v>0.08154478439559006</v>
       </c>
-      <c r="P38" t="n">
-        <v>0</v>
-      </c>
-      <c r="Q38" t="n">
+      <c r="AE38" t="n">
         <v>0.06686672320438386</v>
       </c>
-      <c r="R38" t="n">
-        <v>0.008154478439559005</v>
-      </c>
-      <c r="S38" t="n">
-        <v>0</v>
-      </c>
-      <c r="T38" t="n">
-        <v>0</v>
-      </c>
-      <c r="U38" t="n">
-        <v>0</v>
-      </c>
-      <c r="V38" t="n">
-        <v>0</v>
-      </c>
-      <c r="W38" t="n">
-        <v>0</v>
-      </c>
-      <c r="X38" t="n">
-        <v>0</v>
-      </c>
-      <c r="Y38" t="n">
-        <v>0.1908147954856807</v>
-      </c>
-      <c r="Z38" t="n">
-        <v>0</v>
-      </c>
-      <c r="AA38" t="n">
-        <v>0</v>
-      </c>
-      <c r="AB38" t="n">
-        <v>0.009785374127470806</v>
-      </c>
-      <c r="AC38" t="n">
-        <v>0</v>
-      </c>
-      <c r="AD38" t="n">
-        <v>0.001630895687911801</v>
-      </c>
-      <c r="AE38" t="n">
-        <v>0</v>
-      </c>
       <c r="AF38" t="n">
+        <v>0</v>
+      </c>
+      <c r="AG38" t="n">
+        <v>0</v>
+      </c>
+      <c r="AH38" t="n">
+        <v>0</v>
+      </c>
+      <c r="AI38" t="n">
         <v>0.006523582751647205</v>
-      </c>
-      <c r="AG38" t="n">
-        <v>0</v>
-      </c>
-      <c r="AH38" t="n">
-        <v>0</v>
-      </c>
-      <c r="AI38" t="n">
-        <v>0</v>
       </c>
     </row>
     <row r="39">
@@ -4663,7 +4663,7 @@
         <v>0</v>
       </c>
       <c r="H39" t="n">
-        <v>0</v>
+        <v>0.05782822874277147</v>
       </c>
       <c r="I39" t="n">
         <v>0</v>
@@ -4672,13 +4672,13 @@
         <v>0</v>
       </c>
       <c r="K39" t="n">
-        <v>0</v>
+        <v>0.5632897836795887</v>
       </c>
       <c r="L39" t="n">
-        <v>0</v>
+        <v>0.01713428999785821</v>
       </c>
       <c r="M39" t="n">
-        <v>0.5632897836795887</v>
+        <v>0</v>
       </c>
       <c r="N39" t="n">
         <v>0</v>
@@ -4696,26 +4696,26 @@
         <v>0</v>
       </c>
       <c r="S39" t="n">
+        <v>0</v>
+      </c>
+      <c r="T39" t="n">
+        <v>0</v>
+      </c>
+      <c r="U39" t="n">
+        <v>0</v>
+      </c>
+      <c r="V39" t="n">
+        <v>0</v>
+      </c>
+      <c r="W39" t="n">
+        <v>0</v>
+      </c>
+      <c r="X39" t="n">
+        <v>0</v>
+      </c>
+      <c r="Y39" t="n">
         <v>0.04926108374384236</v>
       </c>
-      <c r="T39" t="n">
-        <v>0</v>
-      </c>
-      <c r="U39" t="n">
-        <v>0.05782822874277147</v>
-      </c>
-      <c r="V39" t="n">
-        <v>0</v>
-      </c>
-      <c r="W39" t="n">
-        <v>0</v>
-      </c>
-      <c r="X39" t="n">
-        <v>0</v>
-      </c>
-      <c r="Y39" t="n">
-        <v>0</v>
-      </c>
       <c r="Z39" t="n">
         <v>0</v>
       </c>
@@ -4741,7 +4741,7 @@
         <v>0</v>
       </c>
       <c r="AH39" t="n">
-        <v>0.01713428999785821</v>
+        <v>0</v>
       </c>
       <c r="AI39" t="n">
         <v>0</v>
@@ -4772,7 +4772,7 @@
         <v>0</v>
       </c>
       <c r="H40" t="n">
-        <v>0</v>
+        <v>0.07260318727992159</v>
       </c>
       <c r="I40" t="n">
         <v>0</v>
@@ -4781,13 +4781,13 @@
         <v>0</v>
       </c>
       <c r="K40" t="n">
-        <v>0</v>
+        <v>0.07744339976524969</v>
       </c>
       <c r="L40" t="n">
-        <v>0</v>
+        <v>0.001210053121332026</v>
       </c>
       <c r="M40" t="n">
-        <v>0.07744339976524969</v>
+        <v>0</v>
       </c>
       <c r="N40" t="n">
         <v>0</v>
@@ -4805,26 +4805,26 @@
         <v>0</v>
       </c>
       <c r="S40" t="n">
+        <v>0</v>
+      </c>
+      <c r="T40" t="n">
+        <v>0</v>
+      </c>
+      <c r="U40" t="n">
+        <v>0</v>
+      </c>
+      <c r="V40" t="n">
+        <v>0</v>
+      </c>
+      <c r="W40" t="n">
+        <v>0</v>
+      </c>
+      <c r="X40" t="n">
+        <v>0</v>
+      </c>
+      <c r="Y40" t="n">
         <v>0.1899783400491282</v>
       </c>
-      <c r="T40" t="n">
-        <v>0</v>
-      </c>
-      <c r="U40" t="n">
-        <v>0.07260318727992159</v>
-      </c>
-      <c r="V40" t="n">
-        <v>0</v>
-      </c>
-      <c r="W40" t="n">
-        <v>0</v>
-      </c>
-      <c r="X40" t="n">
-        <v>0</v>
-      </c>
-      <c r="Y40" t="n">
-        <v>0</v>
-      </c>
       <c r="Z40" t="n">
         <v>0</v>
       </c>
@@ -4850,7 +4850,7 @@
         <v>0</v>
       </c>
       <c r="AH40" t="n">
-        <v>0.001210053121332026</v>
+        <v>0</v>
       </c>
       <c r="AI40" t="n">
         <v>0</v>
@@ -4978,50 +4978,50 @@
         <v>2</v>
       </c>
       <c r="D42" t="n">
+        <v>0</v>
+      </c>
+      <c r="E42" t="n">
+        <v>0</v>
+      </c>
+      <c r="F42" t="n">
+        <v>0</v>
+      </c>
+      <c r="G42" t="n">
+        <v>0</v>
+      </c>
+      <c r="H42" t="n">
+        <v>0</v>
+      </c>
+      <c r="I42" t="n">
+        <v>0</v>
+      </c>
+      <c r="J42" t="n">
+        <v>0</v>
+      </c>
+      <c r="K42" t="n">
+        <v>0</v>
+      </c>
+      <c r="L42" t="n">
+        <v>0</v>
+      </c>
+      <c r="M42" t="n">
+        <v>0</v>
+      </c>
+      <c r="N42" t="n">
+        <v>0</v>
+      </c>
+      <c r="O42" t="n">
+        <v>0</v>
+      </c>
+      <c r="P42" t="n">
+        <v>0</v>
+      </c>
+      <c r="Q42" t="n">
+        <v>0</v>
+      </c>
+      <c r="R42" t="n">
         <v>0.003751359867952133</v>
       </c>
-      <c r="E42" t="n">
-        <v>0</v>
-      </c>
-      <c r="F42" t="n">
-        <v>0</v>
-      </c>
-      <c r="G42" t="n">
-        <v>0</v>
-      </c>
-      <c r="H42" t="n">
-        <v>0</v>
-      </c>
-      <c r="I42" t="n">
-        <v>0</v>
-      </c>
-      <c r="J42" t="n">
-        <v>0</v>
-      </c>
-      <c r="K42" t="n">
-        <v>0</v>
-      </c>
-      <c r="L42" t="n">
-        <v>0</v>
-      </c>
-      <c r="M42" t="n">
-        <v>0</v>
-      </c>
-      <c r="N42" t="n">
-        <v>0</v>
-      </c>
-      <c r="O42" t="n">
-        <v>0</v>
-      </c>
-      <c r="P42" t="n">
-        <v>0</v>
-      </c>
-      <c r="Q42" t="n">
-        <v>0</v>
-      </c>
-      <c r="R42" t="n">
-        <v>0</v>
-      </c>
       <c r="S42" t="n">
         <v>0</v>
       </c>
@@ -5041,16 +5041,16 @@
         <v>0</v>
       </c>
       <c r="Y42" t="n">
+        <v>0</v>
+      </c>
+      <c r="Z42" t="n">
+        <v>0</v>
+      </c>
+      <c r="AA42" t="n">
+        <v>0</v>
+      </c>
+      <c r="AB42" t="n">
         <v>0.007502719735904265</v>
-      </c>
-      <c r="Z42" t="n">
-        <v>0</v>
-      </c>
-      <c r="AA42" t="n">
-        <v>0</v>
-      </c>
-      <c r="AB42" t="n">
-        <v>0</v>
       </c>
       <c r="AC42" t="n">
         <v>0</v>
@@ -5087,89 +5087,89 @@
         <v>2</v>
       </c>
       <c r="D43" t="n">
+        <v>0</v>
+      </c>
+      <c r="E43" t="n">
+        <v>0</v>
+      </c>
+      <c r="F43" t="n">
+        <v>0</v>
+      </c>
+      <c r="G43" t="n">
+        <v>0</v>
+      </c>
+      <c r="H43" t="n">
+        <v>0.2099958000839983</v>
+      </c>
+      <c r="I43" t="n">
+        <v>0.04199916001679967</v>
+      </c>
+      <c r="J43" t="n">
+        <v>0</v>
+      </c>
+      <c r="K43" t="n">
+        <v>4.262914741705166</v>
+      </c>
+      <c r="L43" t="n">
+        <v>0.1679966400671987</v>
+      </c>
+      <c r="M43" t="n">
+        <v>0</v>
+      </c>
+      <c r="N43" t="n">
+        <v>0</v>
+      </c>
+      <c r="O43" t="n">
+        <v>0</v>
+      </c>
+      <c r="P43" t="n">
+        <v>0</v>
+      </c>
+      <c r="Q43" t="n">
+        <v>0</v>
+      </c>
+      <c r="R43" t="n">
         <v>0.02099958000839983</v>
       </c>
-      <c r="E43" t="n">
-        <v>0</v>
-      </c>
-      <c r="F43" t="n">
-        <v>0</v>
-      </c>
-      <c r="G43" t="n">
-        <v>0</v>
-      </c>
-      <c r="H43" t="n">
-        <v>0</v>
-      </c>
-      <c r="I43" t="n">
-        <v>0</v>
-      </c>
-      <c r="J43" t="n">
-        <v>0</v>
-      </c>
-      <c r="K43" t="n">
-        <v>0</v>
-      </c>
-      <c r="L43" t="n">
-        <v>0</v>
-      </c>
-      <c r="M43" t="n">
-        <v>4.262914741705166</v>
-      </c>
-      <c r="N43" t="n">
-        <v>0</v>
-      </c>
-      <c r="O43" t="n">
-        <v>0</v>
-      </c>
-      <c r="P43" t="n">
-        <v>0</v>
-      </c>
-      <c r="Q43" t="n">
+      <c r="S43" t="n">
+        <v>0</v>
+      </c>
+      <c r="T43" t="n">
+        <v>0</v>
+      </c>
+      <c r="U43" t="n">
+        <v>0</v>
+      </c>
+      <c r="V43" t="n">
+        <v>0</v>
+      </c>
+      <c r="W43" t="n">
+        <v>0</v>
+      </c>
+      <c r="X43" t="n">
+        <v>0</v>
+      </c>
+      <c r="Y43" t="n">
+        <v>1.007979840403192</v>
+      </c>
+      <c r="Z43" t="n">
+        <v>0</v>
+      </c>
+      <c r="AA43" t="n">
+        <v>0</v>
+      </c>
+      <c r="AB43" t="n">
+        <v>0</v>
+      </c>
+      <c r="AC43" t="n">
+        <v>0</v>
+      </c>
+      <c r="AD43" t="n">
+        <v>0</v>
+      </c>
+      <c r="AE43" t="n">
         <v>0.1679966400671987</v>
       </c>
-      <c r="R43" t="n">
-        <v>0</v>
-      </c>
-      <c r="S43" t="n">
-        <v>1.007979840403192</v>
-      </c>
-      <c r="T43" t="n">
-        <v>0</v>
-      </c>
-      <c r="U43" t="n">
-        <v>0.2099958000839983</v>
-      </c>
-      <c r="V43" t="n">
-        <v>0.04199916001679967</v>
-      </c>
-      <c r="W43" t="n">
-        <v>0</v>
-      </c>
-      <c r="X43" t="n">
-        <v>0</v>
-      </c>
-      <c r="Y43" t="n">
-        <v>0</v>
-      </c>
-      <c r="Z43" t="n">
-        <v>0</v>
-      </c>
-      <c r="AA43" t="n">
-        <v>0</v>
-      </c>
-      <c r="AB43" t="n">
-        <v>0</v>
-      </c>
-      <c r="AC43" t="n">
-        <v>0</v>
-      </c>
-      <c r="AD43" t="n">
-        <v>0</v>
-      </c>
-      <c r="AE43" t="n">
-        <v>0</v>
-      </c>
       <c r="AF43" t="n">
         <v>0</v>
       </c>
@@ -5177,7 +5177,7 @@
         <v>0</v>
       </c>
       <c r="AH43" t="n">
-        <v>0.1679966400671987</v>
+        <v>0</v>
       </c>
       <c r="AI43" t="n">
         <v>0</v>
@@ -5217,13 +5217,13 @@
         <v>0</v>
       </c>
       <c r="K44" t="n">
-        <v>0</v>
+        <v>0.04927079227433977</v>
       </c>
       <c r="L44" t="n">
         <v>0</v>
       </c>
       <c r="M44" t="n">
-        <v>0.04927079227433977</v>
+        <v>0</v>
       </c>
       <c r="N44" t="n">
         <v>0</v>
@@ -5241,25 +5241,25 @@
         <v>0</v>
       </c>
       <c r="S44" t="n">
+        <v>0</v>
+      </c>
+      <c r="T44" t="n">
+        <v>0</v>
+      </c>
+      <c r="U44" t="n">
+        <v>0</v>
+      </c>
+      <c r="V44" t="n">
+        <v>0</v>
+      </c>
+      <c r="W44" t="n">
+        <v>0</v>
+      </c>
+      <c r="X44" t="n">
+        <v>0</v>
+      </c>
+      <c r="Y44" t="n">
         <v>0.1675206937327552</v>
-      </c>
-      <c r="T44" t="n">
-        <v>0</v>
-      </c>
-      <c r="U44" t="n">
-        <v>0</v>
-      </c>
-      <c r="V44" t="n">
-        <v>0</v>
-      </c>
-      <c r="W44" t="n">
-        <v>0</v>
-      </c>
-      <c r="X44" t="n">
-        <v>0</v>
-      </c>
-      <c r="Y44" t="n">
-        <v>0</v>
       </c>
       <c r="Z44" t="n">
         <v>0</v>
@@ -5326,13 +5326,13 @@
         <v>0</v>
       </c>
       <c r="K45" t="n">
-        <v>0</v>
+        <v>4.41</v>
       </c>
       <c r="L45" t="n">
         <v>0</v>
       </c>
       <c r="M45" t="n">
-        <v>4.41</v>
+        <v>0</v>
       </c>
       <c r="N45" t="n">
         <v>0</v>
@@ -5432,70 +5432,70 @@
         <v>0</v>
       </c>
       <c r="J46" t="n">
+        <v>0</v>
+      </c>
+      <c r="K46" t="n">
+        <v>0</v>
+      </c>
+      <c r="L46" t="n">
+        <v>0</v>
+      </c>
+      <c r="M46" t="n">
+        <v>0</v>
+      </c>
+      <c r="N46" t="n">
+        <v>0</v>
+      </c>
+      <c r="O46" t="n">
+        <v>0</v>
+      </c>
+      <c r="P46" t="n">
+        <v>0</v>
+      </c>
+      <c r="Q46" t="n">
+        <v>0</v>
+      </c>
+      <c r="R46" t="n">
+        <v>0</v>
+      </c>
+      <c r="S46" t="n">
+        <v>0</v>
+      </c>
+      <c r="T46" t="n">
+        <v>0</v>
+      </c>
+      <c r="U46" t="n">
+        <v>0</v>
+      </c>
+      <c r="V46" t="n">
+        <v>0</v>
+      </c>
+      <c r="W46" t="n">
+        <v>0</v>
+      </c>
+      <c r="X46" t="n">
+        <v>0</v>
+      </c>
+      <c r="Y46" t="n">
+        <v>0</v>
+      </c>
+      <c r="Z46" t="n">
+        <v>0</v>
+      </c>
+      <c r="AA46" t="n">
         <v>0.03638470764213619</v>
       </c>
-      <c r="K46" t="n">
-        <v>0</v>
-      </c>
-      <c r="L46" t="n">
-        <v>0</v>
-      </c>
-      <c r="M46" t="n">
-        <v>0</v>
-      </c>
-      <c r="N46" t="n">
-        <v>0</v>
-      </c>
-      <c r="O46" t="n">
-        <v>0</v>
-      </c>
-      <c r="P46" t="n">
-        <v>0</v>
-      </c>
-      <c r="Q46" t="n">
+      <c r="AB46" t="n">
         <v>0.001347581764523563</v>
       </c>
-      <c r="R46" t="n">
-        <v>0</v>
-      </c>
-      <c r="S46" t="n">
-        <v>0</v>
-      </c>
-      <c r="T46" t="n">
-        <v>0</v>
-      </c>
-      <c r="U46" t="n">
-        <v>0</v>
-      </c>
-      <c r="V46" t="n">
-        <v>0</v>
-      </c>
-      <c r="W46" t="n">
-        <v>0</v>
-      </c>
-      <c r="X46" t="n">
-        <v>0</v>
-      </c>
-      <c r="Y46" t="n">
+      <c r="AC46" t="n">
+        <v>0</v>
+      </c>
+      <c r="AD46" t="n">
+        <v>0</v>
+      </c>
+      <c r="AE46" t="n">
         <v>0.001347581764523563</v>
-      </c>
-      <c r="Z46" t="n">
-        <v>0</v>
-      </c>
-      <c r="AA46" t="n">
-        <v>0</v>
-      </c>
-      <c r="AB46" t="n">
-        <v>0</v>
-      </c>
-      <c r="AC46" t="n">
-        <v>0</v>
-      </c>
-      <c r="AD46" t="n">
-        <v>0</v>
-      </c>
-      <c r="AE46" t="n">
-        <v>0</v>
       </c>
       <c r="AF46" t="n">
         <v>0</v>
@@ -5523,49 +5523,49 @@
         <v>2</v>
       </c>
       <c r="D47" t="n">
+        <v>0</v>
+      </c>
+      <c r="E47" t="n">
+        <v>0</v>
+      </c>
+      <c r="F47" t="n">
+        <v>0</v>
+      </c>
+      <c r="G47" t="n">
+        <v>0</v>
+      </c>
+      <c r="H47" t="n">
+        <v>0</v>
+      </c>
+      <c r="I47" t="n">
+        <v>0</v>
+      </c>
+      <c r="J47" t="n">
+        <v>0</v>
+      </c>
+      <c r="K47" t="n">
+        <v>0</v>
+      </c>
+      <c r="L47" t="n">
+        <v>0</v>
+      </c>
+      <c r="M47" t="n">
+        <v>0</v>
+      </c>
+      <c r="N47" t="n">
+        <v>0</v>
+      </c>
+      <c r="O47" t="n">
+        <v>0</v>
+      </c>
+      <c r="P47" t="n">
+        <v>0</v>
+      </c>
+      <c r="Q47" t="n">
+        <v>0</v>
+      </c>
+      <c r="R47" t="n">
         <v>0.004311273981461522</v>
-      </c>
-      <c r="E47" t="n">
-        <v>0</v>
-      </c>
-      <c r="F47" t="n">
-        <v>0</v>
-      </c>
-      <c r="G47" t="n">
-        <v>0</v>
-      </c>
-      <c r="H47" t="n">
-        <v>0</v>
-      </c>
-      <c r="I47" t="n">
-        <v>0</v>
-      </c>
-      <c r="J47" t="n">
-        <v>0</v>
-      </c>
-      <c r="K47" t="n">
-        <v>0</v>
-      </c>
-      <c r="L47" t="n">
-        <v>0</v>
-      </c>
-      <c r="M47" t="n">
-        <v>0</v>
-      </c>
-      <c r="N47" t="n">
-        <v>0</v>
-      </c>
-      <c r="O47" t="n">
-        <v>0</v>
-      </c>
-      <c r="P47" t="n">
-        <v>0</v>
-      </c>
-      <c r="Q47" t="n">
-        <v>0</v>
-      </c>
-      <c r="R47" t="n">
-        <v>0</v>
       </c>
       <c r="S47" t="n">
         <v>0</v>
@@ -5644,77 +5644,77 @@
         <v>0</v>
       </c>
       <c r="H48" t="n">
-        <v>0</v>
+        <v>0.5568593134720178</v>
       </c>
       <c r="I48" t="n">
         <v>0</v>
       </c>
       <c r="J48" t="n">
+        <v>0</v>
+      </c>
+      <c r="K48" t="n">
+        <v>0.09745037985760312</v>
+      </c>
+      <c r="L48" t="n">
+        <v>0.02585418241120083</v>
+      </c>
+      <c r="M48" t="n">
+        <v>0</v>
+      </c>
+      <c r="N48" t="n">
+        <v>0</v>
+      </c>
+      <c r="O48" t="n">
+        <v>0</v>
+      </c>
+      <c r="P48" t="n">
+        <v>0.01193269957440038</v>
+      </c>
+      <c r="Q48" t="n">
+        <v>0</v>
+      </c>
+      <c r="R48" t="n">
+        <v>0</v>
+      </c>
+      <c r="S48" t="n">
+        <v>0.003977566524800128</v>
+      </c>
+      <c r="T48" t="n">
+        <v>0</v>
+      </c>
+      <c r="U48" t="n">
+        <v>0</v>
+      </c>
+      <c r="V48" t="n">
+        <v>0</v>
+      </c>
+      <c r="W48" t="n">
+        <v>0</v>
+      </c>
+      <c r="X48" t="n">
+        <v>0</v>
+      </c>
+      <c r="Y48" t="n">
+        <v>1.25293345531204</v>
+      </c>
+      <c r="Z48" t="n">
+        <v>0.001988783262400064</v>
+      </c>
+      <c r="AA48" t="n">
         <v>0.005966349787200191</v>
       </c>
-      <c r="K48" t="n">
-        <v>0.01193269957440038</v>
-      </c>
-      <c r="L48" t="n">
-        <v>0.003977566524800128</v>
-      </c>
-      <c r="M48" t="n">
-        <v>0.09745037985760312</v>
-      </c>
-      <c r="N48" t="n">
-        <v>0</v>
-      </c>
-      <c r="O48" t="n">
+      <c r="AB48" t="n">
+        <v>0</v>
+      </c>
+      <c r="AC48" t="n">
+        <v>0</v>
+      </c>
+      <c r="AD48" t="n">
         <v>0.005966349787200191</v>
       </c>
-      <c r="P48" t="n">
-        <v>0</v>
-      </c>
-      <c r="Q48" t="n">
+      <c r="AE48" t="n">
         <v>0.04773079829760152</v>
       </c>
-      <c r="R48" t="n">
-        <v>0.001988783262400064</v>
-      </c>
-      <c r="S48" t="n">
-        <v>1.25293345531204</v>
-      </c>
-      <c r="T48" t="n">
-        <v>0</v>
-      </c>
-      <c r="U48" t="n">
-        <v>0.5568593134720178</v>
-      </c>
-      <c r="V48" t="n">
-        <v>0</v>
-      </c>
-      <c r="W48" t="n">
-        <v>0</v>
-      </c>
-      <c r="X48" t="n">
-        <v>0</v>
-      </c>
-      <c r="Y48" t="n">
-        <v>0</v>
-      </c>
-      <c r="Z48" t="n">
-        <v>0</v>
-      </c>
-      <c r="AA48" t="n">
-        <v>0</v>
-      </c>
-      <c r="AB48" t="n">
-        <v>0</v>
-      </c>
-      <c r="AC48" t="n">
-        <v>0</v>
-      </c>
-      <c r="AD48" t="n">
-        <v>0</v>
-      </c>
-      <c r="AE48" t="n">
-        <v>0</v>
-      </c>
       <c r="AF48" t="n">
         <v>0</v>
       </c>
@@ -5722,7 +5722,7 @@
         <v>0</v>
       </c>
       <c r="AH48" t="n">
-        <v>0.02585418241120083</v>
+        <v>0</v>
       </c>
       <c r="AI48" t="n">
         <v>0</v>
@@ -5762,13 +5762,13 @@
         <v>0</v>
       </c>
       <c r="K49" t="n">
-        <v>0</v>
+        <v>0.1264400112391121</v>
       </c>
       <c r="L49" t="n">
         <v>0</v>
       </c>
       <c r="M49" t="n">
-        <v>0.1264400112391121</v>
+        <v>0</v>
       </c>
       <c r="N49" t="n">
         <v>0</v>
@@ -5786,25 +5786,25 @@
         <v>0</v>
       </c>
       <c r="S49" t="n">
+        <v>0</v>
+      </c>
+      <c r="T49" t="n">
+        <v>0</v>
+      </c>
+      <c r="U49" t="n">
+        <v>0</v>
+      </c>
+      <c r="V49" t="n">
+        <v>0</v>
+      </c>
+      <c r="W49" t="n">
+        <v>0</v>
+      </c>
+      <c r="X49" t="n">
+        <v>0</v>
+      </c>
+      <c r="Y49" t="n">
         <v>0.01404889013767912</v>
-      </c>
-      <c r="T49" t="n">
-        <v>0</v>
-      </c>
-      <c r="U49" t="n">
-        <v>0</v>
-      </c>
-      <c r="V49" t="n">
-        <v>0</v>
-      </c>
-      <c r="W49" t="n">
-        <v>0</v>
-      </c>
-      <c r="X49" t="n">
-        <v>0</v>
-      </c>
-      <c r="Y49" t="n">
-        <v>0</v>
       </c>
       <c r="Z49" t="n">
         <v>0</v>
@@ -5871,13 +5871,13 @@
         <v>0</v>
       </c>
       <c r="K50" t="n">
-        <v>0</v>
+        <v>5.7</v>
       </c>
       <c r="L50" t="n">
         <v>0</v>
       </c>
       <c r="M50" t="n">
-        <v>5.7</v>
+        <v>0</v>
       </c>
       <c r="N50" t="n">
         <v>0</v>
@@ -5989,7 +5989,7 @@
         <v>0</v>
       </c>
       <c r="N51" t="n">
-        <v>0</v>
+        <v>0.04099598670866957</v>
       </c>
       <c r="O51" t="n">
         <v>0</v>
@@ -6046,7 +6046,7 @@
         <v>0</v>
       </c>
       <c r="AG51" t="n">
-        <v>0.04099598670866957</v>
+        <v>0</v>
       </c>
       <c r="AH51" t="n">
         <v>0</v>
@@ -6068,13 +6068,13 @@
         <v>2</v>
       </c>
       <c r="D52" t="n">
-        <v>0</v>
+        <v>0.005456331162926049</v>
       </c>
       <c r="E52" t="n">
-        <v>0.005456331162926049</v>
+        <v>0</v>
       </c>
       <c r="F52" t="n">
-        <v>0</v>
+        <v>0.01273143938016078</v>
       </c>
       <c r="G52" t="n">
         <v>0</v>
@@ -6089,23 +6089,23 @@
         <v>0</v>
       </c>
       <c r="K52" t="n">
+        <v>0</v>
+      </c>
+      <c r="L52" t="n">
+        <v>0</v>
+      </c>
+      <c r="M52" t="n">
+        <v>0</v>
+      </c>
+      <c r="N52" t="n">
+        <v>0</v>
+      </c>
+      <c r="O52" t="n">
+        <v>0</v>
+      </c>
+      <c r="P52" t="n">
         <v>0.003637554108617366</v>
       </c>
-      <c r="L52" t="n">
-        <v>0</v>
-      </c>
-      <c r="M52" t="n">
-        <v>0</v>
-      </c>
-      <c r="N52" t="n">
-        <v>0</v>
-      </c>
-      <c r="O52" t="n">
-        <v>0</v>
-      </c>
-      <c r="P52" t="n">
-        <v>0</v>
-      </c>
       <c r="Q52" t="n">
         <v>0</v>
       </c>
@@ -6128,7 +6128,7 @@
         <v>0</v>
       </c>
       <c r="X52" t="n">
-        <v>0.01273143938016078</v>
+        <v>0</v>
       </c>
       <c r="Y52" t="n">
         <v>0</v>
@@ -6180,7 +6180,7 @@
         <v>0</v>
       </c>
       <c r="E53" t="n">
-        <v>0</v>
+        <v>0.0007963178263708611</v>
       </c>
       <c r="F53" t="n">
         <v>0</v>
@@ -6189,76 +6189,76 @@
         <v>0</v>
       </c>
       <c r="H53" t="n">
+        <v>0</v>
+      </c>
+      <c r="I53" t="n">
+        <v>0</v>
+      </c>
+      <c r="J53" t="n">
+        <v>0</v>
+      </c>
+      <c r="K53" t="n">
+        <v>0</v>
+      </c>
+      <c r="L53" t="n">
+        <v>0</v>
+      </c>
+      <c r="M53" t="n">
+        <v>0</v>
+      </c>
+      <c r="N53" t="n">
+        <v>0</v>
+      </c>
+      <c r="O53" t="n">
+        <v>0</v>
+      </c>
+      <c r="P53" t="n">
+        <v>0</v>
+      </c>
+      <c r="Q53" t="n">
+        <v>0</v>
+      </c>
+      <c r="R53" t="n">
+        <v>0</v>
+      </c>
+      <c r="S53" t="n">
+        <v>0</v>
+      </c>
+      <c r="T53" t="n">
         <v>0.0007963178263708611</v>
       </c>
-      <c r="I53" t="n">
+      <c r="U53" t="n">
+        <v>0</v>
+      </c>
+      <c r="V53" t="n">
+        <v>0</v>
+      </c>
+      <c r="W53" t="n">
+        <v>0</v>
+      </c>
+      <c r="X53" t="n">
+        <v>0</v>
+      </c>
+      <c r="Y53" t="n">
+        <v>0</v>
+      </c>
+      <c r="Z53" t="n">
+        <v>0.0003981589131854306</v>
+      </c>
+      <c r="AA53" t="n">
+        <v>0</v>
+      </c>
+      <c r="AB53" t="n">
         <v>0.0007963178263708611</v>
       </c>
-      <c r="J53" t="n">
-        <v>0</v>
-      </c>
-      <c r="K53" t="n">
-        <v>0</v>
-      </c>
-      <c r="L53" t="n">
-        <v>0</v>
-      </c>
-      <c r="M53" t="n">
-        <v>0</v>
-      </c>
-      <c r="N53" t="n">
-        <v>0</v>
-      </c>
-      <c r="O53" t="n">
-        <v>0</v>
-      </c>
-      <c r="P53" t="n">
-        <v>0</v>
-      </c>
-      <c r="Q53" t="n">
+      <c r="AC53" t="n">
+        <v>0</v>
+      </c>
+      <c r="AD53" t="n">
+        <v>0</v>
+      </c>
+      <c r="AE53" t="n">
         <v>0.001194476739556292</v>
-      </c>
-      <c r="R53" t="n">
-        <v>0.0003981589131854306</v>
-      </c>
-      <c r="S53" t="n">
-        <v>0</v>
-      </c>
-      <c r="T53" t="n">
-        <v>0</v>
-      </c>
-      <c r="U53" t="n">
-        <v>0</v>
-      </c>
-      <c r="V53" t="n">
-        <v>0</v>
-      </c>
-      <c r="W53" t="n">
-        <v>0</v>
-      </c>
-      <c r="X53" t="n">
-        <v>0</v>
-      </c>
-      <c r="Y53" t="n">
-        <v>0.0007963178263708611</v>
-      </c>
-      <c r="Z53" t="n">
-        <v>0</v>
-      </c>
-      <c r="AA53" t="n">
-        <v>0</v>
-      </c>
-      <c r="AB53" t="n">
-        <v>0</v>
-      </c>
-      <c r="AC53" t="n">
-        <v>0</v>
-      </c>
-      <c r="AD53" t="n">
-        <v>0</v>
-      </c>
-      <c r="AE53" t="n">
-        <v>0</v>
       </c>
       <c r="AF53" t="n">
         <v>0</v>
@@ -6304,58 +6304,58 @@
         <v>0</v>
       </c>
       <c r="J54" t="n">
+        <v>0</v>
+      </c>
+      <c r="K54" t="n">
+        <v>0</v>
+      </c>
+      <c r="L54" t="n">
+        <v>0</v>
+      </c>
+      <c r="M54" t="n">
+        <v>0</v>
+      </c>
+      <c r="N54" t="n">
+        <v>0</v>
+      </c>
+      <c r="O54" t="n">
+        <v>0</v>
+      </c>
+      <c r="P54" t="n">
+        <v>0</v>
+      </c>
+      <c r="Q54" t="n">
+        <v>0</v>
+      </c>
+      <c r="R54" t="n">
+        <v>0</v>
+      </c>
+      <c r="S54" t="n">
+        <v>0</v>
+      </c>
+      <c r="T54" t="n">
+        <v>0</v>
+      </c>
+      <c r="U54" t="n">
+        <v>0</v>
+      </c>
+      <c r="V54" t="n">
+        <v>0</v>
+      </c>
+      <c r="W54" t="n">
+        <v>0</v>
+      </c>
+      <c r="X54" t="n">
+        <v>0</v>
+      </c>
+      <c r="Y54" t="n">
+        <v>0</v>
+      </c>
+      <c r="Z54" t="n">
+        <v>0</v>
+      </c>
+      <c r="AA54" t="n">
         <v>0.264812975835816</v>
-      </c>
-      <c r="K54" t="n">
-        <v>0</v>
-      </c>
-      <c r="L54" t="n">
-        <v>0</v>
-      </c>
-      <c r="M54" t="n">
-        <v>0</v>
-      </c>
-      <c r="N54" t="n">
-        <v>0</v>
-      </c>
-      <c r="O54" t="n">
-        <v>0</v>
-      </c>
-      <c r="P54" t="n">
-        <v>0</v>
-      </c>
-      <c r="Q54" t="n">
-        <v>0</v>
-      </c>
-      <c r="R54" t="n">
-        <v>0</v>
-      </c>
-      <c r="S54" t="n">
-        <v>0</v>
-      </c>
-      <c r="T54" t="n">
-        <v>0</v>
-      </c>
-      <c r="U54" t="n">
-        <v>0</v>
-      </c>
-      <c r="V54" t="n">
-        <v>0</v>
-      </c>
-      <c r="W54" t="n">
-        <v>0</v>
-      </c>
-      <c r="X54" t="n">
-        <v>0</v>
-      </c>
-      <c r="Y54" t="n">
-        <v>0</v>
-      </c>
-      <c r="Z54" t="n">
-        <v>0</v>
-      </c>
-      <c r="AA54" t="n">
-        <v>0</v>
       </c>
       <c r="AB54" t="n">
         <v>0</v>
@@ -6440,34 +6440,34 @@
         <v>0</v>
       </c>
       <c r="S55" t="n">
+        <v>0</v>
+      </c>
+      <c r="T55" t="n">
+        <v>0</v>
+      </c>
+      <c r="U55" t="n">
+        <v>0</v>
+      </c>
+      <c r="V55" t="n">
+        <v>0</v>
+      </c>
+      <c r="W55" t="n">
+        <v>0</v>
+      </c>
+      <c r="X55" t="n">
+        <v>0</v>
+      </c>
+      <c r="Y55" t="n">
         <v>0.005725190839694656</v>
       </c>
-      <c r="T55" t="n">
-        <v>0</v>
-      </c>
-      <c r="U55" t="n">
-        <v>0</v>
-      </c>
-      <c r="V55" t="n">
-        <v>0</v>
-      </c>
-      <c r="W55" t="n">
-        <v>0</v>
-      </c>
-      <c r="X55" t="n">
-        <v>0</v>
-      </c>
-      <c r="Y55" t="n">
+      <c r="Z55" t="n">
+        <v>0</v>
+      </c>
+      <c r="AA55" t="n">
+        <v>0</v>
+      </c>
+      <c r="AB55" t="n">
         <v>0.001908396946564886</v>
-      </c>
-      <c r="Z55" t="n">
-        <v>0</v>
-      </c>
-      <c r="AA55" t="n">
-        <v>0</v>
-      </c>
-      <c r="AB55" t="n">
-        <v>0</v>
       </c>
       <c r="AC55" t="n">
         <v>0</v>
@@ -6549,34 +6549,34 @@
         <v>0</v>
       </c>
       <c r="S56" t="n">
+        <v>0</v>
+      </c>
+      <c r="T56" t="n">
+        <v>0</v>
+      </c>
+      <c r="U56" t="n">
+        <v>0</v>
+      </c>
+      <c r="V56" t="n">
+        <v>0</v>
+      </c>
+      <c r="W56" t="n">
+        <v>0</v>
+      </c>
+      <c r="X56" t="n">
+        <v>0</v>
+      </c>
+      <c r="Y56" t="n">
         <v>0.003489305279318887</v>
       </c>
-      <c r="T56" t="n">
-        <v>0</v>
-      </c>
-      <c r="U56" t="n">
-        <v>0</v>
-      </c>
-      <c r="V56" t="n">
-        <v>0</v>
-      </c>
-      <c r="W56" t="n">
-        <v>0</v>
-      </c>
-      <c r="X56" t="n">
-        <v>0</v>
-      </c>
-      <c r="Y56" t="n">
+      <c r="Z56" t="n">
+        <v>0</v>
+      </c>
+      <c r="AA56" t="n">
+        <v>0</v>
+      </c>
+      <c r="AB56" t="n">
         <v>0.01744652639659444</v>
-      </c>
-      <c r="Z56" t="n">
-        <v>0</v>
-      </c>
-      <c r="AA56" t="n">
-        <v>0</v>
-      </c>
-      <c r="AB56" t="n">
-        <v>0</v>
       </c>
       <c r="AC56" t="n">
         <v>0</v>
@@ -6613,10 +6613,10 @@
         <v>3</v>
       </c>
       <c r="D57" t="n">
-        <v>0</v>
+        <v>0.03110602952550695</v>
       </c>
       <c r="E57" t="n">
-        <v>0.03110602952550695</v>
+        <v>0</v>
       </c>
       <c r="F57" t="n">
         <v>0</v>
@@ -6631,70 +6631,70 @@
         <v>0</v>
       </c>
       <c r="J57" t="n">
+        <v>0</v>
+      </c>
+      <c r="K57" t="n">
+        <v>0</v>
+      </c>
+      <c r="L57" t="n">
+        <v>0</v>
+      </c>
+      <c r="M57" t="n">
+        <v>0</v>
+      </c>
+      <c r="N57" t="n">
+        <v>0</v>
+      </c>
+      <c r="O57" t="n">
+        <v>0</v>
+      </c>
+      <c r="P57" t="n">
+        <v>0</v>
+      </c>
+      <c r="Q57" t="n">
+        <v>0</v>
+      </c>
+      <c r="R57" t="n">
+        <v>0</v>
+      </c>
+      <c r="S57" t="n">
+        <v>0</v>
+      </c>
+      <c r="T57" t="n">
+        <v>0</v>
+      </c>
+      <c r="U57" t="n">
+        <v>0</v>
+      </c>
+      <c r="V57" t="n">
+        <v>0</v>
+      </c>
+      <c r="W57" t="n">
+        <v>0</v>
+      </c>
+      <c r="X57" t="n">
+        <v>0</v>
+      </c>
+      <c r="Y57" t="n">
+        <v>0.01849547701516629</v>
+      </c>
+      <c r="Z57" t="n">
+        <v>0.9390658102700339</v>
+      </c>
+      <c r="AA57" t="n">
         <v>0.09247738507583145</v>
       </c>
-      <c r="K57" t="n">
-        <v>0</v>
-      </c>
-      <c r="L57" t="n">
-        <v>0</v>
-      </c>
-      <c r="M57" t="n">
-        <v>0</v>
-      </c>
-      <c r="N57" t="n">
-        <v>0</v>
-      </c>
-      <c r="O57" t="n">
-        <v>0</v>
-      </c>
-      <c r="P57" t="n">
-        <v>0</v>
-      </c>
-      <c r="Q57" t="n">
+      <c r="AB57" t="n">
+        <v>0</v>
+      </c>
+      <c r="AC57" t="n">
+        <v>0</v>
+      </c>
+      <c r="AD57" t="n">
+        <v>0</v>
+      </c>
+      <c r="AE57" t="n">
         <v>0.1723442176413222</v>
-      </c>
-      <c r="R57" t="n">
-        <v>0.9390658102700339</v>
-      </c>
-      <c r="S57" t="n">
-        <v>0.01849547701516629</v>
-      </c>
-      <c r="T57" t="n">
-        <v>0</v>
-      </c>
-      <c r="U57" t="n">
-        <v>0</v>
-      </c>
-      <c r="V57" t="n">
-        <v>0</v>
-      </c>
-      <c r="W57" t="n">
-        <v>0</v>
-      </c>
-      <c r="X57" t="n">
-        <v>0</v>
-      </c>
-      <c r="Y57" t="n">
-        <v>0</v>
-      </c>
-      <c r="Z57" t="n">
-        <v>0</v>
-      </c>
-      <c r="AA57" t="n">
-        <v>0</v>
-      </c>
-      <c r="AB57" t="n">
-        <v>0</v>
-      </c>
-      <c r="AC57" t="n">
-        <v>0</v>
-      </c>
-      <c r="AD57" t="n">
-        <v>0</v>
-      </c>
-      <c r="AE57" t="n">
-        <v>0</v>
       </c>
       <c r="AF57" t="n">
         <v>0</v>
@@ -6734,85 +6734,85 @@
         <v>0</v>
       </c>
       <c r="H58" t="n">
-        <v>0</v>
+        <v>0.1233616037008481</v>
       </c>
       <c r="I58" t="n">
-        <v>0</v>
+        <v>0.01542020046260601</v>
       </c>
       <c r="J58" t="n">
         <v>0</v>
       </c>
       <c r="K58" t="n">
-        <v>0.01542020046260601</v>
+        <v>0.06168080185042405</v>
       </c>
       <c r="L58" t="n">
         <v>0.01542020046260601</v>
       </c>
       <c r="M58" t="n">
-        <v>0.06168080185042405</v>
+        <v>0</v>
       </c>
       <c r="N58" t="n">
-        <v>0</v>
+        <v>0.04626060138781804</v>
       </c>
       <c r="O58" t="n">
+        <v>0</v>
+      </c>
+      <c r="P58" t="n">
+        <v>0.01542020046260601</v>
+      </c>
+      <c r="Q58" t="n">
+        <v>0</v>
+      </c>
+      <c r="R58" t="n">
+        <v>0</v>
+      </c>
+      <c r="S58" t="n">
+        <v>0.01542020046260601</v>
+      </c>
+      <c r="T58" t="n">
+        <v>0</v>
+      </c>
+      <c r="U58" t="n">
+        <v>0</v>
+      </c>
+      <c r="V58" t="n">
+        <v>0</v>
+      </c>
+      <c r="W58" t="n">
+        <v>0</v>
+      </c>
+      <c r="X58" t="n">
+        <v>0</v>
+      </c>
+      <c r="Y58" t="n">
+        <v>0.2158828064764842</v>
+      </c>
+      <c r="Z58" t="n">
+        <v>0</v>
+      </c>
+      <c r="AA58" t="n">
+        <v>0</v>
+      </c>
+      <c r="AB58" t="n">
+        <v>0</v>
+      </c>
+      <c r="AC58" t="n">
+        <v>0</v>
+      </c>
+      <c r="AD58" t="n">
         <v>0.07710100231303006</v>
       </c>
-      <c r="P58" t="n">
-        <v>0</v>
-      </c>
-      <c r="Q58" t="n">
+      <c r="AE58" t="n">
         <v>1.264456437933693</v>
       </c>
-      <c r="R58" t="n">
-        <v>0</v>
-      </c>
-      <c r="S58" t="n">
-        <v>0.2158828064764842</v>
-      </c>
-      <c r="T58" t="n">
-        <v>0</v>
-      </c>
-      <c r="U58" t="n">
-        <v>0.1233616037008481</v>
-      </c>
-      <c r="V58" t="n">
-        <v>0.01542020046260601</v>
-      </c>
-      <c r="W58" t="n">
-        <v>0</v>
-      </c>
-      <c r="X58" t="n">
-        <v>0</v>
-      </c>
-      <c r="Y58" t="n">
-        <v>0</v>
-      </c>
-      <c r="Z58" t="n">
-        <v>0</v>
-      </c>
-      <c r="AA58" t="n">
-        <v>0</v>
-      </c>
-      <c r="AB58" t="n">
-        <v>0</v>
-      </c>
-      <c r="AC58" t="n">
-        <v>0</v>
-      </c>
-      <c r="AD58" t="n">
-        <v>0</v>
-      </c>
-      <c r="AE58" t="n">
-        <v>0</v>
-      </c>
       <c r="AF58" t="n">
         <v>0</v>
       </c>
       <c r="AG58" t="n">
-        <v>0.04626060138781804</v>
+        <v>0</v>
       </c>
       <c r="AH58" t="n">
-        <v>0.01542020046260601</v>
+        <v>0</v>
       </c>
       <c r="AI58" t="n">
         <v>0</v>
@@ -6831,100 +6831,100 @@
         <v>1</v>
       </c>
       <c r="D59" t="n">
+        <v>0</v>
+      </c>
+      <c r="E59" t="n">
+        <v>0</v>
+      </c>
+      <c r="F59" t="n">
+        <v>0.01921229586935639</v>
+      </c>
+      <c r="G59" t="n">
+        <v>0</v>
+      </c>
+      <c r="H59" t="n">
+        <v>0</v>
+      </c>
+      <c r="I59" t="n">
+        <v>0</v>
+      </c>
+      <c r="J59" t="n">
+        <v>0.07684918347742556</v>
+      </c>
+      <c r="K59" t="n">
+        <v>0</v>
+      </c>
+      <c r="L59" t="n">
+        <v>2.708933717579251</v>
+      </c>
+      <c r="M59" t="n">
+        <v>0</v>
+      </c>
+      <c r="N59" t="n">
+        <v>0</v>
+      </c>
+      <c r="O59" t="n">
+        <v>0</v>
+      </c>
+      <c r="P59" t="n">
+        <v>0</v>
+      </c>
+      <c r="Q59" t="n">
+        <v>0.1152737752161383</v>
+      </c>
+      <c r="R59" t="n">
         <v>0.1536983669548511</v>
       </c>
-      <c r="E59" t="n">
-        <v>0</v>
-      </c>
-      <c r="F59" t="n">
-        <v>0</v>
-      </c>
-      <c r="G59" t="n">
-        <v>0</v>
-      </c>
-      <c r="H59" t="n">
-        <v>0</v>
-      </c>
-      <c r="I59" t="n">
-        <v>0</v>
-      </c>
-      <c r="J59" t="n">
-        <v>0</v>
-      </c>
-      <c r="K59" t="n">
-        <v>0</v>
-      </c>
-      <c r="L59" t="n">
+      <c r="S59" t="n">
         <v>8.93371757925072</v>
       </c>
-      <c r="M59" t="n">
-        <v>0</v>
-      </c>
-      <c r="N59" t="n">
+      <c r="T59" t="n">
+        <v>0</v>
+      </c>
+      <c r="U59" t="n">
+        <v>0</v>
+      </c>
+      <c r="V59" t="n">
+        <v>0</v>
+      </c>
+      <c r="W59" t="n">
         <v>0.1152737752161383</v>
       </c>
-      <c r="O59" t="n">
-        <v>0</v>
-      </c>
-      <c r="P59" t="n">
-        <v>0</v>
-      </c>
-      <c r="Q59" t="n">
+      <c r="X59" t="n">
+        <v>0</v>
+      </c>
+      <c r="Y59" t="n">
+        <v>0</v>
+      </c>
+      <c r="Z59" t="n">
+        <v>3.150816522574448</v>
+      </c>
+      <c r="AA59" t="n">
+        <v>0</v>
+      </c>
+      <c r="AB59" t="n">
+        <v>1.325648414985591</v>
+      </c>
+      <c r="AC59" t="n">
+        <v>0.03842459173871278</v>
+      </c>
+      <c r="AD59" t="n">
+        <v>0</v>
+      </c>
+      <c r="AE59" t="n">
         <v>1.364073006724304</v>
       </c>
-      <c r="R59" t="n">
-        <v>3.150816522574448</v>
-      </c>
-      <c r="S59" t="n">
-        <v>0</v>
-      </c>
-      <c r="T59" t="n">
+      <c r="AF59" t="n">
+        <v>0</v>
+      </c>
+      <c r="AG59" t="n">
+        <v>0</v>
+      </c>
+      <c r="AH59" t="n">
         <v>0.01921229586935639</v>
       </c>
-      <c r="U59" t="n">
-        <v>0</v>
-      </c>
-      <c r="V59" t="n">
-        <v>0</v>
-      </c>
-      <c r="W59" t="n">
-        <v>0</v>
-      </c>
-      <c r="X59" t="n">
-        <v>0.01921229586935639</v>
-      </c>
-      <c r="Y59" t="n">
-        <v>1.325648414985591</v>
-      </c>
-      <c r="Z59" t="n">
-        <v>0</v>
-      </c>
-      <c r="AA59" t="n">
-        <v>0</v>
-      </c>
-      <c r="AB59" t="n">
-        <v>0.1152737752161383</v>
-      </c>
-      <c r="AC59" t="n">
-        <v>0</v>
-      </c>
-      <c r="AD59" t="n">
-        <v>0.03842459173871278</v>
-      </c>
-      <c r="AE59" t="n">
-        <v>0</v>
-      </c>
-      <c r="AF59" t="n">
-        <v>0</v>
-      </c>
-      <c r="AG59" t="n">
-        <v>0</v>
-      </c>
-      <c r="AH59" t="n">
-        <v>2.708933717579251</v>
-      </c>
       <c r="AI59" t="n">
-        <v>0.07684918347742556</v>
+        <v>0</v>
       </c>
     </row>
     <row r="60">
@@ -6940,100 +6940,100 @@
         <v>1</v>
       </c>
       <c r="D60" t="n">
+        <v>0.05255228952808044</v>
+      </c>
+      <c r="E60" t="n">
+        <v>0</v>
+      </c>
+      <c r="F60" t="n">
+        <v>0.01051045790561609</v>
+      </c>
+      <c r="G60" t="n">
+        <v>0</v>
+      </c>
+      <c r="H60" t="n">
+        <v>0</v>
+      </c>
+      <c r="I60" t="n">
+        <v>0.007006971937077392</v>
+      </c>
+      <c r="J60" t="n">
+        <v>0.04204183162246435</v>
+      </c>
+      <c r="K60" t="n">
+        <v>0</v>
+      </c>
+      <c r="L60" t="n">
+        <v>3.051536278597204</v>
+      </c>
+      <c r="M60" t="n">
+        <v>0.003503485968538696</v>
+      </c>
+      <c r="N60" t="n">
+        <v>0.02102091581123218</v>
+      </c>
+      <c r="O60" t="n">
+        <v>0.003503485968538696</v>
+      </c>
+      <c r="P60" t="n">
+        <v>0</v>
+      </c>
+      <c r="Q60" t="n">
+        <v>0.07006971937077391</v>
+      </c>
+      <c r="R60" t="n">
         <v>0.1331324668044704</v>
       </c>
-      <c r="E60" t="n">
-        <v>0.05255228952808044</v>
-      </c>
-      <c r="F60" t="n">
-        <v>0</v>
-      </c>
-      <c r="G60" t="n">
-        <v>0</v>
-      </c>
-      <c r="H60" t="n">
-        <v>0</v>
-      </c>
-      <c r="I60" t="n">
+      <c r="S60" t="n">
+        <v>10.57352065304979</v>
+      </c>
+      <c r="T60" t="n">
         <v>0.1681673264898574</v>
       </c>
-      <c r="J60" t="n">
+      <c r="U60" t="n">
+        <v>0</v>
+      </c>
+      <c r="V60" t="n">
+        <v>0</v>
+      </c>
+      <c r="W60" t="n">
+        <v>0.2032021861752444</v>
+      </c>
+      <c r="X60" t="n">
+        <v>0</v>
+      </c>
+      <c r="Y60" t="n">
+        <v>0.04204183162246435</v>
+      </c>
+      <c r="Z60" t="n">
+        <v>3.619101005500473</v>
+      </c>
+      <c r="AA60" t="n">
         <v>0.03503485968538696</v>
       </c>
-      <c r="K60" t="n">
-        <v>0</v>
-      </c>
-      <c r="L60" t="n">
-        <v>10.57352065304979</v>
-      </c>
-      <c r="M60" t="n">
-        <v>0</v>
-      </c>
-      <c r="N60" t="n">
-        <v>0.2032021861752444</v>
-      </c>
-      <c r="O60" t="n">
+      <c r="AB60" t="n">
+        <v>0.9459412115054479</v>
+      </c>
+      <c r="AC60" t="n">
+        <v>0.1086080650246996</v>
+      </c>
+      <c r="AD60" t="n">
         <v>0.007006971937077392</v>
       </c>
-      <c r="P60" t="n">
-        <v>0</v>
-      </c>
-      <c r="Q60" t="n">
+      <c r="AE60" t="n">
         <v>1.261254948673931</v>
       </c>
-      <c r="R60" t="n">
-        <v>3.619101005500473</v>
-      </c>
-      <c r="S60" t="n">
-        <v>0.04204183162246435</v>
-      </c>
-      <c r="T60" t="n">
+      <c r="AF60" t="n">
+        <v>0</v>
+      </c>
+      <c r="AG60" t="n">
+        <v>0.003503485968538696</v>
+      </c>
+      <c r="AH60" t="n">
         <v>0.02102091581123218</v>
       </c>
-      <c r="U60" t="n">
-        <v>0</v>
-      </c>
-      <c r="V60" t="n">
-        <v>0.007006971937077392</v>
-      </c>
-      <c r="W60" t="n">
-        <v>0</v>
-      </c>
-      <c r="X60" t="n">
-        <v>0.01051045790561609</v>
-      </c>
-      <c r="Y60" t="n">
-        <v>0.9459412115054479</v>
-      </c>
-      <c r="Z60" t="n">
+      <c r="AI60" t="n">
         <v>0.003503485968538696</v>
-      </c>
-      <c r="AA60" t="n">
-        <v>0</v>
-      </c>
-      <c r="AB60" t="n">
-        <v>0.07006971937077391</v>
-      </c>
-      <c r="AC60" t="n">
-        <v>0.003503485968538696</v>
-      </c>
-      <c r="AD60" t="n">
-        <v>0.1086080650246996</v>
-      </c>
-      <c r="AE60" t="n">
-        <v>0.003503485968538696</v>
-      </c>
-      <c r="AF60" t="n">
-        <v>0.003503485968538696</v>
-      </c>
-      <c r="AG60" t="n">
-        <v>0.02102091581123218</v>
-      </c>
-      <c r="AH60" t="n">
-        <v>3.051536278597204</v>
-      </c>
-      <c r="AI60" t="n">
-        <v>0.04204183162246435</v>
       </c>
     </row>
     <row r="61">
@@ -7049,89 +7049,89 @@
         <v>1</v>
       </c>
       <c r="D61" t="n">
+        <v>0</v>
+      </c>
+      <c r="E61" t="n">
+        <v>0</v>
+      </c>
+      <c r="F61" t="n">
+        <v>0</v>
+      </c>
+      <c r="G61" t="n">
+        <v>0</v>
+      </c>
+      <c r="H61" t="n">
+        <v>0.09786825153920069</v>
+      </c>
+      <c r="I61" t="n">
+        <v>0.005338268265774583</v>
+      </c>
+      <c r="J61" t="n">
+        <v>0</v>
+      </c>
+      <c r="K61" t="n">
+        <v>0.1334567066443646</v>
+      </c>
+      <c r="L61" t="n">
+        <v>0.03380903234990569</v>
+      </c>
+      <c r="M61" t="n">
+        <v>0</v>
+      </c>
+      <c r="N61" t="n">
+        <v>0</v>
+      </c>
+      <c r="O61" t="n">
+        <v>0</v>
+      </c>
+      <c r="P61" t="n">
+        <v>0.005338268265774583</v>
+      </c>
+      <c r="Q61" t="n">
+        <v>0</v>
+      </c>
+      <c r="R61" t="n">
         <v>0.003558845510516389</v>
       </c>
-      <c r="E61" t="n">
-        <v>0</v>
-      </c>
-      <c r="F61" t="n">
-        <v>0</v>
-      </c>
-      <c r="G61" t="n">
-        <v>0</v>
-      </c>
-      <c r="H61" t="n">
-        <v>0</v>
-      </c>
-      <c r="I61" t="n">
-        <v>0</v>
-      </c>
-      <c r="J61" t="n">
+      <c r="S61" t="n">
+        <v>0</v>
+      </c>
+      <c r="T61" t="n">
+        <v>0</v>
+      </c>
+      <c r="U61" t="n">
+        <v>0</v>
+      </c>
+      <c r="V61" t="n">
+        <v>0</v>
+      </c>
+      <c r="W61" t="n">
+        <v>0</v>
+      </c>
+      <c r="X61" t="n">
+        <v>0</v>
+      </c>
+      <c r="Y61" t="n">
+        <v>0.5195914445353927</v>
+      </c>
+      <c r="Z61" t="n">
+        <v>0.005338268265774583</v>
+      </c>
+      <c r="AA61" t="n">
         <v>0.003558845510516389</v>
       </c>
-      <c r="K61" t="n">
-        <v>0.005338268265774583</v>
-      </c>
-      <c r="L61" t="n">
-        <v>0</v>
-      </c>
-      <c r="M61" t="n">
-        <v>0.1334567066443646</v>
-      </c>
-      <c r="N61" t="n">
-        <v>0</v>
-      </c>
-      <c r="O61" t="n">
+      <c r="AB61" t="n">
+        <v>0</v>
+      </c>
+      <c r="AC61" t="n">
+        <v>0</v>
+      </c>
+      <c r="AD61" t="n">
         <v>0.003558845510516389</v>
       </c>
-      <c r="P61" t="n">
-        <v>0</v>
-      </c>
-      <c r="Q61" t="n">
+      <c r="AE61" t="n">
         <v>0.05872095092352041</v>
       </c>
-      <c r="R61" t="n">
-        <v>0.005338268265774583</v>
-      </c>
-      <c r="S61" t="n">
-        <v>0.5195914445353927</v>
-      </c>
-      <c r="T61" t="n">
-        <v>0</v>
-      </c>
-      <c r="U61" t="n">
-        <v>0.09786825153920069</v>
-      </c>
-      <c r="V61" t="n">
-        <v>0.005338268265774583</v>
-      </c>
-      <c r="W61" t="n">
-        <v>0</v>
-      </c>
-      <c r="X61" t="n">
-        <v>0</v>
-      </c>
-      <c r="Y61" t="n">
-        <v>0</v>
-      </c>
-      <c r="Z61" t="n">
-        <v>0</v>
-      </c>
-      <c r="AA61" t="n">
-        <v>0</v>
-      </c>
-      <c r="AB61" t="n">
-        <v>0</v>
-      </c>
-      <c r="AC61" t="n">
-        <v>0</v>
-      </c>
-      <c r="AD61" t="n">
-        <v>0</v>
-      </c>
-      <c r="AE61" t="n">
-        <v>0</v>
-      </c>
       <c r="AF61" t="n">
         <v>0</v>
       </c>
@@ -7139,7 +7139,7 @@
         <v>0</v>
       </c>
       <c r="AH61" t="n">
-        <v>0.03380903234990569</v>
+        <v>0</v>
       </c>
       <c r="AI61" t="n">
         <v>0</v>
@@ -7158,52 +7158,52 @@
         <v>2</v>
       </c>
       <c r="D62" t="n">
+        <v>0</v>
+      </c>
+      <c r="E62" t="n">
+        <v>0</v>
+      </c>
+      <c r="F62" t="n">
+        <v>0.01859427296392711</v>
+      </c>
+      <c r="G62" t="n">
+        <v>0</v>
+      </c>
+      <c r="H62" t="n">
+        <v>0</v>
+      </c>
+      <c r="I62" t="n">
+        <v>0</v>
+      </c>
+      <c r="J62" t="n">
+        <v>0.05578281889178133</v>
+      </c>
+      <c r="K62" t="n">
+        <v>0</v>
+      </c>
+      <c r="L62" t="n">
+        <v>0.2789140944589066</v>
+      </c>
+      <c r="M62" t="n">
         <v>0.03718854592785422</v>
       </c>
-      <c r="E62" t="n">
-        <v>0</v>
-      </c>
-      <c r="F62" t="n">
-        <v>0</v>
-      </c>
-      <c r="G62" t="n">
-        <v>0</v>
-      </c>
-      <c r="H62" t="n">
-        <v>0</v>
-      </c>
-      <c r="I62" t="n">
-        <v>0.05578281889178133</v>
-      </c>
-      <c r="J62" t="n">
-        <v>0</v>
-      </c>
-      <c r="K62" t="n">
-        <v>0</v>
-      </c>
-      <c r="L62" t="n">
+      <c r="N62" t="n">
+        <v>0</v>
+      </c>
+      <c r="O62" t="n">
+        <v>0</v>
+      </c>
+      <c r="P62" t="n">
+        <v>0</v>
+      </c>
+      <c r="Q62" t="n">
+        <v>0.1115656377835627</v>
+      </c>
+      <c r="R62" t="n">
+        <v>0.03718854592785422</v>
+      </c>
+      <c r="S62" t="n">
         <v>0.7809594644849386</v>
-      </c>
-      <c r="M62" t="n">
-        <v>0</v>
-      </c>
-      <c r="N62" t="n">
-        <v>0</v>
-      </c>
-      <c r="O62" t="n">
-        <v>0.07437709185570844</v>
-      </c>
-      <c r="P62" t="n">
-        <v>0</v>
-      </c>
-      <c r="Q62" t="n">
-        <v>0.3904797322424693</v>
-      </c>
-      <c r="R62" t="n">
-        <v>0.3161026403867608</v>
-      </c>
-      <c r="S62" t="n">
-        <v>0</v>
       </c>
       <c r="T62" t="n">
         <v>0.05578281889178133</v>
@@ -7218,28 +7218,28 @@
         <v>0</v>
       </c>
       <c r="X62" t="n">
-        <v>0.01859427296392711</v>
+        <v>0</v>
       </c>
       <c r="Y62" t="n">
+        <v>0</v>
+      </c>
+      <c r="Z62" t="n">
+        <v>0.3161026403867608</v>
+      </c>
+      <c r="AA62" t="n">
+        <v>0</v>
+      </c>
+      <c r="AB62" t="n">
         <v>0.2975083674228338</v>
       </c>
-      <c r="Z62" t="n">
-        <v>0.03718854592785422</v>
-      </c>
-      <c r="AA62" t="n">
-        <v>0</v>
-      </c>
-      <c r="AB62" t="n">
-        <v>0.1115656377835627</v>
-      </c>
       <c r="AC62" t="n">
         <v>0</v>
       </c>
       <c r="AD62" t="n">
-        <v>0</v>
+        <v>0.07437709185570844</v>
       </c>
       <c r="AE62" t="n">
-        <v>0</v>
+        <v>0.3904797322424693</v>
       </c>
       <c r="AF62" t="n">
         <v>0</v>
@@ -7248,10 +7248,10 @@
         <v>0</v>
       </c>
       <c r="AH62" t="n">
-        <v>0.2789140944589066</v>
+        <v>0.05578281889178133</v>
       </c>
       <c r="AI62" t="n">
-        <v>0.05578281889178133</v>
+        <v>0</v>
       </c>
     </row>
     <row r="63">
@@ -7267,100 +7267,100 @@
         <v>2</v>
       </c>
       <c r="D63" t="n">
+        <v>0.00436109899694723</v>
+      </c>
+      <c r="E63" t="n">
+        <v>0</v>
+      </c>
+      <c r="F63" t="n">
+        <v>0</v>
+      </c>
+      <c r="G63" t="n">
+        <v>0</v>
+      </c>
+      <c r="H63" t="n">
+        <v>0</v>
+      </c>
+      <c r="I63" t="n">
+        <v>0</v>
+      </c>
+      <c r="J63" t="n">
+        <v>0.01308329699084169</v>
+      </c>
+      <c r="K63" t="n">
+        <v>0</v>
+      </c>
+      <c r="L63" t="n">
+        <v>0.3576101177496729</v>
+      </c>
+      <c r="M63" t="n">
+        <v>0.00436109899694723</v>
+      </c>
+      <c r="N63" t="n">
+        <v>0</v>
+      </c>
+      <c r="O63" t="n">
+        <v>0</v>
+      </c>
+      <c r="P63" t="n">
+        <v>0</v>
+      </c>
+      <c r="Q63" t="n">
+        <v>0.01308329699084169</v>
+      </c>
+      <c r="R63" t="n">
         <v>0.07849978194505015</v>
       </c>
-      <c r="E63" t="n">
+      <c r="S63" t="n">
+        <v>1.626689925861317</v>
+      </c>
+      <c r="T63" t="n">
+        <v>0.06541648495420846</v>
+      </c>
+      <c r="U63" t="n">
+        <v>0</v>
+      </c>
+      <c r="V63" t="n">
+        <v>0</v>
+      </c>
+      <c r="W63" t="n">
+        <v>0.02616659398168339</v>
+      </c>
+      <c r="X63" t="n">
+        <v>0</v>
+      </c>
+      <c r="Y63" t="n">
         <v>0.00436109899694723</v>
       </c>
-      <c r="F63" t="n">
-        <v>0</v>
-      </c>
-      <c r="G63" t="n">
-        <v>0</v>
-      </c>
-      <c r="H63" t="n">
-        <v>0</v>
-      </c>
-      <c r="I63" t="n">
-        <v>0.06541648495420846</v>
-      </c>
-      <c r="J63" t="n">
+      <c r="Z63" t="n">
+        <v>0.4491931966855648</v>
+      </c>
+      <c r="AA63" t="n">
         <v>0.00436109899694723</v>
       </c>
-      <c r="K63" t="n">
-        <v>0</v>
-      </c>
-      <c r="L63" t="n">
-        <v>1.626689925861317</v>
-      </c>
-      <c r="M63" t="n">
-        <v>0</v>
-      </c>
-      <c r="N63" t="n">
+      <c r="AB63" t="n">
+        <v>1.142607937200175</v>
+      </c>
+      <c r="AC63" t="n">
+        <v>0.04797208896641954</v>
+      </c>
+      <c r="AD63" t="n">
+        <v>0.008722197993894461</v>
+      </c>
+      <c r="AE63" t="n">
+        <v>0.5276929786306149</v>
+      </c>
+      <c r="AF63" t="n">
+        <v>0</v>
+      </c>
+      <c r="AG63" t="n">
+        <v>0</v>
+      </c>
+      <c r="AH63" t="n">
         <v>0.02616659398168339</v>
       </c>
-      <c r="O63" t="n">
-        <v>0.008722197993894461</v>
-      </c>
-      <c r="P63" t="n">
-        <v>0</v>
-      </c>
-      <c r="Q63" t="n">
-        <v>0.5276929786306149</v>
-      </c>
-      <c r="R63" t="n">
-        <v>0.4491931966855648</v>
-      </c>
-      <c r="S63" t="n">
-        <v>0.00436109899694723</v>
-      </c>
-      <c r="T63" t="n">
-        <v>0.02616659398168339</v>
-      </c>
-      <c r="U63" t="n">
-        <v>0</v>
-      </c>
-      <c r="V63" t="n">
-        <v>0</v>
-      </c>
-      <c r="W63" t="n">
-        <v>0</v>
-      </c>
-      <c r="X63" t="n">
-        <v>0</v>
-      </c>
-      <c r="Y63" t="n">
-        <v>1.142607937200175</v>
-      </c>
-      <c r="Z63" t="n">
-        <v>0.00436109899694723</v>
-      </c>
-      <c r="AA63" t="n">
-        <v>0</v>
-      </c>
-      <c r="AB63" t="n">
-        <v>0.01308329699084169</v>
-      </c>
-      <c r="AC63" t="n">
-        <v>0</v>
-      </c>
-      <c r="AD63" t="n">
-        <v>0.04797208896641954</v>
-      </c>
-      <c r="AE63" t="n">
-        <v>0</v>
-      </c>
-      <c r="AF63" t="n">
-        <v>0</v>
-      </c>
-      <c r="AG63" t="n">
-        <v>0</v>
-      </c>
-      <c r="AH63" t="n">
-        <v>0.3576101177496729</v>
-      </c>
       <c r="AI63" t="n">
-        <v>0.01308329699084169</v>
+        <v>0</v>
       </c>
     </row>
     <row r="64">
@@ -7376,10 +7376,10 @@
         <v>2</v>
       </c>
       <c r="D64" t="n">
-        <v>0.1386962552011096</v>
+        <v>0.02311604253351826</v>
       </c>
       <c r="E64" t="n">
-        <v>0.02311604253351826</v>
+        <v>0</v>
       </c>
       <c r="F64" t="n">
         <v>0</v>
@@ -7391,7 +7391,7 @@
         <v>0</v>
       </c>
       <c r="I64" t="n">
-        <v>0.1618122977346279</v>
+        <v>0.04623208506703652</v>
       </c>
       <c r="J64" t="n">
         <v>0.02311604253351826</v>
@@ -7400,76 +7400,76 @@
         <v>0</v>
       </c>
       <c r="L64" t="n">
+        <v>0.4160887656033287</v>
+      </c>
+      <c r="M64" t="n">
+        <v>0</v>
+      </c>
+      <c r="N64" t="n">
+        <v>0</v>
+      </c>
+      <c r="O64" t="n">
+        <v>0</v>
+      </c>
+      <c r="P64" t="n">
+        <v>0</v>
+      </c>
+      <c r="Q64" t="n">
+        <v>0.02311604253351826</v>
+      </c>
+      <c r="R64" t="n">
+        <v>0.1386962552011096</v>
+      </c>
+      <c r="S64" t="n">
         <v>1.363846509477578</v>
       </c>
-      <c r="M64" t="n">
-        <v>0</v>
-      </c>
-      <c r="N64" t="n">
-        <v>0</v>
-      </c>
-      <c r="O64" t="n">
-        <v>0</v>
-      </c>
-      <c r="P64" t="n">
-        <v>0</v>
-      </c>
-      <c r="Q64" t="n">
+      <c r="T64" t="n">
+        <v>0.1618122977346279</v>
+      </c>
+      <c r="U64" t="n">
+        <v>0</v>
+      </c>
+      <c r="V64" t="n">
+        <v>0</v>
+      </c>
+      <c r="W64" t="n">
+        <v>0</v>
+      </c>
+      <c r="X64" t="n">
+        <v>0</v>
+      </c>
+      <c r="Y64" t="n">
+        <v>0</v>
+      </c>
+      <c r="Z64" t="n">
+        <v>0.3929727230698105</v>
+      </c>
+      <c r="AA64" t="n">
+        <v>0.02311604253351826</v>
+      </c>
+      <c r="AB64" t="n">
+        <v>1.109570041608877</v>
+      </c>
+      <c r="AC64" t="n">
+        <v>0.02311604253351826</v>
+      </c>
+      <c r="AD64" t="n">
+        <v>0</v>
+      </c>
+      <c r="AE64" t="n">
         <v>0.6472491909385114</v>
       </c>
-      <c r="R64" t="n">
-        <v>0.3929727230698105</v>
-      </c>
-      <c r="S64" t="n">
-        <v>0</v>
-      </c>
-      <c r="T64" t="n">
+      <c r="AF64" t="n">
+        <v>0</v>
+      </c>
+      <c r="AG64" t="n">
+        <v>0</v>
+      </c>
+      <c r="AH64" t="n">
         <v>0.04623208506703652</v>
       </c>
-      <c r="U64" t="n">
-        <v>0</v>
-      </c>
-      <c r="V64" t="n">
-        <v>0.04623208506703652</v>
-      </c>
-      <c r="W64" t="n">
-        <v>0</v>
-      </c>
-      <c r="X64" t="n">
-        <v>0</v>
-      </c>
-      <c r="Y64" t="n">
-        <v>1.109570041608877</v>
-      </c>
-      <c r="Z64" t="n">
-        <v>0</v>
-      </c>
-      <c r="AA64" t="n">
-        <v>0</v>
-      </c>
-      <c r="AB64" t="n">
-        <v>0.02311604253351826</v>
-      </c>
-      <c r="AC64" t="n">
-        <v>0</v>
-      </c>
-      <c r="AD64" t="n">
-        <v>0.02311604253351826</v>
-      </c>
-      <c r="AE64" t="n">
-        <v>0</v>
-      </c>
-      <c r="AF64" t="n">
-        <v>0</v>
-      </c>
-      <c r="AG64" t="n">
-        <v>0</v>
-      </c>
-      <c r="AH64" t="n">
-        <v>0.4160887656033287</v>
-      </c>
       <c r="AI64" t="n">
-        <v>0.02311604253351826</v>
+        <v>0</v>
       </c>
     </row>
     <row r="65">
@@ -7548,16 +7548,16 @@
         <v>0</v>
       </c>
       <c r="Y65" t="n">
+        <v>0</v>
+      </c>
+      <c r="Z65" t="n">
+        <v>0</v>
+      </c>
+      <c r="AA65" t="n">
+        <v>0</v>
+      </c>
+      <c r="AB65" t="n">
         <v>7.76</v>
-      </c>
-      <c r="Z65" t="n">
-        <v>0</v>
-      </c>
-      <c r="AA65" t="n">
-        <v>0</v>
-      </c>
-      <c r="AB65" t="n">
-        <v>0</v>
       </c>
       <c r="AC65" t="n">
         <v>0</v>
@@ -7606,76 +7606,76 @@
         <v>0</v>
       </c>
       <c r="H66" t="n">
-        <v>0</v>
+        <v>0.1633097441480675</v>
       </c>
       <c r="I66" t="n">
-        <v>0</v>
+        <v>0.326619488296135</v>
       </c>
       <c r="J66" t="n">
         <v>0</v>
       </c>
       <c r="K66" t="n">
+        <v>0.5443658138268916</v>
+      </c>
+      <c r="L66" t="n">
+        <v>0</v>
+      </c>
+      <c r="M66" t="n">
+        <v>0</v>
+      </c>
+      <c r="N66" t="n">
+        <v>0</v>
+      </c>
+      <c r="O66" t="n">
+        <v>0</v>
+      </c>
+      <c r="P66" t="n">
         <v>0.05443658138268917</v>
       </c>
-      <c r="L66" t="n">
+      <c r="Q66" t="n">
+        <v>0</v>
+      </c>
+      <c r="R66" t="n">
+        <v>0</v>
+      </c>
+      <c r="S66" t="n">
         <v>0.05443658138268917</v>
       </c>
-      <c r="M66" t="n">
-        <v>0.5443658138268916</v>
-      </c>
-      <c r="N66" t="n">
-        <v>0</v>
-      </c>
-      <c r="O66" t="n">
+      <c r="T66" t="n">
+        <v>0</v>
+      </c>
+      <c r="U66" t="n">
+        <v>0</v>
+      </c>
+      <c r="V66" t="n">
+        <v>0</v>
+      </c>
+      <c r="W66" t="n">
+        <v>0</v>
+      </c>
+      <c r="X66" t="n">
+        <v>0</v>
+      </c>
+      <c r="Y66" t="n">
+        <v>0.2721829069134458</v>
+      </c>
+      <c r="Z66" t="n">
+        <v>0.1633097441480675</v>
+      </c>
+      <c r="AA66" t="n">
+        <v>0</v>
+      </c>
+      <c r="AB66" t="n">
+        <v>0</v>
+      </c>
+      <c r="AC66" t="n">
+        <v>0</v>
+      </c>
+      <c r="AD66" t="n">
         <v>0.05443658138268917</v>
       </c>
-      <c r="P66" t="n">
-        <v>0</v>
-      </c>
-      <c r="Q66" t="n">
+      <c r="AE66" t="n">
         <v>0.1088731627653783</v>
-      </c>
-      <c r="R66" t="n">
-        <v>0.1633097441480675</v>
-      </c>
-      <c r="S66" t="n">
-        <v>0.2721829069134458</v>
-      </c>
-      <c r="T66" t="n">
-        <v>0</v>
-      </c>
-      <c r="U66" t="n">
-        <v>0.1633097441480675</v>
-      </c>
-      <c r="V66" t="n">
-        <v>0.326619488296135</v>
-      </c>
-      <c r="W66" t="n">
-        <v>0</v>
-      </c>
-      <c r="X66" t="n">
-        <v>0</v>
-      </c>
-      <c r="Y66" t="n">
-        <v>0</v>
-      </c>
-      <c r="Z66" t="n">
-        <v>0</v>
-      </c>
-      <c r="AA66" t="n">
-        <v>0</v>
-      </c>
-      <c r="AB66" t="n">
-        <v>0</v>
-      </c>
-      <c r="AC66" t="n">
-        <v>0</v>
-      </c>
-      <c r="AD66" t="n">
-        <v>0</v>
-      </c>
-      <c r="AE66" t="n">
-        <v>0</v>
       </c>
       <c r="AF66" t="n">
         <v>0</v>
@@ -7766,16 +7766,16 @@
         <v>0</v>
       </c>
       <c r="Y67" t="n">
+        <v>0</v>
+      </c>
+      <c r="Z67" t="n">
+        <v>0</v>
+      </c>
+      <c r="AA67" t="n">
+        <v>0</v>
+      </c>
+      <c r="AB67" t="n">
         <v>2.18</v>
-      </c>
-      <c r="Z67" t="n">
-        <v>0</v>
-      </c>
-      <c r="AA67" t="n">
-        <v>0</v>
-      </c>
-      <c r="AB67" t="n">
-        <v>0</v>
       </c>
       <c r="AC67" t="n">
         <v>0</v>
@@ -7845,58 +7845,58 @@
         <v>0</v>
       </c>
       <c r="O68" t="n">
+        <v>0</v>
+      </c>
+      <c r="P68" t="n">
+        <v>0</v>
+      </c>
+      <c r="Q68" t="n">
+        <v>0</v>
+      </c>
+      <c r="R68" t="n">
+        <v>0</v>
+      </c>
+      <c r="S68" t="n">
+        <v>0</v>
+      </c>
+      <c r="T68" t="n">
+        <v>0</v>
+      </c>
+      <c r="U68" t="n">
+        <v>0</v>
+      </c>
+      <c r="V68" t="n">
+        <v>0</v>
+      </c>
+      <c r="W68" t="n">
+        <v>0</v>
+      </c>
+      <c r="X68" t="n">
+        <v>0</v>
+      </c>
+      <c r="Y68" t="n">
+        <v>0</v>
+      </c>
+      <c r="Z68" t="n">
+        <v>0</v>
+      </c>
+      <c r="AA68" t="n">
+        <v>0</v>
+      </c>
+      <c r="AB68" t="n">
+        <v>0.0293140512018761</v>
+      </c>
+      <c r="AC68" t="n">
+        <v>0</v>
+      </c>
+      <c r="AD68" t="n">
         <v>0.05374242720343951</v>
       </c>
-      <c r="P68" t="n">
+      <c r="AE68" t="n">
+        <v>0</v>
+      </c>
+      <c r="AF68" t="n">
         <v>0.01465702560093805</v>
-      </c>
-      <c r="Q68" t="n">
-        <v>0</v>
-      </c>
-      <c r="R68" t="n">
-        <v>0</v>
-      </c>
-      <c r="S68" t="n">
-        <v>0</v>
-      </c>
-      <c r="T68" t="n">
-        <v>0</v>
-      </c>
-      <c r="U68" t="n">
-        <v>0</v>
-      </c>
-      <c r="V68" t="n">
-        <v>0</v>
-      </c>
-      <c r="W68" t="n">
-        <v>0</v>
-      </c>
-      <c r="X68" t="n">
-        <v>0</v>
-      </c>
-      <c r="Y68" t="n">
-        <v>0.0293140512018761</v>
-      </c>
-      <c r="Z68" t="n">
-        <v>0</v>
-      </c>
-      <c r="AA68" t="n">
-        <v>0</v>
-      </c>
-      <c r="AB68" t="n">
-        <v>0</v>
-      </c>
-      <c r="AC68" t="n">
-        <v>0</v>
-      </c>
-      <c r="AD68" t="n">
-        <v>0</v>
-      </c>
-      <c r="AE68" t="n">
-        <v>0</v>
-      </c>
-      <c r="AF68" t="n">
-        <v>0</v>
       </c>
       <c r="AG68" t="n">
         <v>0</v>
@@ -7942,73 +7942,73 @@
         <v>0</v>
       </c>
       <c r="K69" t="n">
+        <v>0</v>
+      </c>
+      <c r="L69" t="n">
+        <v>0</v>
+      </c>
+      <c r="M69" t="n">
+        <v>0</v>
+      </c>
+      <c r="N69" t="n">
+        <v>0.005292965648652941</v>
+      </c>
+      <c r="O69" t="n">
+        <v>0</v>
+      </c>
+      <c r="P69" t="n">
         <v>0.02117186259461176</v>
       </c>
-      <c r="L69" t="n">
-        <v>0</v>
-      </c>
-      <c r="M69" t="n">
-        <v>0</v>
-      </c>
-      <c r="N69" t="n">
-        <v>0</v>
-      </c>
-      <c r="O69" t="n">
+      <c r="Q69" t="n">
+        <v>0</v>
+      </c>
+      <c r="R69" t="n">
+        <v>0</v>
+      </c>
+      <c r="S69" t="n">
+        <v>0</v>
+      </c>
+      <c r="T69" t="n">
+        <v>0</v>
+      </c>
+      <c r="U69" t="n">
+        <v>0</v>
+      </c>
+      <c r="V69" t="n">
+        <v>0</v>
+      </c>
+      <c r="W69" t="n">
+        <v>0</v>
+      </c>
+      <c r="X69" t="n">
+        <v>0</v>
+      </c>
+      <c r="Y69" t="n">
+        <v>0</v>
+      </c>
+      <c r="Z69" t="n">
+        <v>0</v>
+      </c>
+      <c r="AA69" t="n">
+        <v>0</v>
+      </c>
+      <c r="AB69" t="n">
+        <v>0</v>
+      </c>
+      <c r="AC69" t="n">
+        <v>0</v>
+      </c>
+      <c r="AD69" t="n">
         <v>0.6298629121896998</v>
       </c>
-      <c r="P69" t="n">
+      <c r="AE69" t="n">
+        <v>0</v>
+      </c>
+      <c r="AF69" t="n">
         <v>0.01058593129730588</v>
       </c>
-      <c r="Q69" t="n">
-        <v>0</v>
-      </c>
-      <c r="R69" t="n">
-        <v>0</v>
-      </c>
-      <c r="S69" t="n">
-        <v>0</v>
-      </c>
-      <c r="T69" t="n">
-        <v>0</v>
-      </c>
-      <c r="U69" t="n">
-        <v>0</v>
-      </c>
-      <c r="V69" t="n">
-        <v>0</v>
-      </c>
-      <c r="W69" t="n">
-        <v>0</v>
-      </c>
-      <c r="X69" t="n">
-        <v>0</v>
-      </c>
-      <c r="Y69" t="n">
-        <v>0</v>
-      </c>
-      <c r="Z69" t="n">
-        <v>0</v>
-      </c>
-      <c r="AA69" t="n">
-        <v>0</v>
-      </c>
-      <c r="AB69" t="n">
-        <v>0</v>
-      </c>
-      <c r="AC69" t="n">
-        <v>0</v>
-      </c>
-      <c r="AD69" t="n">
-        <v>0</v>
-      </c>
-      <c r="AE69" t="n">
-        <v>0</v>
-      </c>
-      <c r="AF69" t="n">
-        <v>0</v>
-      </c>
       <c r="AG69" t="n">
-        <v>0.005292965648652941</v>
+        <v>0</v>
       </c>
       <c r="AH69" t="n">
         <v>0</v>
@@ -8069,49 +8069,49 @@
         <v>0</v>
       </c>
       <c r="Q70" t="n">
+        <v>0</v>
+      </c>
+      <c r="R70" t="n">
+        <v>0</v>
+      </c>
+      <c r="S70" t="n">
+        <v>0</v>
+      </c>
+      <c r="T70" t="n">
+        <v>0</v>
+      </c>
+      <c r="U70" t="n">
+        <v>0</v>
+      </c>
+      <c r="V70" t="n">
+        <v>0</v>
+      </c>
+      <c r="W70" t="n">
+        <v>0</v>
+      </c>
+      <c r="X70" t="n">
+        <v>0</v>
+      </c>
+      <c r="Y70" t="n">
+        <v>0</v>
+      </c>
+      <c r="Z70" t="n">
+        <v>0</v>
+      </c>
+      <c r="AA70" t="n">
+        <v>0</v>
+      </c>
+      <c r="AB70" t="n">
+        <v>5.23</v>
+      </c>
+      <c r="AC70" t="n">
+        <v>0</v>
+      </c>
+      <c r="AD70" t="n">
+        <v>0</v>
+      </c>
+      <c r="AE70" t="n">
         <v>5.11</v>
-      </c>
-      <c r="R70" t="n">
-        <v>0</v>
-      </c>
-      <c r="S70" t="n">
-        <v>0</v>
-      </c>
-      <c r="T70" t="n">
-        <v>0</v>
-      </c>
-      <c r="U70" t="n">
-        <v>0</v>
-      </c>
-      <c r="V70" t="n">
-        <v>0</v>
-      </c>
-      <c r="W70" t="n">
-        <v>0</v>
-      </c>
-      <c r="X70" t="n">
-        <v>0</v>
-      </c>
-      <c r="Y70" t="n">
-        <v>5.23</v>
-      </c>
-      <c r="Z70" t="n">
-        <v>0</v>
-      </c>
-      <c r="AA70" t="n">
-        <v>0</v>
-      </c>
-      <c r="AB70" t="n">
-        <v>0</v>
-      </c>
-      <c r="AC70" t="n">
-        <v>0</v>
-      </c>
-      <c r="AD70" t="n">
-        <v>0</v>
-      </c>
-      <c r="AE70" t="n">
-        <v>0</v>
       </c>
       <c r="AF70" t="n">
         <v>0</v>
@@ -8178,49 +8178,49 @@
         <v>0</v>
       </c>
       <c r="Q71" t="n">
+        <v>0</v>
+      </c>
+      <c r="R71" t="n">
+        <v>0</v>
+      </c>
+      <c r="S71" t="n">
+        <v>0</v>
+      </c>
+      <c r="T71" t="n">
+        <v>0</v>
+      </c>
+      <c r="U71" t="n">
+        <v>0</v>
+      </c>
+      <c r="V71" t="n">
+        <v>0</v>
+      </c>
+      <c r="W71" t="n">
+        <v>0</v>
+      </c>
+      <c r="X71" t="n">
+        <v>0</v>
+      </c>
+      <c r="Y71" t="n">
+        <v>0</v>
+      </c>
+      <c r="Z71" t="n">
+        <v>0</v>
+      </c>
+      <c r="AA71" t="n">
+        <v>0</v>
+      </c>
+      <c r="AB71" t="n">
+        <v>0</v>
+      </c>
+      <c r="AC71" t="n">
+        <v>2.3</v>
+      </c>
+      <c r="AD71" t="n">
+        <v>0</v>
+      </c>
+      <c r="AE71" t="n">
         <v>1.25</v>
-      </c>
-      <c r="R71" t="n">
-        <v>0</v>
-      </c>
-      <c r="S71" t="n">
-        <v>0</v>
-      </c>
-      <c r="T71" t="n">
-        <v>0</v>
-      </c>
-      <c r="U71" t="n">
-        <v>0</v>
-      </c>
-      <c r="V71" t="n">
-        <v>0</v>
-      </c>
-      <c r="W71" t="n">
-        <v>0</v>
-      </c>
-      <c r="X71" t="n">
-        <v>0</v>
-      </c>
-      <c r="Y71" t="n">
-        <v>0</v>
-      </c>
-      <c r="Z71" t="n">
-        <v>0</v>
-      </c>
-      <c r="AA71" t="n">
-        <v>0</v>
-      </c>
-      <c r="AB71" t="n">
-        <v>0</v>
-      </c>
-      <c r="AC71" t="n">
-        <v>0</v>
-      </c>
-      <c r="AD71" t="n">
-        <v>2.3</v>
-      </c>
-      <c r="AE71" t="n">
-        <v>0</v>
       </c>
       <c r="AF71" t="n">
         <v>0</v>

--- a/data/OLS_all.xlsx
+++ b/data/OLS_all.xlsx
@@ -446,162 +446,162 @@
       </c>
       <c r="D1" s="1" t="inlineStr">
         <is>
+          <t>725</t>
+        </is>
+      </c>
+      <c r="E1" s="1" t="inlineStr">
+        <is>
+          <t>871</t>
+        </is>
+      </c>
+      <c r="F1" s="1" t="inlineStr">
+        <is>
+          <t>428</t>
+        </is>
+      </c>
+      <c r="G1" s="1" t="inlineStr">
+        <is>
+          <t>214</t>
+        </is>
+      </c>
+      <c r="H1" s="1" t="inlineStr">
+        <is>
+          <t>470</t>
+        </is>
+      </c>
+      <c r="I1" s="1" t="inlineStr">
+        <is>
+          <t>79</t>
+        </is>
+      </c>
+      <c r="J1" s="1" t="inlineStr">
+        <is>
+          <t>23</t>
+        </is>
+      </c>
+      <c r="K1" s="1" t="inlineStr">
+        <is>
+          <t>91</t>
+        </is>
+      </c>
+      <c r="L1" s="1" t="inlineStr">
+        <is>
+          <t>88</t>
+        </is>
+      </c>
+      <c r="M1" s="1" t="inlineStr">
+        <is>
+          <t>480</t>
+        </is>
+      </c>
+      <c r="N1" s="1" t="inlineStr">
+        <is>
+          <t>584</t>
+        </is>
+      </c>
+      <c r="O1" s="1" t="inlineStr">
+        <is>
+          <t>712</t>
+        </is>
+      </c>
+      <c r="P1" s="1" t="inlineStr">
+        <is>
+          <t>90</t>
+        </is>
+      </c>
+      <c r="Q1" s="1" t="inlineStr">
+        <is>
+          <t>799</t>
+        </is>
+      </c>
+      <c r="R1" s="1" t="inlineStr">
+        <is>
+          <t>625</t>
+        </is>
+      </c>
+      <c r="S1" s="1" t="inlineStr">
+        <is>
+          <t>337</t>
+        </is>
+      </c>
+      <c r="T1" s="1" t="inlineStr">
+        <is>
+          <t>541</t>
+        </is>
+      </c>
+      <c r="U1" s="1" t="inlineStr">
+        <is>
+          <t>494</t>
+        </is>
+      </c>
+      <c r="V1" s="1" t="inlineStr">
+        <is>
+          <t>657</t>
+        </is>
+      </c>
+      <c r="W1" s="1" t="inlineStr">
+        <is>
+          <t>342</t>
+        </is>
+      </c>
+      <c r="X1" s="1" t="inlineStr">
+        <is>
+          <t>410</t>
+        </is>
+      </c>
+      <c r="Y1" s="1" t="inlineStr">
+        <is>
+          <t>678</t>
+        </is>
+      </c>
+      <c r="Z1" s="1" t="inlineStr">
+        <is>
+          <t>605</t>
+        </is>
+      </c>
+      <c r="AA1" s="1" t="inlineStr">
+        <is>
           <t>565</t>
         </is>
       </c>
-      <c r="E1" s="1" t="inlineStr">
+      <c r="AB1" s="1" t="inlineStr">
+        <is>
+          <t>426</t>
+        </is>
+      </c>
+      <c r="AC1" s="1" t="inlineStr">
+        <is>
+          <t>92</t>
+        </is>
+      </c>
+      <c r="AD1" s="1" t="inlineStr">
+        <is>
+          <t>334</t>
+        </is>
+      </c>
+      <c r="AE1" s="1" t="inlineStr">
+        <is>
+          <t>140</t>
+        </is>
+      </c>
+      <c r="AF1" s="1" t="inlineStr">
+        <is>
+          <t>201</t>
+        </is>
+      </c>
+      <c r="AG1" s="1" t="inlineStr">
+        <is>
+          <t>549</t>
+        </is>
+      </c>
+      <c r="AH1" s="1" t="inlineStr">
         <is>
           <t>771</t>
         </is>
       </c>
-      <c r="F1" s="1" t="inlineStr">
-        <is>
-          <t>657</t>
-        </is>
-      </c>
-      <c r="G1" s="1" t="inlineStr">
-        <is>
-          <t>201</t>
-        </is>
-      </c>
-      <c r="H1" s="1" t="inlineStr">
-        <is>
-          <t>584</t>
-        </is>
-      </c>
-      <c r="I1" s="1" t="inlineStr">
-        <is>
-          <t>725</t>
-        </is>
-      </c>
-      <c r="J1" s="1" t="inlineStr">
-        <is>
-          <t>480</t>
-        </is>
-      </c>
-      <c r="K1" s="1" t="inlineStr">
-        <is>
-          <t>214</t>
-        </is>
-      </c>
-      <c r="L1" s="1" t="inlineStr">
-        <is>
-          <t>871</t>
-        </is>
-      </c>
-      <c r="M1" s="1" t="inlineStr">
-        <is>
-          <t>428</t>
-        </is>
-      </c>
-      <c r="N1" s="1" t="inlineStr">
-        <is>
-          <t>337</t>
-        </is>
-      </c>
-      <c r="O1" s="1" t="inlineStr">
-        <is>
-          <t>541</t>
-        </is>
-      </c>
-      <c r="P1" s="1" t="inlineStr">
-        <is>
-          <t>140</t>
-        </is>
-      </c>
-      <c r="Q1" s="1" t="inlineStr">
-        <is>
-          <t>426</t>
-        </is>
-      </c>
-      <c r="R1" s="1" t="inlineStr">
-        <is>
-          <t>678</t>
-        </is>
-      </c>
-      <c r="S1" s="1" t="inlineStr">
-        <is>
-          <t>712</t>
-        </is>
-      </c>
-      <c r="T1" s="1" t="inlineStr">
-        <is>
-          <t>605</t>
-        </is>
-      </c>
-      <c r="U1" s="1" t="inlineStr">
-        <is>
-          <t>342</t>
-        </is>
-      </c>
-      <c r="V1" s="1" t="inlineStr">
-        <is>
-          <t>799</t>
-        </is>
-      </c>
-      <c r="W1" s="1" t="inlineStr">
-        <is>
-          <t>90</t>
-        </is>
-      </c>
-      <c r="X1" s="1" t="inlineStr">
-        <is>
-          <t>410</t>
-        </is>
-      </c>
-      <c r="Y1" s="1" t="inlineStr">
+      <c r="AI1" s="1" t="inlineStr">
         <is>
           <t>229</t>
-        </is>
-      </c>
-      <c r="Z1" s="1" t="inlineStr">
-        <is>
-          <t>625</t>
-        </is>
-      </c>
-      <c r="AA1" s="1" t="inlineStr">
-        <is>
-          <t>23</t>
-        </is>
-      </c>
-      <c r="AB1" s="1" t="inlineStr">
-        <is>
-          <t>91</t>
-        </is>
-      </c>
-      <c r="AC1" s="1" t="inlineStr">
-        <is>
-          <t>334</t>
-        </is>
-      </c>
-      <c r="AD1" s="1" t="inlineStr">
-        <is>
-          <t>470</t>
-        </is>
-      </c>
-      <c r="AE1" s="1" t="inlineStr">
-        <is>
-          <t>549</t>
-        </is>
-      </c>
-      <c r="AF1" s="1" t="inlineStr">
-        <is>
-          <t>92</t>
-        </is>
-      </c>
-      <c r="AG1" s="1" t="inlineStr">
-        <is>
-          <t>494</t>
-        </is>
-      </c>
-      <c r="AH1" s="1" t="inlineStr">
-        <is>
-          <t>79</t>
-        </is>
-      </c>
-      <c r="AI1" s="1" t="inlineStr">
-        <is>
-          <t>88</t>
         </is>
       </c>
     </row>
@@ -618,94 +618,94 @@
         <v>3</v>
       </c>
       <c r="D2" t="n">
+        <v>0.4523912106850495</v>
+      </c>
+      <c r="E2" t="n">
+        <v>0</v>
+      </c>
+      <c r="F2" t="n">
+        <v>0</v>
+      </c>
+      <c r="G2" t="n">
+        <v>0</v>
+      </c>
+      <c r="H2" t="n">
+        <v>0</v>
+      </c>
+      <c r="I2" t="n">
+        <v>0</v>
+      </c>
+      <c r="J2" t="n">
+        <v>0.2800517018526497</v>
+      </c>
+      <c r="K2" t="n">
+        <v>0.1938819474364498</v>
+      </c>
+      <c r="L2" t="n">
+        <v>0</v>
+      </c>
+      <c r="M2" t="n">
+        <v>0</v>
+      </c>
+      <c r="N2" t="n">
+        <v>0</v>
+      </c>
+      <c r="O2" t="n">
+        <v>0</v>
+      </c>
+      <c r="P2" t="n">
+        <v>0</v>
+      </c>
+      <c r="Q2" t="n">
+        <v>0</v>
+      </c>
+      <c r="R2" t="n">
+        <v>0</v>
+      </c>
+      <c r="S2" t="n">
+        <v>0</v>
+      </c>
+      <c r="T2" t="n">
+        <v>0</v>
+      </c>
+      <c r="U2" t="n">
+        <v>0</v>
+      </c>
+      <c r="V2" t="n">
+        <v>0</v>
+      </c>
+      <c r="W2" t="n">
+        <v>0</v>
+      </c>
+      <c r="X2" t="n">
+        <v>0</v>
+      </c>
+      <c r="Y2" t="n">
+        <v>0</v>
+      </c>
+      <c r="Z2" t="n">
+        <v>0.6247307195174493</v>
+      </c>
+      <c r="AA2" t="n">
         <v>0.1723395088323998</v>
       </c>
-      <c r="E2" t="n">
-        <v>0</v>
-      </c>
-      <c r="F2" t="n">
-        <v>0</v>
-      </c>
-      <c r="G2" t="n">
-        <v>0</v>
-      </c>
-      <c r="H2" t="n">
-        <v>0</v>
-      </c>
-      <c r="I2" t="n">
-        <v>0.4523912106850495</v>
-      </c>
-      <c r="J2" t="n">
-        <v>0</v>
-      </c>
-      <c r="K2" t="n">
-        <v>0</v>
-      </c>
-      <c r="L2" t="n">
-        <v>0</v>
-      </c>
-      <c r="M2" t="n">
-        <v>0</v>
-      </c>
-      <c r="N2" t="n">
-        <v>0</v>
-      </c>
-      <c r="O2" t="n">
-        <v>0</v>
-      </c>
-      <c r="P2" t="n">
-        <v>0</v>
-      </c>
-      <c r="Q2" t="n">
-        <v>0</v>
-      </c>
-      <c r="R2" t="n">
-        <v>0</v>
-      </c>
-      <c r="S2" t="n">
-        <v>0</v>
-      </c>
-      <c r="T2" t="n">
-        <v>0.6247307195174493</v>
-      </c>
-      <c r="U2" t="n">
-        <v>0</v>
-      </c>
-      <c r="V2" t="n">
-        <v>0</v>
-      </c>
-      <c r="W2" t="n">
-        <v>0</v>
-      </c>
-      <c r="X2" t="n">
-        <v>0</v>
-      </c>
-      <c r="Y2" t="n">
-        <v>0</v>
-      </c>
-      <c r="Z2" t="n">
-        <v>0</v>
-      </c>
-      <c r="AA2" t="n">
-        <v>0.2800517018526497</v>
-      </c>
       <c r="AB2" t="n">
-        <v>0.1938819474364498</v>
+        <v>0</v>
       </c>
       <c r="AC2" t="n">
+        <v>0</v>
+      </c>
+      <c r="AD2" t="n">
         <v>0.02154243860404998</v>
       </c>
-      <c r="AD2" t="n">
-        <v>0</v>
-      </c>
       <c r="AE2" t="n">
+        <v>0</v>
+      </c>
+      <c r="AF2" t="n">
+        <v>0</v>
+      </c>
+      <c r="AG2" t="n">
         <v>0.2154243860404998</v>
-      </c>
-      <c r="AF2" t="n">
-        <v>0</v>
-      </c>
-      <c r="AG2" t="n">
-        <v>0</v>
       </c>
       <c r="AH2" t="n">
         <v>0</v>
@@ -727,100 +727,100 @@
         <v>1</v>
       </c>
       <c r="D3" t="n">
+        <v>0.3035477139062797</v>
+      </c>
+      <c r="E3" t="n">
+        <v>0</v>
+      </c>
+      <c r="F3" t="n">
+        <v>0</v>
+      </c>
+      <c r="G3" t="n">
+        <v>0</v>
+      </c>
+      <c r="H3" t="n">
+        <v>0</v>
+      </c>
+      <c r="I3" t="n">
+        <v>0</v>
+      </c>
+      <c r="J3" t="n">
+        <v>1.233162587744261</v>
+      </c>
+      <c r="K3" t="n">
+        <v>0.1138303927148549</v>
+      </c>
+      <c r="L3" t="n">
+        <v>0.01897173211914248</v>
+      </c>
+      <c r="M3" t="n">
+        <v>0</v>
+      </c>
+      <c r="N3" t="n">
+        <v>0</v>
+      </c>
+      <c r="O3" t="n">
+        <v>0</v>
+      </c>
+      <c r="P3" t="n">
+        <v>0</v>
+      </c>
+      <c r="Q3" t="n">
+        <v>0</v>
+      </c>
+      <c r="R3" t="n">
+        <v>0</v>
+      </c>
+      <c r="S3" t="n">
+        <v>0</v>
+      </c>
+      <c r="T3" t="n">
+        <v>0</v>
+      </c>
+      <c r="U3" t="n">
+        <v>0</v>
+      </c>
+      <c r="V3" t="n">
+        <v>0</v>
+      </c>
+      <c r="W3" t="n">
+        <v>0</v>
+      </c>
+      <c r="X3" t="n">
+        <v>0</v>
+      </c>
+      <c r="Y3" t="n">
+        <v>0</v>
+      </c>
+      <c r="Z3" t="n">
+        <v>0.834756213242269</v>
+      </c>
+      <c r="AA3" t="n">
         <v>0.2466325175488522</v>
       </c>
-      <c r="E3" t="n">
-        <v>0</v>
-      </c>
-      <c r="F3" t="n">
-        <v>0</v>
-      </c>
-      <c r="G3" t="n">
-        <v>0</v>
-      </c>
-      <c r="H3" t="n">
-        <v>0</v>
-      </c>
-      <c r="I3" t="n">
+      <c r="AB3" t="n">
+        <v>0</v>
+      </c>
+      <c r="AC3" t="n">
+        <v>0</v>
+      </c>
+      <c r="AD3" t="n">
+        <v>0</v>
+      </c>
+      <c r="AE3" t="n">
+        <v>0</v>
+      </c>
+      <c r="AF3" t="n">
+        <v>0</v>
+      </c>
+      <c r="AG3" t="n">
         <v>0.3035477139062797</v>
       </c>
-      <c r="J3" t="n">
-        <v>0</v>
-      </c>
-      <c r="K3" t="n">
-        <v>0</v>
-      </c>
-      <c r="L3" t="n">
-        <v>0</v>
-      </c>
-      <c r="M3" t="n">
-        <v>0</v>
-      </c>
-      <c r="N3" t="n">
-        <v>0</v>
-      </c>
-      <c r="O3" t="n">
-        <v>0</v>
-      </c>
-      <c r="P3" t="n">
-        <v>0</v>
-      </c>
-      <c r="Q3" t="n">
-        <v>0</v>
-      </c>
-      <c r="R3" t="n">
-        <v>0</v>
-      </c>
-      <c r="S3" t="n">
-        <v>0</v>
-      </c>
-      <c r="T3" t="n">
-        <v>0.834756213242269</v>
-      </c>
-      <c r="U3" t="n">
-        <v>0</v>
-      </c>
-      <c r="V3" t="n">
-        <v>0</v>
-      </c>
-      <c r="W3" t="n">
-        <v>0</v>
-      </c>
-      <c r="X3" t="n">
-        <v>0</v>
-      </c>
-      <c r="Y3" t="n">
-        <v>0</v>
-      </c>
-      <c r="Z3" t="n">
-        <v>0</v>
-      </c>
-      <c r="AA3" t="n">
-        <v>1.233162587744261</v>
-      </c>
-      <c r="AB3" t="n">
-        <v>0.1138303927148549</v>
-      </c>
-      <c r="AC3" t="n">
-        <v>0</v>
-      </c>
-      <c r="AD3" t="n">
-        <v>0</v>
-      </c>
-      <c r="AE3" t="n">
-        <v>0.3035477139062797</v>
-      </c>
-      <c r="AF3" t="n">
-        <v>0</v>
-      </c>
-      <c r="AG3" t="n">
-        <v>0</v>
-      </c>
       <c r="AH3" t="n">
         <v>0</v>
       </c>
       <c r="AI3" t="n">
-        <v>0.01897173211914248</v>
+        <v>0</v>
       </c>
     </row>
     <row r="4">
@@ -836,13 +836,13 @@
         <v>1</v>
       </c>
       <c r="D4" t="n">
-        <v>1.485391603240855</v>
+        <v>3.584581389639087</v>
       </c>
       <c r="E4" t="n">
         <v>0</v>
       </c>
       <c r="F4" t="n">
-        <v>0</v>
+        <v>0.07365578197888534</v>
       </c>
       <c r="G4" t="n">
         <v>0</v>
@@ -851,22 +851,22 @@
         <v>0</v>
       </c>
       <c r="I4" t="n">
-        <v>3.584581389639087</v>
+        <v>0</v>
       </c>
       <c r="J4" t="n">
+        <v>0.3068990915786889</v>
+      </c>
+      <c r="K4" t="n">
+        <v>0.2332433095998036</v>
+      </c>
+      <c r="L4" t="n">
         <v>0.01227596366314756</v>
       </c>
-      <c r="K4" t="n">
-        <v>0</v>
-      </c>
-      <c r="L4" t="n">
-        <v>0</v>
-      </c>
       <c r="M4" t="n">
-        <v>0.07365578197888534</v>
+        <v>0.01227596366314756</v>
       </c>
       <c r="N4" t="n">
-        <v>0.01227596366314756</v>
+        <v>0</v>
       </c>
       <c r="O4" t="n">
         <v>0.01227596366314756</v>
@@ -875,7 +875,7 @@
         <v>0</v>
       </c>
       <c r="Q4" t="n">
-        <v>0.02455192732629511</v>
+        <v>0</v>
       </c>
       <c r="R4" t="n">
         <v>0</v>
@@ -884,52 +884,52 @@
         <v>0.01227596366314756</v>
       </c>
       <c r="T4" t="n">
+        <v>0.01227596366314756</v>
+      </c>
+      <c r="U4" t="n">
+        <v>0</v>
+      </c>
+      <c r="V4" t="n">
+        <v>0</v>
+      </c>
+      <c r="W4" t="n">
+        <v>0</v>
+      </c>
+      <c r="X4" t="n">
+        <v>0</v>
+      </c>
+      <c r="Y4" t="n">
+        <v>0</v>
+      </c>
+      <c r="Z4" t="n">
         <v>0.7979376381045912</v>
       </c>
-      <c r="U4" t="n">
-        <v>0</v>
-      </c>
-      <c r="V4" t="n">
-        <v>0</v>
-      </c>
-      <c r="W4" t="n">
-        <v>0</v>
-      </c>
-      <c r="X4" t="n">
-        <v>0</v>
-      </c>
-      <c r="Y4" t="n">
-        <v>0</v>
-      </c>
-      <c r="Z4" t="n">
-        <v>0</v>
-      </c>
       <c r="AA4" t="n">
+        <v>1.485391603240855</v>
+      </c>
+      <c r="AB4" t="n">
+        <v>0.02455192732629511</v>
+      </c>
+      <c r="AC4" t="n">
+        <v>0</v>
+      </c>
+      <c r="AD4" t="n">
+        <v>0</v>
+      </c>
+      <c r="AE4" t="n">
+        <v>0</v>
+      </c>
+      <c r="AF4" t="n">
+        <v>0</v>
+      </c>
+      <c r="AG4" t="n">
         <v>0.3068990915786889</v>
       </c>
-      <c r="AB4" t="n">
-        <v>0.2332433095998036</v>
-      </c>
-      <c r="AC4" t="n">
-        <v>0</v>
-      </c>
-      <c r="AD4" t="n">
-        <v>0</v>
-      </c>
-      <c r="AE4" t="n">
-        <v>0.3068990915786889</v>
-      </c>
-      <c r="AF4" t="n">
-        <v>0</v>
-      </c>
-      <c r="AG4" t="n">
-        <v>0</v>
-      </c>
       <c r="AH4" t="n">
         <v>0</v>
       </c>
       <c r="AI4" t="n">
-        <v>0.01227596366314756</v>
+        <v>0</v>
       </c>
     </row>
     <row r="5">
@@ -945,100 +945,100 @@
         <v>1</v>
       </c>
       <c r="D5" t="n">
+        <v>2.053903960156026</v>
+      </c>
+      <c r="E5" t="n">
+        <v>0</v>
+      </c>
+      <c r="F5" t="n">
+        <v>0.002203759613901316</v>
+      </c>
+      <c r="G5" t="n">
+        <v>0</v>
+      </c>
+      <c r="H5" t="n">
+        <v>0</v>
+      </c>
+      <c r="I5" t="n">
+        <v>0</v>
+      </c>
+      <c r="J5" t="n">
+        <v>2.201555854287414</v>
+      </c>
+      <c r="K5" t="n">
+        <v>0.1410406152896842</v>
+      </c>
+      <c r="L5" t="n">
+        <v>0.01542631729730921</v>
+      </c>
+      <c r="M5" t="n">
+        <v>0</v>
+      </c>
+      <c r="N5" t="n">
+        <v>0</v>
+      </c>
+      <c r="O5" t="n">
+        <v>0</v>
+      </c>
+      <c r="P5" t="n">
+        <v>0</v>
+      </c>
+      <c r="Q5" t="n">
+        <v>0</v>
+      </c>
+      <c r="R5" t="n">
+        <v>0.004407519227802631</v>
+      </c>
+      <c r="S5" t="n">
+        <v>0</v>
+      </c>
+      <c r="T5" t="n">
+        <v>0.02203759613901316</v>
+      </c>
+      <c r="U5" t="n">
+        <v>0.002203759613901316</v>
+      </c>
+      <c r="V5" t="n">
+        <v>0</v>
+      </c>
+      <c r="W5" t="n">
+        <v>0</v>
+      </c>
+      <c r="X5" t="n">
+        <v>0</v>
+      </c>
+      <c r="Y5" t="n">
+        <v>0</v>
+      </c>
+      <c r="Z5" t="n">
+        <v>1.439055027877559</v>
+      </c>
+      <c r="AA5" t="n">
         <v>4.400907948960928</v>
       </c>
-      <c r="E5" t="n">
-        <v>0</v>
-      </c>
-      <c r="F5" t="n">
-        <v>0</v>
-      </c>
-      <c r="G5" t="n">
-        <v>0</v>
-      </c>
-      <c r="H5" t="n">
-        <v>0</v>
-      </c>
-      <c r="I5" t="n">
-        <v>2.053903960156026</v>
-      </c>
-      <c r="J5" t="n">
-        <v>0</v>
-      </c>
-      <c r="K5" t="n">
-        <v>0</v>
-      </c>
-      <c r="L5" t="n">
-        <v>0</v>
-      </c>
-      <c r="M5" t="n">
+      <c r="AB5" t="n">
+        <v>0.006611278841703947</v>
+      </c>
+      <c r="AC5" t="n">
+        <v>0</v>
+      </c>
+      <c r="AD5" t="n">
         <v>0.002203759613901316</v>
       </c>
-      <c r="N5" t="n">
-        <v>0</v>
-      </c>
-      <c r="O5" t="n">
-        <v>0.02203759613901316</v>
-      </c>
-      <c r="P5" t="n">
-        <v>0</v>
-      </c>
-      <c r="Q5" t="n">
-        <v>0.006611278841703947</v>
-      </c>
-      <c r="R5" t="n">
-        <v>0</v>
-      </c>
-      <c r="S5" t="n">
-        <v>0</v>
-      </c>
-      <c r="T5" t="n">
-        <v>1.439055027877559</v>
-      </c>
-      <c r="U5" t="n">
-        <v>0</v>
-      </c>
-      <c r="V5" t="n">
-        <v>0</v>
-      </c>
-      <c r="W5" t="n">
-        <v>0</v>
-      </c>
-      <c r="X5" t="n">
-        <v>0</v>
-      </c>
-      <c r="Y5" t="n">
-        <v>0</v>
-      </c>
-      <c r="Z5" t="n">
-        <v>0.004407519227802631</v>
-      </c>
-      <c r="AA5" t="n">
-        <v>2.201555854287414</v>
-      </c>
-      <c r="AB5" t="n">
-        <v>0.1410406152896842</v>
-      </c>
-      <c r="AC5" t="n">
-        <v>0.002203759613901316</v>
-      </c>
-      <c r="AD5" t="n">
-        <v>0</v>
-      </c>
       <c r="AE5" t="n">
+        <v>0</v>
+      </c>
+      <c r="AF5" t="n">
+        <v>0</v>
+      </c>
+      <c r="AG5" t="n">
         <v>0.2291909998457368</v>
       </c>
-      <c r="AF5" t="n">
-        <v>0</v>
-      </c>
-      <c r="AG5" t="n">
-        <v>0.002203759613901316</v>
-      </c>
       <c r="AH5" t="n">
         <v>0</v>
       </c>
       <c r="AI5" t="n">
-        <v>0.01542631729730921</v>
+        <v>0</v>
       </c>
     </row>
     <row r="6">
@@ -1054,55 +1054,55 @@
         <v>1</v>
       </c>
       <c r="D6" t="n">
-        <v>1.073071967605375</v>
+        <v>3.740106755015645</v>
       </c>
       <c r="E6" t="n">
-        <v>0</v>
+        <v>0.00184060371801951</v>
       </c>
       <c r="F6" t="n">
-        <v>0</v>
+        <v>0.003681207436039021</v>
       </c>
       <c r="G6" t="n">
         <v>0</v>
       </c>
       <c r="H6" t="n">
-        <v>0</v>
+        <v>0.00184060371801951</v>
       </c>
       <c r="I6" t="n">
-        <v>3.740106755015645</v>
+        <v>0.003681207436039021</v>
       </c>
       <c r="J6" t="n">
-        <v>0</v>
+        <v>0.9147800478556966</v>
       </c>
       <c r="K6" t="n">
-        <v>0</v>
+        <v>0.2043070127001657</v>
       </c>
       <c r="L6" t="n">
+        <v>0.03313086692435119</v>
+      </c>
+      <c r="M6" t="n">
+        <v>0</v>
+      </c>
+      <c r="N6" t="n">
+        <v>0</v>
+      </c>
+      <c r="O6" t="n">
+        <v>0</v>
+      </c>
+      <c r="P6" t="n">
         <v>0.00184060371801951</v>
       </c>
-      <c r="M6" t="n">
-        <v>0.003681207436039021</v>
-      </c>
-      <c r="N6" t="n">
+      <c r="Q6" t="n">
+        <v>0</v>
+      </c>
+      <c r="R6" t="n">
+        <v>0</v>
+      </c>
+      <c r="S6" t="n">
         <v>0.01288422602613657</v>
       </c>
-      <c r="O6" t="n">
-        <v>0</v>
-      </c>
-      <c r="P6" t="n">
-        <v>0</v>
-      </c>
-      <c r="Q6" t="n">
-        <v>0.007362414872078041</v>
-      </c>
-      <c r="R6" t="n">
-        <v>0.007362414872078041</v>
-      </c>
-      <c r="S6" t="n">
-        <v>0</v>
-      </c>
       <c r="T6" t="n">
-        <v>1.006810233756672</v>
+        <v>0</v>
       </c>
       <c r="U6" t="n">
         <v>0</v>
@@ -1111,43 +1111,43 @@
         <v>0</v>
       </c>
       <c r="W6" t="n">
-        <v>0.00184060371801951</v>
+        <v>0</v>
       </c>
       <c r="X6" t="n">
         <v>0.00184060371801951</v>
       </c>
       <c r="Y6" t="n">
+        <v>0.007362414872078041</v>
+      </c>
+      <c r="Z6" t="n">
+        <v>1.006810233756672</v>
+      </c>
+      <c r="AA6" t="n">
+        <v>1.073071967605375</v>
+      </c>
+      <c r="AB6" t="n">
+        <v>0.007362414872078041</v>
+      </c>
+      <c r="AC6" t="n">
         <v>0.00184060371801951</v>
       </c>
-      <c r="Z6" t="n">
-        <v>0</v>
-      </c>
-      <c r="AA6" t="n">
-        <v>0.9147800478556966</v>
-      </c>
-      <c r="AB6" t="n">
-        <v>0.2043070127001657</v>
-      </c>
-      <c r="AC6" t="n">
+      <c r="AD6" t="n">
         <v>0.003681207436039021</v>
       </c>
-      <c r="AD6" t="n">
+      <c r="AE6" t="n">
+        <v>0</v>
+      </c>
+      <c r="AF6" t="n">
+        <v>0</v>
+      </c>
+      <c r="AG6" t="n">
+        <v>0.3349898766795509</v>
+      </c>
+      <c r="AH6" t="n">
+        <v>0</v>
+      </c>
+      <c r="AI6" t="n">
         <v>0.00184060371801951</v>
-      </c>
-      <c r="AE6" t="n">
-        <v>0.3349898766795509</v>
-      </c>
-      <c r="AF6" t="n">
-        <v>0.00184060371801951</v>
-      </c>
-      <c r="AG6" t="n">
-        <v>0</v>
-      </c>
-      <c r="AH6" t="n">
-        <v>0.003681207436039021</v>
-      </c>
-      <c r="AI6" t="n">
-        <v>0.03313086692435119</v>
       </c>
     </row>
     <row r="7">
@@ -1272,100 +1272,100 @@
         <v>2</v>
       </c>
       <c r="D8" t="n">
+        <v>0.4680489875106099</v>
+      </c>
+      <c r="E8" t="n">
+        <v>0</v>
+      </c>
+      <c r="F8" t="n">
+        <v>0.004850248575239481</v>
+      </c>
+      <c r="G8" t="n">
+        <v>0</v>
+      </c>
+      <c r="H8" t="n">
+        <v>0</v>
+      </c>
+      <c r="I8" t="n">
+        <v>0.00242512428761974</v>
+      </c>
+      <c r="J8" t="n">
+        <v>0.2303868073238753</v>
+      </c>
+      <c r="K8" t="n">
+        <v>0.2182611858857766</v>
+      </c>
+      <c r="L8" t="n">
+        <v>0.007275372862859222</v>
+      </c>
+      <c r="M8" t="n">
+        <v>0</v>
+      </c>
+      <c r="N8" t="n">
+        <v>0</v>
+      </c>
+      <c r="O8" t="n">
+        <v>0</v>
+      </c>
+      <c r="P8" t="n">
+        <v>0</v>
+      </c>
+      <c r="Q8" t="n">
+        <v>0</v>
+      </c>
+      <c r="R8" t="n">
+        <v>0</v>
+      </c>
+      <c r="S8" t="n">
+        <v>0.009700497150478962</v>
+      </c>
+      <c r="T8" t="n">
+        <v>0</v>
+      </c>
+      <c r="U8" t="n">
+        <v>0</v>
+      </c>
+      <c r="V8" t="n">
+        <v>0</v>
+      </c>
+      <c r="W8" t="n">
+        <v>0</v>
+      </c>
+      <c r="X8" t="n">
+        <v>0</v>
+      </c>
+      <c r="Y8" t="n">
+        <v>0.00242512428761974</v>
+      </c>
+      <c r="Z8" t="n">
+        <v>0.4995756032496665</v>
+      </c>
+      <c r="AA8" t="n">
         <v>0.3904450103067782</v>
       </c>
-      <c r="E8" t="n">
-        <v>0</v>
-      </c>
-      <c r="F8" t="n">
-        <v>0</v>
-      </c>
-      <c r="G8" t="n">
-        <v>0</v>
-      </c>
-      <c r="H8" t="n">
-        <v>0</v>
-      </c>
-      <c r="I8" t="n">
-        <v>0.4680489875106099</v>
-      </c>
-      <c r="J8" t="n">
-        <v>0</v>
-      </c>
-      <c r="K8" t="n">
-        <v>0</v>
-      </c>
-      <c r="L8" t="n">
-        <v>0</v>
-      </c>
-      <c r="M8" t="n">
-        <v>0.004850248575239481</v>
-      </c>
-      <c r="N8" t="n">
-        <v>0.009700497150478962</v>
-      </c>
-      <c r="O8" t="n">
-        <v>0</v>
-      </c>
-      <c r="P8" t="n">
-        <v>0</v>
-      </c>
-      <c r="Q8" t="n">
-        <v>0</v>
-      </c>
-      <c r="R8" t="n">
-        <v>0.00242512428761974</v>
-      </c>
-      <c r="S8" t="n">
-        <v>0</v>
-      </c>
-      <c r="T8" t="n">
-        <v>0.4995756032496665</v>
-      </c>
-      <c r="U8" t="n">
-        <v>0</v>
-      </c>
-      <c r="V8" t="n">
-        <v>0</v>
-      </c>
-      <c r="W8" t="n">
-        <v>0</v>
-      </c>
-      <c r="X8" t="n">
-        <v>0</v>
-      </c>
-      <c r="Y8" t="n">
-        <v>0</v>
-      </c>
-      <c r="Z8" t="n">
-        <v>0</v>
-      </c>
-      <c r="AA8" t="n">
-        <v>0.2303868073238753</v>
-      </c>
       <c r="AB8" t="n">
-        <v>0.2182611858857766</v>
+        <v>0</v>
       </c>
       <c r="AC8" t="n">
+        <v>0</v>
+      </c>
+      <c r="AD8" t="n">
         <v>0.01455074572571844</v>
       </c>
-      <c r="AD8" t="n">
-        <v>0</v>
-      </c>
       <c r="AE8" t="n">
+        <v>0</v>
+      </c>
+      <c r="AF8" t="n">
+        <v>0</v>
+      </c>
+      <c r="AG8" t="n">
         <v>0.2012853158724384</v>
       </c>
-      <c r="AF8" t="n">
-        <v>0</v>
-      </c>
-      <c r="AG8" t="n">
-        <v>0</v>
-      </c>
       <c r="AH8" t="n">
-        <v>0.00242512428761974</v>
+        <v>0</v>
       </c>
       <c r="AI8" t="n">
-        <v>0.007275372862859222</v>
+        <v>0</v>
       </c>
     </row>
     <row r="9">
@@ -1490,100 +1490,100 @@
         <v>3</v>
       </c>
       <c r="D10" t="n">
+        <v>0.3989520066690485</v>
+      </c>
+      <c r="E10" t="n">
+        <v>0.002977253781112302</v>
+      </c>
+      <c r="F10" t="n">
+        <v>0.01488626890556151</v>
+      </c>
+      <c r="G10" t="n">
+        <v>0</v>
+      </c>
+      <c r="H10" t="n">
+        <v>0.005954507562224604</v>
+      </c>
+      <c r="I10" t="n">
+        <v>0</v>
+      </c>
+      <c r="J10" t="n">
+        <v>0.2590210789567703</v>
+      </c>
+      <c r="K10" t="n">
+        <v>0.2768846016434441</v>
+      </c>
+      <c r="L10" t="n">
+        <v>0.005954507562224604</v>
+      </c>
+      <c r="M10" t="n">
+        <v>0.002977253781112302</v>
+      </c>
+      <c r="N10" t="n">
+        <v>0</v>
+      </c>
+      <c r="O10" t="n">
+        <v>0</v>
+      </c>
+      <c r="P10" t="n">
+        <v>0</v>
+      </c>
+      <c r="Q10" t="n">
+        <v>0</v>
+      </c>
+      <c r="R10" t="n">
+        <v>0</v>
+      </c>
+      <c r="S10" t="n">
+        <v>0.005954507562224604</v>
+      </c>
+      <c r="T10" t="n">
+        <v>0</v>
+      </c>
+      <c r="U10" t="n">
+        <v>0</v>
+      </c>
+      <c r="V10" t="n">
+        <v>0</v>
+      </c>
+      <c r="W10" t="n">
+        <v>0</v>
+      </c>
+      <c r="X10" t="n">
+        <v>0</v>
+      </c>
+      <c r="Y10" t="n">
+        <v>0.06549958318447065</v>
+      </c>
+      <c r="Z10" t="n">
+        <v>1.155174467071573</v>
+      </c>
+      <c r="AA10" t="n">
         <v>0.3751339764201501</v>
       </c>
-      <c r="E10" t="n">
-        <v>0</v>
-      </c>
-      <c r="F10" t="n">
-        <v>0</v>
-      </c>
-      <c r="G10" t="n">
-        <v>0</v>
-      </c>
-      <c r="H10" t="n">
-        <v>0</v>
-      </c>
-      <c r="I10" t="n">
-        <v>0.3989520066690485</v>
-      </c>
-      <c r="J10" t="n">
-        <v>0.002977253781112302</v>
-      </c>
-      <c r="K10" t="n">
-        <v>0</v>
-      </c>
-      <c r="L10" t="n">
-        <v>0.002977253781112302</v>
-      </c>
-      <c r="M10" t="n">
-        <v>0.01488626890556151</v>
-      </c>
-      <c r="N10" t="n">
-        <v>0.005954507562224604</v>
-      </c>
-      <c r="O10" t="n">
-        <v>0</v>
-      </c>
-      <c r="P10" t="n">
-        <v>0</v>
-      </c>
-      <c r="Q10" t="n">
+      <c r="AB10" t="n">
         <v>0.008931761343336906</v>
       </c>
-      <c r="R10" t="n">
-        <v>0.06549958318447065</v>
-      </c>
-      <c r="S10" t="n">
-        <v>0</v>
-      </c>
-      <c r="T10" t="n">
-        <v>1.155174467071573</v>
-      </c>
-      <c r="U10" t="n">
-        <v>0</v>
-      </c>
-      <c r="V10" t="n">
-        <v>0</v>
-      </c>
-      <c r="W10" t="n">
-        <v>0</v>
-      </c>
-      <c r="X10" t="n">
-        <v>0</v>
-      </c>
-      <c r="Y10" t="n">
-        <v>0</v>
-      </c>
-      <c r="Z10" t="n">
-        <v>0</v>
-      </c>
-      <c r="AA10" t="n">
-        <v>0.2590210789567703</v>
-      </c>
-      <c r="AB10" t="n">
-        <v>0.2768846016434441</v>
-      </c>
       <c r="AC10" t="n">
         <v>0</v>
       </c>
       <c r="AD10" t="n">
-        <v>0.005954507562224604</v>
+        <v>0</v>
       </c>
       <c r="AE10" t="n">
+        <v>0</v>
+      </c>
+      <c r="AF10" t="n">
+        <v>0</v>
+      </c>
+      <c r="AG10" t="n">
         <v>0.4138382755746099</v>
       </c>
-      <c r="AF10" t="n">
-        <v>0</v>
-      </c>
-      <c r="AG10" t="n">
-        <v>0</v>
-      </c>
       <c r="AH10" t="n">
         <v>0</v>
       </c>
       <c r="AI10" t="n">
-        <v>0.005954507562224604</v>
+        <v>0</v>
       </c>
     </row>
     <row r="11">
@@ -1620,7 +1620,7 @@
         <v>0</v>
       </c>
       <c r="K11" t="n">
-        <v>0</v>
+        <v>2.42</v>
       </c>
       <c r="L11" t="n">
         <v>0</v>
@@ -1641,29 +1641,29 @@
         <v>0</v>
       </c>
       <c r="R11" t="n">
+        <v>0</v>
+      </c>
+      <c r="S11" t="n">
+        <v>0</v>
+      </c>
+      <c r="T11" t="n">
+        <v>0</v>
+      </c>
+      <c r="U11" t="n">
+        <v>0</v>
+      </c>
+      <c r="V11" t="n">
+        <v>0</v>
+      </c>
+      <c r="W11" t="n">
+        <v>0</v>
+      </c>
+      <c r="X11" t="n">
+        <v>0</v>
+      </c>
+      <c r="Y11" t="n">
         <v>0.57</v>
       </c>
-      <c r="S11" t="n">
-        <v>0</v>
-      </c>
-      <c r="T11" t="n">
-        <v>0</v>
-      </c>
-      <c r="U11" t="n">
-        <v>0</v>
-      </c>
-      <c r="V11" t="n">
-        <v>0</v>
-      </c>
-      <c r="W11" t="n">
-        <v>0</v>
-      </c>
-      <c r="X11" t="n">
-        <v>0</v>
-      </c>
-      <c r="Y11" t="n">
-        <v>0</v>
-      </c>
       <c r="Z11" t="n">
         <v>0</v>
       </c>
@@ -1671,7 +1671,7 @@
         <v>0</v>
       </c>
       <c r="AB11" t="n">
-        <v>2.42</v>
+        <v>0</v>
       </c>
       <c r="AC11" t="n">
         <v>0</v>
@@ -1717,31 +1717,31 @@
         <v>0</v>
       </c>
       <c r="G12" t="n">
-        <v>0</v>
+        <v>0.920951650038373</v>
       </c>
       <c r="H12" t="n">
+        <v>0</v>
+      </c>
+      <c r="I12" t="n">
+        <v>0</v>
+      </c>
+      <c r="J12" t="n">
+        <v>0.05116398055768739</v>
+      </c>
+      <c r="K12" t="n">
+        <v>0</v>
+      </c>
+      <c r="L12" t="n">
+        <v>0</v>
+      </c>
+      <c r="M12" t="n">
+        <v>0</v>
+      </c>
+      <c r="N12" t="n">
         <v>0.07674597083653108</v>
       </c>
-      <c r="I12" t="n">
-        <v>0</v>
-      </c>
-      <c r="J12" t="n">
-        <v>0</v>
-      </c>
-      <c r="K12" t="n">
-        <v>0.920951650038373</v>
-      </c>
-      <c r="L12" t="n">
-        <v>0</v>
-      </c>
-      <c r="M12" t="n">
-        <v>0</v>
-      </c>
-      <c r="N12" t="n">
-        <v>0</v>
-      </c>
       <c r="O12" t="n">
-        <v>0</v>
+        <v>0.1534919416730622</v>
       </c>
       <c r="P12" t="n">
         <v>0</v>
@@ -1750,58 +1750,58 @@
         <v>0</v>
       </c>
       <c r="R12" t="n">
+        <v>0</v>
+      </c>
+      <c r="S12" t="n">
+        <v>0</v>
+      </c>
+      <c r="T12" t="n">
+        <v>0</v>
+      </c>
+      <c r="U12" t="n">
+        <v>0</v>
+      </c>
+      <c r="V12" t="n">
+        <v>0</v>
+      </c>
+      <c r="W12" t="n">
+        <v>0</v>
+      </c>
+      <c r="X12" t="n">
+        <v>0</v>
+      </c>
+      <c r="Y12" t="n">
         <v>0.0255819902788437</v>
       </c>
-      <c r="S12" t="n">
-        <v>0.1534919416730622</v>
-      </c>
-      <c r="T12" t="n">
-        <v>0</v>
-      </c>
-      <c r="U12" t="n">
-        <v>0</v>
-      </c>
-      <c r="V12" t="n">
-        <v>0</v>
-      </c>
-      <c r="W12" t="n">
-        <v>0</v>
-      </c>
-      <c r="X12" t="n">
-        <v>0</v>
-      </c>
-      <c r="Y12" t="n">
+      <c r="Z12" t="n">
+        <v>0</v>
+      </c>
+      <c r="AA12" t="n">
+        <v>0</v>
+      </c>
+      <c r="AB12" t="n">
+        <v>0</v>
+      </c>
+      <c r="AC12" t="n">
+        <v>0</v>
+      </c>
+      <c r="AD12" t="n">
+        <v>0</v>
+      </c>
+      <c r="AE12" t="n">
+        <v>0</v>
+      </c>
+      <c r="AF12" t="n">
+        <v>0</v>
+      </c>
+      <c r="AG12" t="n">
+        <v>0.0255819902788437</v>
+      </c>
+      <c r="AH12" t="n">
+        <v>0</v>
+      </c>
+      <c r="AI12" t="n">
         <v>11.97237145049885</v>
-      </c>
-      <c r="Z12" t="n">
-        <v>0</v>
-      </c>
-      <c r="AA12" t="n">
-        <v>0.05116398055768739</v>
-      </c>
-      <c r="AB12" t="n">
-        <v>0</v>
-      </c>
-      <c r="AC12" t="n">
-        <v>0</v>
-      </c>
-      <c r="AD12" t="n">
-        <v>0</v>
-      </c>
-      <c r="AE12" t="n">
-        <v>0.0255819902788437</v>
-      </c>
-      <c r="AF12" t="n">
-        <v>0</v>
-      </c>
-      <c r="AG12" t="n">
-        <v>0</v>
-      </c>
-      <c r="AH12" t="n">
-        <v>0</v>
-      </c>
-      <c r="AI12" t="n">
-        <v>0</v>
       </c>
     </row>
     <row r="13">
@@ -1817,100 +1817,100 @@
         <v>3</v>
       </c>
       <c r="D13" t="n">
-        <v>0</v>
+        <v>0.007745533409067438</v>
       </c>
       <c r="E13" t="n">
-        <v>0</v>
+        <v>0.06712795621191779</v>
       </c>
       <c r="F13" t="n">
         <v>0</v>
       </c>
       <c r="G13" t="n">
-        <v>0</v>
+        <v>0.3020758029536301</v>
       </c>
       <c r="H13" t="n">
+        <v>0.02323660022720231</v>
+      </c>
+      <c r="I13" t="n">
+        <v>0</v>
+      </c>
+      <c r="J13" t="n">
+        <v>0.002581844469689146</v>
+      </c>
+      <c r="K13" t="n">
+        <v>0</v>
+      </c>
+      <c r="L13" t="n">
+        <v>0</v>
+      </c>
+      <c r="M13" t="n">
+        <v>0</v>
+      </c>
+      <c r="N13" t="n">
         <v>0.1187648456057007</v>
       </c>
-      <c r="I13" t="n">
-        <v>0.007745533409067438</v>
-      </c>
-      <c r="J13" t="n">
-        <v>0</v>
-      </c>
-      <c r="K13" t="n">
-        <v>0.3020758029536301</v>
-      </c>
-      <c r="L13" t="n">
-        <v>0.06712795621191779</v>
-      </c>
-      <c r="M13" t="n">
-        <v>0</v>
-      </c>
-      <c r="N13" t="n">
+      <c r="O13" t="n">
+        <v>0.002581844469689146</v>
+      </c>
+      <c r="P13" t="n">
+        <v>0</v>
+      </c>
+      <c r="Q13" t="n">
+        <v>0</v>
+      </c>
+      <c r="R13" t="n">
+        <v>0.01807291128782402</v>
+      </c>
+      <c r="S13" t="n">
         <v>0.005163688939378292</v>
       </c>
-      <c r="O13" t="n">
-        <v>0</v>
-      </c>
-      <c r="P13" t="n">
+      <c r="T13" t="n">
+        <v>0</v>
+      </c>
+      <c r="U13" t="n">
+        <v>0</v>
+      </c>
+      <c r="V13" t="n">
+        <v>0</v>
+      </c>
+      <c r="W13" t="n">
+        <v>0</v>
+      </c>
+      <c r="X13" t="n">
+        <v>0</v>
+      </c>
+      <c r="Y13" t="n">
+        <v>0.005163688939378292</v>
+      </c>
+      <c r="Z13" t="n">
+        <v>0</v>
+      </c>
+      <c r="AA13" t="n">
+        <v>0</v>
+      </c>
+      <c r="AB13" t="n">
+        <v>0</v>
+      </c>
+      <c r="AC13" t="n">
+        <v>0</v>
+      </c>
+      <c r="AD13" t="n">
+        <v>0</v>
+      </c>
+      <c r="AE13" t="n">
         <v>0.02581844469689146</v>
       </c>
-      <c r="Q13" t="n">
-        <v>0</v>
-      </c>
-      <c r="R13" t="n">
-        <v>0.005163688939378292</v>
-      </c>
-      <c r="S13" t="n">
-        <v>0.002581844469689146</v>
-      </c>
-      <c r="T13" t="n">
-        <v>0</v>
-      </c>
-      <c r="U13" t="n">
-        <v>0</v>
-      </c>
-      <c r="V13" t="n">
-        <v>0</v>
-      </c>
-      <c r="W13" t="n">
-        <v>0</v>
-      </c>
-      <c r="X13" t="n">
-        <v>0</v>
-      </c>
-      <c r="Y13" t="n">
+      <c r="AF13" t="n">
+        <v>0</v>
+      </c>
+      <c r="AG13" t="n">
+        <v>0.1962201796963751</v>
+      </c>
+      <c r="AH13" t="n">
+        <v>0</v>
+      </c>
+      <c r="AI13" t="n">
         <v>0.1394196013632139</v>
-      </c>
-      <c r="Z13" t="n">
-        <v>0.01807291128782402</v>
-      </c>
-      <c r="AA13" t="n">
-        <v>0.002581844469689146</v>
-      </c>
-      <c r="AB13" t="n">
-        <v>0</v>
-      </c>
-      <c r="AC13" t="n">
-        <v>0</v>
-      </c>
-      <c r="AD13" t="n">
-        <v>0.02323660022720231</v>
-      </c>
-      <c r="AE13" t="n">
-        <v>0.1962201796963751</v>
-      </c>
-      <c r="AF13" t="n">
-        <v>0</v>
-      </c>
-      <c r="AG13" t="n">
-        <v>0</v>
-      </c>
-      <c r="AH13" t="n">
-        <v>0</v>
-      </c>
-      <c r="AI13" t="n">
-        <v>0</v>
       </c>
     </row>
     <row r="14">
@@ -1935,91 +1935,91 @@
         <v>0</v>
       </c>
       <c r="G14" t="n">
-        <v>0</v>
+        <v>0.6947201270345376</v>
       </c>
       <c r="H14" t="n">
+        <v>0.6550218340611353</v>
+      </c>
+      <c r="I14" t="n">
+        <v>0</v>
+      </c>
+      <c r="J14" t="n">
+        <v>0.03969829297340214</v>
+      </c>
+      <c r="K14" t="n">
+        <v>0</v>
+      </c>
+      <c r="L14" t="n">
+        <v>0</v>
+      </c>
+      <c r="M14" t="n">
+        <v>0</v>
+      </c>
+      <c r="N14" t="n">
         <v>0.05954743946010321</v>
       </c>
-      <c r="I14" t="n">
-        <v>0</v>
-      </c>
-      <c r="J14" t="n">
-        <v>0</v>
-      </c>
-      <c r="K14" t="n">
-        <v>0.6947201270345376</v>
-      </c>
-      <c r="L14" t="n">
-        <v>0</v>
-      </c>
-      <c r="M14" t="n">
-        <v>0</v>
-      </c>
-      <c r="N14" t="n">
-        <v>0</v>
-      </c>
       <c r="O14" t="n">
-        <v>0</v>
+        <v>0.01984914648670107</v>
       </c>
       <c r="P14" t="n">
+        <v>0</v>
+      </c>
+      <c r="Q14" t="n">
+        <v>0</v>
+      </c>
+      <c r="R14" t="n">
+        <v>0</v>
+      </c>
+      <c r="S14" t="n">
+        <v>0</v>
+      </c>
+      <c r="T14" t="n">
+        <v>0</v>
+      </c>
+      <c r="U14" t="n">
+        <v>0</v>
+      </c>
+      <c r="V14" t="n">
+        <v>0</v>
+      </c>
+      <c r="W14" t="n">
+        <v>0</v>
+      </c>
+      <c r="X14" t="n">
+        <v>0</v>
+      </c>
+      <c r="Y14" t="n">
+        <v>0.01984914648670107</v>
+      </c>
+      <c r="Z14" t="n">
+        <v>0</v>
+      </c>
+      <c r="AA14" t="n">
+        <v>0</v>
+      </c>
+      <c r="AB14" t="n">
+        <v>0</v>
+      </c>
+      <c r="AC14" t="n">
+        <v>0</v>
+      </c>
+      <c r="AD14" t="n">
+        <v>0</v>
+      </c>
+      <c r="AE14" t="n">
         <v>0.03969829297340214</v>
       </c>
-      <c r="Q14" t="n">
-        <v>0</v>
-      </c>
-      <c r="R14" t="n">
-        <v>0.01984914648670107</v>
-      </c>
-      <c r="S14" t="n">
-        <v>0.01984914648670107</v>
-      </c>
-      <c r="T14" t="n">
-        <v>0</v>
-      </c>
-      <c r="U14" t="n">
-        <v>0</v>
-      </c>
-      <c r="V14" t="n">
-        <v>0</v>
-      </c>
-      <c r="W14" t="n">
-        <v>0</v>
-      </c>
-      <c r="X14" t="n">
-        <v>0</v>
-      </c>
-      <c r="Y14" t="n">
+      <c r="AF14" t="n">
+        <v>0</v>
+      </c>
+      <c r="AG14" t="n">
+        <v>0.1984914648670107</v>
+      </c>
+      <c r="AH14" t="n">
+        <v>0</v>
+      </c>
+      <c r="AI14" t="n">
         <v>0.8535132989281461</v>
-      </c>
-      <c r="Z14" t="n">
-        <v>0</v>
-      </c>
-      <c r="AA14" t="n">
-        <v>0.03969829297340214</v>
-      </c>
-      <c r="AB14" t="n">
-        <v>0</v>
-      </c>
-      <c r="AC14" t="n">
-        <v>0</v>
-      </c>
-      <c r="AD14" t="n">
-        <v>0.6550218340611353</v>
-      </c>
-      <c r="AE14" t="n">
-        <v>0.1984914648670107</v>
-      </c>
-      <c r="AF14" t="n">
-        <v>0</v>
-      </c>
-      <c r="AG14" t="n">
-        <v>0</v>
-      </c>
-      <c r="AH14" t="n">
-        <v>0</v>
-      </c>
-      <c r="AI14" t="n">
-        <v>0</v>
       </c>
     </row>
     <row r="15">
@@ -2044,91 +2044,91 @@
         <v>0</v>
       </c>
       <c r="G15" t="n">
-        <v>0</v>
+        <v>13.50579539727868</v>
       </c>
       <c r="H15" t="n">
+        <v>0.03359650596337981</v>
+      </c>
+      <c r="I15" t="n">
+        <v>0</v>
+      </c>
+      <c r="J15" t="n">
+        <v>0.1847807827985889</v>
+      </c>
+      <c r="K15" t="n">
+        <v>0</v>
+      </c>
+      <c r="L15" t="n">
+        <v>0</v>
+      </c>
+      <c r="M15" t="n">
+        <v>0</v>
+      </c>
+      <c r="N15" t="n">
         <v>0.05039475894506971</v>
       </c>
-      <c r="I15" t="n">
-        <v>0</v>
-      </c>
-      <c r="J15" t="n">
-        <v>0</v>
-      </c>
-      <c r="K15" t="n">
-        <v>13.50579539727868</v>
-      </c>
-      <c r="L15" t="n">
-        <v>0</v>
-      </c>
-      <c r="M15" t="n">
-        <v>0</v>
-      </c>
-      <c r="N15" t="n">
-        <v>0</v>
-      </c>
       <c r="O15" t="n">
         <v>0</v>
       </c>
       <c r="P15" t="n">
+        <v>0</v>
+      </c>
+      <c r="Q15" t="n">
+        <v>0</v>
+      </c>
+      <c r="R15" t="n">
+        <v>0</v>
+      </c>
+      <c r="S15" t="n">
+        <v>0</v>
+      </c>
+      <c r="T15" t="n">
+        <v>0</v>
+      </c>
+      <c r="U15" t="n">
+        <v>0</v>
+      </c>
+      <c r="V15" t="n">
+        <v>0</v>
+      </c>
+      <c r="W15" t="n">
+        <v>0</v>
+      </c>
+      <c r="X15" t="n">
+        <v>0</v>
+      </c>
+      <c r="Y15" t="n">
+        <v>0</v>
+      </c>
+      <c r="Z15" t="n">
+        <v>0</v>
+      </c>
+      <c r="AA15" t="n">
+        <v>0</v>
+      </c>
+      <c r="AB15" t="n">
+        <v>0</v>
+      </c>
+      <c r="AC15" t="n">
+        <v>0</v>
+      </c>
+      <c r="AD15" t="n">
+        <v>0</v>
+      </c>
+      <c r="AE15" t="n">
         <v>0.520745842432387</v>
       </c>
-      <c r="Q15" t="n">
-        <v>0</v>
-      </c>
-      <c r="R15" t="n">
-        <v>0</v>
-      </c>
-      <c r="S15" t="n">
-        <v>0</v>
-      </c>
-      <c r="T15" t="n">
-        <v>0</v>
-      </c>
-      <c r="U15" t="n">
-        <v>0</v>
-      </c>
-      <c r="V15" t="n">
-        <v>0</v>
-      </c>
-      <c r="W15" t="n">
-        <v>0</v>
-      </c>
-      <c r="X15" t="n">
-        <v>0</v>
-      </c>
-      <c r="Y15" t="n">
+      <c r="AF15" t="n">
+        <v>0</v>
+      </c>
+      <c r="AG15" t="n">
+        <v>0</v>
+      </c>
+      <c r="AH15" t="n">
+        <v>0</v>
+      </c>
+      <c r="AI15" t="n">
         <v>4.905089870653452</v>
-      </c>
-      <c r="Z15" t="n">
-        <v>0</v>
-      </c>
-      <c r="AA15" t="n">
-        <v>0.1847807827985889</v>
-      </c>
-      <c r="AB15" t="n">
-        <v>0</v>
-      </c>
-      <c r="AC15" t="n">
-        <v>0</v>
-      </c>
-      <c r="AD15" t="n">
-        <v>0.03359650596337981</v>
-      </c>
-      <c r="AE15" t="n">
-        <v>0</v>
-      </c>
-      <c r="AF15" t="n">
-        <v>0</v>
-      </c>
-      <c r="AG15" t="n">
-        <v>0</v>
-      </c>
-      <c r="AH15" t="n">
-        <v>0</v>
-      </c>
-      <c r="AI15" t="n">
-        <v>0</v>
       </c>
     </row>
     <row r="16">
@@ -2153,91 +2153,91 @@
         <v>0</v>
       </c>
       <c r="G16" t="n">
+        <v>3.651496199364957</v>
+      </c>
+      <c r="H16" t="n">
+        <v>0.04810930433945925</v>
+      </c>
+      <c r="I16" t="n">
+        <v>0</v>
+      </c>
+      <c r="J16" t="n">
         <v>0.00962186086789185</v>
       </c>
-      <c r="H16" t="n">
+      <c r="K16" t="n">
+        <v>0</v>
+      </c>
+      <c r="L16" t="n">
+        <v>0</v>
+      </c>
+      <c r="M16" t="n">
+        <v>0</v>
+      </c>
+      <c r="N16" t="n">
         <v>2.362166843067449</v>
       </c>
-      <c r="I16" t="n">
-        <v>0</v>
-      </c>
-      <c r="J16" t="n">
-        <v>0</v>
-      </c>
-      <c r="K16" t="n">
-        <v>3.651496199364957</v>
-      </c>
-      <c r="L16" t="n">
-        <v>0</v>
-      </c>
-      <c r="M16" t="n">
-        <v>0</v>
-      </c>
-      <c r="N16" t="n">
-        <v>0</v>
-      </c>
       <c r="O16" t="n">
         <v>0</v>
       </c>
       <c r="P16" t="n">
+        <v>0</v>
+      </c>
+      <c r="Q16" t="n">
+        <v>0</v>
+      </c>
+      <c r="R16" t="n">
+        <v>0</v>
+      </c>
+      <c r="S16" t="n">
+        <v>0</v>
+      </c>
+      <c r="T16" t="n">
+        <v>0</v>
+      </c>
+      <c r="U16" t="n">
+        <v>0</v>
+      </c>
+      <c r="V16" t="n">
+        <v>0</v>
+      </c>
+      <c r="W16" t="n">
+        <v>0</v>
+      </c>
+      <c r="X16" t="n">
+        <v>0</v>
+      </c>
+      <c r="Y16" t="n">
+        <v>0.03367651303762147</v>
+      </c>
+      <c r="Z16" t="n">
+        <v>0</v>
+      </c>
+      <c r="AA16" t="n">
+        <v>0</v>
+      </c>
+      <c r="AB16" t="n">
+        <v>0</v>
+      </c>
+      <c r="AC16" t="n">
+        <v>0</v>
+      </c>
+      <c r="AD16" t="n">
+        <v>0</v>
+      </c>
+      <c r="AE16" t="n">
         <v>0.0577311652073511</v>
       </c>
-      <c r="Q16" t="n">
-        <v>0</v>
-      </c>
-      <c r="R16" t="n">
-        <v>0.03367651303762147</v>
-      </c>
-      <c r="S16" t="n">
-        <v>0</v>
-      </c>
-      <c r="T16" t="n">
-        <v>0</v>
-      </c>
-      <c r="U16" t="n">
-        <v>0</v>
-      </c>
-      <c r="V16" t="n">
-        <v>0</v>
-      </c>
-      <c r="W16" t="n">
-        <v>0</v>
-      </c>
-      <c r="X16" t="n">
-        <v>0</v>
-      </c>
-      <c r="Y16" t="n">
+      <c r="AF16" t="n">
+        <v>0.00962186086789185</v>
+      </c>
+      <c r="AG16" t="n">
+        <v>0.02405465216972963</v>
+      </c>
+      <c r="AH16" t="n">
+        <v>0</v>
+      </c>
+      <c r="AI16" t="n">
         <v>2.732608486481285</v>
-      </c>
-      <c r="Z16" t="n">
-        <v>0</v>
-      </c>
-      <c r="AA16" t="n">
-        <v>0.00962186086789185</v>
-      </c>
-      <c r="AB16" t="n">
-        <v>0</v>
-      </c>
-      <c r="AC16" t="n">
-        <v>0</v>
-      </c>
-      <c r="AD16" t="n">
-        <v>0.04810930433945925</v>
-      </c>
-      <c r="AE16" t="n">
-        <v>0.02405465216972963</v>
-      </c>
-      <c r="AF16" t="n">
-        <v>0</v>
-      </c>
-      <c r="AG16" t="n">
-        <v>0</v>
-      </c>
-      <c r="AH16" t="n">
-        <v>0</v>
-      </c>
-      <c r="AI16" t="n">
-        <v>0</v>
       </c>
     </row>
     <row r="17">
@@ -2262,91 +2262,91 @@
         <v>0</v>
       </c>
       <c r="G17" t="n">
+        <v>0.9429813846680022</v>
+      </c>
+      <c r="H17" t="n">
+        <v>0.01710069868568916</v>
+      </c>
+      <c r="I17" t="n">
+        <v>0</v>
+      </c>
+      <c r="J17" t="n">
+        <v>0.01221478477549226</v>
+      </c>
+      <c r="K17" t="n">
+        <v>0</v>
+      </c>
+      <c r="L17" t="n">
+        <v>0</v>
+      </c>
+      <c r="M17" t="n">
+        <v>0</v>
+      </c>
+      <c r="N17" t="n">
+        <v>0.08550349342844579</v>
+      </c>
+      <c r="O17" t="n">
         <v>0.01465774173059071</v>
       </c>
-      <c r="H17" t="n">
-        <v>0.08550349342844579</v>
-      </c>
-      <c r="I17" t="n">
-        <v>0</v>
-      </c>
-      <c r="J17" t="n">
-        <v>0</v>
-      </c>
-      <c r="K17" t="n">
-        <v>0.9429813846680022</v>
-      </c>
-      <c r="L17" t="n">
-        <v>0</v>
-      </c>
-      <c r="M17" t="n">
-        <v>0</v>
-      </c>
-      <c r="N17" t="n">
-        <v>0</v>
-      </c>
-      <c r="O17" t="n">
-        <v>0</v>
-      </c>
       <c r="P17" t="n">
+        <v>0</v>
+      </c>
+      <c r="Q17" t="n">
+        <v>0</v>
+      </c>
+      <c r="R17" t="n">
+        <v>0</v>
+      </c>
+      <c r="S17" t="n">
+        <v>0</v>
+      </c>
+      <c r="T17" t="n">
+        <v>0</v>
+      </c>
+      <c r="U17" t="n">
+        <v>0</v>
+      </c>
+      <c r="V17" t="n">
+        <v>0</v>
+      </c>
+      <c r="W17" t="n">
+        <v>0</v>
+      </c>
+      <c r="X17" t="n">
+        <v>0</v>
+      </c>
+      <c r="Y17" t="n">
+        <v>0.002442956955098451</v>
+      </c>
+      <c r="Z17" t="n">
+        <v>0</v>
+      </c>
+      <c r="AA17" t="n">
+        <v>0</v>
+      </c>
+      <c r="AB17" t="n">
+        <v>0</v>
+      </c>
+      <c r="AC17" t="n">
+        <v>0</v>
+      </c>
+      <c r="AD17" t="n">
+        <v>0</v>
+      </c>
+      <c r="AE17" t="n">
         <v>0.06595983778765818</v>
       </c>
-      <c r="Q17" t="n">
-        <v>0</v>
-      </c>
-      <c r="R17" t="n">
-        <v>0.002442956955098451</v>
-      </c>
-      <c r="S17" t="n">
+      <c r="AF17" t="n">
         <v>0.01465774173059071</v>
       </c>
-      <c r="T17" t="n">
-        <v>0</v>
-      </c>
-      <c r="U17" t="n">
-        <v>0</v>
-      </c>
-      <c r="V17" t="n">
-        <v>0</v>
-      </c>
-      <c r="W17" t="n">
-        <v>0</v>
-      </c>
-      <c r="X17" t="n">
-        <v>0</v>
-      </c>
-      <c r="Y17" t="n">
+      <c r="AG17" t="n">
+        <v>0.06107392387746129</v>
+      </c>
+      <c r="AH17" t="n">
+        <v>0</v>
+      </c>
+      <c r="AI17" t="n">
         <v>0.9258806859823131</v>
-      </c>
-      <c r="Z17" t="n">
-        <v>0</v>
-      </c>
-      <c r="AA17" t="n">
-        <v>0.01221478477549226</v>
-      </c>
-      <c r="AB17" t="n">
-        <v>0</v>
-      </c>
-      <c r="AC17" t="n">
-        <v>0</v>
-      </c>
-      <c r="AD17" t="n">
-        <v>0.01710069868568916</v>
-      </c>
-      <c r="AE17" t="n">
-        <v>0.06107392387746129</v>
-      </c>
-      <c r="AF17" t="n">
-        <v>0</v>
-      </c>
-      <c r="AG17" t="n">
-        <v>0</v>
-      </c>
-      <c r="AH17" t="n">
-        <v>0</v>
-      </c>
-      <c r="AI17" t="n">
-        <v>0</v>
       </c>
     </row>
     <row r="18">
@@ -2371,29 +2371,29 @@
         <v>0</v>
       </c>
       <c r="G18" t="n">
-        <v>0</v>
+        <v>1.058761249338274</v>
       </c>
       <c r="H18" t="n">
+        <v>0</v>
+      </c>
+      <c r="I18" t="n">
+        <v>0</v>
+      </c>
+      <c r="J18" t="n">
+        <v>0</v>
+      </c>
+      <c r="K18" t="n">
+        <v>0</v>
+      </c>
+      <c r="L18" t="n">
+        <v>0</v>
+      </c>
+      <c r="M18" t="n">
+        <v>0</v>
+      </c>
+      <c r="N18" t="n">
         <v>0.2117522498676549</v>
       </c>
-      <c r="I18" t="n">
-        <v>0</v>
-      </c>
-      <c r="J18" t="n">
-        <v>0</v>
-      </c>
-      <c r="K18" t="n">
-        <v>1.058761249338274</v>
-      </c>
-      <c r="L18" t="n">
-        <v>0</v>
-      </c>
-      <c r="M18" t="n">
-        <v>0</v>
-      </c>
-      <c r="N18" t="n">
-        <v>0</v>
-      </c>
       <c r="O18" t="n">
         <v>0</v>
       </c>
@@ -2425,37 +2425,37 @@
         <v>0</v>
       </c>
       <c r="Y18" t="n">
+        <v>0</v>
+      </c>
+      <c r="Z18" t="n">
+        <v>0</v>
+      </c>
+      <c r="AA18" t="n">
+        <v>0</v>
+      </c>
+      <c r="AB18" t="n">
+        <v>0</v>
+      </c>
+      <c r="AC18" t="n">
+        <v>0</v>
+      </c>
+      <c r="AD18" t="n">
+        <v>0</v>
+      </c>
+      <c r="AE18" t="n">
+        <v>0</v>
+      </c>
+      <c r="AF18" t="n">
+        <v>0</v>
+      </c>
+      <c r="AG18" t="n">
+        <v>0</v>
+      </c>
+      <c r="AH18" t="n">
+        <v>0</v>
+      </c>
+      <c r="AI18" t="n">
         <v>0.9528851244044468</v>
-      </c>
-      <c r="Z18" t="n">
-        <v>0</v>
-      </c>
-      <c r="AA18" t="n">
-        <v>0</v>
-      </c>
-      <c r="AB18" t="n">
-        <v>0</v>
-      </c>
-      <c r="AC18" t="n">
-        <v>0</v>
-      </c>
-      <c r="AD18" t="n">
-        <v>0</v>
-      </c>
-      <c r="AE18" t="n">
-        <v>0</v>
-      </c>
-      <c r="AF18" t="n">
-        <v>0</v>
-      </c>
-      <c r="AG18" t="n">
-        <v>0</v>
-      </c>
-      <c r="AH18" t="n">
-        <v>0</v>
-      </c>
-      <c r="AI18" t="n">
-        <v>0</v>
       </c>
     </row>
     <row r="19">
@@ -2471,13 +2471,13 @@
         <v>1</v>
       </c>
       <c r="D19" t="n">
-        <v>0.2642506606266515</v>
+        <v>0.1761671070844344</v>
       </c>
       <c r="E19" t="n">
         <v>0</v>
       </c>
       <c r="F19" t="n">
-        <v>0.01258336479174531</v>
+        <v>0</v>
       </c>
       <c r="G19" t="n">
         <v>0</v>
@@ -2486,13 +2486,13 @@
         <v>0</v>
       </c>
       <c r="I19" t="n">
-        <v>0.1761671070844344</v>
+        <v>0</v>
       </c>
       <c r="J19" t="n">
-        <v>0</v>
+        <v>0.1510003775009437</v>
       </c>
       <c r="K19" t="n">
-        <v>0</v>
+        <v>1.849754624386561</v>
       </c>
       <c r="L19" t="n">
         <v>0</v>
@@ -2501,7 +2501,7 @@
         <v>0</v>
       </c>
       <c r="N19" t="n">
-        <v>0.06291682395872657</v>
+        <v>0</v>
       </c>
       <c r="O19" t="n">
         <v>0</v>
@@ -2516,49 +2516,49 @@
         <v>0.01258336479174531</v>
       </c>
       <c r="S19" t="n">
-        <v>0</v>
+        <v>0.06291682395872657</v>
       </c>
       <c r="T19" t="n">
+        <v>0</v>
+      </c>
+      <c r="U19" t="n">
+        <v>0</v>
+      </c>
+      <c r="V19" t="n">
+        <v>0.01258336479174531</v>
+      </c>
+      <c r="W19" t="n">
+        <v>0</v>
+      </c>
+      <c r="X19" t="n">
+        <v>0</v>
+      </c>
+      <c r="Y19" t="n">
+        <v>0.01258336479174531</v>
+      </c>
+      <c r="Z19" t="n">
         <v>1.006669183339625</v>
       </c>
-      <c r="U19" t="n">
-        <v>0</v>
-      </c>
-      <c r="V19" t="n">
-        <v>0</v>
-      </c>
-      <c r="W19" t="n">
-        <v>0</v>
-      </c>
-      <c r="X19" t="n">
-        <v>0</v>
-      </c>
-      <c r="Y19" t="n">
-        <v>0</v>
-      </c>
-      <c r="Z19" t="n">
+      <c r="AA19" t="n">
+        <v>0.2642506606266515</v>
+      </c>
+      <c r="AB19" t="n">
+        <v>0</v>
+      </c>
+      <c r="AC19" t="n">
+        <v>0</v>
+      </c>
+      <c r="AD19" t="n">
         <v>0.01258336479174531</v>
       </c>
-      <c r="AA19" t="n">
-        <v>0.1510003775009437</v>
-      </c>
-      <c r="AB19" t="n">
-        <v>1.849754624386561</v>
-      </c>
-      <c r="AC19" t="n">
-        <v>0.01258336479174531</v>
-      </c>
-      <c r="AD19" t="n">
-        <v>0</v>
-      </c>
       <c r="AE19" t="n">
+        <v>0</v>
+      </c>
+      <c r="AF19" t="n">
+        <v>0</v>
+      </c>
+      <c r="AG19" t="n">
         <v>2.705423430225242</v>
-      </c>
-      <c r="AF19" t="n">
-        <v>0</v>
-      </c>
-      <c r="AG19" t="n">
-        <v>0</v>
       </c>
       <c r="AH19" t="n">
         <v>0</v>
@@ -2592,26 +2592,26 @@
         <v>0</v>
       </c>
       <c r="H20" t="n">
+        <v>0</v>
+      </c>
+      <c r="I20" t="n">
+        <v>0</v>
+      </c>
+      <c r="J20" t="n">
+        <v>0</v>
+      </c>
+      <c r="K20" t="n">
+        <v>0</v>
+      </c>
+      <c r="L20" t="n">
+        <v>0</v>
+      </c>
+      <c r="M20" t="n">
+        <v>0</v>
+      </c>
+      <c r="N20" t="n">
         <v>0.0002414916455965206</v>
       </c>
-      <c r="I20" t="n">
-        <v>0</v>
-      </c>
-      <c r="J20" t="n">
-        <v>0</v>
-      </c>
-      <c r="K20" t="n">
-        <v>0</v>
-      </c>
-      <c r="L20" t="n">
-        <v>0</v>
-      </c>
-      <c r="M20" t="n">
-        <v>0</v>
-      </c>
-      <c r="N20" t="n">
-        <v>0</v>
-      </c>
       <c r="O20" t="n">
         <v>0</v>
       </c>
@@ -2643,37 +2643,37 @@
         <v>0</v>
       </c>
       <c r="Y20" t="n">
+        <v>0</v>
+      </c>
+      <c r="Z20" t="n">
+        <v>0</v>
+      </c>
+      <c r="AA20" t="n">
+        <v>0</v>
+      </c>
+      <c r="AB20" t="n">
+        <v>0</v>
+      </c>
+      <c r="AC20" t="n">
+        <v>0</v>
+      </c>
+      <c r="AD20" t="n">
+        <v>0</v>
+      </c>
+      <c r="AE20" t="n">
+        <v>0</v>
+      </c>
+      <c r="AF20" t="n">
+        <v>0</v>
+      </c>
+      <c r="AG20" t="n">
+        <v>0</v>
+      </c>
+      <c r="AH20" t="n">
+        <v>0</v>
+      </c>
+      <c r="AI20" t="n">
         <v>0.002897899747158247</v>
-      </c>
-      <c r="Z20" t="n">
-        <v>0</v>
-      </c>
-      <c r="AA20" t="n">
-        <v>0</v>
-      </c>
-      <c r="AB20" t="n">
-        <v>0</v>
-      </c>
-      <c r="AC20" t="n">
-        <v>0</v>
-      </c>
-      <c r="AD20" t="n">
-        <v>0</v>
-      </c>
-      <c r="AE20" t="n">
-        <v>0</v>
-      </c>
-      <c r="AF20" t="n">
-        <v>0</v>
-      </c>
-      <c r="AG20" t="n">
-        <v>0</v>
-      </c>
-      <c r="AH20" t="n">
-        <v>0</v>
-      </c>
-      <c r="AI20" t="n">
-        <v>0</v>
       </c>
     </row>
     <row r="21">
@@ -2710,7 +2710,7 @@
         <v>0</v>
       </c>
       <c r="K21" t="n">
-        <v>0</v>
+        <v>0.01444669170759896</v>
       </c>
       <c r="L21" t="n">
         <v>0</v>
@@ -2761,7 +2761,7 @@
         <v>0</v>
       </c>
       <c r="AB21" t="n">
-        <v>0.01444669170759896</v>
+        <v>0</v>
       </c>
       <c r="AC21" t="n">
         <v>0</v>
@@ -2801,19 +2801,19 @@
         <v>0</v>
       </c>
       <c r="E22" t="n">
-        <v>0.4018192604310856</v>
+        <v>0</v>
       </c>
       <c r="F22" t="n">
-        <v>0</v>
+        <v>0.01186474194186276</v>
       </c>
       <c r="G22" t="n">
         <v>0</v>
       </c>
       <c r="H22" t="n">
-        <v>0</v>
+        <v>0.002372948388372553</v>
       </c>
       <c r="I22" t="n">
-        <v>0</v>
+        <v>0.1494957484674708</v>
       </c>
       <c r="J22" t="n">
         <v>0</v>
@@ -2825,7 +2825,7 @@
         <v>0</v>
       </c>
       <c r="M22" t="n">
-        <v>0.01186474194186276</v>
+        <v>0</v>
       </c>
       <c r="N22" t="n">
         <v>0</v>
@@ -2837,10 +2837,10 @@
         <v>0</v>
       </c>
       <c r="Q22" t="n">
-        <v>0</v>
+        <v>0.002372948388372553</v>
       </c>
       <c r="R22" t="n">
-        <v>0</v>
+        <v>0.2950365829543207</v>
       </c>
       <c r="S22" t="n">
         <v>0</v>
@@ -2852,7 +2852,7 @@
         <v>0</v>
       </c>
       <c r="V22" t="n">
-        <v>0.002372948388372553</v>
+        <v>0</v>
       </c>
       <c r="W22" t="n">
         <v>0</v>
@@ -2864,7 +2864,7 @@
         <v>0</v>
       </c>
       <c r="Z22" t="n">
-        <v>0.2950365829543207</v>
+        <v>0</v>
       </c>
       <c r="AA22" t="n">
         <v>0</v>
@@ -2876,7 +2876,7 @@
         <v>0</v>
       </c>
       <c r="AD22" t="n">
-        <v>0.002372948388372553</v>
+        <v>0</v>
       </c>
       <c r="AE22" t="n">
         <v>0</v>
@@ -2888,7 +2888,7 @@
         <v>0</v>
       </c>
       <c r="AH22" t="n">
-        <v>0.1494957484674708</v>
+        <v>0.4018192604310856</v>
       </c>
       <c r="AI22" t="n">
         <v>0</v>
@@ -2916,91 +2916,91 @@
         <v>0</v>
       </c>
       <c r="G23" t="n">
+        <v>1.371539285168001</v>
+      </c>
+      <c r="H23" t="n">
+        <v>0.02804262478968031</v>
+      </c>
+      <c r="I23" t="n">
+        <v>0</v>
+      </c>
+      <c r="J23" t="n">
+        <v>0.005098659052669148</v>
+      </c>
+      <c r="K23" t="n">
+        <v>0</v>
+      </c>
+      <c r="L23" t="n">
+        <v>0</v>
+      </c>
+      <c r="M23" t="n">
+        <v>0</v>
+      </c>
+      <c r="N23" t="n">
+        <v>0.1325651353693978</v>
+      </c>
+      <c r="O23" t="n">
+        <v>0.0101973181053383</v>
+      </c>
+      <c r="P23" t="n">
+        <v>0</v>
+      </c>
+      <c r="Q23" t="n">
+        <v>0</v>
+      </c>
+      <c r="R23" t="n">
+        <v>0</v>
+      </c>
+      <c r="S23" t="n">
+        <v>0</v>
+      </c>
+      <c r="T23" t="n">
+        <v>0</v>
+      </c>
+      <c r="U23" t="n">
+        <v>0</v>
+      </c>
+      <c r="V23" t="n">
+        <v>0</v>
+      </c>
+      <c r="W23" t="n">
+        <v>0</v>
+      </c>
+      <c r="X23" t="n">
+        <v>0</v>
+      </c>
+      <c r="Y23" t="n">
+        <v>0.1223678172640596</v>
+      </c>
+      <c r="Z23" t="n">
+        <v>0</v>
+      </c>
+      <c r="AA23" t="n">
+        <v>0</v>
+      </c>
+      <c r="AB23" t="n">
+        <v>0</v>
+      </c>
+      <c r="AC23" t="n">
+        <v>0</v>
+      </c>
+      <c r="AD23" t="n">
+        <v>0</v>
+      </c>
+      <c r="AE23" t="n">
+        <v>0.03314128384234946</v>
+      </c>
+      <c r="AF23" t="n">
         <v>0.01529597715800744</v>
       </c>
-      <c r="H23" t="n">
-        <v>0.1325651353693978</v>
-      </c>
-      <c r="I23" t="n">
-        <v>0</v>
-      </c>
-      <c r="J23" t="n">
-        <v>0</v>
-      </c>
-      <c r="K23" t="n">
-        <v>1.371539285168001</v>
-      </c>
-      <c r="L23" t="n">
-        <v>0</v>
-      </c>
-      <c r="M23" t="n">
-        <v>0</v>
-      </c>
-      <c r="N23" t="n">
-        <v>0</v>
-      </c>
-      <c r="O23" t="n">
-        <v>0</v>
-      </c>
-      <c r="P23" t="n">
-        <v>0.03314128384234946</v>
-      </c>
-      <c r="Q23" t="n">
-        <v>0</v>
-      </c>
-      <c r="R23" t="n">
-        <v>0.1223678172640596</v>
-      </c>
-      <c r="S23" t="n">
-        <v>0.0101973181053383</v>
-      </c>
-      <c r="T23" t="n">
-        <v>0</v>
-      </c>
-      <c r="U23" t="n">
-        <v>0</v>
-      </c>
-      <c r="V23" t="n">
-        <v>0</v>
-      </c>
-      <c r="W23" t="n">
-        <v>0</v>
-      </c>
-      <c r="X23" t="n">
-        <v>0</v>
-      </c>
-      <c r="Y23" t="n">
+      <c r="AG23" t="n">
+        <v>0.06118390863202978</v>
+      </c>
+      <c r="AH23" t="n">
+        <v>0</v>
+      </c>
+      <c r="AI23" t="n">
         <v>0.8999133227961047</v>
-      </c>
-      <c r="Z23" t="n">
-        <v>0</v>
-      </c>
-      <c r="AA23" t="n">
-        <v>0.005098659052669148</v>
-      </c>
-      <c r="AB23" t="n">
-        <v>0</v>
-      </c>
-      <c r="AC23" t="n">
-        <v>0</v>
-      </c>
-      <c r="AD23" t="n">
-        <v>0.02804262478968031</v>
-      </c>
-      <c r="AE23" t="n">
-        <v>0.06118390863202978</v>
-      </c>
-      <c r="AF23" t="n">
-        <v>0</v>
-      </c>
-      <c r="AG23" t="n">
-        <v>0</v>
-      </c>
-      <c r="AH23" t="n">
-        <v>0</v>
-      </c>
-      <c r="AI23" t="n">
-        <v>0</v>
       </c>
     </row>
     <row r="24">
@@ -3025,91 +3025,91 @@
         <v>0</v>
       </c>
       <c r="G24" t="n">
-        <v>0</v>
+        <v>3.251439819202449</v>
       </c>
       <c r="H24" t="n">
+        <v>0.0461714174625161</v>
+      </c>
+      <c r="I24" t="n">
+        <v>0</v>
+      </c>
+      <c r="J24" t="n">
+        <v>0.009720298413161283</v>
+      </c>
+      <c r="K24" t="n">
+        <v>0</v>
+      </c>
+      <c r="L24" t="n">
+        <v>0</v>
+      </c>
+      <c r="M24" t="n">
+        <v>0</v>
+      </c>
+      <c r="N24" t="n">
         <v>0.05346164127238706</v>
       </c>
-      <c r="I24" t="n">
-        <v>0</v>
-      </c>
-      <c r="J24" t="n">
-        <v>0</v>
-      </c>
-      <c r="K24" t="n">
-        <v>3.251439819202449</v>
-      </c>
-      <c r="L24" t="n">
-        <v>0</v>
-      </c>
-      <c r="M24" t="n">
-        <v>0</v>
-      </c>
-      <c r="N24" t="n">
-        <v>0</v>
-      </c>
       <c r="O24" t="n">
-        <v>0</v>
+        <v>0.0121503730164516</v>
       </c>
       <c r="P24" t="n">
+        <v>0</v>
+      </c>
+      <c r="Q24" t="n">
+        <v>0</v>
+      </c>
+      <c r="R24" t="n">
+        <v>0</v>
+      </c>
+      <c r="S24" t="n">
+        <v>0</v>
+      </c>
+      <c r="T24" t="n">
+        <v>0</v>
+      </c>
+      <c r="U24" t="n">
+        <v>0</v>
+      </c>
+      <c r="V24" t="n">
+        <v>0</v>
+      </c>
+      <c r="W24" t="n">
+        <v>0</v>
+      </c>
+      <c r="X24" t="n">
+        <v>0</v>
+      </c>
+      <c r="Y24" t="n">
+        <v>0.01944059682632257</v>
+      </c>
+      <c r="Z24" t="n">
+        <v>0</v>
+      </c>
+      <c r="AA24" t="n">
+        <v>0</v>
+      </c>
+      <c r="AB24" t="n">
+        <v>0</v>
+      </c>
+      <c r="AC24" t="n">
+        <v>0</v>
+      </c>
+      <c r="AD24" t="n">
+        <v>0</v>
+      </c>
+      <c r="AE24" t="n">
         <v>0.06561201428883867</v>
       </c>
-      <c r="Q24" t="n">
-        <v>0</v>
-      </c>
-      <c r="R24" t="n">
-        <v>0.01944059682632257</v>
-      </c>
-      <c r="S24" t="n">
-        <v>0.0121503730164516</v>
-      </c>
-      <c r="T24" t="n">
-        <v>0</v>
-      </c>
-      <c r="U24" t="n">
-        <v>0</v>
-      </c>
-      <c r="V24" t="n">
-        <v>0</v>
-      </c>
-      <c r="W24" t="n">
-        <v>0</v>
-      </c>
-      <c r="X24" t="n">
-        <v>0</v>
-      </c>
-      <c r="Y24" t="n">
+      <c r="AF24" t="n">
+        <v>0</v>
+      </c>
+      <c r="AG24" t="n">
+        <v>0.3669412650968384</v>
+      </c>
+      <c r="AH24" t="n">
+        <v>0</v>
+      </c>
+      <c r="AI24" t="n">
         <v>2.605039974727224</v>
-      </c>
-      <c r="Z24" t="n">
-        <v>0</v>
-      </c>
-      <c r="AA24" t="n">
-        <v>0.009720298413161283</v>
-      </c>
-      <c r="AB24" t="n">
-        <v>0</v>
-      </c>
-      <c r="AC24" t="n">
-        <v>0</v>
-      </c>
-      <c r="AD24" t="n">
-        <v>0.0461714174625161</v>
-      </c>
-      <c r="AE24" t="n">
-        <v>0.3669412650968384</v>
-      </c>
-      <c r="AF24" t="n">
-        <v>0</v>
-      </c>
-      <c r="AG24" t="n">
-        <v>0</v>
-      </c>
-      <c r="AH24" t="n">
-        <v>0</v>
-      </c>
-      <c r="AI24" t="n">
-        <v>0</v>
       </c>
     </row>
     <row r="25">
@@ -3125,28 +3125,28 @@
         <v>1</v>
       </c>
       <c r="D25" t="n">
+        <v>0</v>
+      </c>
+      <c r="E25" t="n">
+        <v>0</v>
+      </c>
+      <c r="F25" t="n">
+        <v>0</v>
+      </c>
+      <c r="G25" t="n">
+        <v>0.009932459276916964</v>
+      </c>
+      <c r="H25" t="n">
+        <v>0</v>
+      </c>
+      <c r="I25" t="n">
+        <v>0</v>
+      </c>
+      <c r="J25" t="n">
         <v>0.004966229638458482</v>
       </c>
-      <c r="E25" t="n">
-        <v>0</v>
-      </c>
-      <c r="F25" t="n">
-        <v>0</v>
-      </c>
-      <c r="G25" t="n">
-        <v>0</v>
-      </c>
-      <c r="H25" t="n">
-        <v>0</v>
-      </c>
-      <c r="I25" t="n">
-        <v>0</v>
-      </c>
-      <c r="J25" t="n">
-        <v>0</v>
-      </c>
       <c r="K25" t="n">
-        <v>0.009932459276916964</v>
+        <v>0.09435836313071116</v>
       </c>
       <c r="L25" t="n">
         <v>0</v>
@@ -3161,14 +3161,14 @@
         <v>0</v>
       </c>
       <c r="P25" t="n">
+        <v>0</v>
+      </c>
+      <c r="Q25" t="n">
+        <v>0</v>
+      </c>
+      <c r="R25" t="n">
         <v>0.004966229638458482</v>
       </c>
-      <c r="Q25" t="n">
-        <v>0</v>
-      </c>
-      <c r="R25" t="n">
-        <v>0</v>
-      </c>
       <c r="S25" t="n">
         <v>0</v>
       </c>
@@ -3188,25 +3188,25 @@
         <v>0</v>
       </c>
       <c r="Y25" t="n">
-        <v>0.124155740961462</v>
+        <v>0</v>
       </c>
       <c r="Z25" t="n">
-        <v>0.004966229638458482</v>
+        <v>0</v>
       </c>
       <c r="AA25" t="n">
         <v>0.004966229638458482</v>
       </c>
       <c r="AB25" t="n">
-        <v>0.09435836313071116</v>
+        <v>0</v>
       </c>
       <c r="AC25" t="n">
+        <v>0</v>
+      </c>
+      <c r="AD25" t="n">
         <v>0.009932459276916964</v>
       </c>
-      <c r="AD25" t="n">
-        <v>0</v>
-      </c>
       <c r="AE25" t="n">
-        <v>0</v>
+        <v>0.004966229638458482</v>
       </c>
       <c r="AF25" t="n">
         <v>0</v>
@@ -3218,7 +3218,7 @@
         <v>0</v>
       </c>
       <c r="AI25" t="n">
-        <v>0</v>
+        <v>0.124155740961462</v>
       </c>
     </row>
     <row r="26">
@@ -3234,100 +3234,100 @@
         <v>2</v>
       </c>
       <c r="D26" t="n">
+        <v>0.002874885004599816</v>
+      </c>
+      <c r="E26" t="n">
+        <v>0.2932382704691812</v>
+      </c>
+      <c r="F26" t="n">
+        <v>0</v>
+      </c>
+      <c r="G26" t="n">
+        <v>0</v>
+      </c>
+      <c r="H26" t="n">
         <v>0.005749770009199632</v>
       </c>
-      <c r="E26" t="n">
-        <v>0</v>
-      </c>
-      <c r="F26" t="n">
-        <v>0</v>
-      </c>
-      <c r="G26" t="n">
-        <v>0</v>
-      </c>
-      <c r="H26" t="n">
-        <v>0</v>
-      </c>
       <c r="I26" t="n">
+        <v>0.02299908003679853</v>
+      </c>
+      <c r="J26" t="n">
+        <v>0</v>
+      </c>
+      <c r="K26" t="n">
+        <v>0.8107175712971482</v>
+      </c>
+      <c r="L26" t="n">
+        <v>0</v>
+      </c>
+      <c r="M26" t="n">
+        <v>0.008624655013799448</v>
+      </c>
+      <c r="N26" t="n">
+        <v>0</v>
+      </c>
+      <c r="O26" t="n">
+        <v>1.138454461821527</v>
+      </c>
+      <c r="P26" t="n">
+        <v>0.03737350505979761</v>
+      </c>
+      <c r="Q26" t="n">
+        <v>0</v>
+      </c>
+      <c r="R26" t="n">
+        <v>0.4312327506899724</v>
+      </c>
+      <c r="S26" t="n">
+        <v>0.02874885004599816</v>
+      </c>
+      <c r="T26" t="n">
+        <v>0</v>
+      </c>
+      <c r="U26" t="n">
+        <v>0</v>
+      </c>
+      <c r="V26" t="n">
+        <v>0</v>
+      </c>
+      <c r="W26" t="n">
+        <v>0</v>
+      </c>
+      <c r="X26" t="n">
+        <v>0</v>
+      </c>
+      <c r="Y26" t="n">
+        <v>0.06324747010119594</v>
+      </c>
+      <c r="Z26" t="n">
+        <v>0.327736890524379</v>
+      </c>
+      <c r="AA26" t="n">
+        <v>0.005749770009199632</v>
+      </c>
+      <c r="AB26" t="n">
+        <v>0.04024839006439743</v>
+      </c>
+      <c r="AC26" t="n">
+        <v>0</v>
+      </c>
+      <c r="AD26" t="n">
+        <v>0.0718721251149954</v>
+      </c>
+      <c r="AE26" t="n">
+        <v>0</v>
+      </c>
+      <c r="AF26" t="n">
+        <v>0</v>
+      </c>
+      <c r="AG26" t="n">
+        <v>0.8825896964121436</v>
+      </c>
+      <c r="AH26" t="n">
+        <v>0</v>
+      </c>
+      <c r="AI26" t="n">
         <v>0.002874885004599816</v>
-      </c>
-      <c r="J26" t="n">
-        <v>0.008624655013799448</v>
-      </c>
-      <c r="K26" t="n">
-        <v>0</v>
-      </c>
-      <c r="L26" t="n">
-        <v>0.2932382704691812</v>
-      </c>
-      <c r="M26" t="n">
-        <v>0</v>
-      </c>
-      <c r="N26" t="n">
-        <v>0.02874885004599816</v>
-      </c>
-      <c r="O26" t="n">
-        <v>0</v>
-      </c>
-      <c r="P26" t="n">
-        <v>0</v>
-      </c>
-      <c r="Q26" t="n">
-        <v>0.04024839006439743</v>
-      </c>
-      <c r="R26" t="n">
-        <v>0.06324747010119594</v>
-      </c>
-      <c r="S26" t="n">
-        <v>1.138454461821527</v>
-      </c>
-      <c r="T26" t="n">
-        <v>0.327736890524379</v>
-      </c>
-      <c r="U26" t="n">
-        <v>0</v>
-      </c>
-      <c r="V26" t="n">
-        <v>0</v>
-      </c>
-      <c r="W26" t="n">
-        <v>0.03737350505979761</v>
-      </c>
-      <c r="X26" t="n">
-        <v>0</v>
-      </c>
-      <c r="Y26" t="n">
-        <v>0.002874885004599816</v>
-      </c>
-      <c r="Z26" t="n">
-        <v>0.4312327506899724</v>
-      </c>
-      <c r="AA26" t="n">
-        <v>0</v>
-      </c>
-      <c r="AB26" t="n">
-        <v>0.8107175712971482</v>
-      </c>
-      <c r="AC26" t="n">
-        <v>0.0718721251149954</v>
-      </c>
-      <c r="AD26" t="n">
-        <v>0.005749770009199632</v>
-      </c>
-      <c r="AE26" t="n">
-        <v>0.8825896964121436</v>
-      </c>
-      <c r="AF26" t="n">
-        <v>0</v>
-      </c>
-      <c r="AG26" t="n">
-        <v>0</v>
-      </c>
-      <c r="AH26" t="n">
-        <v>0.02299908003679853</v>
-      </c>
-      <c r="AI26" t="n">
-        <v>0</v>
       </c>
     </row>
     <row r="27">
@@ -3346,94 +3346,94 @@
         <v>0</v>
       </c>
       <c r="E27" t="n">
+        <v>0</v>
+      </c>
+      <c r="F27" t="n">
+        <v>0</v>
+      </c>
+      <c r="G27" t="n">
+        <v>0</v>
+      </c>
+      <c r="H27" t="n">
+        <v>0</v>
+      </c>
+      <c r="I27" t="n">
+        <v>0</v>
+      </c>
+      <c r="J27" t="n">
+        <v>0</v>
+      </c>
+      <c r="K27" t="n">
+        <v>0</v>
+      </c>
+      <c r="L27" t="n">
+        <v>0</v>
+      </c>
+      <c r="M27" t="n">
+        <v>0</v>
+      </c>
+      <c r="N27" t="n">
+        <v>0</v>
+      </c>
+      <c r="O27" t="n">
+        <v>0</v>
+      </c>
+      <c r="P27" t="n">
+        <v>0</v>
+      </c>
+      <c r="Q27" t="n">
+        <v>0.001319574569158903</v>
+      </c>
+      <c r="R27" t="n">
+        <v>0.001319574569158903</v>
+      </c>
+      <c r="S27" t="n">
+        <v>0</v>
+      </c>
+      <c r="T27" t="n">
+        <v>0</v>
+      </c>
+      <c r="U27" t="n">
+        <v>0</v>
+      </c>
+      <c r="V27" t="n">
+        <v>0</v>
+      </c>
+      <c r="W27" t="n">
+        <v>0.00395872370747671</v>
+      </c>
+      <c r="X27" t="n">
+        <v>0</v>
+      </c>
+      <c r="Y27" t="n">
+        <v>0</v>
+      </c>
+      <c r="Z27" t="n">
+        <v>0</v>
+      </c>
+      <c r="AA27" t="n">
+        <v>0</v>
+      </c>
+      <c r="AB27" t="n">
+        <v>0</v>
+      </c>
+      <c r="AC27" t="n">
+        <v>0</v>
+      </c>
+      <c r="AD27" t="n">
+        <v>0</v>
+      </c>
+      <c r="AE27" t="n">
+        <v>0</v>
+      </c>
+      <c r="AF27" t="n">
+        <v>0</v>
+      </c>
+      <c r="AG27" t="n">
+        <v>0.3998310944551476</v>
+      </c>
+      <c r="AH27" t="n">
         <v>0.3166978965981368</v>
-      </c>
-      <c r="F27" t="n">
-        <v>0</v>
-      </c>
-      <c r="G27" t="n">
-        <v>0</v>
-      </c>
-      <c r="H27" t="n">
-        <v>0</v>
-      </c>
-      <c r="I27" t="n">
-        <v>0</v>
-      </c>
-      <c r="J27" t="n">
-        <v>0</v>
-      </c>
-      <c r="K27" t="n">
-        <v>0</v>
-      </c>
-      <c r="L27" t="n">
-        <v>0</v>
-      </c>
-      <c r="M27" t="n">
-        <v>0</v>
-      </c>
-      <c r="N27" t="n">
-        <v>0</v>
-      </c>
-      <c r="O27" t="n">
-        <v>0</v>
-      </c>
-      <c r="P27" t="n">
-        <v>0</v>
-      </c>
-      <c r="Q27" t="n">
-        <v>0</v>
-      </c>
-      <c r="R27" t="n">
-        <v>0</v>
-      </c>
-      <c r="S27" t="n">
-        <v>0</v>
-      </c>
-      <c r="T27" t="n">
-        <v>0</v>
-      </c>
-      <c r="U27" t="n">
-        <v>0.00395872370747671</v>
-      </c>
-      <c r="V27" t="n">
-        <v>0.001319574569158903</v>
-      </c>
-      <c r="W27" t="n">
-        <v>0</v>
-      </c>
-      <c r="X27" t="n">
-        <v>0</v>
-      </c>
-      <c r="Y27" t="n">
-        <v>0</v>
-      </c>
-      <c r="Z27" t="n">
-        <v>0.001319574569158903</v>
-      </c>
-      <c r="AA27" t="n">
-        <v>0</v>
-      </c>
-      <c r="AB27" t="n">
-        <v>0</v>
-      </c>
-      <c r="AC27" t="n">
-        <v>0</v>
-      </c>
-      <c r="AD27" t="n">
-        <v>0</v>
-      </c>
-      <c r="AE27" t="n">
-        <v>0.3998310944551476</v>
-      </c>
-      <c r="AF27" t="n">
-        <v>0</v>
-      </c>
-      <c r="AG27" t="n">
-        <v>0</v>
-      </c>
-      <c r="AH27" t="n">
-        <v>0</v>
       </c>
       <c r="AI27" t="n">
         <v>0</v>
@@ -3561,100 +3561,100 @@
         <v>1</v>
       </c>
       <c r="D29" t="n">
+        <v>0.007825644637477012</v>
+      </c>
+      <c r="E29" t="n">
+        <v>0.4069335211488046</v>
+      </c>
+      <c r="F29" t="n">
+        <v>0.05477951246233909</v>
+      </c>
+      <c r="G29" t="n">
+        <v>0</v>
+      </c>
+      <c r="H29" t="n">
         <v>0.01173846695621552</v>
       </c>
-      <c r="E29" t="n">
-        <v>0</v>
-      </c>
-      <c r="F29" t="n">
+      <c r="I29" t="n">
+        <v>0.4030206988300661</v>
+      </c>
+      <c r="J29" t="n">
+        <v>0.03912822318738506</v>
+      </c>
+      <c r="K29" t="n">
+        <v>5.157099816097351</v>
+      </c>
+      <c r="L29" t="n">
+        <v>0.003912822318738506</v>
+      </c>
+      <c r="M29" t="n">
+        <v>0.03130257854990805</v>
+      </c>
+      <c r="N29" t="n">
+        <v>0</v>
+      </c>
+      <c r="O29" t="n">
+        <v>1.475134014164417</v>
+      </c>
+      <c r="P29" t="n">
+        <v>0.03521540086864655</v>
+      </c>
+      <c r="Q29" t="n">
+        <v>0</v>
+      </c>
+      <c r="R29" t="n">
+        <v>0.4617130336111437</v>
+      </c>
+      <c r="S29" t="n">
+        <v>0.1095590249246782</v>
+      </c>
+      <c r="T29" t="n">
+        <v>0</v>
+      </c>
+      <c r="U29" t="n">
+        <v>0</v>
+      </c>
+      <c r="V29" t="n">
         <v>0.01173846695621552</v>
       </c>
-      <c r="G29" t="n">
-        <v>0</v>
-      </c>
-      <c r="H29" t="n">
-        <v>0</v>
-      </c>
-      <c r="I29" t="n">
-        <v>0.007825644637477012</v>
-      </c>
-      <c r="J29" t="n">
-        <v>0.03130257854990805</v>
-      </c>
-      <c r="K29" t="n">
-        <v>0</v>
-      </c>
-      <c r="L29" t="n">
-        <v>0.4069335211488046</v>
-      </c>
-      <c r="M29" t="n">
-        <v>0.05477951246233909</v>
-      </c>
-      <c r="N29" t="n">
-        <v>0.1095590249246782</v>
-      </c>
-      <c r="O29" t="n">
-        <v>0</v>
-      </c>
-      <c r="P29" t="n">
-        <v>0</v>
-      </c>
-      <c r="Q29" t="n">
+      <c r="W29" t="n">
+        <v>0</v>
+      </c>
+      <c r="X29" t="n">
+        <v>0</v>
+      </c>
+      <c r="Y29" t="n">
+        <v>1.498610948076848</v>
+      </c>
+      <c r="Z29" t="n">
+        <v>0.1486872481120632</v>
+      </c>
+      <c r="AA29" t="n">
+        <v>0.01173846695621552</v>
+      </c>
+      <c r="AB29" t="n">
         <v>0.1056462026059397</v>
       </c>
-      <c r="R29" t="n">
-        <v>1.498610948076848</v>
-      </c>
-      <c r="S29" t="n">
-        <v>1.475134014164417</v>
-      </c>
-      <c r="T29" t="n">
-        <v>0.1486872481120632</v>
-      </c>
-      <c r="U29" t="n">
-        <v>0</v>
-      </c>
-      <c r="V29" t="n">
-        <v>0</v>
-      </c>
-      <c r="W29" t="n">
-        <v>0.03521540086864655</v>
-      </c>
-      <c r="X29" t="n">
-        <v>0</v>
-      </c>
-      <c r="Y29" t="n">
-        <v>0</v>
-      </c>
-      <c r="Z29" t="n">
-        <v>0.4617130336111437</v>
-      </c>
-      <c r="AA29" t="n">
-        <v>0.03912822318738506</v>
-      </c>
-      <c r="AB29" t="n">
-        <v>5.157099816097351</v>
-      </c>
       <c r="AC29" t="n">
+        <v>0</v>
+      </c>
+      <c r="AD29" t="n">
         <v>1.737293109519897</v>
       </c>
-      <c r="AD29" t="n">
-        <v>0.01173846695621552</v>
-      </c>
       <c r="AE29" t="n">
+        <v>0</v>
+      </c>
+      <c r="AF29" t="n">
+        <v>0</v>
+      </c>
+      <c r="AG29" t="n">
         <v>7.160464843291465</v>
       </c>
-      <c r="AF29" t="n">
-        <v>0</v>
-      </c>
-      <c r="AG29" t="n">
-        <v>0</v>
-      </c>
       <c r="AH29" t="n">
-        <v>0.4030206988300661</v>
+        <v>0</v>
       </c>
       <c r="AI29" t="n">
-        <v>0.003912822318738506</v>
+        <v>0</v>
       </c>
     </row>
     <row r="30">
@@ -3670,100 +3670,100 @@
         <v>3</v>
       </c>
       <c r="D30" t="n">
-        <v>0</v>
+        <v>0.01919017463058914</v>
       </c>
       <c r="E30" t="n">
-        <v>0</v>
+        <v>0.05757052389176742</v>
       </c>
       <c r="F30" t="n">
         <v>0</v>
       </c>
       <c r="G30" t="n">
-        <v>0</v>
+        <v>0.1151410477835348</v>
       </c>
       <c r="H30" t="n">
+        <v>0</v>
+      </c>
+      <c r="I30" t="n">
+        <v>0</v>
+      </c>
+      <c r="J30" t="n">
+        <v>0.1151410477835348</v>
+      </c>
+      <c r="K30" t="n">
+        <v>0</v>
+      </c>
+      <c r="L30" t="n">
+        <v>0</v>
+      </c>
+      <c r="M30" t="n">
+        <v>0</v>
+      </c>
+      <c r="N30" t="n">
         <v>1.823066589905968</v>
       </c>
-      <c r="I30" t="n">
+      <c r="O30" t="n">
+        <v>0</v>
+      </c>
+      <c r="P30" t="n">
+        <v>0</v>
+      </c>
+      <c r="Q30" t="n">
+        <v>0</v>
+      </c>
+      <c r="R30" t="n">
+        <v>0</v>
+      </c>
+      <c r="S30" t="n">
         <v>0.01919017463058914</v>
       </c>
-      <c r="J30" t="n">
-        <v>0</v>
-      </c>
-      <c r="K30" t="n">
-        <v>0.1151410477835348</v>
-      </c>
-      <c r="L30" t="n">
-        <v>0.05757052389176742</v>
-      </c>
-      <c r="M30" t="n">
-        <v>0</v>
-      </c>
-      <c r="N30" t="n">
-        <v>0.01919017463058914</v>
-      </c>
-      <c r="O30" t="n">
-        <v>0</v>
-      </c>
-      <c r="P30" t="n">
+      <c r="T30" t="n">
+        <v>0</v>
+      </c>
+      <c r="U30" t="n">
+        <v>0</v>
+      </c>
+      <c r="V30" t="n">
+        <v>0</v>
+      </c>
+      <c r="W30" t="n">
+        <v>0</v>
+      </c>
+      <c r="X30" t="n">
+        <v>0</v>
+      </c>
+      <c r="Y30" t="n">
+        <v>0</v>
+      </c>
+      <c r="Z30" t="n">
+        <v>0</v>
+      </c>
+      <c r="AA30" t="n">
+        <v>0</v>
+      </c>
+      <c r="AB30" t="n">
+        <v>0</v>
+      </c>
+      <c r="AC30" t="n">
+        <v>0</v>
+      </c>
+      <c r="AD30" t="n">
+        <v>0</v>
+      </c>
+      <c r="AE30" t="n">
         <v>0.268662444828248</v>
       </c>
-      <c r="Q30" t="n">
-        <v>0</v>
-      </c>
-      <c r="R30" t="n">
-        <v>0</v>
-      </c>
-      <c r="S30" t="n">
-        <v>0</v>
-      </c>
-      <c r="T30" t="n">
-        <v>0</v>
-      </c>
-      <c r="U30" t="n">
-        <v>0</v>
-      </c>
-      <c r="V30" t="n">
-        <v>0</v>
-      </c>
-      <c r="W30" t="n">
-        <v>0</v>
-      </c>
-      <c r="X30" t="n">
-        <v>0</v>
-      </c>
-      <c r="Y30" t="n">
+      <c r="AF30" t="n">
+        <v>0</v>
+      </c>
+      <c r="AG30" t="n">
+        <v>0.134331222414124</v>
+      </c>
+      <c r="AH30" t="n">
+        <v>0</v>
+      </c>
+      <c r="AI30" t="n">
         <v>0.5757052389176741</v>
-      </c>
-      <c r="Z30" t="n">
-        <v>0</v>
-      </c>
-      <c r="AA30" t="n">
-        <v>0.1151410477835348</v>
-      </c>
-      <c r="AB30" t="n">
-        <v>0</v>
-      </c>
-      <c r="AC30" t="n">
-        <v>0</v>
-      </c>
-      <c r="AD30" t="n">
-        <v>0</v>
-      </c>
-      <c r="AE30" t="n">
-        <v>0.134331222414124</v>
-      </c>
-      <c r="AF30" t="n">
-        <v>0</v>
-      </c>
-      <c r="AG30" t="n">
-        <v>0</v>
-      </c>
-      <c r="AH30" t="n">
-        <v>0</v>
-      </c>
-      <c r="AI30" t="n">
-        <v>0</v>
       </c>
     </row>
     <row r="31">
@@ -3779,43 +3779,43 @@
         <v>2</v>
       </c>
       <c r="D31" t="n">
-        <v>0</v>
+        <v>0.004483098717833767</v>
       </c>
       <c r="E31" t="n">
-        <v>0</v>
+        <v>0.0403478884605039</v>
       </c>
       <c r="F31" t="n">
         <v>0</v>
       </c>
       <c r="G31" t="n">
-        <v>0</v>
+        <v>0.192773244866852</v>
       </c>
       <c r="H31" t="n">
+        <v>0.01793239487133507</v>
+      </c>
+      <c r="I31" t="n">
+        <v>0</v>
+      </c>
+      <c r="J31" t="n">
+        <v>0</v>
+      </c>
+      <c r="K31" t="n">
+        <v>0</v>
+      </c>
+      <c r="L31" t="n">
+        <v>0</v>
+      </c>
+      <c r="M31" t="n">
+        <v>0</v>
+      </c>
+      <c r="N31" t="n">
         <v>0.1613915538420156</v>
       </c>
-      <c r="I31" t="n">
-        <v>0.004483098717833767</v>
-      </c>
-      <c r="J31" t="n">
-        <v>0</v>
-      </c>
-      <c r="K31" t="n">
-        <v>0.192773244866852</v>
-      </c>
-      <c r="L31" t="n">
-        <v>0.0403478884605039</v>
-      </c>
-      <c r="M31" t="n">
-        <v>0</v>
-      </c>
-      <c r="N31" t="n">
-        <v>0</v>
-      </c>
       <c r="O31" t="n">
         <v>0</v>
       </c>
       <c r="P31" t="n">
-        <v>0.008966197435667534</v>
+        <v>0</v>
       </c>
       <c r="Q31" t="n">
         <v>0</v>
@@ -3842,37 +3842,37 @@
         <v>0</v>
       </c>
       <c r="Y31" t="n">
+        <v>0.008966197435667534</v>
+      </c>
+      <c r="Z31" t="n">
+        <v>0</v>
+      </c>
+      <c r="AA31" t="n">
+        <v>0</v>
+      </c>
+      <c r="AB31" t="n">
+        <v>0</v>
+      </c>
+      <c r="AC31" t="n">
+        <v>0</v>
+      </c>
+      <c r="AD31" t="n">
+        <v>0</v>
+      </c>
+      <c r="AE31" t="n">
+        <v>0.008966197435667534</v>
+      </c>
+      <c r="AF31" t="n">
+        <v>0</v>
+      </c>
+      <c r="AG31" t="n">
+        <v>0.6276338204967273</v>
+      </c>
+      <c r="AH31" t="n">
+        <v>0</v>
+      </c>
+      <c r="AI31" t="n">
         <v>0.1748408499955169</v>
-      </c>
-      <c r="Z31" t="n">
-        <v>0.008966197435667534</v>
-      </c>
-      <c r="AA31" t="n">
-        <v>0</v>
-      </c>
-      <c r="AB31" t="n">
-        <v>0</v>
-      </c>
-      <c r="AC31" t="n">
-        <v>0</v>
-      </c>
-      <c r="AD31" t="n">
-        <v>0.01793239487133507</v>
-      </c>
-      <c r="AE31" t="n">
-        <v>0.6276338204967273</v>
-      </c>
-      <c r="AF31" t="n">
-        <v>0</v>
-      </c>
-      <c r="AG31" t="n">
-        <v>0</v>
-      </c>
-      <c r="AH31" t="n">
-        <v>0</v>
-      </c>
-      <c r="AI31" t="n">
-        <v>0</v>
       </c>
     </row>
     <row r="32">
@@ -3997,100 +3997,100 @@
         <v>3</v>
       </c>
       <c r="D33" t="n">
+        <v>0</v>
+      </c>
+      <c r="E33" t="n">
+        <v>0</v>
+      </c>
+      <c r="F33" t="n">
+        <v>0</v>
+      </c>
+      <c r="G33" t="n">
+        <v>0</v>
+      </c>
+      <c r="H33" t="n">
+        <v>0.09877518767285659</v>
+      </c>
+      <c r="I33" t="n">
+        <v>0</v>
+      </c>
+      <c r="J33" t="n">
+        <v>0.02963255630185697</v>
+      </c>
+      <c r="K33" t="n">
+        <v>0.1481627815092849</v>
+      </c>
+      <c r="L33" t="n">
+        <v>0.01975503753457131</v>
+      </c>
+      <c r="M33" t="n">
+        <v>0</v>
+      </c>
+      <c r="N33" t="n">
+        <v>0</v>
+      </c>
+      <c r="O33" t="n">
+        <v>0</v>
+      </c>
+      <c r="P33" t="n">
+        <v>0</v>
+      </c>
+      <c r="Q33" t="n">
+        <v>0</v>
+      </c>
+      <c r="R33" t="n">
+        <v>0</v>
+      </c>
+      <c r="S33" t="n">
+        <v>0</v>
+      </c>
+      <c r="T33" t="n">
+        <v>0</v>
+      </c>
+      <c r="U33" t="n">
+        <v>0</v>
+      </c>
+      <c r="V33" t="n">
+        <v>0</v>
+      </c>
+      <c r="W33" t="n">
+        <v>0</v>
+      </c>
+      <c r="X33" t="n">
+        <v>0</v>
+      </c>
+      <c r="Y33" t="n">
+        <v>0</v>
+      </c>
+      <c r="Z33" t="n">
+        <v>0</v>
+      </c>
+      <c r="AA33" t="n">
         <v>0.03951007506914263</v>
       </c>
-      <c r="E33" t="n">
-        <v>0</v>
-      </c>
-      <c r="F33" t="n">
-        <v>0</v>
-      </c>
-      <c r="G33" t="n">
-        <v>0</v>
-      </c>
-      <c r="H33" t="n">
-        <v>0</v>
-      </c>
-      <c r="I33" t="n">
-        <v>0</v>
-      </c>
-      <c r="J33" t="n">
-        <v>0</v>
-      </c>
-      <c r="K33" t="n">
-        <v>0</v>
-      </c>
-      <c r="L33" t="n">
-        <v>0</v>
-      </c>
-      <c r="M33" t="n">
-        <v>0</v>
-      </c>
-      <c r="N33" t="n">
-        <v>0</v>
-      </c>
-      <c r="O33" t="n">
-        <v>0</v>
-      </c>
-      <c r="P33" t="n">
-        <v>0</v>
-      </c>
-      <c r="Q33" t="n">
+      <c r="AB33" t="n">
         <v>0.009877518767285657</v>
       </c>
-      <c r="R33" t="n">
-        <v>0</v>
-      </c>
-      <c r="S33" t="n">
-        <v>0</v>
-      </c>
-      <c r="T33" t="n">
-        <v>0</v>
-      </c>
-      <c r="U33" t="n">
-        <v>0</v>
-      </c>
-      <c r="V33" t="n">
-        <v>0</v>
-      </c>
-      <c r="W33" t="n">
-        <v>0</v>
-      </c>
-      <c r="X33" t="n">
-        <v>0</v>
-      </c>
-      <c r="Y33" t="n">
+      <c r="AC33" t="n">
+        <v>0.009877518767285657</v>
+      </c>
+      <c r="AD33" t="n">
+        <v>0</v>
+      </c>
+      <c r="AE33" t="n">
+        <v>0</v>
+      </c>
+      <c r="AF33" t="n">
+        <v>0</v>
+      </c>
+      <c r="AG33" t="n">
+        <v>0.0493875938364283</v>
+      </c>
+      <c r="AH33" t="n">
+        <v>0</v>
+      </c>
+      <c r="AI33" t="n">
         <v>0.0691426313709996</v>
-      </c>
-      <c r="Z33" t="n">
-        <v>0</v>
-      </c>
-      <c r="AA33" t="n">
-        <v>0.02963255630185697</v>
-      </c>
-      <c r="AB33" t="n">
-        <v>0.1481627815092849</v>
-      </c>
-      <c r="AC33" t="n">
-        <v>0</v>
-      </c>
-      <c r="AD33" t="n">
-        <v>0.09877518767285659</v>
-      </c>
-      <c r="AE33" t="n">
-        <v>0.0493875938364283</v>
-      </c>
-      <c r="AF33" t="n">
-        <v>0.009877518767285657</v>
-      </c>
-      <c r="AG33" t="n">
-        <v>0</v>
-      </c>
-      <c r="AH33" t="n">
-        <v>0</v>
-      </c>
-      <c r="AI33" t="n">
-        <v>0.01975503753457131</v>
       </c>
     </row>
     <row r="34">
@@ -4106,94 +4106,94 @@
         <v>2</v>
       </c>
       <c r="D34" t="n">
+        <v>0</v>
+      </c>
+      <c r="E34" t="n">
+        <v>0</v>
+      </c>
+      <c r="F34" t="n">
+        <v>0</v>
+      </c>
+      <c r="G34" t="n">
+        <v>0</v>
+      </c>
+      <c r="H34" t="n">
+        <v>0.1625135427952329</v>
+      </c>
+      <c r="I34" t="n">
+        <v>0</v>
+      </c>
+      <c r="J34" t="n">
+        <v>0</v>
+      </c>
+      <c r="K34" t="n">
+        <v>0.5958829902491874</v>
+      </c>
+      <c r="L34" t="n">
+        <v>0</v>
+      </c>
+      <c r="M34" t="n">
+        <v>0</v>
+      </c>
+      <c r="N34" t="n">
+        <v>0</v>
+      </c>
+      <c r="O34" t="n">
+        <v>0</v>
+      </c>
+      <c r="P34" t="n">
+        <v>0</v>
+      </c>
+      <c r="Q34" t="n">
+        <v>0</v>
+      </c>
+      <c r="R34" t="n">
+        <v>0</v>
+      </c>
+      <c r="S34" t="n">
+        <v>0</v>
+      </c>
+      <c r="T34" t="n">
+        <v>0</v>
+      </c>
+      <c r="U34" t="n">
+        <v>0</v>
+      </c>
+      <c r="V34" t="n">
+        <v>0</v>
+      </c>
+      <c r="W34" t="n">
+        <v>0</v>
+      </c>
+      <c r="X34" t="n">
+        <v>0</v>
+      </c>
+      <c r="Y34" t="n">
+        <v>0</v>
+      </c>
+      <c r="Z34" t="n">
+        <v>0</v>
+      </c>
+      <c r="AA34" t="n">
         <v>0.9750812567713976</v>
       </c>
-      <c r="E34" t="n">
-        <v>0</v>
-      </c>
-      <c r="F34" t="n">
-        <v>0</v>
-      </c>
-      <c r="G34" t="n">
-        <v>0</v>
-      </c>
-      <c r="H34" t="n">
-        <v>0</v>
-      </c>
-      <c r="I34" t="n">
-        <v>0</v>
-      </c>
-      <c r="J34" t="n">
-        <v>0</v>
-      </c>
-      <c r="K34" t="n">
-        <v>0</v>
-      </c>
-      <c r="L34" t="n">
-        <v>0</v>
-      </c>
-      <c r="M34" t="n">
-        <v>0</v>
-      </c>
-      <c r="N34" t="n">
-        <v>0</v>
-      </c>
-      <c r="O34" t="n">
-        <v>0</v>
-      </c>
-      <c r="P34" t="n">
-        <v>0</v>
-      </c>
-      <c r="Q34" t="n">
-        <v>0</v>
-      </c>
-      <c r="R34" t="n">
-        <v>0</v>
-      </c>
-      <c r="S34" t="n">
-        <v>0</v>
-      </c>
-      <c r="T34" t="n">
-        <v>0</v>
-      </c>
-      <c r="U34" t="n">
-        <v>0</v>
-      </c>
-      <c r="V34" t="n">
-        <v>0</v>
-      </c>
-      <c r="W34" t="n">
-        <v>0</v>
-      </c>
-      <c r="X34" t="n">
-        <v>0</v>
-      </c>
-      <c r="Y34" t="n">
-        <v>0</v>
-      </c>
-      <c r="Z34" t="n">
-        <v>0</v>
-      </c>
-      <c r="AA34" t="n">
-        <v>0</v>
-      </c>
       <c r="AB34" t="n">
-        <v>0.5958829902491874</v>
+        <v>0</v>
       </c>
       <c r="AC34" t="n">
         <v>0</v>
       </c>
       <c r="AD34" t="n">
-        <v>0.1625135427952329</v>
+        <v>0</v>
       </c>
       <c r="AE34" t="n">
+        <v>0</v>
+      </c>
+      <c r="AF34" t="n">
+        <v>0</v>
+      </c>
+      <c r="AG34" t="n">
         <v>0.6771397616468039</v>
-      </c>
-      <c r="AF34" t="n">
-        <v>0</v>
-      </c>
-      <c r="AG34" t="n">
-        <v>0</v>
       </c>
       <c r="AH34" t="n">
         <v>0</v>
@@ -4278,37 +4278,37 @@
         <v>0</v>
       </c>
       <c r="Y35" t="n">
+        <v>0</v>
+      </c>
+      <c r="Z35" t="n">
+        <v>0</v>
+      </c>
+      <c r="AA35" t="n">
+        <v>0</v>
+      </c>
+      <c r="AB35" t="n">
+        <v>0</v>
+      </c>
+      <c r="AC35" t="n">
+        <v>0</v>
+      </c>
+      <c r="AD35" t="n">
+        <v>0</v>
+      </c>
+      <c r="AE35" t="n">
+        <v>0</v>
+      </c>
+      <c r="AF35" t="n">
+        <v>0</v>
+      </c>
+      <c r="AG35" t="n">
+        <v>0</v>
+      </c>
+      <c r="AH35" t="n">
+        <v>0</v>
+      </c>
+      <c r="AI35" t="n">
         <v>0.55</v>
-      </c>
-      <c r="Z35" t="n">
-        <v>0</v>
-      </c>
-      <c r="AA35" t="n">
-        <v>0</v>
-      </c>
-      <c r="AB35" t="n">
-        <v>0</v>
-      </c>
-      <c r="AC35" t="n">
-        <v>0</v>
-      </c>
-      <c r="AD35" t="n">
-        <v>0</v>
-      </c>
-      <c r="AE35" t="n">
-        <v>0</v>
-      </c>
-      <c r="AF35" t="n">
-        <v>0</v>
-      </c>
-      <c r="AG35" t="n">
-        <v>0</v>
-      </c>
-      <c r="AH35" t="n">
-        <v>0</v>
-      </c>
-      <c r="AI35" t="n">
-        <v>0</v>
       </c>
     </row>
     <row r="36">
@@ -4324,94 +4324,94 @@
         <v>1</v>
       </c>
       <c r="D36" t="n">
+        <v>0</v>
+      </c>
+      <c r="E36" t="n">
+        <v>0</v>
+      </c>
+      <c r="F36" t="n">
+        <v>0</v>
+      </c>
+      <c r="G36" t="n">
+        <v>0</v>
+      </c>
+      <c r="H36" t="n">
+        <v>0.01447282726680657</v>
+      </c>
+      <c r="I36" t="n">
+        <v>0</v>
+      </c>
+      <c r="J36" t="n">
+        <v>0</v>
+      </c>
+      <c r="K36" t="n">
+        <v>0.01447282726680657</v>
+      </c>
+      <c r="L36" t="n">
+        <v>0</v>
+      </c>
+      <c r="M36" t="n">
+        <v>0</v>
+      </c>
+      <c r="N36" t="n">
+        <v>0</v>
+      </c>
+      <c r="O36" t="n">
+        <v>0</v>
+      </c>
+      <c r="P36" t="n">
+        <v>0</v>
+      </c>
+      <c r="Q36" t="n">
+        <v>0</v>
+      </c>
+      <c r="R36" t="n">
+        <v>0.003618206816701643</v>
+      </c>
+      <c r="S36" t="n">
+        <v>0</v>
+      </c>
+      <c r="T36" t="n">
+        <v>0</v>
+      </c>
+      <c r="U36" t="n">
+        <v>0</v>
+      </c>
+      <c r="V36" t="n">
+        <v>0</v>
+      </c>
+      <c r="W36" t="n">
+        <v>0.003618206816701643</v>
+      </c>
+      <c r="X36" t="n">
+        <v>0</v>
+      </c>
+      <c r="Y36" t="n">
+        <v>3.097185035096606</v>
+      </c>
+      <c r="Z36" t="n">
+        <v>0</v>
+      </c>
+      <c r="AA36" t="n">
         <v>0.2098559953686953</v>
       </c>
-      <c r="E36" t="n">
-        <v>0</v>
-      </c>
-      <c r="F36" t="n">
-        <v>0</v>
-      </c>
-      <c r="G36" t="n">
-        <v>0</v>
-      </c>
-      <c r="H36" t="n">
-        <v>0</v>
-      </c>
-      <c r="I36" t="n">
-        <v>0</v>
-      </c>
-      <c r="J36" t="n">
-        <v>0</v>
-      </c>
-      <c r="K36" t="n">
-        <v>0</v>
-      </c>
-      <c r="L36" t="n">
-        <v>0</v>
-      </c>
-      <c r="M36" t="n">
-        <v>0</v>
-      </c>
-      <c r="N36" t="n">
-        <v>0</v>
-      </c>
-      <c r="O36" t="n">
-        <v>0</v>
-      </c>
-      <c r="P36" t="n">
-        <v>0</v>
-      </c>
-      <c r="Q36" t="n">
-        <v>0</v>
-      </c>
-      <c r="R36" t="n">
-        <v>3.097185035096606</v>
-      </c>
-      <c r="S36" t="n">
-        <v>0</v>
-      </c>
-      <c r="T36" t="n">
-        <v>0</v>
-      </c>
-      <c r="U36" t="n">
-        <v>0.003618206816701643</v>
-      </c>
-      <c r="V36" t="n">
-        <v>0</v>
-      </c>
-      <c r="W36" t="n">
-        <v>0</v>
-      </c>
-      <c r="X36" t="n">
-        <v>0</v>
-      </c>
-      <c r="Y36" t="n">
-        <v>0</v>
-      </c>
-      <c r="Z36" t="n">
-        <v>0.003618206816701643</v>
-      </c>
-      <c r="AA36" t="n">
-        <v>0</v>
-      </c>
       <c r="AB36" t="n">
-        <v>0.01447282726680657</v>
+        <v>0</v>
       </c>
       <c r="AC36" t="n">
         <v>0</v>
       </c>
       <c r="AD36" t="n">
-        <v>0.01447282726680657</v>
+        <v>0</v>
       </c>
       <c r="AE36" t="n">
+        <v>0</v>
+      </c>
+      <c r="AF36" t="n">
+        <v>0</v>
+      </c>
+      <c r="AG36" t="n">
         <v>1.432809899413851</v>
-      </c>
-      <c r="AF36" t="n">
-        <v>0</v>
-      </c>
-      <c r="AG36" t="n">
-        <v>0</v>
       </c>
       <c r="AH36" t="n">
         <v>0</v>
@@ -4433,100 +4433,100 @@
         <v>2</v>
       </c>
       <c r="D37" t="n">
+        <v>0</v>
+      </c>
+      <c r="E37" t="n">
+        <v>0</v>
+      </c>
+      <c r="F37" t="n">
+        <v>0</v>
+      </c>
+      <c r="G37" t="n">
+        <v>0</v>
+      </c>
+      <c r="H37" t="n">
+        <v>0.1323348070618665</v>
+      </c>
+      <c r="I37" t="n">
+        <v>0</v>
+      </c>
+      <c r="J37" t="n">
+        <v>0</v>
+      </c>
+      <c r="K37" t="n">
+        <v>0.2917380973863876</v>
+      </c>
+      <c r="L37" t="n">
+        <v>0.006015218502812114</v>
+      </c>
+      <c r="M37" t="n">
+        <v>0.003007609251406057</v>
+      </c>
+      <c r="N37" t="n">
+        <v>0</v>
+      </c>
+      <c r="O37" t="n">
+        <v>0</v>
+      </c>
+      <c r="P37" t="n">
+        <v>0</v>
+      </c>
+      <c r="Q37" t="n">
+        <v>0</v>
+      </c>
+      <c r="R37" t="n">
+        <v>0</v>
+      </c>
+      <c r="S37" t="n">
+        <v>0.006015218502812114</v>
+      </c>
+      <c r="T37" t="n">
+        <v>0</v>
+      </c>
+      <c r="U37" t="n">
+        <v>0</v>
+      </c>
+      <c r="V37" t="n">
+        <v>0</v>
+      </c>
+      <c r="W37" t="n">
+        <v>0</v>
+      </c>
+      <c r="X37" t="n">
+        <v>0</v>
+      </c>
+      <c r="Y37" t="n">
+        <v>0.0210532647598424</v>
+      </c>
+      <c r="Z37" t="n">
+        <v>0</v>
+      </c>
+      <c r="AA37" t="n">
         <v>0.06917501278233933</v>
       </c>
-      <c r="E37" t="n">
-        <v>0</v>
-      </c>
-      <c r="F37" t="n">
-        <v>0</v>
-      </c>
-      <c r="G37" t="n">
-        <v>0</v>
-      </c>
-      <c r="H37" t="n">
-        <v>0</v>
-      </c>
-      <c r="I37" t="n">
-        <v>0</v>
-      </c>
-      <c r="J37" t="n">
-        <v>0.003007609251406057</v>
-      </c>
-      <c r="K37" t="n">
-        <v>0</v>
-      </c>
-      <c r="L37" t="n">
-        <v>0</v>
-      </c>
-      <c r="M37" t="n">
-        <v>0</v>
-      </c>
-      <c r="N37" t="n">
+      <c r="AB37" t="n">
         <v>0.006015218502812114</v>
       </c>
-      <c r="O37" t="n">
-        <v>0</v>
-      </c>
-      <c r="P37" t="n">
-        <v>0</v>
-      </c>
-      <c r="Q37" t="n">
-        <v>0.006015218502812114</v>
-      </c>
-      <c r="R37" t="n">
-        <v>0.0210532647598424</v>
-      </c>
-      <c r="S37" t="n">
-        <v>0</v>
-      </c>
-      <c r="T37" t="n">
-        <v>0</v>
-      </c>
-      <c r="U37" t="n">
-        <v>0</v>
-      </c>
-      <c r="V37" t="n">
-        <v>0</v>
-      </c>
-      <c r="W37" t="n">
-        <v>0</v>
-      </c>
-      <c r="X37" t="n">
-        <v>0</v>
-      </c>
-      <c r="Y37" t="n">
-        <v>0</v>
-      </c>
-      <c r="Z37" t="n">
-        <v>0</v>
-      </c>
-      <c r="AA37" t="n">
-        <v>0</v>
-      </c>
-      <c r="AB37" t="n">
-        <v>0.2917380973863876</v>
-      </c>
       <c r="AC37" t="n">
+        <v>0</v>
+      </c>
+      <c r="AD37" t="n">
         <v>0.03007609251406057</v>
       </c>
-      <c r="AD37" t="n">
-        <v>0.1323348070618665</v>
-      </c>
       <c r="AE37" t="n">
+        <v>0</v>
+      </c>
+      <c r="AF37" t="n">
+        <v>0</v>
+      </c>
+      <c r="AG37" t="n">
         <v>0.8631838551535385</v>
       </c>
-      <c r="AF37" t="n">
-        <v>0</v>
-      </c>
-      <c r="AG37" t="n">
-        <v>0</v>
-      </c>
       <c r="AH37" t="n">
         <v>0</v>
       </c>
       <c r="AI37" t="n">
-        <v>0.006015218502812114</v>
+        <v>0</v>
       </c>
     </row>
     <row r="38">
@@ -4542,100 +4542,100 @@
         <v>2</v>
       </c>
       <c r="D38" t="n">
+        <v>0</v>
+      </c>
+      <c r="E38" t="n">
+        <v>0</v>
+      </c>
+      <c r="F38" t="n">
+        <v>0</v>
+      </c>
+      <c r="G38" t="n">
+        <v>0</v>
+      </c>
+      <c r="H38" t="n">
+        <v>0.08154478439559006</v>
+      </c>
+      <c r="I38" t="n">
+        <v>0</v>
+      </c>
+      <c r="J38" t="n">
+        <v>0.009785374127470806</v>
+      </c>
+      <c r="K38" t="n">
+        <v>0.1908147954856807</v>
+      </c>
+      <c r="L38" t="n">
+        <v>0.006523582751647205</v>
+      </c>
+      <c r="M38" t="n">
+        <v>0</v>
+      </c>
+      <c r="N38" t="n">
+        <v>0</v>
+      </c>
+      <c r="O38" t="n">
+        <v>0</v>
+      </c>
+      <c r="P38" t="n">
+        <v>0</v>
+      </c>
+      <c r="Q38" t="n">
+        <v>0</v>
+      </c>
+      <c r="R38" t="n">
+        <v>0.008154478439559005</v>
+      </c>
+      <c r="S38" t="n">
+        <v>0</v>
+      </c>
+      <c r="T38" t="n">
+        <v>0</v>
+      </c>
+      <c r="U38" t="n">
+        <v>0</v>
+      </c>
+      <c r="V38" t="n">
+        <v>0</v>
+      </c>
+      <c r="W38" t="n">
+        <v>0</v>
+      </c>
+      <c r="X38" t="n">
+        <v>0</v>
+      </c>
+      <c r="Y38" t="n">
+        <v>0.004892687063735403</v>
+      </c>
+      <c r="Z38" t="n">
+        <v>0</v>
+      </c>
+      <c r="AA38" t="n">
         <v>0.04240328788570683</v>
       </c>
-      <c r="E38" t="n">
-        <v>0</v>
-      </c>
-      <c r="F38" t="n">
-        <v>0</v>
-      </c>
-      <c r="G38" t="n">
-        <v>0</v>
-      </c>
-      <c r="H38" t="n">
-        <v>0</v>
-      </c>
-      <c r="I38" t="n">
-        <v>0</v>
-      </c>
-      <c r="J38" t="n">
-        <v>0</v>
-      </c>
-      <c r="K38" t="n">
-        <v>0</v>
-      </c>
-      <c r="L38" t="n">
-        <v>0</v>
-      </c>
-      <c r="M38" t="n">
-        <v>0</v>
-      </c>
-      <c r="N38" t="n">
-        <v>0</v>
-      </c>
-      <c r="O38" t="n">
-        <v>0</v>
-      </c>
-      <c r="P38" t="n">
-        <v>0</v>
-      </c>
-      <c r="Q38" t="n">
+      <c r="AB38" t="n">
         <v>0.009785374127470806</v>
       </c>
-      <c r="R38" t="n">
-        <v>0.004892687063735403</v>
-      </c>
-      <c r="S38" t="n">
-        <v>0</v>
-      </c>
-      <c r="T38" t="n">
-        <v>0</v>
-      </c>
-      <c r="U38" t="n">
-        <v>0</v>
-      </c>
-      <c r="V38" t="n">
-        <v>0</v>
-      </c>
-      <c r="W38" t="n">
-        <v>0</v>
-      </c>
-      <c r="X38" t="n">
-        <v>0</v>
-      </c>
-      <c r="Y38" t="n">
-        <v>0</v>
-      </c>
-      <c r="Z38" t="n">
-        <v>0.008154478439559005</v>
-      </c>
-      <c r="AA38" t="n">
-        <v>0.009785374127470806</v>
-      </c>
-      <c r="AB38" t="n">
-        <v>0.1908147954856807</v>
-      </c>
       <c r="AC38" t="n">
+        <v>0</v>
+      </c>
+      <c r="AD38" t="n">
         <v>0.001630895687911801</v>
       </c>
-      <c r="AD38" t="n">
-        <v>0.08154478439559006</v>
-      </c>
       <c r="AE38" t="n">
+        <v>0</v>
+      </c>
+      <c r="AF38" t="n">
+        <v>0</v>
+      </c>
+      <c r="AG38" t="n">
         <v>0.06686672320438386</v>
       </c>
-      <c r="AF38" t="n">
-        <v>0</v>
-      </c>
-      <c r="AG38" t="n">
-        <v>0</v>
-      </c>
       <c r="AH38" t="n">
         <v>0</v>
       </c>
       <c r="AI38" t="n">
-        <v>0.006523582751647205</v>
+        <v>0</v>
       </c>
     </row>
     <row r="39">
@@ -4654,35 +4654,35 @@
         <v>0</v>
       </c>
       <c r="E39" t="n">
-        <v>0</v>
+        <v>0.01713428999785821</v>
       </c>
       <c r="F39" t="n">
         <v>0</v>
       </c>
       <c r="G39" t="n">
-        <v>0</v>
+        <v>0.5632897836795887</v>
       </c>
       <c r="H39" t="n">
+        <v>0</v>
+      </c>
+      <c r="I39" t="n">
+        <v>0</v>
+      </c>
+      <c r="J39" t="n">
+        <v>0</v>
+      </c>
+      <c r="K39" t="n">
+        <v>0</v>
+      </c>
+      <c r="L39" t="n">
+        <v>0</v>
+      </c>
+      <c r="M39" t="n">
+        <v>0</v>
+      </c>
+      <c r="N39" t="n">
         <v>0.05782822874277147</v>
       </c>
-      <c r="I39" t="n">
-        <v>0</v>
-      </c>
-      <c r="J39" t="n">
-        <v>0</v>
-      </c>
-      <c r="K39" t="n">
-        <v>0.5632897836795887</v>
-      </c>
-      <c r="L39" t="n">
-        <v>0.01713428999785821</v>
-      </c>
-      <c r="M39" t="n">
-        <v>0</v>
-      </c>
-      <c r="N39" t="n">
-        <v>0</v>
-      </c>
       <c r="O39" t="n">
         <v>0</v>
       </c>
@@ -4714,37 +4714,37 @@
         <v>0</v>
       </c>
       <c r="Y39" t="n">
+        <v>0</v>
+      </c>
+      <c r="Z39" t="n">
+        <v>0</v>
+      </c>
+      <c r="AA39" t="n">
+        <v>0</v>
+      </c>
+      <c r="AB39" t="n">
+        <v>0</v>
+      </c>
+      <c r="AC39" t="n">
+        <v>0</v>
+      </c>
+      <c r="AD39" t="n">
+        <v>0</v>
+      </c>
+      <c r="AE39" t="n">
+        <v>0</v>
+      </c>
+      <c r="AF39" t="n">
+        <v>0</v>
+      </c>
+      <c r="AG39" t="n">
+        <v>0</v>
+      </c>
+      <c r="AH39" t="n">
+        <v>0</v>
+      </c>
+      <c r="AI39" t="n">
         <v>0.04926108374384236</v>
-      </c>
-      <c r="Z39" t="n">
-        <v>0</v>
-      </c>
-      <c r="AA39" t="n">
-        <v>0</v>
-      </c>
-      <c r="AB39" t="n">
-        <v>0</v>
-      </c>
-      <c r="AC39" t="n">
-        <v>0</v>
-      </c>
-      <c r="AD39" t="n">
-        <v>0</v>
-      </c>
-      <c r="AE39" t="n">
-        <v>0</v>
-      </c>
-      <c r="AF39" t="n">
-        <v>0</v>
-      </c>
-      <c r="AG39" t="n">
-        <v>0</v>
-      </c>
-      <c r="AH39" t="n">
-        <v>0</v>
-      </c>
-      <c r="AI39" t="n">
-        <v>0</v>
       </c>
     </row>
     <row r="40">
@@ -4763,35 +4763,35 @@
         <v>0</v>
       </c>
       <c r="E40" t="n">
-        <v>0</v>
+        <v>0.001210053121332026</v>
       </c>
       <c r="F40" t="n">
         <v>0</v>
       </c>
       <c r="G40" t="n">
-        <v>0</v>
+        <v>0.07744339976524969</v>
       </c>
       <c r="H40" t="n">
+        <v>0</v>
+      </c>
+      <c r="I40" t="n">
+        <v>0</v>
+      </c>
+      <c r="J40" t="n">
+        <v>0</v>
+      </c>
+      <c r="K40" t="n">
+        <v>0</v>
+      </c>
+      <c r="L40" t="n">
+        <v>0</v>
+      </c>
+      <c r="M40" t="n">
+        <v>0</v>
+      </c>
+      <c r="N40" t="n">
         <v>0.07260318727992159</v>
       </c>
-      <c r="I40" t="n">
-        <v>0</v>
-      </c>
-      <c r="J40" t="n">
-        <v>0</v>
-      </c>
-      <c r="K40" t="n">
-        <v>0.07744339976524969</v>
-      </c>
-      <c r="L40" t="n">
-        <v>0.001210053121332026</v>
-      </c>
-      <c r="M40" t="n">
-        <v>0</v>
-      </c>
-      <c r="N40" t="n">
-        <v>0</v>
-      </c>
       <c r="O40" t="n">
         <v>0</v>
       </c>
@@ -4823,37 +4823,37 @@
         <v>0</v>
       </c>
       <c r="Y40" t="n">
+        <v>0</v>
+      </c>
+      <c r="Z40" t="n">
+        <v>0</v>
+      </c>
+      <c r="AA40" t="n">
+        <v>0</v>
+      </c>
+      <c r="AB40" t="n">
+        <v>0</v>
+      </c>
+      <c r="AC40" t="n">
+        <v>0</v>
+      </c>
+      <c r="AD40" t="n">
+        <v>0</v>
+      </c>
+      <c r="AE40" t="n">
+        <v>0</v>
+      </c>
+      <c r="AF40" t="n">
+        <v>0</v>
+      </c>
+      <c r="AG40" t="n">
+        <v>0</v>
+      </c>
+      <c r="AH40" t="n">
+        <v>0</v>
+      </c>
+      <c r="AI40" t="n">
         <v>0.1899783400491282</v>
-      </c>
-      <c r="Z40" t="n">
-        <v>0</v>
-      </c>
-      <c r="AA40" t="n">
-        <v>0</v>
-      </c>
-      <c r="AB40" t="n">
-        <v>0</v>
-      </c>
-      <c r="AC40" t="n">
-        <v>0</v>
-      </c>
-      <c r="AD40" t="n">
-        <v>0</v>
-      </c>
-      <c r="AE40" t="n">
-        <v>0</v>
-      </c>
-      <c r="AF40" t="n">
-        <v>0</v>
-      </c>
-      <c r="AG40" t="n">
-        <v>0</v>
-      </c>
-      <c r="AH40" t="n">
-        <v>0</v>
-      </c>
-      <c r="AI40" t="n">
-        <v>0</v>
       </c>
     </row>
     <row r="41">
@@ -4999,7 +4999,7 @@
         <v>0</v>
       </c>
       <c r="K42" t="n">
-        <v>0</v>
+        <v>0.007502719735904265</v>
       </c>
       <c r="L42" t="n">
         <v>0</v>
@@ -5020,29 +5020,29 @@
         <v>0</v>
       </c>
       <c r="R42" t="n">
+        <v>0</v>
+      </c>
+      <c r="S42" t="n">
+        <v>0</v>
+      </c>
+      <c r="T42" t="n">
+        <v>0</v>
+      </c>
+      <c r="U42" t="n">
+        <v>0</v>
+      </c>
+      <c r="V42" t="n">
+        <v>0</v>
+      </c>
+      <c r="W42" t="n">
+        <v>0</v>
+      </c>
+      <c r="X42" t="n">
+        <v>0</v>
+      </c>
+      <c r="Y42" t="n">
         <v>0.003751359867952133</v>
       </c>
-      <c r="S42" t="n">
-        <v>0</v>
-      </c>
-      <c r="T42" t="n">
-        <v>0</v>
-      </c>
-      <c r="U42" t="n">
-        <v>0</v>
-      </c>
-      <c r="V42" t="n">
-        <v>0</v>
-      </c>
-      <c r="W42" t="n">
-        <v>0</v>
-      </c>
-      <c r="X42" t="n">
-        <v>0</v>
-      </c>
-      <c r="Y42" t="n">
-        <v>0</v>
-      </c>
       <c r="Z42" t="n">
         <v>0</v>
       </c>
@@ -5050,7 +5050,7 @@
         <v>0</v>
       </c>
       <c r="AB42" t="n">
-        <v>0.007502719735904265</v>
+        <v>0</v>
       </c>
       <c r="AC42" t="n">
         <v>0</v>
@@ -5087,100 +5087,100 @@
         <v>2</v>
       </c>
       <c r="D43" t="n">
-        <v>0</v>
+        <v>0.04199916001679967</v>
       </c>
       <c r="E43" t="n">
-        <v>0</v>
+        <v>0.1679966400671987</v>
       </c>
       <c r="F43" t="n">
         <v>0</v>
       </c>
       <c r="G43" t="n">
-        <v>0</v>
+        <v>4.262914741705166</v>
       </c>
       <c r="H43" t="n">
+        <v>0</v>
+      </c>
+      <c r="I43" t="n">
+        <v>0</v>
+      </c>
+      <c r="J43" t="n">
+        <v>0</v>
+      </c>
+      <c r="K43" t="n">
+        <v>0</v>
+      </c>
+      <c r="L43" t="n">
+        <v>0</v>
+      </c>
+      <c r="M43" t="n">
+        <v>0</v>
+      </c>
+      <c r="N43" t="n">
         <v>0.2099958000839983</v>
       </c>
-      <c r="I43" t="n">
-        <v>0.04199916001679967</v>
-      </c>
-      <c r="J43" t="n">
-        <v>0</v>
-      </c>
-      <c r="K43" t="n">
-        <v>4.262914741705166</v>
-      </c>
-      <c r="L43" t="n">
+      <c r="O43" t="n">
+        <v>0</v>
+      </c>
+      <c r="P43" t="n">
+        <v>0</v>
+      </c>
+      <c r="Q43" t="n">
+        <v>0</v>
+      </c>
+      <c r="R43" t="n">
+        <v>0</v>
+      </c>
+      <c r="S43" t="n">
+        <v>0</v>
+      </c>
+      <c r="T43" t="n">
+        <v>0</v>
+      </c>
+      <c r="U43" t="n">
+        <v>0</v>
+      </c>
+      <c r="V43" t="n">
+        <v>0</v>
+      </c>
+      <c r="W43" t="n">
+        <v>0</v>
+      </c>
+      <c r="X43" t="n">
+        <v>0</v>
+      </c>
+      <c r="Y43" t="n">
+        <v>0.02099958000839983</v>
+      </c>
+      <c r="Z43" t="n">
+        <v>0</v>
+      </c>
+      <c r="AA43" t="n">
+        <v>0</v>
+      </c>
+      <c r="AB43" t="n">
+        <v>0</v>
+      </c>
+      <c r="AC43" t="n">
+        <v>0</v>
+      </c>
+      <c r="AD43" t="n">
+        <v>0</v>
+      </c>
+      <c r="AE43" t="n">
+        <v>0</v>
+      </c>
+      <c r="AF43" t="n">
+        <v>0</v>
+      </c>
+      <c r="AG43" t="n">
         <v>0.1679966400671987</v>
       </c>
-      <c r="M43" t="n">
-        <v>0</v>
-      </c>
-      <c r="N43" t="n">
-        <v>0</v>
-      </c>
-      <c r="O43" t="n">
-        <v>0</v>
-      </c>
-      <c r="P43" t="n">
-        <v>0</v>
-      </c>
-      <c r="Q43" t="n">
-        <v>0</v>
-      </c>
-      <c r="R43" t="n">
-        <v>0.02099958000839983</v>
-      </c>
-      <c r="S43" t="n">
-        <v>0</v>
-      </c>
-      <c r="T43" t="n">
-        <v>0</v>
-      </c>
-      <c r="U43" t="n">
-        <v>0</v>
-      </c>
-      <c r="V43" t="n">
-        <v>0</v>
-      </c>
-      <c r="W43" t="n">
-        <v>0</v>
-      </c>
-      <c r="X43" t="n">
-        <v>0</v>
-      </c>
-      <c r="Y43" t="n">
+      <c r="AH43" t="n">
+        <v>0</v>
+      </c>
+      <c r="AI43" t="n">
         <v>1.007979840403192</v>
-      </c>
-      <c r="Z43" t="n">
-        <v>0</v>
-      </c>
-      <c r="AA43" t="n">
-        <v>0</v>
-      </c>
-      <c r="AB43" t="n">
-        <v>0</v>
-      </c>
-      <c r="AC43" t="n">
-        <v>0</v>
-      </c>
-      <c r="AD43" t="n">
-        <v>0</v>
-      </c>
-      <c r="AE43" t="n">
-        <v>0.1679966400671987</v>
-      </c>
-      <c r="AF43" t="n">
-        <v>0</v>
-      </c>
-      <c r="AG43" t="n">
-        <v>0</v>
-      </c>
-      <c r="AH43" t="n">
-        <v>0</v>
-      </c>
-      <c r="AI43" t="n">
-        <v>0</v>
       </c>
     </row>
     <row r="44">
@@ -5205,7 +5205,7 @@
         <v>0</v>
       </c>
       <c r="G44" t="n">
-        <v>0</v>
+        <v>0.04927079227433977</v>
       </c>
       <c r="H44" t="n">
         <v>0</v>
@@ -5217,7 +5217,7 @@
         <v>0</v>
       </c>
       <c r="K44" t="n">
-        <v>0.04927079227433977</v>
+        <v>0</v>
       </c>
       <c r="L44" t="n">
         <v>0</v>
@@ -5259,37 +5259,37 @@
         <v>0</v>
       </c>
       <c r="Y44" t="n">
+        <v>0</v>
+      </c>
+      <c r="Z44" t="n">
+        <v>0</v>
+      </c>
+      <c r="AA44" t="n">
+        <v>0</v>
+      </c>
+      <c r="AB44" t="n">
+        <v>0</v>
+      </c>
+      <c r="AC44" t="n">
+        <v>0</v>
+      </c>
+      <c r="AD44" t="n">
+        <v>0</v>
+      </c>
+      <c r="AE44" t="n">
+        <v>0</v>
+      </c>
+      <c r="AF44" t="n">
+        <v>0</v>
+      </c>
+      <c r="AG44" t="n">
+        <v>0</v>
+      </c>
+      <c r="AH44" t="n">
+        <v>0</v>
+      </c>
+      <c r="AI44" t="n">
         <v>0.1675206937327552</v>
-      </c>
-      <c r="Z44" t="n">
-        <v>0</v>
-      </c>
-      <c r="AA44" t="n">
-        <v>0</v>
-      </c>
-      <c r="AB44" t="n">
-        <v>0</v>
-      </c>
-      <c r="AC44" t="n">
-        <v>0</v>
-      </c>
-      <c r="AD44" t="n">
-        <v>0</v>
-      </c>
-      <c r="AE44" t="n">
-        <v>0</v>
-      </c>
-      <c r="AF44" t="n">
-        <v>0</v>
-      </c>
-      <c r="AG44" t="n">
-        <v>0</v>
-      </c>
-      <c r="AH44" t="n">
-        <v>0</v>
-      </c>
-      <c r="AI44" t="n">
-        <v>0</v>
       </c>
     </row>
     <row r="45">
@@ -5314,7 +5314,7 @@
         <v>0</v>
       </c>
       <c r="G45" t="n">
-        <v>0</v>
+        <v>4.41</v>
       </c>
       <c r="H45" t="n">
         <v>0</v>
@@ -5326,7 +5326,7 @@
         <v>0</v>
       </c>
       <c r="K45" t="n">
-        <v>4.41</v>
+        <v>0</v>
       </c>
       <c r="L45" t="n">
         <v>0</v>
@@ -5432,10 +5432,10 @@
         <v>0</v>
       </c>
       <c r="J46" t="n">
-        <v>0</v>
+        <v>0.03638470764213619</v>
       </c>
       <c r="K46" t="n">
-        <v>0</v>
+        <v>0.001347581764523563</v>
       </c>
       <c r="L46" t="n">
         <v>0</v>
@@ -5483,25 +5483,25 @@
         <v>0</v>
       </c>
       <c r="AA46" t="n">
-        <v>0.03638470764213619</v>
+        <v>0</v>
       </c>
       <c r="AB46" t="n">
+        <v>0</v>
+      </c>
+      <c r="AC46" t="n">
+        <v>0</v>
+      </c>
+      <c r="AD46" t="n">
+        <v>0</v>
+      </c>
+      <c r="AE46" t="n">
+        <v>0</v>
+      </c>
+      <c r="AF46" t="n">
+        <v>0</v>
+      </c>
+      <c r="AG46" t="n">
         <v>0.001347581764523563</v>
-      </c>
-      <c r="AC46" t="n">
-        <v>0</v>
-      </c>
-      <c r="AD46" t="n">
-        <v>0</v>
-      </c>
-      <c r="AE46" t="n">
-        <v>0.001347581764523563</v>
-      </c>
-      <c r="AF46" t="n">
-        <v>0</v>
-      </c>
-      <c r="AG46" t="n">
-        <v>0</v>
       </c>
       <c r="AH46" t="n">
         <v>0</v>
@@ -5565,28 +5565,28 @@
         <v>0</v>
       </c>
       <c r="R47" t="n">
+        <v>0</v>
+      </c>
+      <c r="S47" t="n">
+        <v>0</v>
+      </c>
+      <c r="T47" t="n">
+        <v>0</v>
+      </c>
+      <c r="U47" t="n">
+        <v>0</v>
+      </c>
+      <c r="V47" t="n">
+        <v>0</v>
+      </c>
+      <c r="W47" t="n">
+        <v>0</v>
+      </c>
+      <c r="X47" t="n">
+        <v>0</v>
+      </c>
+      <c r="Y47" t="n">
         <v>0.004311273981461522</v>
-      </c>
-      <c r="S47" t="n">
-        <v>0</v>
-      </c>
-      <c r="T47" t="n">
-        <v>0</v>
-      </c>
-      <c r="U47" t="n">
-        <v>0</v>
-      </c>
-      <c r="V47" t="n">
-        <v>0</v>
-      </c>
-      <c r="W47" t="n">
-        <v>0</v>
-      </c>
-      <c r="X47" t="n">
-        <v>0</v>
-      </c>
-      <c r="Y47" t="n">
-        <v>0</v>
       </c>
       <c r="Z47" t="n">
         <v>0</v>
@@ -5635,97 +5635,97 @@
         <v>0</v>
       </c>
       <c r="E48" t="n">
-        <v>0</v>
+        <v>0.02585418241120083</v>
       </c>
       <c r="F48" t="n">
         <v>0</v>
       </c>
       <c r="G48" t="n">
-        <v>0</v>
+        <v>0.09745037985760312</v>
       </c>
       <c r="H48" t="n">
+        <v>0.005966349787200191</v>
+      </c>
+      <c r="I48" t="n">
+        <v>0</v>
+      </c>
+      <c r="J48" t="n">
+        <v>0.005966349787200191</v>
+      </c>
+      <c r="K48" t="n">
+        <v>0</v>
+      </c>
+      <c r="L48" t="n">
+        <v>0</v>
+      </c>
+      <c r="M48" t="n">
+        <v>0</v>
+      </c>
+      <c r="N48" t="n">
         <v>0.5568593134720178</v>
       </c>
-      <c r="I48" t="n">
-        <v>0</v>
-      </c>
-      <c r="J48" t="n">
-        <v>0</v>
-      </c>
-      <c r="K48" t="n">
-        <v>0.09745037985760312</v>
-      </c>
-      <c r="L48" t="n">
-        <v>0.02585418241120083</v>
-      </c>
-      <c r="M48" t="n">
-        <v>0</v>
-      </c>
-      <c r="N48" t="n">
-        <v>0</v>
-      </c>
       <c r="O48" t="n">
-        <v>0</v>
+        <v>0.003977566524800128</v>
       </c>
       <c r="P48" t="n">
+        <v>0</v>
+      </c>
+      <c r="Q48" t="n">
+        <v>0</v>
+      </c>
+      <c r="R48" t="n">
+        <v>0.001988783262400064</v>
+      </c>
+      <c r="S48" t="n">
+        <v>0</v>
+      </c>
+      <c r="T48" t="n">
+        <v>0</v>
+      </c>
+      <c r="U48" t="n">
+        <v>0</v>
+      </c>
+      <c r="V48" t="n">
+        <v>0</v>
+      </c>
+      <c r="W48" t="n">
+        <v>0</v>
+      </c>
+      <c r="X48" t="n">
+        <v>0</v>
+      </c>
+      <c r="Y48" t="n">
+        <v>0</v>
+      </c>
+      <c r="Z48" t="n">
+        <v>0</v>
+      </c>
+      <c r="AA48" t="n">
+        <v>0</v>
+      </c>
+      <c r="AB48" t="n">
+        <v>0</v>
+      </c>
+      <c r="AC48" t="n">
+        <v>0</v>
+      </c>
+      <c r="AD48" t="n">
+        <v>0</v>
+      </c>
+      <c r="AE48" t="n">
         <v>0.01193269957440038</v>
       </c>
-      <c r="Q48" t="n">
-        <v>0</v>
-      </c>
-      <c r="R48" t="n">
-        <v>0</v>
-      </c>
-      <c r="S48" t="n">
-        <v>0.003977566524800128</v>
-      </c>
-      <c r="T48" t="n">
-        <v>0</v>
-      </c>
-      <c r="U48" t="n">
-        <v>0</v>
-      </c>
-      <c r="V48" t="n">
-        <v>0</v>
-      </c>
-      <c r="W48" t="n">
-        <v>0</v>
-      </c>
-      <c r="X48" t="n">
-        <v>0</v>
-      </c>
-      <c r="Y48" t="n">
+      <c r="AF48" t="n">
+        <v>0</v>
+      </c>
+      <c r="AG48" t="n">
+        <v>0.04773079829760152</v>
+      </c>
+      <c r="AH48" t="n">
+        <v>0</v>
+      </c>
+      <c r="AI48" t="n">
         <v>1.25293345531204</v>
-      </c>
-      <c r="Z48" t="n">
-        <v>0.001988783262400064</v>
-      </c>
-      <c r="AA48" t="n">
-        <v>0.005966349787200191</v>
-      </c>
-      <c r="AB48" t="n">
-        <v>0</v>
-      </c>
-      <c r="AC48" t="n">
-        <v>0</v>
-      </c>
-      <c r="AD48" t="n">
-        <v>0.005966349787200191</v>
-      </c>
-      <c r="AE48" t="n">
-        <v>0.04773079829760152</v>
-      </c>
-      <c r="AF48" t="n">
-        <v>0</v>
-      </c>
-      <c r="AG48" t="n">
-        <v>0</v>
-      </c>
-      <c r="AH48" t="n">
-        <v>0</v>
-      </c>
-      <c r="AI48" t="n">
-        <v>0</v>
       </c>
     </row>
     <row r="49">
@@ -5750,7 +5750,7 @@
         <v>0</v>
       </c>
       <c r="G49" t="n">
-        <v>0</v>
+        <v>0.1264400112391121</v>
       </c>
       <c r="H49" t="n">
         <v>0</v>
@@ -5762,7 +5762,7 @@
         <v>0</v>
       </c>
       <c r="K49" t="n">
-        <v>0.1264400112391121</v>
+        <v>0</v>
       </c>
       <c r="L49" t="n">
         <v>0</v>
@@ -5804,37 +5804,37 @@
         <v>0</v>
       </c>
       <c r="Y49" t="n">
+        <v>0</v>
+      </c>
+      <c r="Z49" t="n">
+        <v>0</v>
+      </c>
+      <c r="AA49" t="n">
+        <v>0</v>
+      </c>
+      <c r="AB49" t="n">
+        <v>0</v>
+      </c>
+      <c r="AC49" t="n">
+        <v>0</v>
+      </c>
+      <c r="AD49" t="n">
+        <v>0</v>
+      </c>
+      <c r="AE49" t="n">
+        <v>0</v>
+      </c>
+      <c r="AF49" t="n">
+        <v>0</v>
+      </c>
+      <c r="AG49" t="n">
+        <v>0</v>
+      </c>
+      <c r="AH49" t="n">
+        <v>0</v>
+      </c>
+      <c r="AI49" t="n">
         <v>0.01404889013767912</v>
-      </c>
-      <c r="Z49" t="n">
-        <v>0</v>
-      </c>
-      <c r="AA49" t="n">
-        <v>0</v>
-      </c>
-      <c r="AB49" t="n">
-        <v>0</v>
-      </c>
-      <c r="AC49" t="n">
-        <v>0</v>
-      </c>
-      <c r="AD49" t="n">
-        <v>0</v>
-      </c>
-      <c r="AE49" t="n">
-        <v>0</v>
-      </c>
-      <c r="AF49" t="n">
-        <v>0</v>
-      </c>
-      <c r="AG49" t="n">
-        <v>0</v>
-      </c>
-      <c r="AH49" t="n">
-        <v>0</v>
-      </c>
-      <c r="AI49" t="n">
-        <v>0</v>
       </c>
     </row>
     <row r="50">
@@ -5859,7 +5859,7 @@
         <v>0</v>
       </c>
       <c r="G50" t="n">
-        <v>0</v>
+        <v>5.7</v>
       </c>
       <c r="H50" t="n">
         <v>0</v>
@@ -5871,7 +5871,7 @@
         <v>0</v>
       </c>
       <c r="K50" t="n">
-        <v>5.7</v>
+        <v>0</v>
       </c>
       <c r="L50" t="n">
         <v>0</v>
@@ -5989,22 +5989,22 @@
         <v>0</v>
       </c>
       <c r="N51" t="n">
+        <v>0</v>
+      </c>
+      <c r="O51" t="n">
+        <v>0</v>
+      </c>
+      <c r="P51" t="n">
+        <v>0</v>
+      </c>
+      <c r="Q51" t="n">
+        <v>0</v>
+      </c>
+      <c r="R51" t="n">
+        <v>0</v>
+      </c>
+      <c r="S51" t="n">
         <v>0.04099598670866957</v>
-      </c>
-      <c r="O51" t="n">
-        <v>0</v>
-      </c>
-      <c r="P51" t="n">
-        <v>0</v>
-      </c>
-      <c r="Q51" t="n">
-        <v>0</v>
-      </c>
-      <c r="R51" t="n">
-        <v>0</v>
-      </c>
-      <c r="S51" t="n">
-        <v>0</v>
       </c>
       <c r="T51" t="n">
         <v>0</v>
@@ -6068,88 +6068,88 @@
         <v>2</v>
       </c>
       <c r="D52" t="n">
+        <v>0</v>
+      </c>
+      <c r="E52" t="n">
+        <v>0</v>
+      </c>
+      <c r="F52" t="n">
+        <v>0</v>
+      </c>
+      <c r="G52" t="n">
+        <v>0</v>
+      </c>
+      <c r="H52" t="n">
+        <v>0</v>
+      </c>
+      <c r="I52" t="n">
+        <v>0</v>
+      </c>
+      <c r="J52" t="n">
+        <v>0</v>
+      </c>
+      <c r="K52" t="n">
+        <v>0</v>
+      </c>
+      <c r="L52" t="n">
+        <v>0</v>
+      </c>
+      <c r="M52" t="n">
+        <v>0</v>
+      </c>
+      <c r="N52" t="n">
+        <v>0</v>
+      </c>
+      <c r="O52" t="n">
+        <v>0</v>
+      </c>
+      <c r="P52" t="n">
+        <v>0</v>
+      </c>
+      <c r="Q52" t="n">
+        <v>0</v>
+      </c>
+      <c r="R52" t="n">
+        <v>0</v>
+      </c>
+      <c r="S52" t="n">
+        <v>0</v>
+      </c>
+      <c r="T52" t="n">
+        <v>0</v>
+      </c>
+      <c r="U52" t="n">
+        <v>0</v>
+      </c>
+      <c r="V52" t="n">
+        <v>0.01273143938016078</v>
+      </c>
+      <c r="W52" t="n">
+        <v>0</v>
+      </c>
+      <c r="X52" t="n">
+        <v>0</v>
+      </c>
+      <c r="Y52" t="n">
+        <v>0</v>
+      </c>
+      <c r="Z52" t="n">
+        <v>0</v>
+      </c>
+      <c r="AA52" t="n">
         <v>0.005456331162926049</v>
       </c>
-      <c r="E52" t="n">
-        <v>0</v>
-      </c>
-      <c r="F52" t="n">
-        <v>0.01273143938016078</v>
-      </c>
-      <c r="G52" t="n">
-        <v>0</v>
-      </c>
-      <c r="H52" t="n">
-        <v>0</v>
-      </c>
-      <c r="I52" t="n">
-        <v>0</v>
-      </c>
-      <c r="J52" t="n">
-        <v>0</v>
-      </c>
-      <c r="K52" t="n">
-        <v>0</v>
-      </c>
-      <c r="L52" t="n">
-        <v>0</v>
-      </c>
-      <c r="M52" t="n">
-        <v>0</v>
-      </c>
-      <c r="N52" t="n">
-        <v>0</v>
-      </c>
-      <c r="O52" t="n">
-        <v>0</v>
-      </c>
-      <c r="P52" t="n">
+      <c r="AB52" t="n">
+        <v>0</v>
+      </c>
+      <c r="AC52" t="n">
+        <v>0</v>
+      </c>
+      <c r="AD52" t="n">
+        <v>0</v>
+      </c>
+      <c r="AE52" t="n">
         <v>0.003637554108617366</v>
-      </c>
-      <c r="Q52" t="n">
-        <v>0</v>
-      </c>
-      <c r="R52" t="n">
-        <v>0</v>
-      </c>
-      <c r="S52" t="n">
-        <v>0</v>
-      </c>
-      <c r="T52" t="n">
-        <v>0</v>
-      </c>
-      <c r="U52" t="n">
-        <v>0</v>
-      </c>
-      <c r="V52" t="n">
-        <v>0</v>
-      </c>
-      <c r="W52" t="n">
-        <v>0</v>
-      </c>
-      <c r="X52" t="n">
-        <v>0</v>
-      </c>
-      <c r="Y52" t="n">
-        <v>0</v>
-      </c>
-      <c r="Z52" t="n">
-        <v>0</v>
-      </c>
-      <c r="AA52" t="n">
-        <v>0</v>
-      </c>
-      <c r="AB52" t="n">
-        <v>0</v>
-      </c>
-      <c r="AC52" t="n">
-        <v>0</v>
-      </c>
-      <c r="AD52" t="n">
-        <v>0</v>
-      </c>
-      <c r="AE52" t="n">
-        <v>0</v>
       </c>
       <c r="AF52" t="n">
         <v>0</v>
@@ -6180,26 +6180,26 @@
         <v>0</v>
       </c>
       <c r="E53" t="n">
+        <v>0</v>
+      </c>
+      <c r="F53" t="n">
+        <v>0</v>
+      </c>
+      <c r="G53" t="n">
+        <v>0</v>
+      </c>
+      <c r="H53" t="n">
+        <v>0</v>
+      </c>
+      <c r="I53" t="n">
+        <v>0</v>
+      </c>
+      <c r="J53" t="n">
+        <v>0</v>
+      </c>
+      <c r="K53" t="n">
         <v>0.0007963178263708611</v>
       </c>
-      <c r="F53" t="n">
-        <v>0</v>
-      </c>
-      <c r="G53" t="n">
-        <v>0</v>
-      </c>
-      <c r="H53" t="n">
-        <v>0</v>
-      </c>
-      <c r="I53" t="n">
-        <v>0</v>
-      </c>
-      <c r="J53" t="n">
-        <v>0</v>
-      </c>
-      <c r="K53" t="n">
-        <v>0</v>
-      </c>
       <c r="L53" t="n">
         <v>0</v>
       </c>
@@ -6219,55 +6219,55 @@
         <v>0</v>
       </c>
       <c r="R53" t="n">
-        <v>0</v>
+        <v>0.0003981589131854306</v>
       </c>
       <c r="S53" t="n">
         <v>0</v>
       </c>
       <c r="T53" t="n">
+        <v>0</v>
+      </c>
+      <c r="U53" t="n">
+        <v>0</v>
+      </c>
+      <c r="V53" t="n">
+        <v>0</v>
+      </c>
+      <c r="W53" t="n">
+        <v>0</v>
+      </c>
+      <c r="X53" t="n">
+        <v>0</v>
+      </c>
+      <c r="Y53" t="n">
+        <v>0</v>
+      </c>
+      <c r="Z53" t="n">
         <v>0.0007963178263708611</v>
       </c>
-      <c r="U53" t="n">
-        <v>0</v>
-      </c>
-      <c r="V53" t="n">
-        <v>0</v>
-      </c>
-      <c r="W53" t="n">
-        <v>0</v>
-      </c>
-      <c r="X53" t="n">
-        <v>0</v>
-      </c>
-      <c r="Y53" t="n">
-        <v>0</v>
-      </c>
-      <c r="Z53" t="n">
-        <v>0.0003981589131854306</v>
-      </c>
       <c r="AA53" t="n">
         <v>0</v>
       </c>
       <c r="AB53" t="n">
+        <v>0</v>
+      </c>
+      <c r="AC53" t="n">
+        <v>0</v>
+      </c>
+      <c r="AD53" t="n">
+        <v>0</v>
+      </c>
+      <c r="AE53" t="n">
+        <v>0</v>
+      </c>
+      <c r="AF53" t="n">
+        <v>0</v>
+      </c>
+      <c r="AG53" t="n">
+        <v>0.001194476739556292</v>
+      </c>
+      <c r="AH53" t="n">
         <v>0.0007963178263708611</v>
-      </c>
-      <c r="AC53" t="n">
-        <v>0</v>
-      </c>
-      <c r="AD53" t="n">
-        <v>0</v>
-      </c>
-      <c r="AE53" t="n">
-        <v>0.001194476739556292</v>
-      </c>
-      <c r="AF53" t="n">
-        <v>0</v>
-      </c>
-      <c r="AG53" t="n">
-        <v>0</v>
-      </c>
-      <c r="AH53" t="n">
-        <v>0</v>
       </c>
       <c r="AI53" t="n">
         <v>0</v>
@@ -6304,7 +6304,7 @@
         <v>0</v>
       </c>
       <c r="J54" t="n">
-        <v>0</v>
+        <v>0.264812975835816</v>
       </c>
       <c r="K54" t="n">
         <v>0</v>
@@ -6355,7 +6355,7 @@
         <v>0</v>
       </c>
       <c r="AA54" t="n">
-        <v>0.264812975835816</v>
+        <v>0</v>
       </c>
       <c r="AB54" t="n">
         <v>0</v>
@@ -6416,7 +6416,7 @@
         <v>0</v>
       </c>
       <c r="K55" t="n">
-        <v>0</v>
+        <v>0.001908396946564886</v>
       </c>
       <c r="L55" t="n">
         <v>0</v>
@@ -6458,37 +6458,37 @@
         <v>0</v>
       </c>
       <c r="Y55" t="n">
+        <v>0</v>
+      </c>
+      <c r="Z55" t="n">
+        <v>0</v>
+      </c>
+      <c r="AA55" t="n">
+        <v>0</v>
+      </c>
+      <c r="AB55" t="n">
+        <v>0</v>
+      </c>
+      <c r="AC55" t="n">
+        <v>0</v>
+      </c>
+      <c r="AD55" t="n">
+        <v>0</v>
+      </c>
+      <c r="AE55" t="n">
+        <v>0</v>
+      </c>
+      <c r="AF55" t="n">
+        <v>0</v>
+      </c>
+      <c r="AG55" t="n">
+        <v>0</v>
+      </c>
+      <c r="AH55" t="n">
+        <v>0</v>
+      </c>
+      <c r="AI55" t="n">
         <v>0.005725190839694656</v>
-      </c>
-      <c r="Z55" t="n">
-        <v>0</v>
-      </c>
-      <c r="AA55" t="n">
-        <v>0</v>
-      </c>
-      <c r="AB55" t="n">
-        <v>0.001908396946564886</v>
-      </c>
-      <c r="AC55" t="n">
-        <v>0</v>
-      </c>
-      <c r="AD55" t="n">
-        <v>0</v>
-      </c>
-      <c r="AE55" t="n">
-        <v>0</v>
-      </c>
-      <c r="AF55" t="n">
-        <v>0</v>
-      </c>
-      <c r="AG55" t="n">
-        <v>0</v>
-      </c>
-      <c r="AH55" t="n">
-        <v>0</v>
-      </c>
-      <c r="AI55" t="n">
-        <v>0</v>
       </c>
     </row>
     <row r="56">
@@ -6525,7 +6525,7 @@
         <v>0</v>
       </c>
       <c r="K56" t="n">
-        <v>0</v>
+        <v>0.01744652639659444</v>
       </c>
       <c r="L56" t="n">
         <v>0</v>
@@ -6567,37 +6567,37 @@
         <v>0</v>
       </c>
       <c r="Y56" t="n">
+        <v>0</v>
+      </c>
+      <c r="Z56" t="n">
+        <v>0</v>
+      </c>
+      <c r="AA56" t="n">
+        <v>0</v>
+      </c>
+      <c r="AB56" t="n">
+        <v>0</v>
+      </c>
+      <c r="AC56" t="n">
+        <v>0</v>
+      </c>
+      <c r="AD56" t="n">
+        <v>0</v>
+      </c>
+      <c r="AE56" t="n">
+        <v>0</v>
+      </c>
+      <c r="AF56" t="n">
+        <v>0</v>
+      </c>
+      <c r="AG56" t="n">
+        <v>0</v>
+      </c>
+      <c r="AH56" t="n">
+        <v>0</v>
+      </c>
+      <c r="AI56" t="n">
         <v>0.003489305279318887</v>
-      </c>
-      <c r="Z56" t="n">
-        <v>0</v>
-      </c>
-      <c r="AA56" t="n">
-        <v>0</v>
-      </c>
-      <c r="AB56" t="n">
-        <v>0.01744652639659444</v>
-      </c>
-      <c r="AC56" t="n">
-        <v>0</v>
-      </c>
-      <c r="AD56" t="n">
-        <v>0</v>
-      </c>
-      <c r="AE56" t="n">
-        <v>0</v>
-      </c>
-      <c r="AF56" t="n">
-        <v>0</v>
-      </c>
-      <c r="AG56" t="n">
-        <v>0</v>
-      </c>
-      <c r="AH56" t="n">
-        <v>0</v>
-      </c>
-      <c r="AI56" t="n">
-        <v>0</v>
       </c>
     </row>
     <row r="57">
@@ -6613,100 +6613,100 @@
         <v>3</v>
       </c>
       <c r="D57" t="n">
+        <v>0</v>
+      </c>
+      <c r="E57" t="n">
+        <v>0</v>
+      </c>
+      <c r="F57" t="n">
+        <v>0</v>
+      </c>
+      <c r="G57" t="n">
+        <v>0</v>
+      </c>
+      <c r="H57" t="n">
+        <v>0</v>
+      </c>
+      <c r="I57" t="n">
+        <v>0</v>
+      </c>
+      <c r="J57" t="n">
+        <v>0.09247738507583145</v>
+      </c>
+      <c r="K57" t="n">
+        <v>0</v>
+      </c>
+      <c r="L57" t="n">
+        <v>0</v>
+      </c>
+      <c r="M57" t="n">
+        <v>0</v>
+      </c>
+      <c r="N57" t="n">
+        <v>0</v>
+      </c>
+      <c r="O57" t="n">
+        <v>0</v>
+      </c>
+      <c r="P57" t="n">
+        <v>0</v>
+      </c>
+      <c r="Q57" t="n">
+        <v>0</v>
+      </c>
+      <c r="R57" t="n">
+        <v>0.9390658102700339</v>
+      </c>
+      <c r="S57" t="n">
+        <v>0</v>
+      </c>
+      <c r="T57" t="n">
+        <v>0</v>
+      </c>
+      <c r="U57" t="n">
+        <v>0</v>
+      </c>
+      <c r="V57" t="n">
+        <v>0</v>
+      </c>
+      <c r="W57" t="n">
+        <v>0</v>
+      </c>
+      <c r="X57" t="n">
+        <v>0</v>
+      </c>
+      <c r="Y57" t="n">
+        <v>0</v>
+      </c>
+      <c r="Z57" t="n">
+        <v>0</v>
+      </c>
+      <c r="AA57" t="n">
         <v>0.03110602952550695</v>
       </c>
-      <c r="E57" t="n">
-        <v>0</v>
-      </c>
-      <c r="F57" t="n">
-        <v>0</v>
-      </c>
-      <c r="G57" t="n">
-        <v>0</v>
-      </c>
-      <c r="H57" t="n">
-        <v>0</v>
-      </c>
-      <c r="I57" t="n">
-        <v>0</v>
-      </c>
-      <c r="J57" t="n">
-        <v>0</v>
-      </c>
-      <c r="K57" t="n">
-        <v>0</v>
-      </c>
-      <c r="L57" t="n">
-        <v>0</v>
-      </c>
-      <c r="M57" t="n">
-        <v>0</v>
-      </c>
-      <c r="N57" t="n">
-        <v>0</v>
-      </c>
-      <c r="O57" t="n">
-        <v>0</v>
-      </c>
-      <c r="P57" t="n">
-        <v>0</v>
-      </c>
-      <c r="Q57" t="n">
-        <v>0</v>
-      </c>
-      <c r="R57" t="n">
-        <v>0</v>
-      </c>
-      <c r="S57" t="n">
-        <v>0</v>
-      </c>
-      <c r="T57" t="n">
-        <v>0</v>
-      </c>
-      <c r="U57" t="n">
-        <v>0</v>
-      </c>
-      <c r="V57" t="n">
-        <v>0</v>
-      </c>
-      <c r="W57" t="n">
-        <v>0</v>
-      </c>
-      <c r="X57" t="n">
-        <v>0</v>
-      </c>
-      <c r="Y57" t="n">
+      <c r="AB57" t="n">
+        <v>0</v>
+      </c>
+      <c r="AC57" t="n">
+        <v>0</v>
+      </c>
+      <c r="AD57" t="n">
+        <v>0</v>
+      </c>
+      <c r="AE57" t="n">
+        <v>0</v>
+      </c>
+      <c r="AF57" t="n">
+        <v>0</v>
+      </c>
+      <c r="AG57" t="n">
+        <v>0.1723442176413222</v>
+      </c>
+      <c r="AH57" t="n">
+        <v>0</v>
+      </c>
+      <c r="AI57" t="n">
         <v>0.01849547701516629</v>
-      </c>
-      <c r="Z57" t="n">
-        <v>0.9390658102700339</v>
-      </c>
-      <c r="AA57" t="n">
-        <v>0.09247738507583145</v>
-      </c>
-      <c r="AB57" t="n">
-        <v>0</v>
-      </c>
-      <c r="AC57" t="n">
-        <v>0</v>
-      </c>
-      <c r="AD57" t="n">
-        <v>0</v>
-      </c>
-      <c r="AE57" t="n">
-        <v>0.1723442176413222</v>
-      </c>
-      <c r="AF57" t="n">
-        <v>0</v>
-      </c>
-      <c r="AG57" t="n">
-        <v>0</v>
-      </c>
-      <c r="AH57" t="n">
-        <v>0</v>
-      </c>
-      <c r="AI57" t="n">
-        <v>0</v>
       </c>
     </row>
     <row r="58">
@@ -6722,100 +6722,100 @@
         <v>1</v>
       </c>
       <c r="D58" t="n">
-        <v>0</v>
+        <v>0.01542020046260601</v>
       </c>
       <c r="E58" t="n">
-        <v>0</v>
+        <v>0.01542020046260601</v>
       </c>
       <c r="F58" t="n">
         <v>0</v>
       </c>
       <c r="G58" t="n">
-        <v>0</v>
+        <v>0.06168080185042405</v>
       </c>
       <c r="H58" t="n">
+        <v>0.07710100231303006</v>
+      </c>
+      <c r="I58" t="n">
+        <v>0</v>
+      </c>
+      <c r="J58" t="n">
+        <v>0</v>
+      </c>
+      <c r="K58" t="n">
+        <v>0</v>
+      </c>
+      <c r="L58" t="n">
+        <v>0</v>
+      </c>
+      <c r="M58" t="n">
+        <v>0</v>
+      </c>
+      <c r="N58" t="n">
         <v>0.1233616037008481</v>
       </c>
-      <c r="I58" t="n">
+      <c r="O58" t="n">
         <v>0.01542020046260601</v>
       </c>
-      <c r="J58" t="n">
-        <v>0</v>
-      </c>
-      <c r="K58" t="n">
-        <v>0.06168080185042405</v>
-      </c>
-      <c r="L58" t="n">
+      <c r="P58" t="n">
+        <v>0</v>
+      </c>
+      <c r="Q58" t="n">
+        <v>0</v>
+      </c>
+      <c r="R58" t="n">
+        <v>0</v>
+      </c>
+      <c r="S58" t="n">
+        <v>0.04626060138781804</v>
+      </c>
+      <c r="T58" t="n">
+        <v>0</v>
+      </c>
+      <c r="U58" t="n">
+        <v>0</v>
+      </c>
+      <c r="V58" t="n">
+        <v>0</v>
+      </c>
+      <c r="W58" t="n">
+        <v>0</v>
+      </c>
+      <c r="X58" t="n">
+        <v>0</v>
+      </c>
+      <c r="Y58" t="n">
+        <v>0</v>
+      </c>
+      <c r="Z58" t="n">
+        <v>0</v>
+      </c>
+      <c r="AA58" t="n">
+        <v>0</v>
+      </c>
+      <c r="AB58" t="n">
+        <v>0</v>
+      </c>
+      <c r="AC58" t="n">
+        <v>0</v>
+      </c>
+      <c r="AD58" t="n">
+        <v>0</v>
+      </c>
+      <c r="AE58" t="n">
         <v>0.01542020046260601</v>
       </c>
-      <c r="M58" t="n">
-        <v>0</v>
-      </c>
-      <c r="N58" t="n">
-        <v>0.04626060138781804</v>
-      </c>
-      <c r="O58" t="n">
-        <v>0</v>
-      </c>
-      <c r="P58" t="n">
-        <v>0.01542020046260601</v>
-      </c>
-      <c r="Q58" t="n">
-        <v>0</v>
-      </c>
-      <c r="R58" t="n">
-        <v>0</v>
-      </c>
-      <c r="S58" t="n">
-        <v>0.01542020046260601</v>
-      </c>
-      <c r="T58" t="n">
-        <v>0</v>
-      </c>
-      <c r="U58" t="n">
-        <v>0</v>
-      </c>
-      <c r="V58" t="n">
-        <v>0</v>
-      </c>
-      <c r="W58" t="n">
-        <v>0</v>
-      </c>
-      <c r="X58" t="n">
-        <v>0</v>
-      </c>
-      <c r="Y58" t="n">
+      <c r="AF58" t="n">
+        <v>0</v>
+      </c>
+      <c r="AG58" t="n">
+        <v>1.264456437933693</v>
+      </c>
+      <c r="AH58" t="n">
+        <v>0</v>
+      </c>
+      <c r="AI58" t="n">
         <v>0.2158828064764842</v>
-      </c>
-      <c r="Z58" t="n">
-        <v>0</v>
-      </c>
-      <c r="AA58" t="n">
-        <v>0</v>
-      </c>
-      <c r="AB58" t="n">
-        <v>0</v>
-      </c>
-      <c r="AC58" t="n">
-        <v>0</v>
-      </c>
-      <c r="AD58" t="n">
-        <v>0.07710100231303006</v>
-      </c>
-      <c r="AE58" t="n">
-        <v>1.264456437933693</v>
-      </c>
-      <c r="AF58" t="n">
-        <v>0</v>
-      </c>
-      <c r="AG58" t="n">
-        <v>0</v>
-      </c>
-      <c r="AH58" t="n">
-        <v>0</v>
-      </c>
-      <c r="AI58" t="n">
-        <v>0</v>
       </c>
     </row>
     <row r="59">
@@ -6834,94 +6834,94 @@
         <v>0</v>
       </c>
       <c r="E59" t="n">
-        <v>0</v>
+        <v>2.708933717579251</v>
       </c>
       <c r="F59" t="n">
+        <v>0</v>
+      </c>
+      <c r="G59" t="n">
+        <v>0</v>
+      </c>
+      <c r="H59" t="n">
+        <v>0</v>
+      </c>
+      <c r="I59" t="n">
         <v>0.01921229586935639</v>
       </c>
-      <c r="G59" t="n">
-        <v>0</v>
-      </c>
-      <c r="H59" t="n">
-        <v>0</v>
-      </c>
-      <c r="I59" t="n">
-        <v>0</v>
-      </c>
       <c r="J59" t="n">
+        <v>0</v>
+      </c>
+      <c r="K59" t="n">
+        <v>1.325648414985591</v>
+      </c>
+      <c r="L59" t="n">
+        <v>0</v>
+      </c>
+      <c r="M59" t="n">
         <v>0.07684918347742556</v>
       </c>
-      <c r="K59" t="n">
-        <v>0</v>
-      </c>
-      <c r="L59" t="n">
-        <v>2.708933717579251</v>
-      </c>
-      <c r="M59" t="n">
-        <v>0</v>
-      </c>
       <c r="N59" t="n">
         <v>0</v>
       </c>
       <c r="O59" t="n">
-        <v>0</v>
+        <v>8.93371757925072</v>
       </c>
       <c r="P59" t="n">
-        <v>0</v>
+        <v>0.1152737752161383</v>
       </c>
       <c r="Q59" t="n">
+        <v>0</v>
+      </c>
+      <c r="R59" t="n">
+        <v>3.150816522574448</v>
+      </c>
+      <c r="S59" t="n">
+        <v>0</v>
+      </c>
+      <c r="T59" t="n">
+        <v>0</v>
+      </c>
+      <c r="U59" t="n">
+        <v>0</v>
+      </c>
+      <c r="V59" t="n">
+        <v>0.01921229586935639</v>
+      </c>
+      <c r="W59" t="n">
+        <v>0</v>
+      </c>
+      <c r="X59" t="n">
+        <v>0</v>
+      </c>
+      <c r="Y59" t="n">
+        <v>0.1536983669548511</v>
+      </c>
+      <c r="Z59" t="n">
+        <v>0</v>
+      </c>
+      <c r="AA59" t="n">
+        <v>0</v>
+      </c>
+      <c r="AB59" t="n">
         <v>0.1152737752161383</v>
       </c>
-      <c r="R59" t="n">
-        <v>0.1536983669548511</v>
-      </c>
-      <c r="S59" t="n">
-        <v>8.93371757925072</v>
-      </c>
-      <c r="T59" t="n">
-        <v>0</v>
-      </c>
-      <c r="U59" t="n">
-        <v>0</v>
-      </c>
-      <c r="V59" t="n">
-        <v>0</v>
-      </c>
-      <c r="W59" t="n">
-        <v>0.1152737752161383</v>
-      </c>
-      <c r="X59" t="n">
-        <v>0</v>
-      </c>
-      <c r="Y59" t="n">
-        <v>0</v>
-      </c>
-      <c r="Z59" t="n">
-        <v>3.150816522574448</v>
-      </c>
-      <c r="AA59" t="n">
-        <v>0</v>
-      </c>
-      <c r="AB59" t="n">
-        <v>1.325648414985591</v>
-      </c>
       <c r="AC59" t="n">
+        <v>0</v>
+      </c>
+      <c r="AD59" t="n">
         <v>0.03842459173871278</v>
       </c>
-      <c r="AD59" t="n">
-        <v>0</v>
-      </c>
       <c r="AE59" t="n">
+        <v>0</v>
+      </c>
+      <c r="AF59" t="n">
+        <v>0</v>
+      </c>
+      <c r="AG59" t="n">
         <v>1.364073006724304</v>
       </c>
-      <c r="AF59" t="n">
-        <v>0</v>
-      </c>
-      <c r="AG59" t="n">
-        <v>0</v>
-      </c>
       <c r="AH59" t="n">
-        <v>0.01921229586935639</v>
+        <v>0</v>
       </c>
       <c r="AI59" t="n">
         <v>0</v>
@@ -6940,100 +6940,100 @@
         <v>1</v>
       </c>
       <c r="D60" t="n">
+        <v>0.007006971937077392</v>
+      </c>
+      <c r="E60" t="n">
+        <v>3.051536278597204</v>
+      </c>
+      <c r="F60" t="n">
+        <v>0.003503485968538696</v>
+      </c>
+      <c r="G60" t="n">
+        <v>0</v>
+      </c>
+      <c r="H60" t="n">
+        <v>0.007006971937077392</v>
+      </c>
+      <c r="I60" t="n">
+        <v>0.02102091581123218</v>
+      </c>
+      <c r="J60" t="n">
+        <v>0.03503485968538696</v>
+      </c>
+      <c r="K60" t="n">
+        <v>0.9459412115054479</v>
+      </c>
+      <c r="L60" t="n">
+        <v>0.003503485968538696</v>
+      </c>
+      <c r="M60" t="n">
+        <v>0.04204183162246435</v>
+      </c>
+      <c r="N60" t="n">
+        <v>0</v>
+      </c>
+      <c r="O60" t="n">
+        <v>10.57352065304979</v>
+      </c>
+      <c r="P60" t="n">
+        <v>0.2032021861752444</v>
+      </c>
+      <c r="Q60" t="n">
+        <v>0</v>
+      </c>
+      <c r="R60" t="n">
+        <v>3.619101005500473</v>
+      </c>
+      <c r="S60" t="n">
+        <v>0.02102091581123218</v>
+      </c>
+      <c r="T60" t="n">
+        <v>0.003503485968538696</v>
+      </c>
+      <c r="U60" t="n">
+        <v>0.003503485968538696</v>
+      </c>
+      <c r="V60" t="n">
+        <v>0.01051045790561609</v>
+      </c>
+      <c r="W60" t="n">
+        <v>0</v>
+      </c>
+      <c r="X60" t="n">
+        <v>0</v>
+      </c>
+      <c r="Y60" t="n">
+        <v>0.1331324668044704</v>
+      </c>
+      <c r="Z60" t="n">
+        <v>0.1681673264898574</v>
+      </c>
+      <c r="AA60" t="n">
         <v>0.05255228952808044</v>
       </c>
-      <c r="E60" t="n">
-        <v>0</v>
-      </c>
-      <c r="F60" t="n">
-        <v>0.01051045790561609</v>
-      </c>
-      <c r="G60" t="n">
-        <v>0</v>
-      </c>
-      <c r="H60" t="n">
-        <v>0</v>
-      </c>
-      <c r="I60" t="n">
-        <v>0.007006971937077392</v>
-      </c>
-      <c r="J60" t="n">
+      <c r="AB60" t="n">
+        <v>0.07006971937077391</v>
+      </c>
+      <c r="AC60" t="n">
+        <v>0</v>
+      </c>
+      <c r="AD60" t="n">
+        <v>0.1086080650246996</v>
+      </c>
+      <c r="AE60" t="n">
+        <v>0</v>
+      </c>
+      <c r="AF60" t="n">
+        <v>0</v>
+      </c>
+      <c r="AG60" t="n">
+        <v>1.261254948673931</v>
+      </c>
+      <c r="AH60" t="n">
+        <v>0</v>
+      </c>
+      <c r="AI60" t="n">
         <v>0.04204183162246435</v>
-      </c>
-      <c r="K60" t="n">
-        <v>0</v>
-      </c>
-      <c r="L60" t="n">
-        <v>3.051536278597204</v>
-      </c>
-      <c r="M60" t="n">
-        <v>0.003503485968538696</v>
-      </c>
-      <c r="N60" t="n">
-        <v>0.02102091581123218</v>
-      </c>
-      <c r="O60" t="n">
-        <v>0.003503485968538696</v>
-      </c>
-      <c r="P60" t="n">
-        <v>0</v>
-      </c>
-      <c r="Q60" t="n">
-        <v>0.07006971937077391</v>
-      </c>
-      <c r="R60" t="n">
-        <v>0.1331324668044704</v>
-      </c>
-      <c r="S60" t="n">
-        <v>10.57352065304979</v>
-      </c>
-      <c r="T60" t="n">
-        <v>0.1681673264898574</v>
-      </c>
-      <c r="U60" t="n">
-        <v>0</v>
-      </c>
-      <c r="V60" t="n">
-        <v>0</v>
-      </c>
-      <c r="W60" t="n">
-        <v>0.2032021861752444</v>
-      </c>
-      <c r="X60" t="n">
-        <v>0</v>
-      </c>
-      <c r="Y60" t="n">
-        <v>0.04204183162246435</v>
-      </c>
-      <c r="Z60" t="n">
-        <v>3.619101005500473</v>
-      </c>
-      <c r="AA60" t="n">
-        <v>0.03503485968538696</v>
-      </c>
-      <c r="AB60" t="n">
-        <v>0.9459412115054479</v>
-      </c>
-      <c r="AC60" t="n">
-        <v>0.1086080650246996</v>
-      </c>
-      <c r="AD60" t="n">
-        <v>0.007006971937077392</v>
-      </c>
-      <c r="AE60" t="n">
-        <v>1.261254948673931</v>
-      </c>
-      <c r="AF60" t="n">
-        <v>0</v>
-      </c>
-      <c r="AG60" t="n">
-        <v>0.003503485968538696</v>
-      </c>
-      <c r="AH60" t="n">
-        <v>0.02102091581123218</v>
-      </c>
-      <c r="AI60" t="n">
-        <v>0.003503485968538696</v>
       </c>
     </row>
     <row r="61">
@@ -7049,100 +7049,100 @@
         <v>1</v>
       </c>
       <c r="D61" t="n">
-        <v>0</v>
+        <v>0.005338268265774583</v>
       </c>
       <c r="E61" t="n">
-        <v>0</v>
+        <v>0.03380903234990569</v>
       </c>
       <c r="F61" t="n">
         <v>0</v>
       </c>
       <c r="G61" t="n">
-        <v>0</v>
+        <v>0.1334567066443646</v>
       </c>
       <c r="H61" t="n">
+        <v>0.003558845510516389</v>
+      </c>
+      <c r="I61" t="n">
+        <v>0</v>
+      </c>
+      <c r="J61" t="n">
+        <v>0.003558845510516389</v>
+      </c>
+      <c r="K61" t="n">
+        <v>0</v>
+      </c>
+      <c r="L61" t="n">
+        <v>0</v>
+      </c>
+      <c r="M61" t="n">
+        <v>0</v>
+      </c>
+      <c r="N61" t="n">
         <v>0.09786825153920069</v>
       </c>
-      <c r="I61" t="n">
+      <c r="O61" t="n">
+        <v>0</v>
+      </c>
+      <c r="P61" t="n">
+        <v>0</v>
+      </c>
+      <c r="Q61" t="n">
+        <v>0</v>
+      </c>
+      <c r="R61" t="n">
         <v>0.005338268265774583</v>
       </c>
-      <c r="J61" t="n">
-        <v>0</v>
-      </c>
-      <c r="K61" t="n">
-        <v>0.1334567066443646</v>
-      </c>
-      <c r="L61" t="n">
-        <v>0.03380903234990569</v>
-      </c>
-      <c r="M61" t="n">
-        <v>0</v>
-      </c>
-      <c r="N61" t="n">
-        <v>0</v>
-      </c>
-      <c r="O61" t="n">
-        <v>0</v>
-      </c>
-      <c r="P61" t="n">
+      <c r="S61" t="n">
+        <v>0</v>
+      </c>
+      <c r="T61" t="n">
+        <v>0</v>
+      </c>
+      <c r="U61" t="n">
+        <v>0</v>
+      </c>
+      <c r="V61" t="n">
+        <v>0</v>
+      </c>
+      <c r="W61" t="n">
+        <v>0</v>
+      </c>
+      <c r="X61" t="n">
+        <v>0</v>
+      </c>
+      <c r="Y61" t="n">
+        <v>0.003558845510516389</v>
+      </c>
+      <c r="Z61" t="n">
+        <v>0</v>
+      </c>
+      <c r="AA61" t="n">
+        <v>0</v>
+      </c>
+      <c r="AB61" t="n">
+        <v>0</v>
+      </c>
+      <c r="AC61" t="n">
+        <v>0</v>
+      </c>
+      <c r="AD61" t="n">
+        <v>0</v>
+      </c>
+      <c r="AE61" t="n">
         <v>0.005338268265774583</v>
       </c>
-      <c r="Q61" t="n">
-        <v>0</v>
-      </c>
-      <c r="R61" t="n">
-        <v>0.003558845510516389</v>
-      </c>
-      <c r="S61" t="n">
-        <v>0</v>
-      </c>
-      <c r="T61" t="n">
-        <v>0</v>
-      </c>
-      <c r="U61" t="n">
-        <v>0</v>
-      </c>
-      <c r="V61" t="n">
-        <v>0</v>
-      </c>
-      <c r="W61" t="n">
-        <v>0</v>
-      </c>
-      <c r="X61" t="n">
-        <v>0</v>
-      </c>
-      <c r="Y61" t="n">
+      <c r="AF61" t="n">
+        <v>0</v>
+      </c>
+      <c r="AG61" t="n">
+        <v>0.05872095092352041</v>
+      </c>
+      <c r="AH61" t="n">
+        <v>0</v>
+      </c>
+      <c r="AI61" t="n">
         <v>0.5195914445353927</v>
-      </c>
-      <c r="Z61" t="n">
-        <v>0.005338268265774583</v>
-      </c>
-      <c r="AA61" t="n">
-        <v>0.003558845510516389</v>
-      </c>
-      <c r="AB61" t="n">
-        <v>0</v>
-      </c>
-      <c r="AC61" t="n">
-        <v>0</v>
-      </c>
-      <c r="AD61" t="n">
-        <v>0.003558845510516389</v>
-      </c>
-      <c r="AE61" t="n">
-        <v>0.05872095092352041</v>
-      </c>
-      <c r="AF61" t="n">
-        <v>0</v>
-      </c>
-      <c r="AG61" t="n">
-        <v>0</v>
-      </c>
-      <c r="AH61" t="n">
-        <v>0</v>
-      </c>
-      <c r="AI61" t="n">
-        <v>0</v>
       </c>
     </row>
     <row r="62">
@@ -7161,94 +7161,94 @@
         <v>0</v>
       </c>
       <c r="E62" t="n">
-        <v>0</v>
+        <v>0.2789140944589066</v>
       </c>
       <c r="F62" t="n">
+        <v>0.03718854592785422</v>
+      </c>
+      <c r="G62" t="n">
+        <v>0</v>
+      </c>
+      <c r="H62" t="n">
+        <v>0.07437709185570844</v>
+      </c>
+      <c r="I62" t="n">
+        <v>0.05578281889178133</v>
+      </c>
+      <c r="J62" t="n">
+        <v>0</v>
+      </c>
+      <c r="K62" t="n">
+        <v>0.2975083674228338</v>
+      </c>
+      <c r="L62" t="n">
+        <v>0</v>
+      </c>
+      <c r="M62" t="n">
+        <v>0.05578281889178133</v>
+      </c>
+      <c r="N62" t="n">
+        <v>0</v>
+      </c>
+      <c r="O62" t="n">
+        <v>0.7809594644849386</v>
+      </c>
+      <c r="P62" t="n">
+        <v>0</v>
+      </c>
+      <c r="Q62" t="n">
+        <v>0</v>
+      </c>
+      <c r="R62" t="n">
+        <v>0.3161026403867608</v>
+      </c>
+      <c r="S62" t="n">
+        <v>0</v>
+      </c>
+      <c r="T62" t="n">
+        <v>0</v>
+      </c>
+      <c r="U62" t="n">
+        <v>0</v>
+      </c>
+      <c r="V62" t="n">
         <v>0.01859427296392711</v>
       </c>
-      <c r="G62" t="n">
-        <v>0</v>
-      </c>
-      <c r="H62" t="n">
-        <v>0</v>
-      </c>
-      <c r="I62" t="n">
-        <v>0</v>
-      </c>
-      <c r="J62" t="n">
+      <c r="W62" t="n">
+        <v>0</v>
+      </c>
+      <c r="X62" t="n">
+        <v>0</v>
+      </c>
+      <c r="Y62" t="n">
+        <v>0.03718854592785422</v>
+      </c>
+      <c r="Z62" t="n">
         <v>0.05578281889178133</v>
       </c>
-      <c r="K62" t="n">
-        <v>0</v>
-      </c>
-      <c r="L62" t="n">
-        <v>0.2789140944589066</v>
-      </c>
-      <c r="M62" t="n">
-        <v>0.03718854592785422</v>
-      </c>
-      <c r="N62" t="n">
-        <v>0</v>
-      </c>
-      <c r="O62" t="n">
-        <v>0</v>
-      </c>
-      <c r="P62" t="n">
-        <v>0</v>
-      </c>
-      <c r="Q62" t="n">
+      <c r="AA62" t="n">
+        <v>0</v>
+      </c>
+      <c r="AB62" t="n">
         <v>0.1115656377835627</v>
       </c>
-      <c r="R62" t="n">
-        <v>0.03718854592785422</v>
-      </c>
-      <c r="S62" t="n">
-        <v>0.7809594644849386</v>
-      </c>
-      <c r="T62" t="n">
-        <v>0.05578281889178133</v>
-      </c>
-      <c r="U62" t="n">
-        <v>0</v>
-      </c>
-      <c r="V62" t="n">
-        <v>0</v>
-      </c>
-      <c r="W62" t="n">
-        <v>0</v>
-      </c>
-      <c r="X62" t="n">
-        <v>0</v>
-      </c>
-      <c r="Y62" t="n">
-        <v>0</v>
-      </c>
-      <c r="Z62" t="n">
-        <v>0.3161026403867608</v>
-      </c>
-      <c r="AA62" t="n">
-        <v>0</v>
-      </c>
-      <c r="AB62" t="n">
-        <v>0.2975083674228338</v>
-      </c>
       <c r="AC62" t="n">
         <v>0</v>
       </c>
       <c r="AD62" t="n">
-        <v>0.07437709185570844</v>
+        <v>0</v>
       </c>
       <c r="AE62" t="n">
+        <v>0</v>
+      </c>
+      <c r="AF62" t="n">
+        <v>0</v>
+      </c>
+      <c r="AG62" t="n">
         <v>0.3904797322424693</v>
       </c>
-      <c r="AF62" t="n">
-        <v>0</v>
-      </c>
-      <c r="AG62" t="n">
-        <v>0</v>
-      </c>
       <c r="AH62" t="n">
-        <v>0.05578281889178133</v>
+        <v>0</v>
       </c>
       <c r="AI62" t="n">
         <v>0</v>
@@ -7267,100 +7267,100 @@
         <v>2</v>
       </c>
       <c r="D63" t="n">
+        <v>0</v>
+      </c>
+      <c r="E63" t="n">
+        <v>0.3576101177496729</v>
+      </c>
+      <c r="F63" t="n">
         <v>0.00436109899694723</v>
       </c>
-      <c r="E63" t="n">
-        <v>0</v>
-      </c>
-      <c r="F63" t="n">
-        <v>0</v>
-      </c>
       <c r="G63" t="n">
         <v>0</v>
       </c>
       <c r="H63" t="n">
-        <v>0</v>
+        <v>0.008722197993894461</v>
       </c>
       <c r="I63" t="n">
-        <v>0</v>
+        <v>0.02616659398168339</v>
       </c>
       <c r="J63" t="n">
+        <v>0.00436109899694723</v>
+      </c>
+      <c r="K63" t="n">
+        <v>1.142607937200175</v>
+      </c>
+      <c r="L63" t="n">
+        <v>0</v>
+      </c>
+      <c r="M63" t="n">
         <v>0.01308329699084169</v>
       </c>
-      <c r="K63" t="n">
-        <v>0</v>
-      </c>
-      <c r="L63" t="n">
-        <v>0.3576101177496729</v>
-      </c>
-      <c r="M63" t="n">
-        <v>0.00436109899694723</v>
-      </c>
       <c r="N63" t="n">
         <v>0</v>
       </c>
       <c r="O63" t="n">
-        <v>0</v>
+        <v>1.626689925861317</v>
       </c>
       <c r="P63" t="n">
-        <v>0</v>
+        <v>0.02616659398168339</v>
       </c>
       <c r="Q63" t="n">
-        <v>0.01308329699084169</v>
+        <v>0</v>
       </c>
       <c r="R63" t="n">
+        <v>0.4491931966855648</v>
+      </c>
+      <c r="S63" t="n">
+        <v>0</v>
+      </c>
+      <c r="T63" t="n">
+        <v>0</v>
+      </c>
+      <c r="U63" t="n">
+        <v>0</v>
+      </c>
+      <c r="V63" t="n">
+        <v>0</v>
+      </c>
+      <c r="W63" t="n">
+        <v>0</v>
+      </c>
+      <c r="X63" t="n">
+        <v>0</v>
+      </c>
+      <c r="Y63" t="n">
         <v>0.07849978194505015</v>
       </c>
-      <c r="S63" t="n">
-        <v>1.626689925861317</v>
-      </c>
-      <c r="T63" t="n">
+      <c r="Z63" t="n">
         <v>0.06541648495420846</v>
-      </c>
-      <c r="U63" t="n">
-        <v>0</v>
-      </c>
-      <c r="V63" t="n">
-        <v>0</v>
-      </c>
-      <c r="W63" t="n">
-        <v>0.02616659398168339</v>
-      </c>
-      <c r="X63" t="n">
-        <v>0</v>
-      </c>
-      <c r="Y63" t="n">
-        <v>0.00436109899694723</v>
-      </c>
-      <c r="Z63" t="n">
-        <v>0.4491931966855648</v>
       </c>
       <c r="AA63" t="n">
         <v>0.00436109899694723</v>
       </c>
       <c r="AB63" t="n">
-        <v>1.142607937200175</v>
+        <v>0.01308329699084169</v>
       </c>
       <c r="AC63" t="n">
+        <v>0</v>
+      </c>
+      <c r="AD63" t="n">
         <v>0.04797208896641954</v>
       </c>
-      <c r="AD63" t="n">
-        <v>0.008722197993894461</v>
-      </c>
       <c r="AE63" t="n">
+        <v>0</v>
+      </c>
+      <c r="AF63" t="n">
+        <v>0</v>
+      </c>
+      <c r="AG63" t="n">
         <v>0.5276929786306149</v>
       </c>
-      <c r="AF63" t="n">
-        <v>0</v>
-      </c>
-      <c r="AG63" t="n">
-        <v>0</v>
-      </c>
       <c r="AH63" t="n">
-        <v>0.02616659398168339</v>
+        <v>0</v>
       </c>
       <c r="AI63" t="n">
-        <v>0</v>
+        <v>0.00436109899694723</v>
       </c>
     </row>
     <row r="64">
@@ -7376,10 +7376,10 @@
         <v>2</v>
       </c>
       <c r="D64" t="n">
-        <v>0.02311604253351826</v>
+        <v>0.04623208506703652</v>
       </c>
       <c r="E64" t="n">
-        <v>0</v>
+        <v>0.4160887656033287</v>
       </c>
       <c r="F64" t="n">
         <v>0</v>
@@ -7397,76 +7397,76 @@
         <v>0.02311604253351826</v>
       </c>
       <c r="K64" t="n">
-        <v>0</v>
+        <v>1.109570041608877</v>
       </c>
       <c r="L64" t="n">
-        <v>0.4160887656033287</v>
+        <v>0</v>
       </c>
       <c r="M64" t="n">
-        <v>0</v>
+        <v>0.02311604253351826</v>
       </c>
       <c r="N64" t="n">
         <v>0</v>
       </c>
       <c r="O64" t="n">
-        <v>0</v>
+        <v>1.363846509477578</v>
       </c>
       <c r="P64" t="n">
         <v>0</v>
       </c>
       <c r="Q64" t="n">
-        <v>0.02311604253351826</v>
+        <v>0</v>
       </c>
       <c r="R64" t="n">
+        <v>0.3929727230698105</v>
+      </c>
+      <c r="S64" t="n">
+        <v>0</v>
+      </c>
+      <c r="T64" t="n">
+        <v>0</v>
+      </c>
+      <c r="U64" t="n">
+        <v>0</v>
+      </c>
+      <c r="V64" t="n">
+        <v>0</v>
+      </c>
+      <c r="W64" t="n">
+        <v>0</v>
+      </c>
+      <c r="X64" t="n">
+        <v>0</v>
+      </c>
+      <c r="Y64" t="n">
         <v>0.1386962552011096</v>
       </c>
-      <c r="S64" t="n">
-        <v>1.363846509477578</v>
-      </c>
-      <c r="T64" t="n">
+      <c r="Z64" t="n">
         <v>0.1618122977346279</v>
-      </c>
-      <c r="U64" t="n">
-        <v>0</v>
-      </c>
-      <c r="V64" t="n">
-        <v>0</v>
-      </c>
-      <c r="W64" t="n">
-        <v>0</v>
-      </c>
-      <c r="X64" t="n">
-        <v>0</v>
-      </c>
-      <c r="Y64" t="n">
-        <v>0</v>
-      </c>
-      <c r="Z64" t="n">
-        <v>0.3929727230698105</v>
       </c>
       <c r="AA64" t="n">
         <v>0.02311604253351826</v>
       </c>
       <c r="AB64" t="n">
-        <v>1.109570041608877</v>
+        <v>0.02311604253351826</v>
       </c>
       <c r="AC64" t="n">
+        <v>0</v>
+      </c>
+      <c r="AD64" t="n">
         <v>0.02311604253351826</v>
       </c>
-      <c r="AD64" t="n">
-        <v>0</v>
-      </c>
       <c r="AE64" t="n">
+        <v>0</v>
+      </c>
+      <c r="AF64" t="n">
+        <v>0</v>
+      </c>
+      <c r="AG64" t="n">
         <v>0.6472491909385114</v>
       </c>
-      <c r="AF64" t="n">
-        <v>0</v>
-      </c>
-      <c r="AG64" t="n">
-        <v>0</v>
-      </c>
       <c r="AH64" t="n">
-        <v>0.04623208506703652</v>
+        <v>0</v>
       </c>
       <c r="AI64" t="n">
         <v>0</v>
@@ -7506,7 +7506,7 @@
         <v>0</v>
       </c>
       <c r="K65" t="n">
-        <v>0</v>
+        <v>7.76</v>
       </c>
       <c r="L65" t="n">
         <v>0</v>
@@ -7557,7 +7557,7 @@
         <v>0</v>
       </c>
       <c r="AB65" t="n">
-        <v>7.76</v>
+        <v>0</v>
       </c>
       <c r="AC65" t="n">
         <v>0</v>
@@ -7594,7 +7594,7 @@
         <v>2</v>
       </c>
       <c r="D66" t="n">
-        <v>0</v>
+        <v>0.326619488296135</v>
       </c>
       <c r="E66" t="n">
         <v>0</v>
@@ -7603,91 +7603,91 @@
         <v>0</v>
       </c>
       <c r="G66" t="n">
-        <v>0</v>
+        <v>0.5443658138268916</v>
       </c>
       <c r="H66" t="n">
+        <v>0.05443658138268917</v>
+      </c>
+      <c r="I66" t="n">
+        <v>0</v>
+      </c>
+      <c r="J66" t="n">
+        <v>0</v>
+      </c>
+      <c r="K66" t="n">
+        <v>0</v>
+      </c>
+      <c r="L66" t="n">
+        <v>0</v>
+      </c>
+      <c r="M66" t="n">
+        <v>0</v>
+      </c>
+      <c r="N66" t="n">
         <v>0.1633097441480675</v>
       </c>
-      <c r="I66" t="n">
-        <v>0.326619488296135</v>
-      </c>
-      <c r="J66" t="n">
-        <v>0</v>
-      </c>
-      <c r="K66" t="n">
-        <v>0.5443658138268916</v>
-      </c>
-      <c r="L66" t="n">
-        <v>0</v>
-      </c>
-      <c r="M66" t="n">
-        <v>0</v>
-      </c>
-      <c r="N66" t="n">
-        <v>0</v>
-      </c>
       <c r="O66" t="n">
-        <v>0</v>
+        <v>0.05443658138268917</v>
       </c>
       <c r="P66" t="n">
+        <v>0</v>
+      </c>
+      <c r="Q66" t="n">
+        <v>0</v>
+      </c>
+      <c r="R66" t="n">
+        <v>0.1633097441480675</v>
+      </c>
+      <c r="S66" t="n">
+        <v>0</v>
+      </c>
+      <c r="T66" t="n">
+        <v>0</v>
+      </c>
+      <c r="U66" t="n">
+        <v>0</v>
+      </c>
+      <c r="V66" t="n">
+        <v>0</v>
+      </c>
+      <c r="W66" t="n">
+        <v>0</v>
+      </c>
+      <c r="X66" t="n">
+        <v>0</v>
+      </c>
+      <c r="Y66" t="n">
+        <v>0</v>
+      </c>
+      <c r="Z66" t="n">
+        <v>0</v>
+      </c>
+      <c r="AA66" t="n">
+        <v>0</v>
+      </c>
+      <c r="AB66" t="n">
+        <v>0</v>
+      </c>
+      <c r="AC66" t="n">
+        <v>0</v>
+      </c>
+      <c r="AD66" t="n">
+        <v>0</v>
+      </c>
+      <c r="AE66" t="n">
         <v>0.05443658138268917</v>
       </c>
-      <c r="Q66" t="n">
-        <v>0</v>
-      </c>
-      <c r="R66" t="n">
-        <v>0</v>
-      </c>
-      <c r="S66" t="n">
-        <v>0.05443658138268917</v>
-      </c>
-      <c r="T66" t="n">
-        <v>0</v>
-      </c>
-      <c r="U66" t="n">
-        <v>0</v>
-      </c>
-      <c r="V66" t="n">
-        <v>0</v>
-      </c>
-      <c r="W66" t="n">
-        <v>0</v>
-      </c>
-      <c r="X66" t="n">
-        <v>0</v>
-      </c>
-      <c r="Y66" t="n">
+      <c r="AF66" t="n">
+        <v>0</v>
+      </c>
+      <c r="AG66" t="n">
+        <v>0.1088731627653783</v>
+      </c>
+      <c r="AH66" t="n">
+        <v>0</v>
+      </c>
+      <c r="AI66" t="n">
         <v>0.2721829069134458</v>
-      </c>
-      <c r="Z66" t="n">
-        <v>0.1633097441480675</v>
-      </c>
-      <c r="AA66" t="n">
-        <v>0</v>
-      </c>
-      <c r="AB66" t="n">
-        <v>0</v>
-      </c>
-      <c r="AC66" t="n">
-        <v>0</v>
-      </c>
-      <c r="AD66" t="n">
-        <v>0.05443658138268917</v>
-      </c>
-      <c r="AE66" t="n">
-        <v>0.1088731627653783</v>
-      </c>
-      <c r="AF66" t="n">
-        <v>0</v>
-      </c>
-      <c r="AG66" t="n">
-        <v>0</v>
-      </c>
-      <c r="AH66" t="n">
-        <v>0</v>
-      </c>
-      <c r="AI66" t="n">
-        <v>0</v>
       </c>
     </row>
     <row r="67">
@@ -7724,7 +7724,7 @@
         <v>0</v>
       </c>
       <c r="K67" t="n">
-        <v>0</v>
+        <v>2.18</v>
       </c>
       <c r="L67" t="n">
         <v>0</v>
@@ -7775,7 +7775,7 @@
         <v>0</v>
       </c>
       <c r="AB67" t="n">
-        <v>2.18</v>
+        <v>0</v>
       </c>
       <c r="AC67" t="n">
         <v>0</v>
@@ -7824,7 +7824,7 @@
         <v>0</v>
       </c>
       <c r="H68" t="n">
-        <v>0</v>
+        <v>0.05374242720343951</v>
       </c>
       <c r="I68" t="n">
         <v>0</v>
@@ -7833,7 +7833,7 @@
         <v>0</v>
       </c>
       <c r="K68" t="n">
-        <v>0</v>
+        <v>0.0293140512018761</v>
       </c>
       <c r="L68" t="n">
         <v>0</v>
@@ -7884,19 +7884,19 @@
         <v>0</v>
       </c>
       <c r="AB68" t="n">
-        <v>0.0293140512018761</v>
+        <v>0</v>
       </c>
       <c r="AC68" t="n">
-        <v>0</v>
+        <v>0.01465702560093805</v>
       </c>
       <c r="AD68" t="n">
-        <v>0.05374242720343951</v>
+        <v>0</v>
       </c>
       <c r="AE68" t="n">
         <v>0</v>
       </c>
       <c r="AF68" t="n">
-        <v>0.01465702560093805</v>
+        <v>0</v>
       </c>
       <c r="AG68" t="n">
         <v>0</v>
@@ -7933,7 +7933,7 @@
         <v>0</v>
       </c>
       <c r="H69" t="n">
-        <v>0</v>
+        <v>0.6298629121896998</v>
       </c>
       <c r="I69" t="n">
         <v>0</v>
@@ -7951,61 +7951,61 @@
         <v>0</v>
       </c>
       <c r="N69" t="n">
+        <v>0</v>
+      </c>
+      <c r="O69" t="n">
+        <v>0</v>
+      </c>
+      <c r="P69" t="n">
+        <v>0</v>
+      </c>
+      <c r="Q69" t="n">
+        <v>0</v>
+      </c>
+      <c r="R69" t="n">
+        <v>0</v>
+      </c>
+      <c r="S69" t="n">
         <v>0.005292965648652941</v>
       </c>
-      <c r="O69" t="n">
-        <v>0</v>
-      </c>
-      <c r="P69" t="n">
+      <c r="T69" t="n">
+        <v>0</v>
+      </c>
+      <c r="U69" t="n">
+        <v>0</v>
+      </c>
+      <c r="V69" t="n">
+        <v>0</v>
+      </c>
+      <c r="W69" t="n">
+        <v>0</v>
+      </c>
+      <c r="X69" t="n">
+        <v>0</v>
+      </c>
+      <c r="Y69" t="n">
+        <v>0</v>
+      </c>
+      <c r="Z69" t="n">
+        <v>0</v>
+      </c>
+      <c r="AA69" t="n">
+        <v>0</v>
+      </c>
+      <c r="AB69" t="n">
+        <v>0</v>
+      </c>
+      <c r="AC69" t="n">
+        <v>0.01058593129730588</v>
+      </c>
+      <c r="AD69" t="n">
+        <v>0</v>
+      </c>
+      <c r="AE69" t="n">
         <v>0.02117186259461176</v>
       </c>
-      <c r="Q69" t="n">
-        <v>0</v>
-      </c>
-      <c r="R69" t="n">
-        <v>0</v>
-      </c>
-      <c r="S69" t="n">
-        <v>0</v>
-      </c>
-      <c r="T69" t="n">
-        <v>0</v>
-      </c>
-      <c r="U69" t="n">
-        <v>0</v>
-      </c>
-      <c r="V69" t="n">
-        <v>0</v>
-      </c>
-      <c r="W69" t="n">
-        <v>0</v>
-      </c>
-      <c r="X69" t="n">
-        <v>0</v>
-      </c>
-      <c r="Y69" t="n">
-        <v>0</v>
-      </c>
-      <c r="Z69" t="n">
-        <v>0</v>
-      </c>
-      <c r="AA69" t="n">
-        <v>0</v>
-      </c>
-      <c r="AB69" t="n">
-        <v>0</v>
-      </c>
-      <c r="AC69" t="n">
-        <v>0</v>
-      </c>
-      <c r="AD69" t="n">
-        <v>0.6298629121896998</v>
-      </c>
-      <c r="AE69" t="n">
-        <v>0</v>
-      </c>
       <c r="AF69" t="n">
-        <v>0.01058593129730588</v>
+        <v>0</v>
       </c>
       <c r="AG69" t="n">
         <v>0</v>
@@ -8051,7 +8051,7 @@
         <v>0</v>
       </c>
       <c r="K70" t="n">
-        <v>0</v>
+        <v>5.23</v>
       </c>
       <c r="L70" t="n">
         <v>0</v>
@@ -8102,7 +8102,7 @@
         <v>0</v>
       </c>
       <c r="AB70" t="n">
-        <v>5.23</v>
+        <v>0</v>
       </c>
       <c r="AC70" t="n">
         <v>0</v>
@@ -8111,13 +8111,13 @@
         <v>0</v>
       </c>
       <c r="AE70" t="n">
+        <v>0</v>
+      </c>
+      <c r="AF70" t="n">
+        <v>0</v>
+      </c>
+      <c r="AG70" t="n">
         <v>5.11</v>
-      </c>
-      <c r="AF70" t="n">
-        <v>0</v>
-      </c>
-      <c r="AG70" t="n">
-        <v>0</v>
       </c>
       <c r="AH70" t="n">
         <v>0</v>
@@ -8214,19 +8214,19 @@
         <v>0</v>
       </c>
       <c r="AC71" t="n">
+        <v>0</v>
+      </c>
+      <c r="AD71" t="n">
         <v>2.3</v>
       </c>
-      <c r="AD71" t="n">
-        <v>0</v>
-      </c>
       <c r="AE71" t="n">
+        <v>0</v>
+      </c>
+      <c r="AF71" t="n">
+        <v>0</v>
+      </c>
+      <c r="AG71" t="n">
         <v>1.25</v>
-      </c>
-      <c r="AF71" t="n">
-        <v>0</v>
-      </c>
-      <c r="AG71" t="n">
-        <v>0</v>
       </c>
       <c r="AH71" t="n">
         <v>0</v>
